--- a/on_trucks/Processed_Stand_Alone/7_225-80R17.xlsx
+++ b/on_trucks/Processed_Stand_Alone/7_225-80R17.xlsx
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D2">
         <v>103</v>
       </c>
       <c r="E2">
-        <v>0.01576959094492981</v>
+        <v>0.009152825843813151</v>
       </c>
       <c r="F2">
         <v>0.520529332919452</v>
       </c>
       <c r="G2">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H2">
         <v>7</v>
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D3">
         <v>95</v>
       </c>
       <c r="E3">
-        <v>0.00536551292389677</v>
+        <v>0.005216890707316558</v>
       </c>
       <c r="F3">
         <v>0.5066668575499959</v>
       </c>
       <c r="G3">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H3">
         <v>7</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D5">
         <v>106</v>
       </c>
       <c r="E5">
-        <v>0.04537665023907403</v>
+        <v>0.00489636509319008</v>
       </c>
       <c r="F5">
         <v>0.5105096781932972</v>
       </c>
       <c r="G5">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H5">
         <v>7</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D6">
         <v>97</v>
       </c>
       <c r="E6">
-        <v>0.01062980397067697</v>
+        <v>0.002899974482004039</v>
       </c>
       <c r="F6">
         <v>0.5017536947930415</v>
       </c>
       <c r="G6">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H6">
         <v>7</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D2">
         <v>117</v>
       </c>
       <c r="E2">
-        <v>0.01576959094492981</v>
+        <v>0.009152825843813151</v>
       </c>
       <c r="F2">
         <v>0.7109657819362816</v>
       </c>
       <c r="G2">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H2">
         <v>7</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D3">
         <v>108</v>
       </c>
       <c r="E3">
-        <v>0.00536551292389677</v>
+        <v>0.005216890707316558</v>
       </c>
       <c r="F3">
         <v>0.7043374123318111</v>
       </c>
       <c r="G3">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H3">
         <v>7</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D5">
         <v>117</v>
       </c>
       <c r="E5">
-        <v>0.04537665023907403</v>
+        <v>0.00489636509319008</v>
       </c>
       <c r="F5">
         <v>0.7133541275789403</v>
       </c>
       <c r="G5">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H5">
         <v>7</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D6">
         <v>108</v>
       </c>
       <c r="E6">
-        <v>0.01062980397067697</v>
+        <v>0.002899974482004039</v>
       </c>
       <c r="F6">
         <v>0.7113806778127908</v>
       </c>
       <c r="G6">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H6">
         <v>7</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D2">
         <v>131</v>
       </c>
       <c r="E2">
-        <v>0.01576959094492981</v>
+        <v>0.009152825843813151</v>
       </c>
       <c r="F2">
         <v>0.8027473577334363</v>
       </c>
       <c r="G2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H2">
         <v>7</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D3">
         <v>125</v>
       </c>
       <c r="E3">
-        <v>0.00536551292389677</v>
+        <v>0.005216890707316558</v>
       </c>
       <c r="F3">
         <v>0.8015444210466276</v>
       </c>
       <c r="G3">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H3">
         <v>7</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D5">
         <v>134</v>
       </c>
       <c r="E5">
-        <v>0.04537665023907403</v>
+        <v>0.00489636509319008</v>
       </c>
       <c r="F5">
         <v>0.800757927274752</v>
       </c>
       <c r="G5">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H5">
         <v>7</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D6">
         <v>130</v>
       </c>
       <c r="E6">
-        <v>0.01062980397067697</v>
+        <v>0.002899974482004039</v>
       </c>
       <c r="F6">
         <v>0.8039027467610839</v>
       </c>
       <c r="G6">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H6">
         <v>7</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D2">
         <v>168</v>
       </c>
       <c r="E2">
-        <v>0.01576959094492981</v>
+        <v>0.009152825843813151</v>
       </c>
       <c r="F2">
         <v>0.900163319817095</v>
       </c>
       <c r="G2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H2">
         <v>7</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D3">
         <v>163</v>
       </c>
       <c r="E3">
-        <v>0.00536551292389677</v>
+        <v>0.005216890707316558</v>
       </c>
       <c r="F3">
         <v>0.9007877001523994</v>
       </c>
       <c r="G3">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H3">
         <v>7</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D5">
         <v>169</v>
       </c>
       <c r="E5">
-        <v>0.04537665023907403</v>
+        <v>0.00489636509319008</v>
       </c>
       <c r="F5">
         <v>0.9008710104564585</v>
       </c>
       <c r="G5">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H5">
         <v>7</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D6">
         <v>166</v>
       </c>
       <c r="E6">
-        <v>0.01062980397067697</v>
+        <v>0.002899974482004039</v>
       </c>
       <c r="F6">
         <v>0.9019064614300422</v>
       </c>
       <c r="G6">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H6">
         <v>7</v>

--- a/on_trucks/Processed_Stand_Alone/7_225-80R17.xlsx
+++ b/on_trucks/Processed_Stand_Alone/7_225-80R17.xlsx
@@ -1994,604 +1994,604 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>9.726459332804212E-05</v>
+        <v>7.743130178520624E-05</v>
       </c>
       <c r="C2">
-        <v>0.0001957116865749695</v>
+        <v>0.000176264017487832</v>
       </c>
       <c r="D2">
-        <v>0.0002240083446339332</v>
+        <v>0.0002046715150485917</v>
       </c>
       <c r="E2">
-        <v>0.0003157712083393718</v>
+        <v>0.0002967938187301325</v>
       </c>
       <c r="F2">
-        <v>0.0003754760042438641</v>
+        <v>0.0003567324814686198</v>
       </c>
       <c r="G2">
-        <v>0.0004463032493854014</v>
+        <v>0.0004278371606643381</v>
       </c>
       <c r="H2">
-        <v>0.0004845762967600251</v>
+        <v>0.0004662601255837962</v>
       </c>
       <c r="I2">
-        <v>0.000428555270602841</v>
+        <v>0.0004100196621129751</v>
       </c>
       <c r="J2">
-        <v>0.0004371154100156501</v>
+        <v>0.0004186133320432694</v>
       </c>
       <c r="K2">
-        <v>0.0004008045125064308</v>
+        <v>0.0003821602028337094</v>
       </c>
       <c r="L2">
-        <v>0.0002819962806561952</v>
+        <v>0.0002628865928741541</v>
       </c>
       <c r="M2">
-        <v>7.093318913427001E-05</v>
+        <v>5.099675609266259E-05</v>
       </c>
       <c r="N2">
-        <v>2.107268855449876E-05</v>
+        <v>9.409493028065386E-07</v>
       </c>
       <c r="O2">
-        <v>8.567045012335347E-07</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>8.744722400147398E-06</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>2.013541061879224E-05</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>9.92964231886668E-05</v>
+        <v>7.947109043054029E-05</v>
       </c>
       <c r="S2">
-        <v>0.0001640033087500361</v>
+        <v>0.0001444314362748677</v>
       </c>
       <c r="T2">
-        <v>0.0002055346459011542</v>
+        <v>0.0001861254538636955</v>
       </c>
       <c r="U2">
-        <v>0.0002937633098490246</v>
+        <v>0.0002746997141408473</v>
       </c>
       <c r="V2">
-        <v>0.0002452623231759962</v>
+        <v>0.0002260087465453986</v>
       </c>
       <c r="W2">
-        <v>0.0002412515434511195</v>
+        <v>0.0002219822563848375</v>
       </c>
       <c r="X2">
-        <v>0.0003423414965167574</v>
+        <v>0.0003234681841274506</v>
       </c>
       <c r="Y2">
-        <v>0.0003601727952936024</v>
+        <v>0.0003413693290419096</v>
       </c>
       <c r="Z2">
-        <v>0.0002294174842628881</v>
+        <v>0.0002101018425627156</v>
       </c>
       <c r="AA2">
-        <v>0.0002081234857235703</v>
+        <v>0.0001887244343082143</v>
       </c>
       <c r="AB2">
-        <v>0.0001750512079921949</v>
+        <v>0.0001555226107209513</v>
       </c>
       <c r="AC2">
-        <v>0.0001044876228325715</v>
+        <v>8.468262427719979E-05</v>
       </c>
       <c r="AD2">
-        <v>9.599306341526394E-05</v>
+        <v>7.615479122270761E-05</v>
       </c>
       <c r="AE2">
-        <v>3.872672734350307E-05</v>
+        <v>1.866413989270491E-05</v>
       </c>
       <c r="AF2">
-        <v>2.013541061879224E-05</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>1.609216189614275E-05</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>2.111636455150276E-06</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>4.522466489777083E-05</v>
+        <v>2.518753021103109E-05</v>
       </c>
       <c r="AJ2">
-        <v>6.396593561219543E-05</v>
+        <v>4.400221147113507E-05</v>
       </c>
       <c r="AK2">
-        <v>6.314588566844754E-05</v>
+        <v>4.317894934851349E-05</v>
       </c>
       <c r="AL2">
-        <v>0.0002126104554157823</v>
+        <v>0.0001932289796973239</v>
       </c>
       <c r="AM2">
-        <v>0.000204073616001375</v>
+        <v>0.0001846587010327537</v>
       </c>
       <c r="AN2">
-        <v>0.0001896435769912173</v>
+        <v>0.0001701721387988482</v>
       </c>
       <c r="AO2">
-        <v>0.0002186522850013372</v>
+        <v>0.0001992944754479716</v>
       </c>
       <c r="AP2">
-        <v>0.0001268732612970072</v>
+        <v>0.0001071559484679716</v>
       </c>
       <c r="AQ2">
-        <v>0.0001183322518828859</v>
+        <v>9.858148346957869E-05</v>
       </c>
       <c r="AR2">
-        <v>0.0001507882196565378</v>
+        <v>0.0001311645829805135</v>
       </c>
       <c r="AS2">
-        <v>8.738436900578557E-05</v>
+        <v>6.751237610326157E-05</v>
       </c>
       <c r="AT2">
-        <v>4.928970161892574E-05</v>
+        <v>2.926848989538598E-05</v>
       </c>
       <c r="AU2">
-        <v>2.87508300278093E-05</v>
+        <v>8.649166461162557E-06</v>
       </c>
       <c r="AV2">
-        <v>1.07517327624746E-05</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>8.000795451177779E-06</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>3.559220355851873E-05</v>
+        <v>1.551733801276068E-05</v>
       </c>
       <c r="AY2">
-        <v>2.806142907509941E-05</v>
+        <v>7.957065088566452E-06</v>
       </c>
       <c r="AZ2">
-        <v>7.17956350751097E-05</v>
+        <v>5.186258027973226E-05</v>
       </c>
       <c r="BA2">
-        <v>9.675041336331278E-05</v>
+        <v>7.69151077504406E-05</v>
       </c>
       <c r="BB2">
-        <v>0.0001262859213372964</v>
+        <v>0.0001065663078666661</v>
       </c>
       <c r="BC2">
-        <v>0.0001819221375208768</v>
+        <v>0.0001624204540429247</v>
       </c>
       <c r="BD2">
-        <v>0.0001740319780621099</v>
+        <v>0.0001544993884134827</v>
       </c>
       <c r="BE2">
-        <v>0.000107932832596244</v>
+        <v>8.814132910919428E-05</v>
       </c>
       <c r="BF2">
-        <v>0.0001018754930117531</v>
+        <v>8.20602626061267E-05</v>
       </c>
       <c r="BG2">
-        <v>9.852914824129877E-05</v>
+        <v>7.870081002674241E-05</v>
       </c>
       <c r="BH2">
-        <v>0.006518235952875366</v>
+        <v>0.006523553944747543</v>
       </c>
       <c r="BI2">
-        <v>0.01933039067401335</v>
+        <v>0.01938589455155673</v>
       </c>
       <c r="BJ2">
-        <v>0.04712994076707661</v>
+        <v>0.04729433694829938</v>
       </c>
       <c r="BK2">
-        <v>0.002323669840605643</v>
+        <v>0.002312557495822317</v>
       </c>
       <c r="BL2">
-        <v>0.0165592368641033</v>
+        <v>0.01660388598604089</v>
       </c>
       <c r="BM2">
-        <v>0.0287064280308551</v>
+        <v>0.02879865834115558</v>
       </c>
       <c r="BN2">
-        <v>0.01079372525959408</v>
+        <v>0.01081579056854178</v>
       </c>
       <c r="BO2">
-        <v>0.001441682101106436</v>
+        <v>0.001427114963837278</v>
       </c>
       <c r="BP2">
-        <v>0.03225643778733878</v>
+        <v>0.0323625736730595</v>
       </c>
       <c r="BQ2">
-        <v>0.05435495827146961</v>
+        <v>0.05454765522725685</v>
       </c>
       <c r="BR2">
-        <v>5.409559128926113E-05</v>
+        <v>3.409320448899099E-05</v>
       </c>
       <c r="BS2">
-        <v>0.01763179779052996</v>
+        <v>0.01768064819017615</v>
       </c>
       <c r="BT2">
-        <v>0.000377956604073705</v>
+        <v>0.0003592227979388046</v>
       </c>
       <c r="BU2">
-        <v>0.01063924227019099</v>
+        <v>0.01066070246112278</v>
       </c>
       <c r="BV2">
-        <v>0.003574832754780926</v>
+        <v>0.003568621281110502</v>
       </c>
       <c r="BW2">
-        <v>0.006377756562511685</v>
+        <v>0.006382524289203851</v>
       </c>
       <c r="BX2">
-        <v>0.007465924487867764</v>
+        <v>0.007474954625706347</v>
       </c>
       <c r="BY2">
-        <v>0.001313837909876031</v>
+        <v>0.001298770000168164</v>
       </c>
       <c r="BZ2">
-        <v>0.01029981879347407</v>
+        <v>0.0103199494447486</v>
       </c>
       <c r="CA2">
-        <v>0.01194773418043374</v>
+        <v>0.01197431980317918</v>
       </c>
       <c r="CB2">
-        <v>0.00272518451306336</v>
+        <v>0.002715644922425286</v>
       </c>
       <c r="CC2">
-        <v>0.005519501021384544</v>
+        <v>0.005520906915863381</v>
       </c>
       <c r="CD2">
-        <v>0.001064964926947712</v>
+        <v>0.001048922168641795</v>
       </c>
       <c r="CE2">
-        <v>0.005048602653686268</v>
+        <v>0.005048164014426757</v>
       </c>
       <c r="CF2">
-        <v>0.007171210508083952</v>
+        <v>0.007179086235722451</v>
       </c>
       <c r="CG2">
-        <v>0.006752843936782207</v>
+        <v>0.006759080900499024</v>
       </c>
       <c r="CH2">
-        <v>0.004508408390741412</v>
+        <v>0.004505853782067665</v>
       </c>
       <c r="CI2">
-        <v>0.001688746984158784</v>
+        <v>0.001675147613065114</v>
       </c>
       <c r="CJ2">
-        <v>0.001220481016279937</v>
+        <v>0.001205047422696827</v>
       </c>
       <c r="CK2">
-        <v>0.004427619396283209</v>
+        <v>0.004424748332857891</v>
       </c>
       <c r="CL2">
-        <v>0.0002649871018229562</v>
+        <v>0.0002458107881904734</v>
       </c>
       <c r="CM2">
-        <v>9.751074731115696E-05</v>
+        <v>7.767841996645348E-05</v>
       </c>
       <c r="CN2">
-        <v>0.006129665579529722</v>
+        <v>0.006133461520758866</v>
       </c>
       <c r="CO2">
-        <v>0.02046189659639662</v>
+        <v>0.02052183264230613</v>
       </c>
       <c r="CP2">
-        <v>0.02312962341340135</v>
+        <v>0.02320000908593138</v>
       </c>
       <c r="CQ2">
-        <v>0.01966783065086633</v>
+        <v>0.0197246562985934</v>
       </c>
       <c r="CR2">
-        <v>0.01141413521703647</v>
+        <v>0.01143863070450379</v>
       </c>
       <c r="CS2">
-        <v>0.002211023648332717</v>
+        <v>0.002199470062474041</v>
       </c>
       <c r="CT2">
-        <v>0.001751672679842336</v>
+        <v>0.001738319792016944</v>
       </c>
       <c r="CU2">
-        <v>0.001175974519332902</v>
+        <v>0.001160366591454272</v>
       </c>
       <c r="CV2">
-        <v>0.00955945184426025</v>
+        <v>0.009576682439152644</v>
       </c>
       <c r="CW2">
-        <v>0.02108093555393305</v>
+        <v>0.02114329640808327</v>
       </c>
       <c r="CX2">
-        <v>0.02039584560092745</v>
+        <v>0.02045552292160462</v>
       </c>
       <c r="CY2">
-        <v>0.02238107146474898</v>
+        <v>0.02244852501982245</v>
       </c>
       <c r="CZ2">
-        <v>0.02233108746817768</v>
+        <v>0.02239834523330076</v>
       </c>
       <c r="DA2">
-        <v>0.009693174335087429</v>
+        <v>0.009710928728028034</v>
       </c>
       <c r="DB2">
-        <v>0.001056589427522237</v>
+        <v>0.001040513861943402</v>
       </c>
       <c r="DC2">
-        <v>0.00831070042991955</v>
+        <v>0.00832303959967106</v>
       </c>
       <c r="DD2">
-        <v>0.02506941928033919</v>
+        <v>0.02514740323557206</v>
       </c>
       <c r="DE2">
-        <v>0.03342128270743513</v>
+        <v>0.0335319813521341</v>
       </c>
       <c r="DF2">
-        <v>0.03451610163233497</v>
+        <v>0.03463108874049631</v>
       </c>
       <c r="DG2">
-        <v>0.01359766706725501</v>
+        <v>0.01363071556412471</v>
       </c>
       <c r="DH2">
-        <v>0.005356418632571337</v>
+        <v>0.005357185724733303</v>
       </c>
       <c r="DI2">
-        <v>3.905227732117165E-05</v>
+        <v>1.899096506680338E-05</v>
       </c>
       <c r="DJ2">
-        <v>0.001619719488893791</v>
+        <v>0.001605849733461113</v>
       </c>
       <c r="DK2">
-        <v>0.007293680199683026</v>
+        <v>0.007302035647561761</v>
       </c>
       <c r="DL2">
-        <v>0.0132402890917697</v>
+        <v>0.01327193772026366</v>
       </c>
       <c r="DM2">
-        <v>0.01696216883646379</v>
+        <v>0.0170083962641851</v>
       </c>
       <c r="DN2">
-        <v>0.02026018561023318</v>
+        <v>0.02031933154357298</v>
       </c>
       <c r="DO2">
-        <v>0.01380243305320889</v>
+        <v>0.01383628362924358</v>
       </c>
       <c r="DP2">
-        <v>0.005630925613741267</v>
+        <v>0.005632767964224163</v>
       </c>
       <c r="DQ2">
-        <v>2.540305125745338E-05</v>
+        <v>5.288274264823397E-06</v>
       </c>
       <c r="DR2">
-        <v>0.01144987921458458</v>
+        <v>0.0114745147131752</v>
       </c>
       <c r="DS2">
-        <v>0.01522073595591905</v>
+        <v>0.01526014209921558</v>
       </c>
       <c r="DT2">
-        <v>0.0174681738017539</v>
+        <v>0.01751638327760761</v>
       </c>
       <c r="DU2">
-        <v>0.01298987910894681</v>
+        <v>0.01302054686833308</v>
       </c>
       <c r="DV2">
-        <v>0.005380913230891107</v>
+        <v>0.005381776269686374</v>
       </c>
       <c r="DW2">
-        <v>0.002913592000139368</v>
+        <v>0.002904790411563539</v>
       </c>
       <c r="DX2">
-        <v>0.002733245112510435</v>
+        <v>0.002723737095665459</v>
       </c>
       <c r="DY2">
-        <v>0.0001640033087500361</v>
+        <v>0.0001444314362748677</v>
       </c>
       <c r="DZ2">
-        <v>0.0002015101661772173</v>
+        <v>0.0001820852100404553</v>
       </c>
       <c r="EA2">
-        <v>0.000296427119666298</v>
+        <v>0.0002773739582416467</v>
       </c>
       <c r="EB2">
-        <v>0.003504455059608551</v>
+        <v>0.003497967912794882</v>
       </c>
       <c r="EC2">
-        <v>0.002741357811953937</v>
+        <v>0.002731881572980491</v>
       </c>
       <c r="ED2">
-        <v>0.003812361438487418</v>
+        <v>0.003807080377196768</v>
       </c>
       <c r="EE2">
-        <v>0.006308184067284076</v>
+        <v>0.006312679274843642</v>
       </c>
       <c r="EF2">
-        <v>0.006470570556145019</v>
+        <v>0.006475701840144644</v>
       </c>
       <c r="EG2">
-        <v>0.003359833269529021</v>
+        <v>0.003352779631537211</v>
       </c>
       <c r="EH2">
-        <v>0.001424189002306392</v>
+        <v>0.001409553343646763</v>
       </c>
       <c r="EI2">
-        <v>0.0004397916198320729</v>
+        <v>0.0004213000247146688</v>
       </c>
       <c r="EJ2">
-        <v>0.002887277801944416</v>
+        <v>0.002878373139266619</v>
       </c>
       <c r="EK2">
-        <v>0.003430211764701341</v>
+        <v>0.003423433802986419</v>
       </c>
       <c r="EL2">
-        <v>0.00266776421700216</v>
+        <v>0.002657999708036447</v>
       </c>
       <c r="EM2">
-        <v>0.001094514624920722</v>
+        <v>0.001078587614340021</v>
       </c>
       <c r="EN2">
-        <v>0.0001985894763775648</v>
+        <v>0.0001791530797448397</v>
       </c>
       <c r="EO2">
-        <v>5.129015348170283E-05</v>
+        <v>3.127677763360021E-05</v>
       </c>
       <c r="EP2">
-        <v>4.820702669319286E-05</v>
+        <v>2.818157407487588E-05</v>
       </c>
       <c r="EQ2">
-        <v>6.747054537179336E-06</v>
+        <v>0</v>
       </c>
       <c r="ER2">
-        <v>0.0001251412514158161</v>
+        <v>0.000105417154212741</v>
       </c>
       <c r="ES2">
-        <v>4.803399870506189E-05</v>
+        <v>2.800786832699104E-05</v>
       </c>
       <c r="ET2">
-        <v>2.541471825665307E-06</v>
+        <v>0</v>
       </c>
       <c r="EU2">
-        <v>0.0005918101094042191</v>
+        <v>0.0005739139787269213</v>
       </c>
       <c r="EV2">
-        <v>0.0001010982930650658</v>
+        <v>8.128001832626389E-05</v>
       </c>
       <c r="EW2">
-        <v>0.0005930807593170576</v>
+        <v>0.0005751896058424741</v>
       </c>
       <c r="EX2">
-        <v>0.002168939851219495</v>
+        <v>0.002157221420908305</v>
       </c>
       <c r="EY2">
-        <v>0.005753154605356854</v>
+        <v>0.005755475733245459</v>
       </c>
       <c r="EZ2">
-        <v>0.003489248260651676</v>
+        <v>0.003482701548004587</v>
       </c>
       <c r="FA2">
-        <v>9.981729815293689E-05</v>
+        <v>7.999400568951294E-05</v>
       </c>
       <c r="FB2">
-        <v>0.001457347300031867</v>
+        <v>0.001442841524172979</v>
       </c>
       <c r="FC2">
-        <v>0.005264592938870208</v>
+        <v>0.005265000344947666</v>
       </c>
       <c r="FD2">
-        <v>0.009881358822178735</v>
+        <v>0.009899850343678886</v>
       </c>
       <c r="FE2">
-        <v>0.007866680460377525</v>
+        <v>0.007877280380493656</v>
       </c>
       <c r="FF2">
-        <v>0.004103475418518176</v>
+        <v>0.004099334666038738</v>
       </c>
       <c r="FG2">
-        <v>0.001526877295262391</v>
+        <v>0.001512643872061373</v>
       </c>
       <c r="FH2">
-        <v>2.847159304696382E-05</v>
+        <v>8.368835694337999E-06</v>
       </c>
       <c r="FI2">
-        <v>0.0003249767777079068</v>
+        <v>0.0003060354467993252</v>
       </c>
       <c r="FJ2">
-        <v>0.0013175689096201</v>
+        <v>0.001302515614434978</v>
       </c>
       <c r="FK2">
-        <v>0.005650239612416405</v>
+        <v>0.005652157616850604</v>
       </c>
       <c r="FL2">
-        <v>0.00519398364371372</v>
+        <v>0.005194114469458581</v>
       </c>
       <c r="FM2">
-        <v>0.006886633527604782</v>
+        <v>0.006893394552204031</v>
       </c>
       <c r="FN2">
-        <v>0.006027475086539577</v>
+        <v>0.006030870742218826</v>
       </c>
       <c r="FO2">
-        <v>0.000327764257516697</v>
+        <v>0.0003088338453135197</v>
       </c>
       <c r="FP2">
-        <v>9.751074731115696E-05</v>
+        <v>7.767841996645348E-05</v>
       </c>
       <c r="FQ2">
-        <v>0.001913426768746659</v>
+        <v>0.001900707480217349</v>
       </c>
       <c r="FR2">
-        <v>0.001868695671815032</v>
+        <v>0.001855801169220217</v>
       </c>
       <c r="FS2">
-        <v>0.0009980494315378439</v>
+        <v>0.0009817445617077249</v>
       </c>
       <c r="FT2">
-        <v>0.001634210387899774</v>
+        <v>0.001620397394082657</v>
       </c>
       <c r="FU2">
-        <v>0.002214652848083768</v>
+        <v>0.002203113477991897</v>
       </c>
       <c r="FV2">
-        <v>0.001103038824335996</v>
+        <v>0.001087145203493916</v>
       </c>
       <c r="FW2">
-        <v>0.0008436722021274977</v>
+        <v>0.0008267626285489422</v>
       </c>
       <c r="FX2">
-        <v>4.857017666828225E-05</v>
+        <v>2.854614652756782E-05</v>
       </c>
       <c r="FY2">
-        <v>0.002329909340177639</v>
+        <v>0.002318821435843167</v>
       </c>
       <c r="FZ2">
-        <v>0.004820998469298995</v>
+        <v>0.004819668292446897</v>
       </c>
       <c r="GA2">
-        <v>0.007692102472352868</v>
+        <v>0.007702018561283813</v>
       </c>
       <c r="GB2">
-        <v>0.004233023309631714</v>
+        <v>0.004229390003073268</v>
       </c>
       <c r="GC2">
-        <v>0.002674449316543589</v>
+        <v>0.002664710993465308</v>
       </c>
       <c r="GD2">
-        <v>3.200972780426209E-05</v>
+        <v>1.192082951205848E-05</v>
       </c>
       <c r="GE2">
-        <v>0.0003409155566145711</v>
+        <v>0.0003220366587434728</v>
       </c>
       <c r="GF2">
-        <v>0.001679217984812435</v>
+        <v>0.001665581288125828</v>
       </c>
       <c r="GG2">
-        <v>0.007182037007341297</v>
+        <v>0.007189955142948306</v>
       </c>
       <c r="GH2">
-        <v>0.01286415411757104</v>
+        <v>0.01289432940553618</v>
       </c>
       <c r="GI2">
-        <v>0.009991584314617712</v>
+        <v>0.01001050759518431</v>
       </c>
       <c r="GJ2">
-        <v>0.005171711645241489</v>
+        <v>0.005171755230393856</v>
       </c>
       <c r="GK2">
-        <v>0.001854271972804439</v>
+        <v>0.001841320971819989</v>
       </c>
       <c r="GL2">
-        <v>4.453555494504098E-05</v>
+        <v>2.449572097827729E-05</v>
       </c>
       <c r="GM2">
-        <v>0.001323175609235503</v>
+        <v>0.001308144275788435</v>
       </c>
       <c r="GN2">
-        <v>0.005498563022820807</v>
+        <v>0.005499886902055137</v>
       </c>
       <c r="GO2">
-        <v>0.008841785393489269</v>
+        <v>0.008856204851048998</v>
       </c>
       <c r="GP2">
-        <v>0.004161384114545873</v>
+        <v>0.004157470193482497</v>
       </c>
       <c r="GQ2">
-        <v>0.001731282781241001</v>
+        <v>0.001717850025107558</v>
       </c>
       <c r="GR2">
-        <v>5.958929291241541E-08</v>
+        <v>0</v>
       </c>
       <c r="GS2">
-        <v>0.0002924424799396282</v>
+        <v>0.000273373710471044</v>
       </c>
       <c r="GT2">
         <v>0</v>
@@ -2767,604 +2767,604 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>7.511992332591618E-05</v>
+        <v>4.029745274342412E-05</v>
       </c>
       <c r="C3">
-        <v>0.0001012050604808292</v>
+        <v>6.65515492528575E-05</v>
       </c>
       <c r="D3">
-        <v>0.0001730388076612508</v>
+        <v>0.0001388505799195916</v>
       </c>
       <c r="E3">
-        <v>0.0001145676250724535</v>
+        <v>8.000066620856284E-05</v>
       </c>
       <c r="F3">
-        <v>8.668967383816406E-05</v>
+        <v>5.194214315600303E-05</v>
       </c>
       <c r="G3">
-        <v>0.0001395804961798923</v>
+        <v>0.0001051755513599345</v>
       </c>
       <c r="H3">
-        <v>7.209468319197442E-05</v>
+        <v>3.725261744242365E-05</v>
       </c>
       <c r="I3">
-        <v>5.979463764739293E-05</v>
+        <v>2.487290171081416E-05</v>
       </c>
       <c r="J3">
-        <v>3.017835933613946E-05</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>1.316272958277662E-06</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>3.508180655323839E-05</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>9.711788429987052E-05</v>
+        <v>6.243789950401051E-05</v>
       </c>
       <c r="N3">
-        <v>0.000211552679366443</v>
+        <v>0.0001776139147142337</v>
       </c>
       <c r="O3">
-        <v>0.0002778709323026674</v>
+        <v>0.0002443617260285672</v>
       </c>
       <c r="P3">
-        <v>0.0003180211540803087</v>
+        <v>0.0002847720099065191</v>
       </c>
       <c r="Q3">
-        <v>0.0002778709323026674</v>
+        <v>0.0002443617260285672</v>
       </c>
       <c r="R3">
-        <v>0.0003413885151148928</v>
+        <v>0.0003082907266427735</v>
       </c>
       <c r="S3">
-        <v>0.0002420721807176864</v>
+        <v>0.0002083310978034708</v>
       </c>
       <c r="T3">
-        <v>0.0001999204588514293</v>
+        <v>0.0001659063496665007</v>
       </c>
       <c r="U3">
-        <v>5.185845929602057E-05</v>
+        <v>1.688531893079561E-05</v>
       </c>
       <c r="V3">
-        <v>5.313593535258051E-05</v>
+        <v>1.817106948975321E-05</v>
       </c>
       <c r="W3">
-        <v>4.984682720695605E-05</v>
+        <v>1.486065704406194E-05</v>
       </c>
       <c r="X3">
-        <v>3.390274850103588E-06</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>1.572820169636227E-05</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>9.596831424897359E-08</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>1.75193177756635E-06</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>5.629643249251075E-06</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>3.69095956341633E-05</v>
+        <v>1.839628085699098E-06</v>
       </c>
       <c r="AD3">
-        <v>0.0001065962647195235</v>
+        <v>7.197767354517644E-05</v>
       </c>
       <c r="AE3">
-        <v>0.0001707272375589066</v>
+        <v>0.0001365240372529821</v>
       </c>
       <c r="AF3">
-        <v>0.0002424234507332388</v>
+        <v>0.0002086846430746501</v>
       </c>
       <c r="AG3">
-        <v>0.0002741450121377032</v>
+        <v>0.0002406116722329333</v>
       </c>
       <c r="AH3">
-        <v>0.000255215981299625</v>
+        <v>0.0002215600337653417</v>
       </c>
       <c r="AI3">
-        <v>0.0001942965286024312</v>
+        <v>0.0001602459919446818</v>
       </c>
       <c r="AJ3">
-        <v>0.0001800667779724125</v>
+        <v>0.0001459240719897653</v>
       </c>
       <c r="AK3">
-        <v>0.0001984970387884077</v>
+        <v>0.0001644737097886232</v>
       </c>
       <c r="AL3">
-        <v>7.711966841445442E-05</v>
+        <v>4.231015063483083E-05</v>
       </c>
       <c r="AM3">
-        <v>3.345934348140423E-05</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>1.398114861901193E-05</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>1.75193177756635E-06</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>5.863595559609256E-07</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>1.224049504194492E-05</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>8.001207354251494E-06</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>2.044193490506166E-05</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>0.000105818564685091</v>
+        <v>7.119493617108772E-05</v>
       </c>
       <c r="AU3">
-        <v>0.000105818564685091</v>
+        <v>7.119493617108772E-05</v>
       </c>
       <c r="AV3">
-        <v>0.0001428742763257236</v>
+        <v>0.0001084906660674385</v>
       </c>
       <c r="AW3">
-        <v>8.484779775661544E-05</v>
+        <v>5.008833682497952E-05</v>
       </c>
       <c r="AX3">
-        <v>6.377441882359675E-05</v>
+        <v>2.887846083308245E-05</v>
       </c>
       <c r="AY3">
-        <v>0.0002927607129619088</v>
+        <v>0.0002593479511770284</v>
       </c>
       <c r="AZ3">
-        <v>0.0762283093749897</v>
+        <v>0.07668674839879781</v>
       </c>
       <c r="BA3">
-        <v>0.02312573302388616</v>
+        <v>0.02324021460670538</v>
       </c>
       <c r="BB3">
-        <v>0.04347285792475013</v>
+        <v>0.0437191324542262</v>
       </c>
       <c r="BC3">
-        <v>0.0008172986961856994</v>
+        <v>0.0007872834859851005</v>
       </c>
       <c r="BD3">
-        <v>0.04248231488089408</v>
+        <v>0.04272217343822783</v>
       </c>
       <c r="BE3">
-        <v>0.002192068097053278</v>
+        <v>0.002170957580326415</v>
       </c>
       <c r="BF3">
-        <v>0.008906540394334892</v>
+        <v>0.008928921038822013</v>
       </c>
       <c r="BG3">
-        <v>0.02292582301503519</v>
+        <v>0.02303900973534873</v>
       </c>
       <c r="BH3">
-        <v>0.04300460790401847</v>
+        <v>0.04324784947182034</v>
       </c>
       <c r="BI3">
-        <v>0.009698829429413296</v>
+        <v>0.009726341909825426</v>
       </c>
       <c r="BJ3">
-        <v>1.066436047216195E-06</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>0.0002420721807176864</v>
+        <v>0.0002083310978034708</v>
       </c>
       <c r="BL3">
-        <v>0.00580818325715589</v>
+        <v>0.005810495139157223</v>
       </c>
       <c r="BM3">
-        <v>9.097710402798898E-06</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>0.003245466343692227</v>
+        <v>0.003231178926523858</v>
       </c>
       <c r="BO3">
-        <v>0.003715057364483254</v>
+        <v>0.003703811594950863</v>
       </c>
       <c r="BP3">
-        <v>0.002710757120018107</v>
+        <v>0.00269300626983225</v>
       </c>
       <c r="BQ3">
-        <v>0.0005100763225835042</v>
+        <v>0.0004780711633314684</v>
       </c>
       <c r="BR3">
-        <v>0.007456256830123943</v>
+        <v>0.007469243658760096</v>
       </c>
       <c r="BS3">
-        <v>0.006321609779887724</v>
+        <v>0.006327247242021498</v>
       </c>
       <c r="BT3">
-        <v>0.0001807772580038688</v>
+        <v>0.00014663915396166</v>
       </c>
       <c r="BU3">
-        <v>0.0005409037239483798</v>
+        <v>0.0005090982407726174</v>
       </c>
       <c r="BV3">
-        <v>0.0009488661720108171</v>
+        <v>0.0009197031542161567</v>
       </c>
       <c r="BW3">
-        <v>0.01015732644971314</v>
+        <v>0.01018780871940179</v>
       </c>
       <c r="BX3">
-        <v>0.006006406265932165</v>
+        <v>0.006010002083356763</v>
       </c>
       <c r="BY3">
-        <v>0.0002075405091888052</v>
+        <v>0.000173575756799617</v>
       </c>
       <c r="BZ3">
-        <v>0.005183992629520003</v>
+        <v>0.005182261487138651</v>
       </c>
       <c r="CA3">
-        <v>4.424510695894126E-08</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>0.0007993926753929148</v>
+        <v>0.000769261483831083</v>
       </c>
       <c r="CC3">
-        <v>0.004752842410430932</v>
+        <v>0.004748318610212056</v>
       </c>
       <c r="CD3">
-        <v>0.0004259700888597212</v>
+        <v>0.0003934201544402515</v>
       </c>
       <c r="CE3">
-        <v>0.001654448073250283</v>
+        <v>0.001629855269592763</v>
       </c>
       <c r="CF3">
-        <v>0.01221718654091294</v>
+        <v>0.01226101099198804</v>
       </c>
       <c r="CG3">
-        <v>0.02304536402032784</v>
+        <v>0.02315932503486774</v>
       </c>
       <c r="CH3">
-        <v>0.019987710884951</v>
+        <v>0.02008186678606434</v>
       </c>
       <c r="CI3">
-        <v>0.01087268398138542</v>
+        <v>0.01090779978418854</v>
       </c>
       <c r="CJ3">
-        <v>0.009343951413701158</v>
+        <v>0.009369165268650363</v>
       </c>
       <c r="CK3">
-        <v>7.511992332591618E-05</v>
+        <v>4.029745274342412E-05</v>
       </c>
       <c r="CL3">
-        <v>0.003351790948399723</v>
+        <v>0.003338192219831085</v>
       </c>
       <c r="CM3">
-        <v>0.002579533814208227</v>
+        <v>0.002560933000883745</v>
       </c>
       <c r="CN3">
-        <v>0.01595971770661259</v>
+        <v>0.01602778338157981</v>
       </c>
       <c r="CO3">
-        <v>0.02827872825203376</v>
+        <v>0.02842658695464436</v>
       </c>
       <c r="CP3">
-        <v>0.01514403767049856</v>
+        <v>0.01520682000071744</v>
       </c>
       <c r="CQ3">
-        <v>0.01554150868809649</v>
+        <v>0.01560686552831987</v>
       </c>
       <c r="CR3">
-        <v>0.01087871348165237</v>
+        <v>0.01091386833889738</v>
       </c>
       <c r="CS3">
-        <v>0.003328354447362077</v>
+        <v>0.003314603915256275</v>
       </c>
       <c r="CT3">
-        <v>0.007055294312371427</v>
+        <v>0.007065684015764037</v>
       </c>
       <c r="CU3">
-        <v>0.02785549623329527</v>
+        <v>0.0280006135660494</v>
       </c>
       <c r="CV3">
-        <v>0.04362003193126622</v>
+        <v>0.0438672597401901</v>
       </c>
       <c r="CW3">
-        <v>0.03488321754444591</v>
+        <v>0.03507385502338247</v>
       </c>
       <c r="CX3">
-        <v>0.01658885773446761</v>
+        <v>0.01666099849220622</v>
       </c>
       <c r="CY3">
-        <v>0.002090094492538421</v>
+        <v>0.002068323469627726</v>
       </c>
       <c r="CZ3">
-        <v>0.0005532756544961439</v>
+        <v>0.0005215503071228925</v>
       </c>
       <c r="DA3">
-        <v>0.003715358364496581</v>
+        <v>0.003704114544609601</v>
       </c>
       <c r="DB3">
-        <v>0.007583586835761449</v>
+        <v>0.007597398409747255</v>
       </c>
       <c r="DC3">
-        <v>0.01043462546199048</v>
+        <v>0.01046690386032685</v>
       </c>
       <c r="DD3">
-        <v>0.01629108072128361</v>
+        <v>0.01636129270971425</v>
       </c>
       <c r="DE3">
-        <v>0.02367128104804016</v>
+        <v>0.02378929626924792</v>
       </c>
       <c r="DF3">
-        <v>0.01705830475525226</v>
+        <v>0.01713348622790612</v>
       </c>
       <c r="DG3">
-        <v>0.009154511405313748</v>
+        <v>0.009178498214326895</v>
       </c>
       <c r="DH3">
-        <v>0.0009690679029052438</v>
+        <v>0.000940035736307257</v>
       </c>
       <c r="DI3">
-        <v>0.00682615230222622</v>
+        <v>0.006835057800805273</v>
       </c>
       <c r="DJ3">
-        <v>0.0196699158708807</v>
+        <v>0.01976201334155037</v>
       </c>
       <c r="DK3">
-        <v>0.01329629358869014</v>
+        <v>0.01334710766106445</v>
       </c>
       <c r="DL3">
-        <v>0.009309895412193337</v>
+        <v>0.00933488867869027</v>
       </c>
       <c r="DM3">
-        <v>0.005558308946092766</v>
+        <v>0.00555900233546139</v>
       </c>
       <c r="DN3">
-        <v>0.001322338758546224</v>
+        <v>0.001295594807470566</v>
       </c>
       <c r="DO3">
-        <v>0.0024764564096445</v>
+        <v>0.002457187940572713</v>
       </c>
       <c r="DP3">
-        <v>0.001132235650129456</v>
+        <v>0.001104260358068329</v>
       </c>
       <c r="DQ3">
-        <v>3.073401136074082E-06</v>
+        <v>0</v>
       </c>
       <c r="DR3">
-        <v>3.616358160113371E-05</v>
+        <v>1.088781950436914E-06</v>
       </c>
       <c r="DS3">
-        <v>0.0002227973798642994</v>
+        <v>0.0001889314496896935</v>
       </c>
       <c r="DT3">
-        <v>0.002699093319501695</v>
+        <v>0.002681266920232281</v>
       </c>
       <c r="DU3">
-        <v>0.003471247153688617</v>
+        <v>0.003458422170077469</v>
       </c>
       <c r="DV3">
-        <v>0.004001152877150063</v>
+        <v>0.003991760213195161</v>
       </c>
       <c r="DW3">
-        <v>0.007793843345070503</v>
+        <v>0.007809016798194057</v>
       </c>
       <c r="DX3">
-        <v>0.003348729448264175</v>
+        <v>0.003335110889664217</v>
       </c>
       <c r="DY3">
-        <v>0.0001721123176202307</v>
+        <v>0.0001379180887922682</v>
       </c>
       <c r="DZ3">
-        <v>0.0006970716908626782</v>
+        <v>0.0006662777430578011</v>
       </c>
       <c r="EA3">
-        <v>0.003629580960698807</v>
+        <v>0.003617781541096478</v>
       </c>
       <c r="EB3">
-        <v>0.003894493572427748</v>
+        <v>0.003884410051945144</v>
       </c>
       <c r="EC3">
-        <v>0.0007376805626606261</v>
+        <v>0.0007071496477363519</v>
       </c>
       <c r="ED3">
-        <v>0.001008832744665822</v>
+        <v>0.0009800581439742967</v>
       </c>
       <c r="EE3">
-        <v>0.001068491447307197</v>
+        <v>0.001040103269574843</v>
       </c>
       <c r="EF3">
-        <v>1.17084985183909E-05</v>
+        <v>0</v>
       </c>
       <c r="EG3">
-        <v>2.329802903151453E-06</v>
+        <v>0</v>
       </c>
       <c r="EH3">
-        <v>0.0005209972230670243</v>
+        <v>0.0004890628009663984</v>
       </c>
       <c r="EI3">
-        <v>0.001054291646678504</v>
+        <v>0.00102581149361421</v>
       </c>
       <c r="EJ3">
-        <v>0.001522560867411009</v>
+        <v>0.001497113800383672</v>
       </c>
       <c r="EK3">
-        <v>0.0003019668933695102</v>
+        <v>0.0002686137621048769</v>
       </c>
       <c r="EL3">
-        <v>8.371473370644932E-05</v>
+        <v>4.894793366176181E-05</v>
       </c>
       <c r="EM3">
-        <v>0.0009557872923172481</v>
+        <v>0.0009266691041898648</v>
       </c>
       <c r="EN3">
-        <v>0.0001084244248004648</v>
+        <v>7.381767503394328E-05</v>
       </c>
       <c r="EO3">
-        <v>0.001748462277412739</v>
+        <v>0.001724478425096233</v>
       </c>
       <c r="EP3">
-        <v>0.007080907813505457</v>
+        <v>0.007091463421359022</v>
       </c>
       <c r="EQ3">
-        <v>0.00844510037390475</v>
+        <v>0.008464492166635459</v>
       </c>
       <c r="ER3">
-        <v>0.0005250294532455503</v>
+        <v>0.0004931211488150824</v>
       </c>
       <c r="ES3">
-        <v>0.001450319564212543</v>
+        <v>0.001424404573866052</v>
       </c>
       <c r="ET3">
-        <v>0.006173885673347274</v>
+        <v>0.006178566292910509</v>
       </c>
       <c r="EU3">
-        <v>0.008794941389393875</v>
+        <v>0.008816599181793696</v>
       </c>
       <c r="EV3">
-        <v>0.00783861234705264</v>
+        <v>0.007854075779164324</v>
       </c>
       <c r="EW3">
-        <v>0.002584658414435118</v>
+        <v>0.002566090794309558</v>
       </c>
       <c r="EX3">
-        <v>0.0006558051290356114</v>
+        <v>0.000624743888342521</v>
       </c>
       <c r="EY3">
-        <v>0.0001974352587413977</v>
+        <v>0.0001634050523512311</v>
       </c>
       <c r="EZ3">
-        <v>3.488368154446645E-06</v>
+        <v>0</v>
       </c>
       <c r="FA3">
-        <v>2.054410390958517E-05</v>
+        <v>0</v>
       </c>
       <c r="FB3">
-        <v>0.003042819134720071</v>
+        <v>0.003027219125579502</v>
       </c>
       <c r="FC3">
-        <v>0.006092802869757353</v>
+        <v>0.006096958297596432</v>
       </c>
       <c r="FD3">
-        <v>0.005961397263939403</v>
+        <v>0.005964701547841323</v>
       </c>
       <c r="FE3">
-        <v>0.005464431241936353</v>
+        <v>0.005464516564105486</v>
       </c>
       <c r="FF3">
-        <v>9.786298433285965E-05</v>
+        <v>6.31878257190465E-05</v>
       </c>
       <c r="FG3">
-        <v>0.001831798781102442</v>
+        <v>0.001808354718237216</v>
       </c>
       <c r="FH3">
-        <v>0.004320359191282844</v>
+        <v>0.004313034099082477</v>
       </c>
       <c r="FI3">
-        <v>0.00290791332874715</v>
+        <v>0.002891439504078494</v>
       </c>
       <c r="FJ3">
-        <v>0.000740556602787962</v>
+        <v>0.0007100443166284362</v>
       </c>
       <c r="FK3">
-        <v>0.0004725646509226841</v>
+        <v>0.0004403165200583791</v>
       </c>
       <c r="FL3">
-        <v>0.001457041864510171</v>
+        <v>0.001431170416028629</v>
       </c>
       <c r="FM3">
-        <v>0.0006938169007185732</v>
+        <v>0.0006630018708991151</v>
       </c>
       <c r="FN3">
-        <v>0.0004600008703664258</v>
+        <v>0.0004276713610435559</v>
       </c>
       <c r="FO3">
-        <v>2.61571251581003E-05</v>
+        <v>0</v>
       </c>
       <c r="FP3">
-        <v>0.004123641782573229</v>
+        <v>0.004115042507062992</v>
       </c>
       <c r="FQ3">
-        <v>0.007382265326847988</v>
+        <v>0.0073947728957218</v>
       </c>
       <c r="FR3">
-        <v>0.0106974144736254</v>
+        <v>0.01073139501604164</v>
       </c>
       <c r="FS3">
-        <v>0.005442296240956332</v>
+        <v>0.005442238189699607</v>
       </c>
       <c r="FT3">
-        <v>0.003245466343692227</v>
+        <v>0.003231178926523858</v>
       </c>
       <c r="FU3">
-        <v>0.0004454750897233004</v>
+        <v>0.000413051493621941</v>
       </c>
       <c r="FV3">
-        <v>0.0001029364945574881</v>
+        <v>6.829419822105588E-05</v>
       </c>
       <c r="FW3">
-        <v>0.0001441415863818334</v>
+        <v>0.0001097661847784534</v>
       </c>
       <c r="FX3">
-        <v>0.003155417439705334</v>
+        <v>0.003140546755345286</v>
       </c>
       <c r="FY3">
-        <v>0.009496254420444338</v>
+        <v>0.009522454776540078</v>
       </c>
       <c r="FZ3">
-        <v>0.01125096949813392</v>
+        <v>0.01128853554209753</v>
       </c>
       <c r="GA3">
-        <v>0.003122817838261994</v>
+        <v>0.003107735998883487</v>
       </c>
       <c r="GB3">
-        <v>0.00264415851706947</v>
+        <v>0.002625976292614835</v>
       </c>
       <c r="GC3">
-        <v>4.811929713047008E-05</v>
+        <v>1.312193736313172E-05</v>
       </c>
       <c r="GD3">
-        <v>0.0006791634700697961</v>
+        <v>0.000648253526653786</v>
       </c>
       <c r="GE3">
-        <v>0.002609169915520358</v>
+        <v>0.00259076106195129</v>
       </c>
       <c r="GF3">
-        <v>0.007716209041633264</v>
+        <v>0.007730879639750939</v>
       </c>
       <c r="GG3">
-        <v>0.005191612229857359</v>
+        <v>0.005189930441356995</v>
       </c>
       <c r="GH3">
-        <v>0.0006879219304575748</v>
+        <v>0.0006570687175776137</v>
       </c>
       <c r="GI3">
-        <v>0.0001175535412046542</v>
+        <v>8.300592279733668E-05</v>
       </c>
       <c r="GJ3">
-        <v>0.0008137741060296491</v>
+        <v>0.0007837360662585489</v>
       </c>
       <c r="GK3">
-        <v>0.002055577091010171</v>
+        <v>0.002033582491054537</v>
       </c>
       <c r="GL3">
-        <v>0.005292101234306484</v>
+        <v>0.005291070335898332</v>
       </c>
       <c r="GM3">
-        <v>0.002593630114832338</v>
+        <v>0.002575120606446772</v>
       </c>
       <c r="GN3">
-        <v>0.0004007791477443985</v>
+        <v>0.0003680660458811339</v>
       </c>
       <c r="GO3">
-        <v>0.0006075125268974682</v>
+        <v>0.0005761384840582013</v>
       </c>
       <c r="GP3">
-        <v>0.0001158924851311114</v>
+        <v>8.133410768655583E-05</v>
       </c>
       <c r="GQ3">
-        <v>0.0007697620340810253</v>
+        <v>0.0007394389181294406</v>
       </c>
       <c r="GR3">
-        <v>0.0002524070311752594</v>
+        <v>0.0002187328894334059</v>
       </c>
       <c r="GS3">
-        <v>0.001249808255334954</v>
+        <v>0.001222594507726012</v>
       </c>
       <c r="GT3">
         <v>0</v>
@@ -3540,604 +3540,604 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>4.838873534133256E-05</v>
+        <v>2.444950049641277E-05</v>
       </c>
       <c r="C4">
-        <v>9.975976276533405E-05</v>
+        <v>7.605665886344494E-05</v>
       </c>
       <c r="D4">
-        <v>0.0001617340944832585</v>
+        <v>0.0001383158604414066</v>
       </c>
       <c r="E4">
-        <v>0.0001770035549065269</v>
+        <v>0.0001536555081330658</v>
       </c>
       <c r="F4">
-        <v>5.346293448198903E-05</v>
+        <v>2.954702359004996E-05</v>
       </c>
       <c r="G4">
-        <v>8.182198726810009E-05</v>
+        <v>5.803643097901081E-05</v>
       </c>
       <c r="H4">
-        <v>8.230523228149561E-05</v>
+        <v>5.852189726588381E-05</v>
       </c>
       <c r="I4">
-        <v>2.187046460624784E-07</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>2.405110466669504E-05</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>2.519812669849041E-05</v>
+        <v>1.152294408222837E-06</v>
       </c>
       <c r="L4">
-        <v>1.965129254473254E-05</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>5.652186156678228E-05</v>
+        <v>3.262001127229307E-05</v>
       </c>
       <c r="N4">
-        <v>6.948990192625549E-05</v>
+        <v>4.564766024294059E-05</v>
       </c>
       <c r="O4">
-        <v>2.637186773102644E-05</v>
+        <v>2.331430633161749E-06</v>
       </c>
       <c r="P4">
-        <v>7.053139195512555E-05</v>
+        <v>4.669393756213764E-05</v>
       </c>
       <c r="Q4">
-        <v>8.8248586446245E-05</v>
+        <v>6.449257052262067E-05</v>
       </c>
       <c r="R4">
-        <v>4.093255113464762E-05</v>
+        <v>1.695904335620047E-05</v>
       </c>
       <c r="S4">
-        <v>8.99269164927682E-05</v>
+        <v>6.617861514439135E-05</v>
       </c>
       <c r="T4">
-        <v>0.0002323871764417572</v>
+        <v>0.0002092937048138082</v>
       </c>
       <c r="U4">
-        <v>0.0001258142634875631</v>
+        <v>0.0001022309211348241</v>
       </c>
       <c r="V4">
-        <v>0.0001160392892166015</v>
+        <v>9.241101543055376E-05</v>
       </c>
       <c r="W4">
-        <v>0.0001372314738040474</v>
+        <v>0.0001137006115509677</v>
       </c>
       <c r="X4">
-        <v>3.80281060541366E-05</v>
+        <v>1.404124776684755E-05</v>
       </c>
       <c r="Y4">
-        <v>3.952120109552509E-06</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>6.283862174188245E-05</v>
+        <v>3.896580692929501E-05</v>
       </c>
       <c r="AA4">
-        <v>4.964193637607121E-06</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>8.945373247965157E-06</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>7.684938213025981E-07</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>4.251756917858421E-05</v>
+        <v>1.85513470594708E-05</v>
       </c>
       <c r="AE4">
-        <v>0.0002821853078221581</v>
+        <v>0.0002593207371976281</v>
       </c>
       <c r="AF4">
-        <v>6.66730518481726E-05</v>
+        <v>4.281786229329142E-05</v>
       </c>
       <c r="AG4">
-        <v>0.0001565747243402411</v>
+        <v>0.0001331327748502387</v>
       </c>
       <c r="AH4">
-        <v>0.0003942934109297874</v>
+        <v>0.0003719441539642522</v>
       </c>
       <c r="AI4">
-        <v>0.0002307096163952554</v>
+        <v>0.0002076084337314242</v>
       </c>
       <c r="AJ4">
-        <v>0.0001762945548868734</v>
+        <v>0.0001529432491394022</v>
       </c>
       <c r="AK4">
-        <v>0.0001450041540195056</v>
+        <v>0.0001215090194985969</v>
       </c>
       <c r="AL4">
-        <v>8.392634232643269E-05</v>
+        <v>6.01504588698584E-05</v>
       </c>
       <c r="AM4">
-        <v>7.050152795429771E-05</v>
+        <v>4.666393628909563E-05</v>
       </c>
       <c r="AN4">
-        <v>2.043137556635639E-05</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>7.684938213025981E-07</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>5.041330339745345E-05</v>
+        <v>2.648337463785634E-05</v>
       </c>
       <c r="AQ4">
-        <v>3.505930697184168E-06</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>1.735765748115312E-05</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.005192527863871E-05</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>2.150609959614766E-05</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>6.492903179982849E-06</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>3.48096209649204E-05</v>
+        <v>1.080796865934212E-05</v>
       </c>
       <c r="AW4">
-        <v>0.000105560532926131</v>
+        <v>8.188409271770997E-05</v>
       </c>
       <c r="AX4">
-        <v>8.233749628238997E-05</v>
+        <v>5.855430957078024E-05</v>
       </c>
       <c r="AY4">
-        <v>0.0002122425558833497</v>
+        <v>0.0001890564879323761</v>
       </c>
       <c r="AZ4">
-        <v>0.05144238642597956</v>
+        <v>0.05165468371879141</v>
       </c>
       <c r="BA4">
-        <v>0.008854282245440121</v>
+        <v>0.008870819988437305</v>
       </c>
       <c r="BB4">
-        <v>0.04384201121529766</v>
+        <v>0.04401937278936142</v>
       </c>
       <c r="BC4">
-        <v>0.009205729255182208</v>
+        <v>0.009223882451830936</v>
       </c>
       <c r="BD4">
-        <v>0.02905382080537</v>
+        <v>0.02916320730627838</v>
       </c>
       <c r="BE4">
-        <v>0.0004191057116175827</v>
+        <v>0.0003968705063316413</v>
       </c>
       <c r="BF4">
-        <v>0.007178235498980215</v>
+        <v>0.007187069162097146</v>
       </c>
       <c r="BG4">
-        <v>0.01202798933341507</v>
+        <v>0.01205911526911865</v>
       </c>
       <c r="BH4">
-        <v>0.04708624130522751</v>
+        <v>0.04727851523648866</v>
       </c>
       <c r="BI4">
-        <v>0.01631709745230887</v>
+        <v>0.01636793860874407</v>
       </c>
       <c r="BJ4">
-        <v>0.0008699258241142865</v>
+        <v>0.0008497628487143159</v>
       </c>
       <c r="BK4">
-        <v>0.0002433009567442865</v>
+        <v>0.0002202576511605864</v>
       </c>
       <c r="BL4">
-        <v>0.004665551829328789</v>
+        <v>0.004662835745551319</v>
       </c>
       <c r="BM4">
-        <v>0.005024426739276778</v>
+        <v>0.00502336025207476</v>
       </c>
       <c r="BN4">
-        <v>0.002995015683021637</v>
+        <v>0.002984620849268261</v>
       </c>
       <c r="BO4">
-        <v>0.002401275366563195</v>
+        <v>0.002388151359034813</v>
       </c>
       <c r="BP4">
-        <v>0.0108700293013165</v>
+        <v>0.01089583258321923</v>
       </c>
       <c r="BQ4">
-        <v>2.200371660994158E-05</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>0.008050198223150964</v>
+        <v>0.008063039931087531</v>
       </c>
       <c r="BS4">
-        <v>0.01610699144648474</v>
+        <v>0.01615686683424099</v>
       </c>
       <c r="BT4">
-        <v>0.0003034818884124979</v>
+        <v>0.0002807152091853235</v>
       </c>
       <c r="BU4">
-        <v>0.0001865929151723433</v>
+        <v>0.0001632889466429076</v>
       </c>
       <c r="BV4">
-        <v>0.001393994338641431</v>
+        <v>0.001376240285132911</v>
       </c>
       <c r="BW4">
-        <v>0.02318562264270393</v>
+        <v>0.02326803551206306</v>
       </c>
       <c r="BX4">
-        <v>0.0157006684352215</v>
+        <v>0.01574867612749576</v>
       </c>
       <c r="BY4">
-        <v>0.001155542732031568</v>
+        <v>0.001136692617074418</v>
       </c>
       <c r="BZ4">
-        <v>0.007014961194454263</v>
+        <v>0.007023044354467914</v>
       </c>
       <c r="CA4">
-        <v>9.485108262926576E-06</v>
+        <v>0</v>
       </c>
       <c r="CB4">
-        <v>3.966272709944818E-08</v>
+        <v>0</v>
       </c>
       <c r="CC4">
-        <v>0.001503621041680276</v>
+        <v>0.001486370895881373</v>
       </c>
       <c r="CD4">
-        <v>0.0001351563337465247</v>
+        <v>0.0001116159329499648</v>
       </c>
       <c r="CE4">
-        <v>0.003383664493794957</v>
+        <v>0.003375056114679487</v>
       </c>
       <c r="CF4">
-        <v>0.01175690232590056</v>
+        <v>0.01178678218898426</v>
       </c>
       <c r="CG4">
-        <v>0.02594704271925032</v>
+        <v>0.02604214867184092</v>
       </c>
       <c r="CH4">
-        <v>0.02595563671948854</v>
+        <v>0.026050782175073</v>
       </c>
       <c r="CI4">
-        <v>0.007183056199113844</v>
+        <v>0.007191912020955755</v>
       </c>
       <c r="CJ4">
-        <v>0.004415158122387892</v>
+        <v>0.004411291084364152</v>
       </c>
       <c r="CK4">
-        <v>0.001299390636019023</v>
+        <v>0.00128120172919659</v>
       </c>
       <c r="CL4">
-        <v>0.007328158403136067</v>
+        <v>0.00733768119860085</v>
       </c>
       <c r="CM4">
-        <v>0.001219882333815058</v>
+        <v>0.001201327960866686</v>
       </c>
       <c r="CN4">
-        <v>0.007380004204573231</v>
+        <v>0.007389765313316906</v>
       </c>
       <c r="CO4">
-        <v>0.02240440862104873</v>
+        <v>0.02248323057909282</v>
       </c>
       <c r="CP4">
-        <v>0.01831934250781097</v>
+        <v>0.01837938714015161</v>
       </c>
       <c r="CQ4">
-        <v>0.02076667057565074</v>
+        <v>0.02083796454275346</v>
       </c>
       <c r="CR4">
-        <v>0.01703115247210242</v>
+        <v>0.01708527583825105</v>
       </c>
       <c r="CS4">
-        <v>0.004234845117389628</v>
+        <v>0.004230149256544037</v>
       </c>
       <c r="CT4">
-        <v>0.005302955546997578</v>
+        <v>0.005303169339231777</v>
       </c>
       <c r="CU4">
-        <v>0.02428185667309147</v>
+        <v>0.02436930846785969</v>
       </c>
       <c r="CV4">
-        <v>0.04324092419863557</v>
+        <v>0.04341552282924258</v>
       </c>
       <c r="CW4">
-        <v>0.0370293050264499</v>
+        <v>0.03717535146399349</v>
       </c>
       <c r="CX4">
-        <v>0.01655692445895686</v>
+        <v>0.01660886799897448</v>
       </c>
       <c r="CY4">
-        <v>0.006708894185970105</v>
+        <v>0.006715570485055174</v>
       </c>
       <c r="CZ4">
-        <v>2.916326480840378E-05</v>
+        <v>5.135658585398065E-06</v>
       </c>
       <c r="DA4">
-        <v>0.002567703171176563</v>
+        <v>0.00255534416206111</v>
       </c>
       <c r="DB4">
-        <v>0.006565192181986695</v>
+        <v>0.00657120794357782</v>
       </c>
       <c r="DC4">
-        <v>0.0158324004388731</v>
+        <v>0.01588101364759914</v>
       </c>
       <c r="DD4">
-        <v>0.02045268456694707</v>
+        <v>0.0205225352728177</v>
       </c>
       <c r="DE4">
-        <v>0.02375222065840999</v>
+        <v>0.02383723793983712</v>
       </c>
       <c r="DF4">
-        <v>0.01512452141925074</v>
+        <v>0.0151698808067309</v>
       </c>
       <c r="DG4">
-        <v>0.007338817903431548</v>
+        <v>0.007348389696122651</v>
       </c>
       <c r="DH4">
-        <v>0.0001465068940611614</v>
+        <v>0.0001230186670023176</v>
       </c>
       <c r="DI4">
-        <v>0.006598660182914426</v>
+        <v>0.00660482978278788</v>
       </c>
       <c r="DJ4">
-        <v>0.0193841985373287</v>
+        <v>0.01944913786364473</v>
       </c>
       <c r="DK4">
-        <v>0.01021286728310001</v>
+        <v>0.01023564986841818</v>
       </c>
       <c r="DL4">
-        <v>0.006407947177627873</v>
+        <v>0.006413240150265224</v>
       </c>
       <c r="DM4">
-        <v>0.004534102125685012</v>
+        <v>0.004530781823069823</v>
       </c>
       <c r="DN4">
-        <v>0.002432746367435569</v>
+        <v>0.002419767018822665</v>
       </c>
       <c r="DO4">
-        <v>0.004353932120690711</v>
+        <v>0.004349783652564368</v>
       </c>
       <c r="DP4">
-        <v>0.002020374956004661</v>
+        <v>0.002005500109965622</v>
       </c>
       <c r="DQ4">
-        <v>2.644497473305296E-05</v>
+        <v>2.404873677237581E-06</v>
       </c>
       <c r="DR4">
-        <v>0.0007706613613626821</v>
+        <v>0.0007500421091005514</v>
       </c>
       <c r="DS4">
-        <v>0.0007657329212260661</v>
+        <v>0.0007450910150036101</v>
       </c>
       <c r="DT4">
-        <v>0.002877469979763278</v>
+        <v>0.002866534837996778</v>
       </c>
       <c r="DU4">
-        <v>0.001754633848638335</v>
+        <v>0.001738537502827323</v>
       </c>
       <c r="DV4">
-        <v>0.002517492569784728</v>
+        <v>0.002504902763715207</v>
       </c>
       <c r="DW4">
-        <v>0.005870013662716392</v>
+        <v>0.005872833981904252</v>
       </c>
       <c r="DX4">
-        <v>0.004521897125346691</v>
+        <v>0.00451852072149343</v>
       </c>
       <c r="DY4">
-        <v>0.0009553137264812335</v>
+        <v>0.0009355432432489376</v>
       </c>
       <c r="DZ4">
-        <v>9.436456761577959E-05</v>
+        <v>7.063666427766383E-05</v>
       </c>
       <c r="EA4">
-        <v>0.00319803138864922</v>
+        <v>0.003188569732455719</v>
       </c>
       <c r="EB4">
-        <v>0.006436446878417884</v>
+        <v>0.006441870852157628</v>
       </c>
       <c r="EC4">
-        <v>0.001549613242955177</v>
+        <v>0.001532574503904468</v>
       </c>
       <c r="ED4">
-        <v>0.001471524940790574</v>
+        <v>0.001454127262755103</v>
       </c>
       <c r="EE4">
-        <v>0.000714558659807519</v>
+        <v>0.0006936815270923569</v>
       </c>
       <c r="EF4">
-        <v>6.28104417411013E-05</v>
+        <v>3.893749739693755E-05</v>
       </c>
       <c r="EG4">
-        <v>6.046519967609135E-05</v>
+        <v>3.65814752434572E-05</v>
       </c>
       <c r="EH4">
-        <v>3.052313084609918E-05</v>
+        <v>6.501775353631245E-06</v>
       </c>
       <c r="EI4">
-        <v>0.0003932348409004439</v>
+        <v>0.0003708807181350245</v>
       </c>
       <c r="EJ4">
-        <v>0.0007097184196733479</v>
+        <v>0.000688819038416066</v>
       </c>
       <c r="EK4">
-        <v>0.000616370367085746</v>
+        <v>0.0005950419042080859</v>
       </c>
       <c r="EL4">
-        <v>0.00026281519728522</v>
+        <v>0.0002398615904335196</v>
       </c>
       <c r="EM4">
-        <v>4.755126931811805E-05</v>
+        <v>2.360818499516105E-05</v>
       </c>
       <c r="EN4">
-        <v>0.00101956302826222</v>
+        <v>0.001000087871967682</v>
       </c>
       <c r="EO4">
-        <v>0.002867939279499088</v>
+        <v>0.002856960329123844</v>
       </c>
       <c r="EP4">
-        <v>0.005811578161096564</v>
+        <v>0.00581412987693355</v>
       </c>
       <c r="EQ4">
-        <v>0.00424990111780698</v>
+        <v>0.004245274463044177</v>
       </c>
       <c r="ER4">
-        <v>0.0002460824668213898</v>
+        <v>0.0002230519466661791</v>
       </c>
       <c r="ES4">
-        <v>0.001831582750771353</v>
+        <v>0.001815840106603797</v>
       </c>
       <c r="ET4">
-        <v>0.007389476704835807</v>
+        <v>0.007399281354667368</v>
       </c>
       <c r="EU4">
-        <v>0.008023099222399783</v>
+        <v>0.008035816367661172</v>
       </c>
       <c r="EV4">
-        <v>0.01119124081022046</v>
+        <v>0.01121852056593175</v>
       </c>
       <c r="EW4">
-        <v>0.003683795102114558</v>
+        <v>0.003676566296800288</v>
       </c>
       <c r="EX4">
-        <v>0.0005300928746941396</v>
+        <v>0.0005083678305787207</v>
       </c>
       <c r="EY4">
-        <v>3.27430109076341E-05</v>
+        <v>8.73185926738853E-06</v>
       </c>
       <c r="EZ4">
-        <v>0.0001633209345272455</v>
+        <v>0.0001399099945196932</v>
       </c>
       <c r="FA4">
-        <v>0.0001858649551521643</v>
+        <v>0.000162557640497594</v>
       </c>
       <c r="FB4">
-        <v>0.002937876081437731</v>
+        <v>0.002927218601039291</v>
       </c>
       <c r="FC4">
-        <v>0.005838721161848965</v>
+        <v>0.005841397642610573</v>
       </c>
       <c r="FD4">
-        <v>0.005870013662716392</v>
+        <v>0.005872833981904252</v>
       </c>
       <c r="FE4">
-        <v>0.006333860775574204</v>
+        <v>0.006338813204273465</v>
       </c>
       <c r="FF4">
-        <v>0.001517442942063418</v>
+        <v>0.001500256329710032</v>
       </c>
       <c r="FG4">
-        <v>0.0003369445393400804</v>
+        <v>0.0003143316738035417</v>
       </c>
       <c r="FH4">
-        <v>0.002604053072184179</v>
+        <v>0.00259186114823004</v>
       </c>
       <c r="FI4">
-        <v>0.002774627276912486</v>
+        <v>0.002763219410623512</v>
       </c>
       <c r="FJ4">
-        <v>0.001181191632742554</v>
+        <v>0.001162459414962399</v>
       </c>
       <c r="FK4">
-        <v>0.001398113738755621</v>
+        <v>0.001380378620391723</v>
       </c>
       <c r="FL4">
-        <v>0.002960279082058741</v>
+        <v>0.002949724578803812</v>
       </c>
       <c r="FM4">
-        <v>0.002576902371431564</v>
+        <v>0.002564585647159149</v>
       </c>
       <c r="FN4">
-        <v>0.001784704549471892</v>
+        <v>0.001768746425987774</v>
       </c>
       <c r="FO4">
-        <v>5.1300951422059E-05</v>
+        <v>2.737510280599103E-05</v>
       </c>
       <c r="FP4">
-        <v>0.002028215256221993</v>
+        <v>0.002013376448735749</v>
       </c>
       <c r="FQ4">
-        <v>0.006394859177265075</v>
+        <v>0.00640009198988572</v>
       </c>
       <c r="FR4">
-        <v>0.008417739733339192</v>
+        <v>0.008432270874556648</v>
       </c>
       <c r="FS4">
-        <v>0.005075983340705924</v>
+        <v>0.005075153837452356</v>
       </c>
       <c r="FT4">
-        <v>0.002903281280478766</v>
+        <v>0.002892464782373574</v>
       </c>
       <c r="FU4">
-        <v>0.0004049572112253872</v>
+        <v>0.0003826569712514591</v>
       </c>
       <c r="FV4">
-        <v>7.508261208128505E-05</v>
+        <v>5.126607772735846E-05</v>
       </c>
       <c r="FW4">
-        <v>0.0002422480967151013</v>
+        <v>0.000219199951577979</v>
       </c>
       <c r="FX4">
-        <v>0.003970863410072072</v>
+        <v>0.003964954136674358</v>
       </c>
       <c r="FY4">
-        <v>0.008401758232896185</v>
+        <v>0.008416215913897643</v>
       </c>
       <c r="FZ4">
-        <v>0.01189225232965245</v>
+        <v>0.01192275433960819</v>
       </c>
       <c r="GA4">
-        <v>0.003204067788816548</v>
+        <v>0.003194633879408259</v>
       </c>
       <c r="GB4">
-        <v>0.00190303985275214</v>
+        <v>0.001887625666739366</v>
       </c>
       <c r="GC4">
-        <v>9.056883851056223E-05</v>
+        <v>6.682348780691675E-05</v>
       </c>
       <c r="GD4">
-        <v>0.001865066251699514</v>
+        <v>0.00184947751706125</v>
       </c>
       <c r="GE4">
-        <v>0.002862228379340782</v>
+        <v>0.002851223178366562</v>
       </c>
       <c r="GF4">
-        <v>0.007572185909900495</v>
+        <v>0.007582830396874814</v>
       </c>
       <c r="GG4">
-        <v>0.006362195776359649</v>
+        <v>0.006367278449104858</v>
       </c>
       <c r="GH4">
-        <v>0.001617396544834126</v>
+        <v>0.001600669377028864</v>
       </c>
       <c r="GI4">
-        <v>5.307359147119646E-05</v>
+        <v>2.915589093367484E-05</v>
       </c>
       <c r="GJ4">
-        <v>0.0002599977072071193</v>
+        <v>0.0002370311495420426</v>
       </c>
       <c r="GK4">
-        <v>0.001030493628565215</v>
+        <v>0.001011068715629373</v>
       </c>
       <c r="GL4">
-        <v>0.004237391117460203</v>
+        <v>0.004232706959502948</v>
       </c>
       <c r="GM4">
-        <v>0.00341372709462829</v>
+        <v>0.003405256900607429</v>
       </c>
       <c r="GN4">
-        <v>0.0009297657257730447</v>
+        <v>0.0009098778091585043</v>
       </c>
       <c r="GO4">
-        <v>0.0004597239427435174</v>
+        <v>0.0004376754423319178</v>
       </c>
       <c r="GP4">
-        <v>6.422760178038489E-05</v>
+        <v>4.036117152311567E-05</v>
       </c>
       <c r="GQ4">
-        <v>0.0008121776225135101</v>
+        <v>0.0007917492029909262</v>
       </c>
       <c r="GR4">
-        <v>0.0004600289527519723</v>
+        <v>0.000437981854342718</v>
       </c>
       <c r="GS4">
-        <v>0.0009696567268788205</v>
+        <v>0.0009499521723689895</v>
       </c>
       <c r="GT4">
         <v>0</v>
@@ -4313,604 +4313,604 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>4.324379921500198E-05</v>
+        <v>1.773752742027988E-05</v>
       </c>
       <c r="C5">
-        <v>5.091221054380929E-05</v>
+        <v>2.544234625443587E-05</v>
       </c>
       <c r="D5">
-        <v>0.0001143684249896801</v>
+        <v>8.919983333264006E-05</v>
       </c>
       <c r="E5">
-        <v>1.559532863498839E-05</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>1.793021443062295E-07</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>2.423673687863225E-05</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>2.559008676017766E-05</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>3.857795362338923E-05</v>
+        <v>1.304952967862602E-05</v>
       </c>
       <c r="J5">
-        <v>5.790441493180294E-06</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>3.194326720410313E-05</v>
+        <v>6.383343595206151E-06</v>
       </c>
       <c r="L5">
-        <v>5.285803037349761E-05</v>
+        <v>2.739740430085766E-05</v>
       </c>
       <c r="M5">
-        <v>6.493822431615503E-05</v>
+        <v>3.953495167784744E-05</v>
       </c>
       <c r="N5">
-        <v>0.0001054752407680735</v>
+        <v>8.026442672125383E-05</v>
       </c>
       <c r="O5">
-        <v>0.0001872818536077898</v>
+        <v>0.0001624594348317521</v>
       </c>
       <c r="P5">
-        <v>0.0002944448542281388</v>
+        <v>0.0002701312158697097</v>
       </c>
       <c r="Q5">
-        <v>0.0003322274409211441</v>
+        <v>0.0003080931838801914</v>
       </c>
       <c r="R5">
-        <v>0.0002062959919435402</v>
+        <v>0.0001815638470604219</v>
       </c>
       <c r="S5">
-        <v>5.054283857613929E-05</v>
+        <v>2.507122061037685E-05</v>
       </c>
       <c r="T5">
-        <v>7.137250375298215E-05</v>
+        <v>4.599977930164142E-05</v>
       </c>
       <c r="U5">
-        <v>4.390833415683726E-05</v>
+        <v>1.840521739102687E-05</v>
       </c>
       <c r="V5">
-        <v>2.814268553675646E-06</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>4.865360974149775E-08</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>2.620414070643139E-06</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>2.680969465342909E-05</v>
+        <v>1.225398255686746E-06</v>
       </c>
       <c r="Z5">
-        <v>1.559532863498839E-05</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>4.104354240758375E-05</v>
+        <v>1.55268243994219E-05</v>
       </c>
       <c r="AB5">
-        <v>5.586419511037717E-05</v>
+        <v>3.041784148010422E-05</v>
       </c>
       <c r="AC5">
-        <v>0.0001761030745862343</v>
+        <v>0.0001512275820456881</v>
       </c>
       <c r="AD5">
-        <v>0.0003488203494688173</v>
+        <v>0.0003247648709884812</v>
       </c>
       <c r="AE5">
-        <v>0.0003362740405669576</v>
+        <v>0.0003121589956668163</v>
       </c>
       <c r="AF5">
-        <v>0.0003082896030163501</v>
+        <v>0.0002840416957127569</v>
       </c>
       <c r="AG5">
-        <v>0.0001990723325758051</v>
+        <v>0.0001743058917471786</v>
       </c>
       <c r="AH5">
-        <v>7.574135337059006E-05</v>
+        <v>5.038937101418927E-05</v>
       </c>
       <c r="AI5">
-        <v>9.007952711561339E-05</v>
+        <v>6.479561845986963E-05</v>
       </c>
       <c r="AJ5">
-        <v>4.369074317588234E-05</v>
+        <v>1.818659334801212E-05</v>
       </c>
       <c r="AK5">
-        <v>1.44782977327587E-05</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>3.788687668387709E-08</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>1.599541859996974E-05</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>3.388771503391152E-05</v>
+        <v>8.337023127870399E-06</v>
       </c>
       <c r="AO5">
-        <v>1.64046905641474E-05</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>5.003523562056824E-06</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0.0001161770898313732</v>
+        <v>9.101708521695179E-05</v>
       </c>
       <c r="AR5">
-        <v>9.266174188959999E-05</v>
+        <v>6.739009287854196E-05</v>
       </c>
       <c r="AS5">
-        <v>2.768904557646219E-05</v>
+        <v>2.108924094756676E-06</v>
       </c>
       <c r="AT5">
-        <v>6.728070911112447E-05</v>
+        <v>4.188855794557639E-05</v>
       </c>
       <c r="AU5">
-        <v>6.631112919598885E-05</v>
+        <v>4.091437473199567E-05</v>
       </c>
       <c r="AV5">
-        <v>5.497346018834049E-05</v>
+        <v>2.952287759393824E-05</v>
       </c>
       <c r="AW5">
-        <v>0.0001037418509197918</v>
+        <v>7.852280721529385E-05</v>
       </c>
       <c r="AX5">
-        <v>6.263723451755365E-05</v>
+        <v>3.722303741330289E-05</v>
       </c>
       <c r="AY5">
-        <v>6.91000239518854E-05</v>
+        <v>4.371651039221887E-05</v>
       </c>
       <c r="AZ5">
-        <v>0.0001228463692476315</v>
+        <v>9.771802853536763E-05</v>
       </c>
       <c r="BA5">
-        <v>0.000194304442993124</v>
+        <v>0.0001695153655376864</v>
       </c>
       <c r="BB5">
-        <v>0.0001322230684269176</v>
+        <v>0.0001071392457003075</v>
       </c>
       <c r="BC5">
-        <v>8.174687284494522E-05</v>
+        <v>5.642340304127653E-05</v>
       </c>
       <c r="BD5">
-        <v>0.0001130924041013664</v>
+        <v>8.791775424852479E-05</v>
       </c>
       <c r="BE5">
-        <v>1.447442873309734E-05</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>8.64770424309279E-06</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>3.832688664536435E-06</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>0.04047645245721941</v>
+        <v>0.04064291192609256</v>
       </c>
       <c r="BI5">
-        <v>0.001166806597872973</v>
+        <v>0.001146634692852245</v>
       </c>
       <c r="BJ5">
-        <v>0.05085732354861339</v>
+        <v>0.05107306853486144</v>
       </c>
       <c r="BK5">
-        <v>7.916269307113061E-05</v>
+        <v>5.382695429349809E-05</v>
       </c>
       <c r="BL5">
-        <v>0.02068872218917917</v>
+        <v>0.02076123496366133</v>
       </c>
       <c r="BM5">
-        <v>0.009379527179038557</v>
+        <v>0.009398347009810966</v>
       </c>
       <c r="BN5">
-        <v>0.005778983194183205</v>
+        <v>0.005780708633592658</v>
       </c>
       <c r="BO5">
-        <v>0.01920274331924237</v>
+        <v>0.01926820107524215</v>
       </c>
       <c r="BP5">
-        <v>0.05297746836304357</v>
+        <v>0.053203279213049</v>
       </c>
       <c r="BQ5">
-        <v>0.01757148846202114</v>
+        <v>0.01762920146915537</v>
       </c>
       <c r="BR5">
-        <v>9.993323125314867E-07</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>5.628462507357821E-06</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>0.01279564788003592</v>
+        <v>0.01283068651120393</v>
       </c>
       <c r="BU5">
-        <v>0.0007389709353201251</v>
+        <v>0.0007167677843861491</v>
       </c>
       <c r="BV5">
-        <v>0.002220635105634573</v>
+        <v>0.002205466488177306</v>
       </c>
       <c r="BW5">
-        <v>0.00160990875908959</v>
+        <v>0.00159184058111385</v>
       </c>
       <c r="BX5">
-        <v>0.007226686367470155</v>
+        <v>0.007235285102894226</v>
       </c>
       <c r="BY5">
-        <v>0.001359374181018119</v>
+        <v>0.001340116533855078</v>
       </c>
       <c r="BZ5">
-        <v>0.009609063158947972</v>
+        <v>0.009628972763345966</v>
       </c>
       <c r="CA5">
-        <v>0.01154888898916093</v>
+        <v>0.01157800835243344</v>
       </c>
       <c r="CB5">
-        <v>0.0008973012214619574</v>
+        <v>0.0008758497791273769</v>
       </c>
       <c r="CC5">
-        <v>8.794849230213636E-06</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>0.0001572924362326722</v>
+        <v>0.0001323276359610844</v>
       </c>
       <c r="CE5">
-        <v>0.002489469482104319</v>
+        <v>0.002475577216237956</v>
       </c>
       <c r="CF5">
-        <v>0.008537699252721192</v>
+        <v>0.008552522316312513</v>
       </c>
       <c r="CG5">
-        <v>0.0005690269801948018</v>
+        <v>0.0005460169821591377</v>
       </c>
       <c r="CH5">
-        <v>0.003024545935270707</v>
+        <v>0.003013194065060667</v>
       </c>
       <c r="CI5">
-        <v>0.0004768763182604685</v>
+        <v>0.0004534288142573487</v>
       </c>
       <c r="CJ5">
-        <v>0.0003885057159952781</v>
+        <v>0.0003646386527071017</v>
       </c>
       <c r="CK5">
-        <v>0.00591244648250157</v>
+        <v>0.005914805568852346</v>
       </c>
       <c r="CL5">
-        <v>0.002252695602828416</v>
+        <v>0.002237679199783367</v>
       </c>
       <c r="CM5">
-        <v>3.196010220262961E-06</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.006938588692686467</v>
+        <v>0.006945819619683749</v>
       </c>
       <c r="CO5">
-        <v>0.01650302155554079</v>
+        <v>0.01655566177602541</v>
       </c>
       <c r="CP5">
-        <v>0.01870098836315946</v>
+        <v>0.01876406392479537</v>
       </c>
       <c r="CQ5">
-        <v>0.01050278508072322</v>
+        <v>0.01052693783070275</v>
       </c>
       <c r="CR5">
-        <v>0.01006455511908015</v>
+        <v>0.01008662727387662</v>
       </c>
       <c r="CS5">
-        <v>0.0004074171843400149</v>
+        <v>0.0003836399074959127</v>
       </c>
       <c r="CT5">
-        <v>0.005246853040758935</v>
+        <v>0.005246052072731922</v>
       </c>
       <c r="CU5">
-        <v>0.003490480694488857</v>
+        <v>0.003481340954211733</v>
       </c>
       <c r="CV5">
-        <v>0.01574355262201479</v>
+        <v>0.01579258709313701</v>
       </c>
       <c r="CW5">
-        <v>0.03527158891278526</v>
+        <v>0.03541333712280598</v>
       </c>
       <c r="CX5">
-        <v>0.02440363186402444</v>
+        <v>0.0244937820066729</v>
       </c>
       <c r="CY5">
-        <v>0.01912532032601897</v>
+        <v>0.0191904104989668</v>
       </c>
       <c r="CZ5">
-        <v>0.01470030871332676</v>
+        <v>0.01474439014964724</v>
       </c>
       <c r="DA5">
-        <v>0.007948466304294957</v>
+        <v>0.007960491852103464</v>
       </c>
       <c r="DB5">
-        <v>0.002373268592275029</v>
+        <v>0.002358824636581844</v>
       </c>
       <c r="DC5">
-        <v>0.02417632188392019</v>
+        <v>0.02426539282137717</v>
       </c>
       <c r="DD5">
-        <v>0.04822827777872575</v>
+        <v>0.0484315407796153</v>
       </c>
       <c r="DE5">
-        <v>0.05263063239340107</v>
+        <v>0.05285479656173041</v>
       </c>
       <c r="DF5">
-        <v>0.03106051728136754</v>
+        <v>0.03118227248287962</v>
       </c>
       <c r="DG5">
-        <v>0.01146526099648063</v>
+        <v>0.01149398331707243</v>
       </c>
       <c r="DH5">
-        <v>0.0002792333755595532</v>
+        <v>0.0002548475172891709</v>
       </c>
       <c r="DI5">
-        <v>0.0009571887562201839</v>
+        <v>0.0009360216434094825</v>
       </c>
       <c r="DJ5">
-        <v>0.002899114046249378</v>
+        <v>0.002887166659970282</v>
       </c>
       <c r="DK5">
-        <v>0.007413823951090573</v>
+        <v>0.007423311164229839</v>
       </c>
       <c r="DL5">
-        <v>0.01037130409223135</v>
+        <v>0.01039483260668327</v>
       </c>
       <c r="DM5">
-        <v>0.01942886029945104</v>
+        <v>0.01949539159660732</v>
       </c>
       <c r="DN5">
-        <v>0.01811023641486617</v>
+        <v>0.01817050724892619</v>
       </c>
       <c r="DO5">
-        <v>0.009759265145801251</v>
+        <v>0.009779887867871897</v>
       </c>
       <c r="DP5">
-        <v>0.002700952563593849</v>
+        <v>0.002688064361162575</v>
       </c>
       <c r="DQ5">
-        <v>0.002077614918152695</v>
+        <v>0.002061767280228547</v>
       </c>
       <c r="DR5">
-        <v>0.01726714848865909</v>
+        <v>0.0173234165734055</v>
       </c>
       <c r="DS5">
-        <v>0.01397576477674388</v>
+        <v>0.0140164062779702</v>
       </c>
       <c r="DT5">
-        <v>0.009957725128430652</v>
+        <v>0.009979290083849155</v>
       </c>
       <c r="DU5">
-        <v>0.004587574898463543</v>
+        <v>0.00458364385936148</v>
       </c>
       <c r="DV5">
-        <v>0.001156951198735586</v>
+        <v>0.001136732502993622</v>
       </c>
       <c r="DW5">
-        <v>0.0004029822247281934</v>
+        <v>0.0003791838919171033</v>
       </c>
       <c r="DX5">
-        <v>0.000292412644406012</v>
+        <v>0.0002680893576749544</v>
       </c>
       <c r="DY5">
-        <v>6.01225607376554E-05</v>
+        <v>3.469642465476014E-05</v>
       </c>
       <c r="DZ5">
-        <v>0.001528056066253907</v>
+        <v>0.001509599274232253</v>
       </c>
       <c r="EA5">
-        <v>0.0006168893960055502</v>
+        <v>0.0005941066355403442</v>
       </c>
       <c r="EB5">
-        <v>0.005110260552714459</v>
+        <v>0.005108811081167507</v>
       </c>
       <c r="EC5">
-        <v>0.005460127222091696</v>
+        <v>0.005460338821148616</v>
       </c>
       <c r="ED5">
-        <v>0.004371011617418668</v>
+        <v>0.004366052395492954</v>
       </c>
       <c r="EE5">
-        <v>0.008078940292874965</v>
+        <v>0.008091585295252798</v>
       </c>
       <c r="EF5">
-        <v>0.004790727080682252</v>
+        <v>0.004787760552199609</v>
       </c>
       <c r="EG5">
-        <v>0.0005130674250927712</v>
+        <v>0.000489791746498993</v>
       </c>
       <c r="EH5">
-        <v>0.0006896067396408227</v>
+        <v>0.0006671692210991161</v>
       </c>
       <c r="EI5">
-        <v>0.004682185590182558</v>
+        <v>0.004678703736591953</v>
       </c>
       <c r="EJ5">
-        <v>0.00684572790081429</v>
+        <v>0.006852517950342718</v>
       </c>
       <c r="EK5">
-        <v>0.002419729288208466</v>
+        <v>0.002405505915105752</v>
       </c>
       <c r="EL5">
-        <v>0.00207221091862569</v>
+        <v>0.002056337623999881</v>
       </c>
       <c r="EM5">
-        <v>0.002202257107243144</v>
+        <v>0.002187001236110239</v>
       </c>
       <c r="EN5">
-        <v>0.0004278501325515812</v>
+        <v>0.0004041698657189929</v>
       </c>
       <c r="EO5">
-        <v>0.000199057972577062</v>
+        <v>0.0001742914635711157</v>
       </c>
       <c r="EP5">
-        <v>5.508486017858998E-06</v>
+        <v>0</v>
       </c>
       <c r="EQ5">
-        <v>0.0001703041150937996</v>
+        <v>0.0001454010906904352</v>
       </c>
       <c r="ER5">
-        <v>0.001067695906547829</v>
+        <v>0.001047053451256673</v>
       </c>
       <c r="ES5">
-        <v>0.0002311139597712991</v>
+        <v>0.0002064996437653354</v>
       </c>
       <c r="ET5">
-        <v>0.0001196737995253169</v>
+        <v>9.453039632563788E-05</v>
       </c>
       <c r="EU5">
-        <v>0.00225989310219844</v>
+        <v>0.002244910870898434</v>
       </c>
       <c r="EV5">
-        <v>0.0001594122860471282</v>
+        <v>0.0001344575502387191</v>
       </c>
       <c r="EW5">
-        <v>0.0006618794420677086</v>
+        <v>0.0006393102819523549</v>
       </c>
       <c r="EX5">
-        <v>0.00447810590804503</v>
+        <v>0.004473655140320794</v>
       </c>
       <c r="EY5">
-        <v>0.009692410151652862</v>
+        <v>0.009712715464621066</v>
       </c>
       <c r="EZ5">
-        <v>0.002160353210910864</v>
+        <v>0.002144898391617195</v>
       </c>
       <c r="FA5">
-        <v>0.0002396787790216466</v>
+        <v>0.0002151051264190003</v>
       </c>
       <c r="FB5">
-        <v>0.004943172567339163</v>
+        <v>0.004940929808048451</v>
       </c>
       <c r="FC5">
-        <v>0.006648057418115785</v>
+        <v>0.006653908982624626</v>
       </c>
       <c r="FD5">
-        <v>0.007998315299931825</v>
+        <v>0.008010577517044763</v>
       </c>
       <c r="FE5">
-        <v>0.001298216786371039</v>
+        <v>0.001278668780739047</v>
       </c>
       <c r="FF5">
-        <v>5.006203561822251E-05</v>
+        <v>2.458813493241397E-05</v>
       </c>
       <c r="FG5">
-        <v>3.725577673911535E-07</v>
+        <v>0</v>
       </c>
       <c r="FH5">
-        <v>0.0001694205851711322</v>
+        <v>0.0001445133660109916</v>
       </c>
       <c r="FI5">
-        <v>0.0002119474914488817</v>
+        <v>0.0001872421783291687</v>
       </c>
       <c r="FJ5">
-        <v>0.002362596593209117</v>
+        <v>0.002348101969803102</v>
       </c>
       <c r="FK5">
-        <v>0.007898682308652398</v>
+        <v>0.007910471495758549</v>
       </c>
       <c r="FL5">
-        <v>0.01060038107218094</v>
+        <v>0.01062499718105303</v>
       </c>
       <c r="FM5">
-        <v>0.009336999182760902</v>
+        <v>0.009355617102317864</v>
       </c>
       <c r="FN5">
-        <v>0.002506409980621569</v>
+        <v>0.002492598143577282</v>
       </c>
       <c r="FO5">
-        <v>0.0004373675217185531</v>
+        <v>0.0004137324408289386</v>
       </c>
       <c r="FP5">
-        <v>0.003349688306811986</v>
+        <v>0.00333988012304799</v>
       </c>
       <c r="FQ5">
-        <v>0.005340491532563043</v>
+        <v>0.005340135134310005</v>
       </c>
       <c r="FR5">
-        <v>0.002095420216594251</v>
+        <v>0.002079657113324081</v>
       </c>
       <c r="FS5">
-        <v>0.00159836946009959</v>
+        <v>0.001580246496709808</v>
       </c>
       <c r="FT5">
-        <v>0.003583145986378146</v>
+        <v>0.003574446195389791</v>
       </c>
       <c r="FU5">
-        <v>0.003030084934785896</v>
+        <v>0.003018759362220286</v>
       </c>
       <c r="FV5">
-        <v>0.002220587605638731</v>
+        <v>0.002205418762664563</v>
       </c>
       <c r="FW5">
-        <v>0.0009624077657633799</v>
+        <v>0.0009412654313728377</v>
       </c>
       <c r="FX5">
-        <v>0.0003372070504852941</v>
+        <v>0.0003130964352593233</v>
       </c>
       <c r="FY5">
-        <v>0.003553846588942634</v>
+        <v>0.003545007692483392</v>
       </c>
       <c r="FZ5">
-        <v>0.007563416337997207</v>
+        <v>0.007573613774596444</v>
       </c>
       <c r="GA5">
-        <v>0.005619059508180838</v>
+        <v>0.00562002567396713</v>
       </c>
       <c r="GB5">
-        <v>0.002450723485495638</v>
+        <v>0.002436647264306811</v>
       </c>
       <c r="GC5">
-        <v>0.0007650240330397768</v>
+        <v>0.0007429445750395659</v>
       </c>
       <c r="GD5">
-        <v>0.0001700697451143133</v>
+        <v>0.0001451656079868245</v>
       </c>
       <c r="GE5">
-        <v>0.0001125523501486356</v>
+        <v>8.737513626834045E-05</v>
       </c>
       <c r="GF5">
-        <v>0.002276035100785581</v>
+        <v>0.002261129507249865</v>
       </c>
       <c r="GG5">
-        <v>0.007671304728554065</v>
+        <v>0.007682014389522579</v>
       </c>
       <c r="GH5">
-        <v>0.01118391502110599</v>
+        <v>0.01121130158848059</v>
       </c>
       <c r="GI5">
-        <v>0.004161740635735519</v>
+        <v>0.004155787852815453</v>
       </c>
       <c r="GJ5">
-        <v>0.001900044133694925</v>
+        <v>0.001883353438583608</v>
       </c>
       <c r="GK5">
-        <v>0.0001118343002114844</v>
+        <v>8.665367722781607E-05</v>
       </c>
       <c r="GL5">
-        <v>0.001170862497517972</v>
+        <v>0.001150709848791891</v>
       </c>
       <c r="GM5">
-        <v>0.002812172953859067</v>
+        <v>0.002799812795214158</v>
       </c>
       <c r="GN5">
-        <v>0.009993374125310404</v>
+        <v>0.01001510833234947</v>
       </c>
       <c r="GO5">
-        <v>0.009649077155445669</v>
+        <v>0.009669176735280432</v>
       </c>
       <c r="GP5">
-        <v>0.003975876252003662</v>
+        <v>0.003969041036170872</v>
       </c>
       <c r="GQ5">
-        <v>0.0004731824885837781</v>
+        <v>0.0004497174472945186</v>
       </c>
       <c r="GR5">
-        <v>7.470360346142114E-05</v>
+        <v>4.934669415421546E-05</v>
       </c>
       <c r="GS5">
-        <v>0.0004854041175140562</v>
+        <v>0.0004619971011535034</v>
       </c>
       <c r="GT5">
         <v>0</v>
@@ -5086,604 +5086,604 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>4.514890104431981E-05</v>
+        <v>3.651354912275438E-05</v>
       </c>
       <c r="C6">
-        <v>0.0001033445555235035</v>
+        <v>9.480576786739723E-05</v>
       </c>
       <c r="D6">
-        <v>6.152636733490972E-05</v>
+        <v>5.291819060394205E-05</v>
       </c>
       <c r="E6">
-        <v>0.0001417364738605103</v>
+        <v>0.0001332613900569848</v>
       </c>
       <c r="F6">
-        <v>0.0001078336013290549</v>
+        <v>9.930226236331405E-05</v>
       </c>
       <c r="G6">
-        <v>5.46240126338937E-05</v>
+        <v>4.600438280015389E-05</v>
       </c>
       <c r="H6">
-        <v>4.768420493450001E-05</v>
+        <v>3.905305985208884E-05</v>
       </c>
       <c r="I6">
-        <v>6.06411243732551E-05</v>
+        <v>5.203147875535576E-05</v>
       </c>
       <c r="J6">
-        <v>1.141028250574958E-05</v>
+        <v>2.718947969228756E-06</v>
       </c>
       <c r="K6">
-        <v>8.886196015083488E-07</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>7.324592682726258E-06</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>8.695838623329054E-06</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>1.406123739092021E-05</v>
+        <v>5.374301593678853E-06</v>
       </c>
       <c r="O6">
-        <v>1.047698254617661E-06</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.639586428979297E-05</v>
+        <v>7.71280234762943E-06</v>
       </c>
       <c r="Q6">
-        <v>4.967616784821568E-06</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>4.300058013737698E-05</v>
+        <v>3.436166349895758E-05</v>
       </c>
       <c r="S6">
-        <v>1.07285375352802E-07</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>8.225226643714189E-06</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>1.46764063642734E-05</v>
+        <v>5.990491319192617E-06</v>
       </c>
       <c r="V6">
-        <v>6.350771124908536E-06</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>1.28738974423513E-05</v>
+        <v>4.184991487526701E-06</v>
       </c>
       <c r="X6">
-        <v>1.659301328125322E-05</v>
+        <v>7.91027846914289E-06</v>
       </c>
       <c r="Y6">
-        <v>1.179442748910986E-05</v>
+        <v>3.103730365785612E-06</v>
       </c>
       <c r="Z6">
-        <v>7.7980816622165E-05</v>
+        <v>6.939994281996718E-05</v>
       </c>
       <c r="AA6">
-        <v>0.000134129954189996</v>
+        <v>0.0001256422488601512</v>
       </c>
       <c r="AB6">
-        <v>0.0001971487114602611</v>
+        <v>0.0001887655733882366</v>
       </c>
       <c r="AC6">
-        <v>0.0003338771455377007</v>
+        <v>0.0003257208814637821</v>
       </c>
       <c r="AD6">
-        <v>0.0001436635937770347</v>
+        <v>0.0001351917076507388</v>
       </c>
       <c r="AE6">
-        <v>7.89842415787004E-05</v>
+        <v>7.040503276325698E-05</v>
       </c>
       <c r="AF6">
-        <v>1.047201454639181E-06</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>1.46764063642734E-05</v>
+        <v>5.990491319192617E-06</v>
       </c>
       <c r="AH6">
-        <v>6.67079771104619E-05</v>
+        <v>5.810839824382535E-05</v>
       </c>
       <c r="AI6">
-        <v>0.0001602181330599545</v>
+        <v>0.0001517737159421298</v>
       </c>
       <c r="AJ6">
-        <v>3.756079037300816E-05</v>
+        <v>2.891284747124402E-05</v>
       </c>
       <c r="AK6">
-        <v>0.0001144862750408862</v>
+        <v>0.0001059659748813255</v>
       </c>
       <c r="AL6">
-        <v>0.0001227681746821455</v>
+        <v>0.0001142616167093962</v>
       </c>
       <c r="AM6">
-        <v>4.734958794899435E-05</v>
+        <v>3.871788763537727E-05</v>
       </c>
       <c r="AN6">
-        <v>0.0001002427916578602</v>
+        <v>9.169885723346008E-05</v>
       </c>
       <c r="AO6">
-        <v>0.0001078336013290549</v>
+        <v>9.930226236331405E-05</v>
       </c>
       <c r="AP6">
-        <v>3.855901832976869E-05</v>
+        <v>2.991273179135793E-05</v>
       </c>
       <c r="AQ6">
-        <v>3.795850835578052E-05</v>
+        <v>2.931122538894124E-05</v>
       </c>
       <c r="AR6">
-        <v>0.0001033445555235035</v>
+        <v>9.480576786739723E-05</v>
       </c>
       <c r="AS6">
-        <v>3.102980465590584E-05</v>
+        <v>2.237102486530283E-05</v>
       </c>
       <c r="AT6">
-        <v>3.407555652397535E-05</v>
+        <v>2.542183056075074E-05</v>
       </c>
       <c r="AU6">
-        <v>8.922306613519313E-05</v>
+        <v>8.066084663933571E-05</v>
       </c>
       <c r="AV6">
-        <v>2.593966887639133E-05</v>
+        <v>1.727244300459832E-05</v>
       </c>
       <c r="AW6">
-        <v>2.163023906305959E-07</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>6.613234713539604E-07</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>0.007729168165201574</v>
+        <v>0.007733282934962771</v>
       </c>
       <c r="AZ6">
-        <v>0.03171695862614092</v>
+        <v>0.03176087642563999</v>
       </c>
       <c r="BA6">
-        <v>0.07018673695977515</v>
+        <v>0.07029448780523634</v>
       </c>
       <c r="BB6">
-        <v>0.01201172747969725</v>
+        <v>0.01202294831602288</v>
       </c>
       <c r="BC6">
-        <v>0.01457977886845894</v>
+        <v>0.01459526088198477</v>
       </c>
       <c r="BD6">
-        <v>0.02294943200591712</v>
+        <v>0.02297880181595628</v>
       </c>
       <c r="BE6">
-        <v>0.001259480645444046</v>
+        <v>0.00125286023869272</v>
       </c>
       <c r="BF6">
-        <v>0.007504635174927495</v>
+        <v>0.007508377376264621</v>
       </c>
       <c r="BG6">
-        <v>0.03628846842812036</v>
+        <v>0.03633997175080012</v>
       </c>
       <c r="BH6">
-        <v>0.02526523290560536</v>
+        <v>0.02529844533267201</v>
       </c>
       <c r="BI6">
-        <v>0.002783018079450148</v>
+        <v>0.002778925684017382</v>
       </c>
       <c r="BJ6">
-        <v>8.967758611550504E-05</v>
+        <v>8.111612080633781E-05</v>
       </c>
       <c r="BK6">
-        <v>0.00404642832472398</v>
+        <v>0.004044432310600099</v>
       </c>
       <c r="BL6">
-        <v>0.005119165178257063</v>
+        <v>0.005118949160375504</v>
       </c>
       <c r="BM6">
-        <v>9.339754195437058E-05</v>
+        <v>8.484224918173269E-05</v>
       </c>
       <c r="BN6">
-        <v>0.0002317221699626691</v>
+        <v>0.0002233963997586504</v>
       </c>
       <c r="BO6">
-        <v>0.008741857621335683</v>
+        <v>0.008747652750469846</v>
       </c>
       <c r="BP6">
-        <v>0.001807914121687976</v>
+        <v>0.001802203732639186</v>
       </c>
       <c r="BQ6">
-        <v>0.004015608526058977</v>
+        <v>0.00401356137252879</v>
       </c>
       <c r="BR6">
-        <v>0.01527163033849055</v>
+        <v>0.01528826034372827</v>
       </c>
       <c r="BS6">
-        <v>0.003022686669068608</v>
+        <v>0.00301899195661608</v>
       </c>
       <c r="BT6">
-        <v>0.0002776400279736807</v>
+        <v>0.0002693904494418749</v>
       </c>
       <c r="BU6">
-        <v>0.0006333106725673692</v>
+        <v>0.0006256512596561403</v>
       </c>
       <c r="BV6">
-        <v>0.004579664801626185</v>
+        <v>0.004578553588767431</v>
       </c>
       <c r="BW6">
-        <v>0.01918158216912617</v>
+        <v>0.01920469997194749</v>
       </c>
       <c r="BX6">
-        <v>0.003779285436295602</v>
+        <v>0.003776846150985503</v>
       </c>
       <c r="BY6">
-        <v>0.002537711890075888</v>
+        <v>0.002533212457172686</v>
       </c>
       <c r="BZ6">
-        <v>0.004340862811970187</v>
+        <v>0.004339355354083731</v>
       </c>
       <c r="CA6">
-        <v>0.0003803398835251101</v>
+        <v>0.0003722607152447714</v>
       </c>
       <c r="CB6">
-        <v>0.005274335171535684</v>
+        <v>0.005274376627799855</v>
       </c>
       <c r="CC6">
-        <v>0.003642280842230125</v>
+        <v>0.003639614224688626</v>
       </c>
       <c r="CD6">
-        <v>0.0001628917929441416</v>
+        <v>0.0001544518122400855</v>
       </c>
       <c r="CE6">
-        <v>0.003485769149009622</v>
+        <v>0.0034828428310347</v>
       </c>
       <c r="CF6">
-        <v>0.01266956345120227</v>
+        <v>0.01268187583719685</v>
       </c>
       <c r="CG6">
-        <v>0.02233828703238962</v>
+        <v>0.02236664276730605</v>
       </c>
       <c r="CH6">
-        <v>0.01422635538376792</v>
+        <v>0.01424125096039393</v>
       </c>
       <c r="CI6">
-        <v>0.01185969948628253</v>
+        <v>0.01187066806199446</v>
       </c>
       <c r="CJ6">
-        <v>0.005115692778407475</v>
+        <v>0.005115470998759958</v>
       </c>
       <c r="CK6">
-        <v>0.002075882310080604</v>
+        <v>0.002070616561641326</v>
       </c>
       <c r="CL6">
-        <v>0.00129184394404219</v>
+        <v>0.001285277237832338</v>
       </c>
       <c r="CM6">
-        <v>0.006000476740081968</v>
+        <v>0.006001723085745763</v>
       </c>
       <c r="CN6">
-        <v>0.01846235720028029</v>
+        <v>0.01848428159044154</v>
       </c>
       <c r="CO6">
-        <v>0.02317557899612129</v>
+        <v>0.02320532405270059</v>
       </c>
       <c r="CP6">
-        <v>0.01465613436515151</v>
+        <v>0.01467174307563638</v>
       </c>
       <c r="CQ6">
-        <v>0.01732612324949766</v>
+        <v>0.01734616228244747</v>
       </c>
       <c r="CR6">
-        <v>0.008648354625385881</v>
+        <v>0.008653994604651846</v>
       </c>
       <c r="CS6">
-        <v>0.0001515261334364591</v>
+        <v>0.0001430672936514005</v>
       </c>
       <c r="CT6">
-        <v>0.01786478322616494</v>
+        <v>0.01788571605961316</v>
       </c>
       <c r="CU6">
-        <v>0.0395359082874535</v>
+        <v>0.0395928000991441</v>
       </c>
       <c r="CV6">
-        <v>0.05317624469660555</v>
+        <v>0.05325576996912332</v>
       </c>
       <c r="CW6">
-        <v>0.02526515190560887</v>
+        <v>0.02529836419827192</v>
       </c>
       <c r="CX6">
-        <v>0.01428431338125739</v>
+        <v>0.01429930512780375</v>
       </c>
       <c r="CY6">
-        <v>0.0006292330727439954</v>
+        <v>0.0006215668938562463</v>
       </c>
       <c r="CZ6">
-        <v>0.001373948440485733</v>
+        <v>0.001367517970571545</v>
       </c>
       <c r="DA6">
-        <v>0.004443809807510912</v>
+        <v>0.004442473169956224</v>
       </c>
       <c r="DB6">
-        <v>0.01053007354387691</v>
+        <v>0.01053883586632796</v>
       </c>
       <c r="DC6">
-        <v>0.01357024291218824</v>
+        <v>0.01358404979895513</v>
       </c>
       <c r="DD6">
-        <v>0.02349443998230943</v>
+        <v>0.02352471412610651</v>
       </c>
       <c r="DE6">
-        <v>0.02332361698970884</v>
+        <v>0.02335360768628031</v>
       </c>
       <c r="DF6">
-        <v>0.01468161136404794</v>
+        <v>0.01469726234861163</v>
       </c>
       <c r="DG6">
-        <v>0.006158177733250956</v>
+        <v>0.006159685752757993</v>
       </c>
       <c r="DH6">
-        <v>3.598793644113826E-05</v>
+        <v>2.733738369700763E-05</v>
       </c>
       <c r="DI6">
-        <v>0.01307712343354831</v>
+        <v>0.01309011208533418</v>
       </c>
       <c r="DJ6">
-        <v>0.01357018741219064</v>
+        <v>0.01358399420686618</v>
       </c>
       <c r="DK6">
-        <v>0.008984062610844277</v>
+        <v>0.008990259631616428</v>
       </c>
       <c r="DL6">
-        <v>0.004211741817563222</v>
+        <v>0.004210020108731538</v>
       </c>
       <c r="DM6">
-        <v>0.002535242490182853</v>
+        <v>0.002530738959795244</v>
       </c>
       <c r="DN6">
-        <v>0.001096292452512744</v>
+        <v>0.001089401266987246</v>
       </c>
       <c r="DO6">
-        <v>0.002283549501085244</v>
+        <v>0.002278628335586716</v>
       </c>
       <c r="DP6">
-        <v>0.0003455076250339122</v>
+        <v>0.0003373706594577858</v>
       </c>
       <c r="DQ6">
-        <v>4.131963421018922E-05</v>
+        <v>3.267792837195433E-05</v>
       </c>
       <c r="DR6">
-        <v>3.531165447043225E-05</v>
+        <v>2.665997956911773E-05</v>
       </c>
       <c r="DS6">
-        <v>0.001665017727877709</v>
+        <v>0.001659070230312337</v>
       </c>
       <c r="DT6">
-        <v>0.001778471322963327</v>
+        <v>0.001772712079369342</v>
       </c>
       <c r="DU6">
-        <v>0.002345067098420534</v>
+        <v>0.002340248009299575</v>
       </c>
       <c r="DV6">
-        <v>0.004043372124856362</v>
+        <v>0.004041371039568698</v>
       </c>
       <c r="DW6">
-        <v>0.005239139973060207</v>
+        <v>0.005239123029800928</v>
       </c>
       <c r="DX6">
-        <v>0.0008052881151179546</v>
+        <v>0.0007979140650154109</v>
       </c>
       <c r="DY6">
-        <v>3.627973442849868E-05</v>
+        <v>2.762966586585142E-05</v>
       </c>
       <c r="DZ6">
-        <v>0.002854293276362775</v>
+        <v>0.002850319148128771</v>
       </c>
       <c r="EA6">
-        <v>0.006699023909823538</v>
+        <v>0.006701429357398606</v>
       </c>
       <c r="EB6">
-        <v>0.004033058825303096</v>
+        <v>0.004031040627119208</v>
       </c>
       <c r="EC6">
-        <v>0.001647875328620253</v>
+        <v>0.001641899386608173</v>
       </c>
       <c r="ED6">
-        <v>0.001585420731325551</v>
+        <v>0.001579341158168391</v>
       </c>
       <c r="EE6">
-        <v>0.0005415972765400477</v>
+        <v>0.0005337856832504142</v>
       </c>
       <c r="EF6">
-        <v>4.172759819251775E-06</v>
+        <v>0</v>
       </c>
       <c r="EG6">
-        <v>9.506801588201194E-07</v>
+        <v>0</v>
       </c>
       <c r="EH6">
-        <v>0.0005389756766536056</v>
+        <v>0.0005311597333335509</v>
       </c>
       <c r="EI6">
-        <v>0.001417472038600455</v>
+        <v>0.001411113787554148</v>
       </c>
       <c r="EJ6">
-        <v>0.001365564440848896</v>
+        <v>0.001359120059332995</v>
       </c>
       <c r="EK6">
-        <v>0.0006521806117499944</v>
+        <v>0.0006445525097988834</v>
       </c>
       <c r="EL6">
-        <v>8.618788626666568E-05</v>
+        <v>7.762063048558794E-05</v>
       </c>
       <c r="EM6">
-        <v>3.039389068345123E-06</v>
+        <v>0</v>
       </c>
       <c r="EN6">
-        <v>0.001023102155683072</v>
+        <v>0.001016089525226412</v>
       </c>
       <c r="EO6">
-        <v>0.004663264798004949</v>
+        <v>0.004662292302930452</v>
       </c>
       <c r="EP6">
-        <v>0.01060159454077889</v>
+        <v>0.01061047553828554</v>
       </c>
       <c r="EQ6">
-        <v>0.005762231750401844</v>
+        <v>0.005763082775270062</v>
       </c>
       <c r="ER6">
-        <v>4.059475224158837E-05</v>
+        <v>3.195184360401272E-05</v>
       </c>
       <c r="ES6">
-        <v>0.003568411845429851</v>
+        <v>0.003565622656787812</v>
       </c>
       <c r="ET6">
-        <v>0.005876992745430829</v>
+        <v>0.005878034193644012</v>
       </c>
       <c r="EU6">
-        <v>0.009513089587928823</v>
+        <v>0.009520164425127431</v>
       </c>
       <c r="EV6">
-        <v>0.005009771782995573</v>
+        <v>0.005009374248247264</v>
       </c>
       <c r="EW6">
-        <v>0.001383543640070105</v>
+        <v>0.001377129091506198</v>
       </c>
       <c r="EX6">
-        <v>0.0002929355873111347</v>
+        <v>0.000284711388757704</v>
       </c>
       <c r="EY6">
-        <v>1.295327043891316E-07</v>
+        <v>0</v>
       </c>
       <c r="EZ6">
-        <v>1.235838746468124E-05</v>
+        <v>3.668626122237486E-06</v>
       </c>
       <c r="FA6">
-        <v>0.0005155691776674869</v>
+        <v>0.0005077143958567958</v>
       </c>
       <c r="FB6">
-        <v>0.005047671281353909</v>
+        <v>0.005047336633383883</v>
       </c>
       <c r="FC6">
-        <v>0.006516238417741117</v>
+        <v>0.006518340568670801</v>
       </c>
       <c r="FD6">
-        <v>0.006200152131432783</v>
+        <v>0.006201729799214501</v>
       </c>
       <c r="FE6">
-        <v>0.00382818493417746</v>
+        <v>0.003825826787985677</v>
       </c>
       <c r="FF6">
-        <v>0.0003699881639735075</v>
+        <v>0.0003618918190464985</v>
       </c>
       <c r="FG6">
-        <v>0.003231680560015781</v>
+        <v>0.003228332631902141</v>
       </c>
       <c r="FH6">
-        <v>0.006150523733582498</v>
+        <v>0.006152019052779479</v>
       </c>
       <c r="FI6">
-        <v>0.002794955778933052</v>
+        <v>0.002790883191769343</v>
       </c>
       <c r="FJ6">
-        <v>0.001564230632243426</v>
+        <v>0.001558115898276217</v>
       </c>
       <c r="FK6">
-        <v>0.002160003106436808</v>
+        <v>0.002154876939947121</v>
       </c>
       <c r="FL6">
-        <v>0.003240885959617038</v>
+        <v>0.00323755330605712</v>
       </c>
       <c r="FM6">
-        <v>0.00148463403569125</v>
+        <v>0.001478387226795975</v>
       </c>
       <c r="FN6">
-        <v>0.0008080318649991058</v>
+        <v>0.0008006623676109228</v>
       </c>
       <c r="FO6">
-        <v>0.0002086792309608024</v>
+        <v>0.0002003152255225785</v>
       </c>
       <c r="FP6">
-        <v>0.004990354783836644</v>
+        <v>0.004989925030389569</v>
       </c>
       <c r="FQ6">
-        <v>0.009019417609312831</v>
+        <v>0.009025673294765155</v>
       </c>
       <c r="FR6">
-        <v>0.009940800569401996</v>
+        <v>0.009948585109019529</v>
       </c>
       <c r="FS6">
-        <v>0.004752081194157758</v>
+        <v>0.004751256072459022</v>
       </c>
       <c r="FT6">
-        <v>0.0030610881674052</v>
+        <v>0.003057457174701381</v>
       </c>
       <c r="FU6">
-        <v>6.280213727964817E-05</v>
+        <v>5.419607743848458E-05</v>
       </c>
       <c r="FV6">
-        <v>4.813219791509464E-05</v>
+        <v>3.950179618909881E-05</v>
       </c>
       <c r="FW6">
-        <v>0.0005869437745758084</v>
+        <v>0.0005792074248986604</v>
       </c>
       <c r="FX6">
-        <v>0.003828154434178781</v>
+        <v>0.003825796237378238</v>
       </c>
       <c r="FY6">
-        <v>0.01047530354624934</v>
+        <v>0.01048397498864006</v>
       </c>
       <c r="FZ6">
-        <v>0.006326893025942845</v>
+        <v>0.006328680995361199</v>
       </c>
       <c r="GA6">
-        <v>0.002093591409313512</v>
+        <v>0.002088355045648315</v>
       </c>
       <c r="GB6">
-        <v>0.0005303591370268416</v>
+        <v>0.0005225288962506057</v>
       </c>
       <c r="GC6">
-        <v>0.0004880241588606332</v>
+        <v>0.000480123671498008</v>
       </c>
       <c r="GD6">
-        <v>0.001775742923081511</v>
+        <v>0.001769979152243476</v>
       </c>
       <c r="GE6">
-        <v>0.00552159616082527</v>
+        <v>0.005522047898166631</v>
       </c>
       <c r="GF6">
-        <v>0.0079036956576417</v>
+        <v>0.00790810002151883</v>
       </c>
       <c r="GG6">
-        <v>0.003818179834610844</v>
+        <v>0.003815805086920218</v>
       </c>
       <c r="GH6">
-        <v>0.0004341905411925026</v>
+        <v>0.0004262007275082877</v>
       </c>
       <c r="GI6">
-        <v>0.000239914299607817</v>
+        <v>0.000231602122634922</v>
       </c>
       <c r="GJ6">
-        <v>0.000934517959520205</v>
+        <v>0.0009273583409780894</v>
       </c>
       <c r="GK6">
-        <v>0.003779255136296915</v>
+        <v>0.003776815800709915</v>
       </c>
       <c r="GL6">
-        <v>0.006096077735940893</v>
+        <v>0.006097482712691921</v>
       </c>
       <c r="GM6">
-        <v>0.002407354395722483</v>
+        <v>0.002402638660145105</v>
       </c>
       <c r="GN6">
-        <v>0.001234891546509154</v>
+        <v>0.001228230338974707</v>
       </c>
       <c r="GO6">
-        <v>0.000653822271678884</v>
+        <v>0.0006461968937401857</v>
       </c>
       <c r="GP6">
-        <v>3.407555652397535E-05</v>
+        <v>2.542183056075074E-05</v>
       </c>
       <c r="GQ6">
-        <v>6.71050410932626E-05</v>
+        <v>5.850612107636633E-05</v>
       </c>
       <c r="GR6">
-        <v>1.430682638028222E-05</v>
+        <v>5.620298089762367E-06</v>
       </c>
       <c r="GS6">
-        <v>0.001232635446606879</v>
+        <v>0.001225970495517492</v>
       </c>
       <c r="GT6">
         <v>0</v>
@@ -6645,772 +6645,772 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>9.726459332804212E-05</v>
+        <v>7.743130178520624E-05</v>
       </c>
       <c r="C2">
-        <v>0.0002929762799030117</v>
+        <v>0.0002536953192730383</v>
       </c>
       <c r="D2">
-        <v>0.0005169846245369448</v>
+        <v>0.00045836683432163</v>
       </c>
       <c r="E2">
-        <v>0.0008327558328763165</v>
+        <v>0.0007551606530517626</v>
       </c>
       <c r="F2">
-        <v>0.001208231837120181</v>
+        <v>0.001111893134520382</v>
       </c>
       <c r="G2">
-        <v>0.001654535086505582</v>
+        <v>0.00153973029518472</v>
       </c>
       <c r="H2">
-        <v>0.002139111383265607</v>
+        <v>0.002005990420768516</v>
       </c>
       <c r="I2">
-        <v>0.002567666653868448</v>
+        <v>0.002416010082881492</v>
       </c>
       <c r="J2">
-        <v>0.003004782063884098</v>
+        <v>0.002834623414924761</v>
       </c>
       <c r="K2">
-        <v>0.003405586576390529</v>
+        <v>0.003216783617758471</v>
       </c>
       <c r="L2">
-        <v>0.003687582857046724</v>
+        <v>0.003479670210632625</v>
       </c>
       <c r="M2">
-        <v>0.003758516046180994</v>
+        <v>0.003530666966725288</v>
       </c>
       <c r="N2">
-        <v>0.003779588734735493</v>
+        <v>0.003531607916028094</v>
       </c>
       <c r="O2">
-        <v>0.003780445439236726</v>
+        <v>0.003531607916028094</v>
       </c>
       <c r="P2">
-        <v>0.003789190161636874</v>
+        <v>0.003531607916028094</v>
       </c>
       <c r="Q2">
-        <v>0.003809325572255666</v>
+        <v>0.003531607916028094</v>
       </c>
       <c r="R2">
-        <v>0.003908621995444332</v>
+        <v>0.003611079006458635</v>
       </c>
       <c r="S2">
-        <v>0.004072625304194368</v>
+        <v>0.003755510442733502</v>
       </c>
       <c r="T2">
-        <v>0.004278159950095522</v>
+        <v>0.003941635896597198</v>
       </c>
       <c r="U2">
-        <v>0.004571923259944547</v>
+        <v>0.004216335610738045</v>
       </c>
       <c r="V2">
-        <v>0.004817185583120543</v>
+        <v>0.004442344357283443</v>
       </c>
       <c r="W2">
-        <v>0.005058437126571663</v>
+        <v>0.004664326613668281</v>
       </c>
       <c r="X2">
-        <v>0.00540077862308842</v>
+        <v>0.004987794797795732</v>
       </c>
       <c r="Y2">
-        <v>0.005760951418382023</v>
+        <v>0.005329164126837641</v>
       </c>
       <c r="Z2">
-        <v>0.005990368902644911</v>
+        <v>0.005539265969400357</v>
       </c>
       <c r="AA2">
-        <v>0.006198492388368481</v>
+        <v>0.005727990403708571</v>
       </c>
       <c r="AB2">
-        <v>0.006373543596360676</v>
+        <v>0.005883513014429522</v>
       </c>
       <c r="AC2">
-        <v>0.006478031219193247</v>
+        <v>0.005968195638706721</v>
       </c>
       <c r="AD2">
-        <v>0.006574024282608512</v>
+        <v>0.006044350429929428</v>
       </c>
       <c r="AE2">
-        <v>0.006612751009952015</v>
+        <v>0.006063014569822133</v>
       </c>
       <c r="AF2">
-        <v>0.006632886420570808</v>
+        <v>0.006063014569822133</v>
       </c>
       <c r="AG2">
-        <v>0.00664897858246695</v>
+        <v>0.006063014569822133</v>
       </c>
       <c r="AH2">
-        <v>0.006651090218922101</v>
+        <v>0.006063014569822133</v>
       </c>
       <c r="AI2">
-        <v>0.006696314883819872</v>
+        <v>0.006088202100033164</v>
       </c>
       <c r="AJ2">
-        <v>0.006760280819432067</v>
+        <v>0.006132204311504299</v>
       </c>
       <c r="AK2">
-        <v>0.006823426705100514</v>
+        <v>0.006175383260852813</v>
       </c>
       <c r="AL2">
-        <v>0.007036037160516297</v>
+        <v>0.006368612240550137</v>
       </c>
       <c r="AM2">
-        <v>0.007240110776517671</v>
+        <v>0.006553270941582891</v>
       </c>
       <c r="AN2">
-        <v>0.007429754353508889</v>
+        <v>0.006723443080381739</v>
       </c>
       <c r="AO2">
-        <v>0.007648406638510226</v>
+        <v>0.00692273755582971</v>
       </c>
       <c r="AP2">
-        <v>0.007775279899807233</v>
+        <v>0.007029893504297682</v>
       </c>
       <c r="AQ2">
-        <v>0.00789361215169012</v>
+        <v>0.007128474987767261</v>
       </c>
       <c r="AR2">
-        <v>0.008044400371346658</v>
+        <v>0.007259639570747775</v>
       </c>
       <c r="AS2">
-        <v>0.008131784740352444</v>
+        <v>0.007327151946851036</v>
       </c>
       <c r="AT2">
-        <v>0.008181074441971369</v>
+        <v>0.007356420436746423</v>
       </c>
       <c r="AU2">
-        <v>0.008209825271999179</v>
+        <v>0.007365069603207586</v>
       </c>
       <c r="AV2">
-        <v>0.008220577004761653</v>
+        <v>0.007365069603207586</v>
       </c>
       <c r="AW2">
-        <v>0.008228577800212831</v>
+        <v>0.007365069603207586</v>
       </c>
       <c r="AX2">
-        <v>0.008264170003771349</v>
+        <v>0.007380586941220346</v>
       </c>
       <c r="AY2">
-        <v>0.008292231432846449</v>
+        <v>0.007388544006308913</v>
       </c>
       <c r="AZ2">
-        <v>0.008364027067921559</v>
+        <v>0.007440406586588645</v>
       </c>
       <c r="BA2">
-        <v>0.008460777481284871</v>
+        <v>0.007517321694339086</v>
       </c>
       <c r="BB2">
-        <v>0.008587063402622167</v>
+        <v>0.007623888002205752</v>
       </c>
       <c r="BC2">
-        <v>0.008768985540143045</v>
+        <v>0.007786308456248676</v>
       </c>
       <c r="BD2">
-        <v>0.008943017518205155</v>
+        <v>0.007940807844662159</v>
       </c>
       <c r="BE2">
-        <v>0.009050950350801399</v>
+        <v>0.008028949173771354</v>
       </c>
       <c r="BF2">
-        <v>0.009152825843813151</v>
+        <v>0.00811100943637748</v>
       </c>
       <c r="BG2">
-        <v>0.009251354992054451</v>
+        <v>0.008189710246404223</v>
       </c>
       <c r="BH2">
-        <v>0.01576959094492981</v>
+        <v>0.01471326419115176</v>
       </c>
       <c r="BI2">
-        <v>0.03509998161894316</v>
+        <v>0.0340991587427085</v>
       </c>
       <c r="BJ2">
-        <v>0.08222992238601977</v>
+        <v>0.08139349569100787</v>
       </c>
       <c r="BK2">
-        <v>0.08455359222662541</v>
+        <v>0.08370605318683019</v>
       </c>
       <c r="BL2">
-        <v>0.1011128290907287</v>
+        <v>0.1003099391728711</v>
       </c>
       <c r="BM2">
-        <v>0.1298192571215838</v>
+        <v>0.1291085975140267</v>
       </c>
       <c r="BN2">
-        <v>0.1406129823811779</v>
+        <v>0.1399243880825685</v>
       </c>
       <c r="BO2">
-        <v>0.1420546644822843</v>
+        <v>0.1413515030464057</v>
       </c>
       <c r="BP2">
-        <v>0.1743111022696231</v>
+        <v>0.1737140767194652</v>
       </c>
       <c r="BQ2">
-        <v>0.2286660605410927</v>
+        <v>0.2282617319467221</v>
       </c>
       <c r="BR2">
-        <v>0.2287201561323819</v>
+        <v>0.2282958251512111</v>
       </c>
       <c r="BS2">
-        <v>0.2463519539229119</v>
+        <v>0.2459764733413872</v>
       </c>
       <c r="BT2">
-        <v>0.2467299105269856</v>
+        <v>0.246335696139326</v>
       </c>
       <c r="BU2">
-        <v>0.2573691527971766</v>
+        <v>0.2569963986004488</v>
       </c>
       <c r="BV2">
-        <v>0.2609439855519575</v>
+        <v>0.2605650198815593</v>
       </c>
       <c r="BW2">
-        <v>0.2673217421144692</v>
+        <v>0.2669475441707632</v>
       </c>
       <c r="BX2">
-        <v>0.2747876666023369</v>
+        <v>0.2744224987964695</v>
       </c>
       <c r="BY2">
-        <v>0.276101504512213</v>
+        <v>0.2757212687966377</v>
       </c>
       <c r="BZ2">
-        <v>0.2864013233056871</v>
+        <v>0.2860412182413863</v>
       </c>
       <c r="CA2">
-        <v>0.2983490574861208</v>
+        <v>0.2980155380445655</v>
       </c>
       <c r="CB2">
-        <v>0.3010742419991841</v>
+        <v>0.3007311829669908</v>
       </c>
       <c r="CC2">
-        <v>0.3065937430205687</v>
+        <v>0.3062520898828541</v>
       </c>
       <c r="CD2">
-        <v>0.3076587079475164</v>
+        <v>0.3073010120514959</v>
       </c>
       <c r="CE2">
-        <v>0.3127073106012027</v>
+        <v>0.3123491760659227</v>
       </c>
       <c r="CF2">
-        <v>0.3198785211092866</v>
+        <v>0.3195282623016451</v>
       </c>
       <c r="CG2">
-        <v>0.3266313650460688</v>
+        <v>0.3262873432021441</v>
       </c>
       <c r="CH2">
-        <v>0.3311397734368102</v>
+        <v>0.3307931969842118</v>
       </c>
       <c r="CI2">
-        <v>0.332828520420969</v>
+        <v>0.3324683445972769</v>
       </c>
       <c r="CJ2">
-        <v>0.3340490014372489</v>
+        <v>0.3336733920199738</v>
       </c>
       <c r="CK2">
-        <v>0.3384766208335321</v>
+        <v>0.3380981403528316</v>
       </c>
       <c r="CL2">
-        <v>0.3387416079353551</v>
+        <v>0.3383439511410221</v>
       </c>
       <c r="CM2">
-        <v>0.3388391186826663</v>
+        <v>0.3384216295609886</v>
       </c>
       <c r="CN2">
-        <v>0.344968784262196</v>
+        <v>0.3445550910817475</v>
       </c>
       <c r="CO2">
-        <v>0.3654306808585926</v>
+        <v>0.3650769237240536</v>
       </c>
       <c r="CP2">
-        <v>0.388560304271994</v>
+        <v>0.388276932809985</v>
       </c>
       <c r="CQ2">
-        <v>0.4082281349228603</v>
+        <v>0.4080015891085784</v>
       </c>
       <c r="CR2">
-        <v>0.4196422701398967</v>
+        <v>0.4194402198130822</v>
       </c>
       <c r="CS2">
-        <v>0.4218532937882294</v>
+        <v>0.4216396898755562</v>
       </c>
       <c r="CT2">
-        <v>0.4236049664680718</v>
+        <v>0.4233780096675732</v>
       </c>
       <c r="CU2">
-        <v>0.4247809409874047</v>
+        <v>0.4245383762590275</v>
       </c>
       <c r="CV2">
-        <v>0.4343403928316649</v>
+        <v>0.4341150586981801</v>
       </c>
       <c r="CW2">
-        <v>0.455421328385598</v>
+        <v>0.4552583551062634</v>
       </c>
       <c r="CX2">
-        <v>0.4758171739865254</v>
+        <v>0.475713878027868</v>
       </c>
       <c r="CY2">
-        <v>0.4981982454512744</v>
+        <v>0.4981624030476905</v>
       </c>
       <c r="CZ2">
-        <v>0.520529332919452</v>
+        <v>0.5205607482809913</v>
       </c>
       <c r="DA2">
-        <v>0.5302225072545395</v>
+        <v>0.5302716770090193</v>
       </c>
       <c r="DB2">
-        <v>0.5312790966820617</v>
+        <v>0.5313121908709627</v>
       </c>
       <c r="DC2">
-        <v>0.5395897971119813</v>
+        <v>0.5396352304706338</v>
       </c>
       <c r="DD2">
-        <v>0.5646592163923205</v>
+        <v>0.5647826337062058</v>
       </c>
       <c r="DE2">
-        <v>0.5980804990997557</v>
+        <v>0.5983146150583399</v>
       </c>
       <c r="DF2">
-        <v>0.6325966007320907</v>
+        <v>0.6329457037988362</v>
       </c>
       <c r="DG2">
-        <v>0.6461942677993456</v>
+        <v>0.6465764193629608</v>
       </c>
       <c r="DH2">
-        <v>0.6515506864319169</v>
+        <v>0.6519336050876942</v>
       </c>
       <c r="DI2">
-        <v>0.6515897387092381</v>
+        <v>0.651952596052761</v>
       </c>
       <c r="DJ2">
-        <v>0.6532094581981319</v>
+        <v>0.6535584457862221</v>
       </c>
       <c r="DK2">
-        <v>0.6605031383978149</v>
+        <v>0.6608604814337838</v>
       </c>
       <c r="DL2">
-        <v>0.6737434274895846</v>
+        <v>0.6741324191540475</v>
       </c>
       <c r="DM2">
-        <v>0.6907055963260484</v>
+        <v>0.6911408154182326</v>
       </c>
       <c r="DN2">
-        <v>0.7109657819362816</v>
+        <v>0.7114601469618056</v>
       </c>
       <c r="DO2">
-        <v>0.7247682149894905</v>
+        <v>0.7252964305910492</v>
       </c>
       <c r="DP2">
-        <v>0.7303991406032317</v>
+        <v>0.7309291985552734</v>
       </c>
       <c r="DQ2">
-        <v>0.7304245436544892</v>
+        <v>0.7309344868295382</v>
       </c>
       <c r="DR2">
-        <v>0.7418744228690738</v>
+        <v>0.7424090015427134</v>
       </c>
       <c r="DS2">
-        <v>0.7570951588249928</v>
+        <v>0.7576691436419289</v>
       </c>
       <c r="DT2">
-        <v>0.7745633326267467</v>
+        <v>0.7751855269195366</v>
       </c>
       <c r="DU2">
-        <v>0.7875532117356935</v>
+        <v>0.7882060737878697</v>
       </c>
       <c r="DV2">
-        <v>0.7929341249665846</v>
+        <v>0.7935878500575561</v>
       </c>
       <c r="DW2">
-        <v>0.795847716966724</v>
+        <v>0.7964926404691196</v>
       </c>
       <c r="DX2">
-        <v>0.7985809620792343</v>
+        <v>0.799216377564785</v>
       </c>
       <c r="DY2">
-        <v>0.7987449653879843</v>
+        <v>0.7993608090010599</v>
       </c>
       <c r="DZ2">
-        <v>0.7989464755541615</v>
+        <v>0.7995428942111004</v>
       </c>
       <c r="EA2">
-        <v>0.7992429026738278</v>
+        <v>0.799820268169342</v>
       </c>
       <c r="EB2">
-        <v>0.8027473577334363</v>
+        <v>0.8033182360821369</v>
       </c>
       <c r="EC2">
-        <v>0.8054887155453903</v>
+        <v>0.8060501176551175</v>
       </c>
       <c r="ED2">
-        <v>0.8093010769838777</v>
+        <v>0.8098571980323143</v>
       </c>
       <c r="EE2">
-        <v>0.8156092610511617</v>
+        <v>0.816169877307158</v>
       </c>
       <c r="EF2">
-        <v>0.8220798316073067</v>
+        <v>0.8226455791473026</v>
       </c>
       <c r="EG2">
-        <v>0.8254396648768357</v>
+        <v>0.8259983587788399</v>
       </c>
       <c r="EH2">
-        <v>0.8268638538791421</v>
+        <v>0.8274079121224867</v>
       </c>
       <c r="EI2">
-        <v>0.8273036454989742</v>
+        <v>0.8278292121472013</v>
       </c>
       <c r="EJ2">
-        <v>0.8301909233009186</v>
+        <v>0.8307075852864679</v>
       </c>
       <c r="EK2">
-        <v>0.83362113506562</v>
+        <v>0.8341310190894543</v>
       </c>
       <c r="EL2">
-        <v>0.8362888992826222</v>
+        <v>0.8367890187974908</v>
       </c>
       <c r="EM2">
-        <v>0.8373834139075429</v>
+        <v>0.8378676064118308</v>
       </c>
       <c r="EN2">
-        <v>0.8375820033839204</v>
+        <v>0.8380467594915756</v>
       </c>
       <c r="EO2">
-        <v>0.8376332935374021</v>
+        <v>0.8380780362692092</v>
       </c>
       <c r="EP2">
-        <v>0.8376815005640953</v>
+        <v>0.8381062178432841</v>
       </c>
       <c r="EQ2">
-        <v>0.8376882476186325</v>
+        <v>0.8381062178432841</v>
       </c>
       <c r="ER2">
-        <v>0.8378133888700483</v>
+        <v>0.8382116349974968</v>
       </c>
       <c r="ES2">
-        <v>0.8378614228687533</v>
+        <v>0.8382396428658239</v>
       </c>
       <c r="ET2">
-        <v>0.837863964340579</v>
+        <v>0.8382396428658239</v>
       </c>
       <c r="EU2">
-        <v>0.8384557744499832</v>
+        <v>0.8388135568445508</v>
       </c>
       <c r="EV2">
-        <v>0.8385568727430482</v>
+        <v>0.8388948368628771</v>
       </c>
       <c r="EW2">
-        <v>0.8391499535023653</v>
+        <v>0.8394700264687196</v>
       </c>
       <c r="EX2">
-        <v>0.8413188933535848</v>
+        <v>0.8416272478896279</v>
       </c>
       <c r="EY2">
-        <v>0.8470720479589416</v>
+        <v>0.8473827236228734</v>
       </c>
       <c r="EZ2">
-        <v>0.8505612962195933</v>
+        <v>0.8508654251708779</v>
       </c>
       <c r="FA2">
-        <v>0.8506611135177462</v>
+        <v>0.8509454191765674</v>
       </c>
       <c r="FB2">
-        <v>0.8521184608177781</v>
+        <v>0.8523882607007404</v>
       </c>
       <c r="FC2">
-        <v>0.8573830537566483</v>
+        <v>0.8576532610456881</v>
       </c>
       <c r="FD2">
-        <v>0.867264412578827</v>
+        <v>0.867553111389367</v>
       </c>
       <c r="FE2">
-        <v>0.8751310930392046</v>
+        <v>0.8754303917698606</v>
       </c>
       <c r="FF2">
-        <v>0.8792345684577227</v>
+        <v>0.8795297264358993</v>
       </c>
       <c r="FG2">
-        <v>0.8807614457529851</v>
+        <v>0.8810423703079607</v>
       </c>
       <c r="FH2">
-        <v>0.8807899173460321</v>
+        <v>0.8810507391436551</v>
       </c>
       <c r="FI2">
-        <v>0.88111489412374</v>
+        <v>0.8813567745904544</v>
       </c>
       <c r="FJ2">
-        <v>0.8824324630333601</v>
+        <v>0.8826592902048893</v>
       </c>
       <c r="FK2">
-        <v>0.8880827026457765</v>
+        <v>0.8883114478217399</v>
       </c>
       <c r="FL2">
-        <v>0.8932766862894902</v>
+        <v>0.8935055622911985</v>
       </c>
       <c r="FM2">
-        <v>0.900163319817095</v>
+        <v>0.9003989568434025</v>
       </c>
       <c r="FN2">
-        <v>0.9061907949036345</v>
+        <v>0.9064298275856214</v>
       </c>
       <c r="FO2">
-        <v>0.9065185591611512</v>
+        <v>0.906738661430935</v>
       </c>
       <c r="FP2">
-        <v>0.9066160699084623</v>
+        <v>0.9068163398509014</v>
       </c>
       <c r="FQ2">
-        <v>0.9085294966772089</v>
+        <v>0.9087170473311187</v>
       </c>
       <c r="FR2">
-        <v>0.910398192349024</v>
+        <v>0.9105728485003389</v>
       </c>
       <c r="FS2">
-        <v>0.9113962417805618</v>
+        <v>0.9115545930620467</v>
       </c>
       <c r="FT2">
-        <v>0.9130304521684616</v>
+        <v>0.9131749904561294</v>
       </c>
       <c r="FU2">
-        <v>0.9152451050165453</v>
+        <v>0.9153781039341212</v>
       </c>
       <c r="FV2">
-        <v>0.9163481438408814</v>
+        <v>0.9164652491376152</v>
       </c>
       <c r="FW2">
-        <v>0.9171918160430088</v>
+        <v>0.9172920117661642</v>
       </c>
       <c r="FX2">
-        <v>0.9172403862196771</v>
+        <v>0.9173205579126917</v>
       </c>
       <c r="FY2">
-        <v>0.9195702955598547</v>
+        <v>0.9196393793485349</v>
       </c>
       <c r="FZ2">
-        <v>0.9243912940291537</v>
+        <v>0.9244590476409817</v>
       </c>
       <c r="GA2">
-        <v>0.9320833965015065</v>
+        <v>0.9321610662022656</v>
       </c>
       <c r="GB2">
-        <v>0.9363164198111382</v>
+        <v>0.9363904562053389</v>
       </c>
       <c r="GC2">
-        <v>0.9389908691276818</v>
+        <v>0.9390551671988042</v>
       </c>
       <c r="GD2">
-        <v>0.9390228788554861</v>
+        <v>0.9390670880283163</v>
       </c>
       <c r="GE2">
-        <v>0.9393637944121006</v>
+        <v>0.9393891246870597</v>
       </c>
       <c r="GF2">
-        <v>0.941043012396913</v>
+        <v>0.9410547059751855</v>
       </c>
       <c r="GG2">
-        <v>0.9482250494042543</v>
+        <v>0.9482446611181338</v>
       </c>
       <c r="GH2">
-        <v>0.9610892035218254</v>
+        <v>0.9611389905236699</v>
       </c>
       <c r="GI2">
-        <v>0.971080787836443</v>
+        <v>0.9711494981188542</v>
       </c>
       <c r="GJ2">
-        <v>0.9762524994816845</v>
+        <v>0.976321253349248</v>
       </c>
       <c r="GK2">
-        <v>0.9781067714544889</v>
+        <v>0.978162574321068</v>
       </c>
       <c r="GL2">
-        <v>0.9781513070094339</v>
+        <v>0.9781870700420463</v>
       </c>
       <c r="GM2">
-        <v>0.9794744826186693</v>
+        <v>0.9794952143178347</v>
       </c>
       <c r="GN2">
-        <v>0.9849730456414901</v>
+        <v>0.9849951012198899</v>
       </c>
       <c r="GO2">
-        <v>0.9938148310349794</v>
+        <v>0.9938513060709389</v>
       </c>
       <c r="GP2">
-        <v>0.9979762151495253</v>
+        <v>0.9980087762644213</v>
       </c>
       <c r="GQ2">
-        <v>0.9997074979307663</v>
+        <v>0.9997266262895289</v>
       </c>
       <c r="GR2">
-        <v>0.9997075575200592</v>
+        <v>0.9997266262895289</v>
       </c>
       <c r="GS2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="GT2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="GU2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="GV2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="GW2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="GX2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="GY2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="GZ2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="HA2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="HB2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="HC2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="HD2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="HE2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="HF2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="HG2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="HH2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="HI2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="HJ2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="HK2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="HL2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="HM2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="HN2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="HO2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="HP2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="HQ2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="HR2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="HS2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="HT2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="HU2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="HV2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="HW2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="HX2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="HY2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="HZ2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="IA2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="IB2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="IC2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="ID2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="IE2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="IF2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="IG2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="IH2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="II2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="IJ2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="IK2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="IL2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="IM2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="IN2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="IO2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="IP2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="IQ2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="IR2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="IS2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="IT2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="IU2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="IV2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
       <c r="IW2">
-        <v>0.9999999999999989</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:257">
@@ -7418,772 +7418,772 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>7.511992332591618E-05</v>
+        <v>4.029745274342412E-05</v>
       </c>
       <c r="C3">
-        <v>0.0001763249838067454</v>
+        <v>0.0001068490019962816</v>
       </c>
       <c r="D3">
-        <v>0.0003493637914679962</v>
+        <v>0.0002456995819158732</v>
       </c>
       <c r="E3">
-        <v>0.0004639314165404498</v>
+        <v>0.0003257002481244361</v>
       </c>
       <c r="F3">
-        <v>0.0005506210903786138</v>
+        <v>0.0003776423912804391</v>
       </c>
       <c r="G3">
-        <v>0.0006902015865585061</v>
+        <v>0.0004828179426403737</v>
       </c>
       <c r="H3">
-        <v>0.0007622962697504805</v>
+        <v>0.0005200705600827973</v>
       </c>
       <c r="I3">
-        <v>0.0008220909073978735</v>
+        <v>0.0005449434617936115</v>
       </c>
       <c r="J3">
-        <v>0.0008522692667340129</v>
+        <v>0.0005449434617936115</v>
       </c>
       <c r="K3">
-        <v>0.0008535855396922906</v>
+        <v>0.0005449434617936115</v>
       </c>
       <c r="L3">
-        <v>0.000888667346245529</v>
+        <v>0.0005449434617936115</v>
       </c>
       <c r="M3">
-        <v>0.0009857852305453995</v>
+        <v>0.000607381361297622</v>
       </c>
       <c r="N3">
-        <v>0.001197337909911843</v>
+        <v>0.0007849952760118557</v>
       </c>
       <c r="O3">
-        <v>0.00147520884221451</v>
+        <v>0.001029357002040423</v>
       </c>
       <c r="P3">
-        <v>0.001793229996294819</v>
+        <v>0.001314129011946942</v>
       </c>
       <c r="Q3">
-        <v>0.002071100928597486</v>
+        <v>0.001558490737975509</v>
       </c>
       <c r="R3">
-        <v>0.002412489443712379</v>
+        <v>0.001866781464618283</v>
       </c>
       <c r="S3">
-        <v>0.002654561624430065</v>
+        <v>0.002075112562421754</v>
       </c>
       <c r="T3">
-        <v>0.002854482083281494</v>
+        <v>0.002241018912088254</v>
       </c>
       <c r="U3">
-        <v>0.002906340542577515</v>
+        <v>0.00225790423101905</v>
       </c>
       <c r="V3">
-        <v>0.002959476477930096</v>
+        <v>0.002276075300508803</v>
       </c>
       <c r="W3">
-        <v>0.003009323305137052</v>
+        <v>0.002290935957552865</v>
       </c>
       <c r="X3">
-        <v>0.003012713579987155</v>
+        <v>0.002290935957552865</v>
       </c>
       <c r="Y3">
-        <v>0.003028441781683518</v>
+        <v>0.002290935957552865</v>
       </c>
       <c r="Z3">
-        <v>0.003028537749997767</v>
+        <v>0.002290935957552865</v>
       </c>
       <c r="AA3">
-        <v>0.003030289681775333</v>
+        <v>0.002290935957552865</v>
       </c>
       <c r="AB3">
-        <v>0.003035919325024584</v>
+        <v>0.002290935957552865</v>
       </c>
       <c r="AC3">
-        <v>0.003072828920658748</v>
+        <v>0.002292775585638564</v>
       </c>
       <c r="AD3">
-        <v>0.003179425185378271</v>
+        <v>0.002364753259183741</v>
       </c>
       <c r="AE3">
-        <v>0.003350152422937178</v>
+        <v>0.002501277296436723</v>
       </c>
       <c r="AF3">
-        <v>0.003592575873670417</v>
+        <v>0.002709961939511373</v>
       </c>
       <c r="AG3">
-        <v>0.00386672088580812</v>
+        <v>0.002950573611744306</v>
       </c>
       <c r="AH3">
-        <v>0.004121936867107745</v>
+        <v>0.003172133645509648</v>
       </c>
       <c r="AI3">
-        <v>0.004316233395710176</v>
+        <v>0.00333237963745433</v>
       </c>
       <c r="AJ3">
-        <v>0.004496300173682588</v>
+        <v>0.003478303709444095</v>
       </c>
       <c r="AK3">
-        <v>0.004694797212470996</v>
+        <v>0.003642777419232718</v>
       </c>
       <c r="AL3">
-        <v>0.004771916880885451</v>
+        <v>0.003685087569867549</v>
       </c>
       <c r="AM3">
-        <v>0.004805376224366855</v>
+        <v>0.003685087569867549</v>
       </c>
       <c r="AN3">
-        <v>0.004819357372985867</v>
+        <v>0.003685087569867549</v>
       </c>
       <c r="AO3">
-        <v>0.004821109304763433</v>
+        <v>0.003685087569867549</v>
       </c>
       <c r="AP3">
-        <v>0.004821695664319394</v>
+        <v>0.003685087569867549</v>
       </c>
       <c r="AQ3">
-        <v>0.004833936159361339</v>
+        <v>0.003685087569867549</v>
       </c>
       <c r="AR3">
-        <v>0.00484193736671559</v>
+        <v>0.003685087569867549</v>
       </c>
       <c r="AS3">
-        <v>0.004862379301620652</v>
+        <v>0.003685087569867549</v>
       </c>
       <c r="AT3">
-        <v>0.004968197866305743</v>
+        <v>0.003756282506038637</v>
       </c>
       <c r="AU3">
-        <v>0.005074016430990834</v>
+        <v>0.003827477442209725</v>
       </c>
       <c r="AV3">
-        <v>0.005216890707316558</v>
+        <v>0.003935968108277163</v>
       </c>
       <c r="AW3">
-        <v>0.005301738505073174</v>
+        <v>0.003986056445102143</v>
       </c>
       <c r="AX3">
-        <v>0.00536551292389677</v>
+        <v>0.004014934905935225</v>
       </c>
       <c r="AY3">
-        <v>0.005658273636858679</v>
+        <v>0.004274282857112253</v>
       </c>
       <c r="AZ3">
-        <v>0.08188658301184838</v>
+        <v>0.08096103125591006</v>
       </c>
       <c r="BA3">
-        <v>0.1050123160357345</v>
+        <v>0.1042012458626154</v>
       </c>
       <c r="BB3">
-        <v>0.1484851739604847</v>
+        <v>0.1479203783168416</v>
       </c>
       <c r="BC3">
-        <v>0.1493024726566703</v>
+        <v>0.1487076618028267</v>
       </c>
       <c r="BD3">
-        <v>0.1917847875375644</v>
+        <v>0.1914298352410546</v>
       </c>
       <c r="BE3">
-        <v>0.1939768556346177</v>
+        <v>0.193600792821381</v>
       </c>
       <c r="BF3">
-        <v>0.2028833960289526</v>
+        <v>0.202529713860203</v>
       </c>
       <c r="BG3">
-        <v>0.2258092190439878</v>
+        <v>0.2255687235955517</v>
       </c>
       <c r="BH3">
-        <v>0.2688138269480063</v>
+        <v>0.2688165730673721</v>
       </c>
       <c r="BI3">
-        <v>0.2785126563774196</v>
+        <v>0.2785429149771975</v>
       </c>
       <c r="BJ3">
-        <v>0.2785137228134668</v>
+        <v>0.2785429149771975</v>
       </c>
       <c r="BK3">
-        <v>0.2787557949941845</v>
+        <v>0.278751246075001</v>
       </c>
       <c r="BL3">
-        <v>0.2845639782513403</v>
+        <v>0.2845617412141582</v>
       </c>
       <c r="BM3">
-        <v>0.2845730759617431</v>
+        <v>0.2845617412141582</v>
       </c>
       <c r="BN3">
-        <v>0.2878185423054354</v>
+        <v>0.287792920140682</v>
       </c>
       <c r="BO3">
-        <v>0.2915335996699186</v>
+        <v>0.2914967317356329</v>
       </c>
       <c r="BP3">
-        <v>0.2942443567899367</v>
+        <v>0.2941897380054652</v>
       </c>
       <c r="BQ3">
-        <v>0.2947544331125202</v>
+        <v>0.2946678091687966</v>
       </c>
       <c r="BR3">
-        <v>0.3022106899426442</v>
+        <v>0.3021370528275568</v>
       </c>
       <c r="BS3">
-        <v>0.3085322997225319</v>
+        <v>0.3084643000695783</v>
       </c>
       <c r="BT3">
-        <v>0.3087130769805357</v>
+        <v>0.3086109392235399</v>
       </c>
       <c r="BU3">
-        <v>0.3092539807044841</v>
+        <v>0.3091200374643125</v>
       </c>
       <c r="BV3">
-        <v>0.310202846876495</v>
+        <v>0.3100397406185287</v>
       </c>
       <c r="BW3">
-        <v>0.3203601733262081</v>
+        <v>0.3202275493379305</v>
       </c>
       <c r="BX3">
-        <v>0.3263665795921403</v>
+        <v>0.3262375514212872</v>
       </c>
       <c r="BY3">
-        <v>0.3265741201013291</v>
+        <v>0.3264111271780868</v>
       </c>
       <c r="BZ3">
-        <v>0.3317581127308491</v>
+        <v>0.3315933886652255</v>
       </c>
       <c r="CA3">
-        <v>0.3317581569759561</v>
+        <v>0.3315933886652255</v>
       </c>
       <c r="CB3">
-        <v>0.332557549651349</v>
+        <v>0.3323626501490566</v>
       </c>
       <c r="CC3">
-        <v>0.3373103920617799</v>
+        <v>0.3371109687592687</v>
       </c>
       <c r="CD3">
-        <v>0.3377363621506396</v>
+        <v>0.3375043889137089</v>
       </c>
       <c r="CE3">
-        <v>0.3393908102238899</v>
+        <v>0.3391342441833017</v>
       </c>
       <c r="CF3">
-        <v>0.3516079967648028</v>
+        <v>0.3513952551752897</v>
       </c>
       <c r="CG3">
-        <v>0.3746533607851307</v>
+        <v>0.3745545802101575</v>
       </c>
       <c r="CH3">
-        <v>0.3946410716700817</v>
+        <v>0.3946364469962218</v>
       </c>
       <c r="CI3">
-        <v>0.4055137556514671</v>
+        <v>0.4055442467804103</v>
       </c>
       <c r="CJ3">
-        <v>0.4148577070651682</v>
+        <v>0.4149134120490607</v>
       </c>
       <c r="CK3">
-        <v>0.4149328269884942</v>
+        <v>0.4149537095018041</v>
       </c>
       <c r="CL3">
-        <v>0.4182846179368939</v>
+        <v>0.4182919017216352</v>
       </c>
       <c r="CM3">
-        <v>0.4208641517511021</v>
+        <v>0.4208528347225189</v>
       </c>
       <c r="CN3">
-        <v>0.4368238694577147</v>
+        <v>0.4368806181040987</v>
       </c>
       <c r="CO3">
-        <v>0.4651025977097484</v>
+        <v>0.465307205058743</v>
       </c>
       <c r="CP3">
-        <v>0.480246635380247</v>
+        <v>0.4805140250594604</v>
       </c>
       <c r="CQ3">
-        <v>0.4957881440683435</v>
+        <v>0.4961208905877803</v>
       </c>
       <c r="CR3">
-        <v>0.5066668575499959</v>
+        <v>0.5070347589266777</v>
       </c>
       <c r="CS3">
-        <v>0.509995211997358</v>
+        <v>0.510349362841934</v>
       </c>
       <c r="CT3">
-        <v>0.5170505063097294</v>
+        <v>0.517415046857698</v>
       </c>
       <c r="CU3">
-        <v>0.5449060025430247</v>
+        <v>0.5454156604237475</v>
       </c>
       <c r="CV3">
-        <v>0.5885260344742909</v>
+        <v>0.5892829201639376</v>
       </c>
       <c r="CW3">
-        <v>0.6234092520187368</v>
+        <v>0.62435677518732</v>
       </c>
       <c r="CX3">
-        <v>0.6399981097532044</v>
+        <v>0.6410177736795263</v>
       </c>
       <c r="CY3">
-        <v>0.6420882042457428</v>
+        <v>0.643086097149154</v>
       </c>
       <c r="CZ3">
-        <v>0.6426414799002389</v>
+        <v>0.6436076474562769</v>
       </c>
       <c r="DA3">
-        <v>0.6463568382647354</v>
+        <v>0.6473117620008865</v>
       </c>
       <c r="DB3">
-        <v>0.6539404251004969</v>
+        <v>0.6549091604106337</v>
       </c>
       <c r="DC3">
-        <v>0.6643750505624874</v>
+        <v>0.6653760642709606</v>
       </c>
       <c r="DD3">
-        <v>0.680666131283771</v>
+        <v>0.6817373569806748</v>
       </c>
       <c r="DE3">
-        <v>0.7043374123318111</v>
+        <v>0.7055266532499228</v>
       </c>
       <c r="DF3">
-        <v>0.7213957170870634</v>
+        <v>0.7226601394778289</v>
       </c>
       <c r="DG3">
-        <v>0.7305502284923772</v>
+        <v>0.7318386376921558</v>
       </c>
       <c r="DH3">
-        <v>0.7315192963952825</v>
+        <v>0.7327786734284631</v>
       </c>
       <c r="DI3">
-        <v>0.7383454486975087</v>
+        <v>0.7396137312292684</v>
       </c>
       <c r="DJ3">
-        <v>0.7580153645683895</v>
+        <v>0.7593757445708188</v>
       </c>
       <c r="DK3">
-        <v>0.7713116581570796</v>
+        <v>0.7727228522318833</v>
       </c>
       <c r="DL3">
-        <v>0.7806215535692729</v>
+        <v>0.7820577409105736</v>
       </c>
       <c r="DM3">
-        <v>0.7861798625153656</v>
+        <v>0.7876167432460349</v>
       </c>
       <c r="DN3">
-        <v>0.7875022012739119</v>
+        <v>0.7889123380535055</v>
       </c>
       <c r="DO3">
-        <v>0.7899786576835564</v>
+        <v>0.7913695259940782</v>
       </c>
       <c r="DP3">
-        <v>0.7911108933336858</v>
+        <v>0.7924737863521465</v>
       </c>
       <c r="DQ3">
-        <v>0.7911139667348218</v>
+        <v>0.7924737863521465</v>
       </c>
       <c r="DR3">
-        <v>0.7911501303164229</v>
+        <v>0.792474875134097</v>
       </c>
       <c r="DS3">
-        <v>0.7913729276962872</v>
+        <v>0.7926638065837867</v>
       </c>
       <c r="DT3">
-        <v>0.7940720210157889</v>
+        <v>0.795345073504019</v>
       </c>
       <c r="DU3">
-        <v>0.7975432681694775</v>
+        <v>0.7988034956740965</v>
       </c>
       <c r="DV3">
-        <v>0.8015444210466276</v>
+        <v>0.8027952558872916</v>
       </c>
       <c r="DW3">
-        <v>0.8093382643916981</v>
+        <v>0.8106042726854856</v>
       </c>
       <c r="DX3">
-        <v>0.8126869938399622</v>
+        <v>0.8139393835751498</v>
       </c>
       <c r="DY3">
-        <v>0.8128591061575825</v>
+        <v>0.8140773016639421</v>
       </c>
       <c r="DZ3">
-        <v>0.8135561778484451</v>
+        <v>0.8147435794069999</v>
       </c>
       <c r="EA3">
-        <v>0.8171857588091439</v>
+        <v>0.8183613609480964</v>
       </c>
       <c r="EB3">
-        <v>0.8210802523815717</v>
+        <v>0.8222457710000416</v>
       </c>
       <c r="EC3">
-        <v>0.8218179329442323</v>
+        <v>0.8229529206477779</v>
       </c>
       <c r="ED3">
-        <v>0.8228267656888981</v>
+        <v>0.8239329787917522</v>
       </c>
       <c r="EE3">
-        <v>0.8238952571362054</v>
+        <v>0.824973082061327</v>
       </c>
       <c r="EF3">
-        <v>0.8239069656347238</v>
+        <v>0.824973082061327</v>
       </c>
       <c r="EG3">
-        <v>0.8239092954376269</v>
+        <v>0.824973082061327</v>
       </c>
       <c r="EH3">
-        <v>0.8244302926606939</v>
+        <v>0.8254621448622934</v>
       </c>
       <c r="EI3">
-        <v>0.8254845843073724</v>
+        <v>0.8264879563559077</v>
       </c>
       <c r="EJ3">
-        <v>0.8270071451747834</v>
+        <v>0.8279850701562913</v>
       </c>
       <c r="EK3">
-        <v>0.8273091120681528</v>
+        <v>0.8282536839183962</v>
       </c>
       <c r="EL3">
-        <v>0.8273928268018593</v>
+        <v>0.8283026318520579</v>
       </c>
       <c r="EM3">
-        <v>0.8283486140941766</v>
+        <v>0.8292293009562477</v>
       </c>
       <c r="EN3">
-        <v>0.828457038518977</v>
+        <v>0.8293031186312816</v>
       </c>
       <c r="EO3">
-        <v>0.8302055007963898</v>
+        <v>0.8310275970563779</v>
       </c>
       <c r="EP3">
-        <v>0.8372864086098952</v>
+        <v>0.8381190604777369</v>
       </c>
       <c r="EQ3">
-        <v>0.8457315089838</v>
+        <v>0.8465835526443724</v>
       </c>
       <c r="ER3">
-        <v>0.8462565384370455</v>
+        <v>0.8470766737931874</v>
       </c>
       <c r="ES3">
-        <v>0.8477068580012581</v>
+        <v>0.8485010783670535</v>
       </c>
       <c r="ET3">
-        <v>0.8538807436746054</v>
+        <v>0.8546796446599639</v>
       </c>
       <c r="EU3">
-        <v>0.8626756850639993</v>
+        <v>0.8634962438417576</v>
       </c>
       <c r="EV3">
-        <v>0.8705142974110519</v>
+        <v>0.8713503196209219</v>
       </c>
       <c r="EW3">
-        <v>0.873098955825487</v>
+        <v>0.8739164104152315</v>
       </c>
       <c r="EX3">
-        <v>0.8737547609545226</v>
+        <v>0.874541154303574</v>
       </c>
       <c r="EY3">
-        <v>0.873952196213264</v>
+        <v>0.8747045593559253</v>
       </c>
       <c r="EZ3">
-        <v>0.8739556845814185</v>
+        <v>0.8747045593559253</v>
       </c>
       <c r="FA3">
-        <v>0.8739762286853281</v>
+        <v>0.8747045593559253</v>
       </c>
       <c r="FB3">
-        <v>0.8770190478200481</v>
+        <v>0.8777317784815047</v>
       </c>
       <c r="FC3">
-        <v>0.8831118506898055</v>
+        <v>0.8838287367791011</v>
       </c>
       <c r="FD3">
-        <v>0.8890732479537449</v>
+        <v>0.8897934383269425</v>
       </c>
       <c r="FE3">
-        <v>0.8945376791956813</v>
+        <v>0.895257954891048</v>
       </c>
       <c r="FF3">
-        <v>0.8946355421800142</v>
+        <v>0.895321142716767</v>
       </c>
       <c r="FG3">
-        <v>0.8964673409611166</v>
+        <v>0.8971294974350043</v>
       </c>
       <c r="FH3">
-        <v>0.9007877001523994</v>
+        <v>0.9014425315340867</v>
       </c>
       <c r="FI3">
-        <v>0.9036956134811466</v>
+        <v>0.9043339710381652</v>
       </c>
       <c r="FJ3">
-        <v>0.9044361700839345</v>
+        <v>0.9050440153547936</v>
       </c>
       <c r="FK3">
-        <v>0.9049087347348572</v>
+        <v>0.905484331874852</v>
       </c>
       <c r="FL3">
-        <v>0.9063657765993673</v>
+        <v>0.9069155022908806</v>
       </c>
       <c r="FM3">
-        <v>0.9070595935000859</v>
+        <v>0.9075785041617797</v>
       </c>
       <c r="FN3">
-        <v>0.9075195943704524</v>
+        <v>0.9080061755228233</v>
       </c>
       <c r="FO3">
-        <v>0.9075457514956105</v>
+        <v>0.9080061755228233</v>
       </c>
       <c r="FP3">
-        <v>0.9116693932781836</v>
+        <v>0.9121212180298862</v>
       </c>
       <c r="FQ3">
-        <v>0.9190516586050316</v>
+        <v>0.919515990925608</v>
       </c>
       <c r="FR3">
-        <v>0.929749073078657</v>
+        <v>0.9302473859416496</v>
       </c>
       <c r="FS3">
-        <v>0.9351913693196133</v>
+        <v>0.9356896241313492</v>
       </c>
       <c r="FT3">
-        <v>0.9384368356633056</v>
+        <v>0.938920803057873</v>
       </c>
       <c r="FU3">
-        <v>0.9388823107530289</v>
+        <v>0.9393338545514949</v>
       </c>
       <c r="FV3">
-        <v>0.9389852472475864</v>
+        <v>0.9394021487497159</v>
       </c>
       <c r="FW3">
-        <v>0.9391293888339682</v>
+        <v>0.9395119149344944</v>
       </c>
       <c r="FX3">
-        <v>0.9422848062736736</v>
+        <v>0.9426524616898396</v>
       </c>
       <c r="FY3">
-        <v>0.9517810606941179</v>
+        <v>0.9521749164663798</v>
       </c>
       <c r="FZ3">
-        <v>0.9630320301922518</v>
+        <v>0.9634634520084773</v>
       </c>
       <c r="GA3">
-        <v>0.9661548480305138</v>
+        <v>0.9665711880073607</v>
       </c>
       <c r="GB3">
-        <v>0.9687990065475832</v>
+        <v>0.9691971642999756</v>
       </c>
       <c r="GC3">
-        <v>0.9688471258447137</v>
+        <v>0.9692102862373387</v>
       </c>
       <c r="GD3">
-        <v>0.9695262893147835</v>
+        <v>0.9698585397639925</v>
       </c>
       <c r="GE3">
-        <v>0.9721354592303039</v>
+        <v>0.9724493008259438</v>
       </c>
       <c r="GF3">
-        <v>0.9798516682719371</v>
+        <v>0.9801801804656948</v>
       </c>
       <c r="GG3">
-        <v>0.9850432805017945</v>
+        <v>0.9853701109070517</v>
       </c>
       <c r="GH3">
-        <v>0.985731202432252</v>
+        <v>0.9860271796246294</v>
       </c>
       <c r="GI3">
-        <v>0.9858487559734567</v>
+        <v>0.9861101855474267</v>
       </c>
       <c r="GJ3">
-        <v>0.9866625300794863</v>
+        <v>0.9868939216136853</v>
       </c>
       <c r="GK3">
-        <v>0.9887181071704965</v>
+        <v>0.9889275041047398</v>
       </c>
       <c r="GL3">
-        <v>0.9940102084048029</v>
+        <v>0.9942185744406382</v>
       </c>
       <c r="GM3">
-        <v>0.9966038385196353</v>
+        <v>0.996793695047085</v>
       </c>
       <c r="GN3">
-        <v>0.9970046176673797</v>
+        <v>0.9971617610929662</v>
       </c>
       <c r="GO3">
-        <v>0.9976121301942772</v>
+        <v>0.9977378995770244</v>
       </c>
       <c r="GP3">
-        <v>0.9977280226794083</v>
+        <v>0.9978192336847109</v>
       </c>
       <c r="GQ3">
-        <v>0.9984977847134894</v>
+        <v>0.9985586726028404</v>
       </c>
       <c r="GR3">
-        <v>0.9987501917446646</v>
+        <v>0.9987774054922738</v>
       </c>
       <c r="GS3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GT3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GU3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GV3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GW3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GX3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GY3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GZ3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HA3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HB3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HC3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HD3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HE3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HF3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HG3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HH3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HI3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HJ3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HK3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HL3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HM3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HN3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HO3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HP3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HQ3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HR3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HS3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HT3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HU3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HV3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HW3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HX3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HY3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HZ3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IA3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IB3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IC3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="ID3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IE3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IF3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IG3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IH3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="II3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IJ3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IK3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IL3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IM3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IN3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IO3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IP3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IQ3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IR3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IS3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IT3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IU3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IV3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IW3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:257">
@@ -8191,601 +8191,601 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>4.838873534133256E-05</v>
+        <v>2.444950049641277E-05</v>
       </c>
       <c r="C4">
-        <v>0.0001481484981066666</v>
+        <v>0.0001005061593598577</v>
       </c>
       <c r="D4">
-        <v>0.0003098825925899251</v>
+        <v>0.0002388220198012644</v>
       </c>
       <c r="E4">
-        <v>0.000486886147496452</v>
+        <v>0.0003924775279343302</v>
       </c>
       <c r="F4">
-        <v>0.000540349081978441</v>
+        <v>0.0004220245515243801</v>
       </c>
       <c r="G4">
-        <v>0.0006221710692465411</v>
+        <v>0.0004800609825033909</v>
       </c>
       <c r="H4">
-        <v>0.0007044763015280368</v>
+        <v>0.0005385828797692747</v>
       </c>
       <c r="I4">
-        <v>0.0007046950061740993</v>
+        <v>0.0005385828797692747</v>
       </c>
       <c r="J4">
-        <v>0.0007287461108407943</v>
+        <v>0.0005385828797692747</v>
       </c>
       <c r="K4">
-        <v>0.0007539442375392847</v>
+        <v>0.0005397351741774976</v>
       </c>
       <c r="L4">
-        <v>0.0007735955300840172</v>
+        <v>0.0005397351741774976</v>
       </c>
       <c r="M4">
-        <v>0.0008301173916507995</v>
+        <v>0.0005723551854497906</v>
       </c>
       <c r="N4">
-        <v>0.000899607293577055</v>
+        <v>0.0006180028456927312</v>
       </c>
       <c r="O4">
-        <v>0.0009259791613080814</v>
+        <v>0.000620334276325893</v>
       </c>
       <c r="P4">
-        <v>0.0009965105532632069</v>
+        <v>0.0006670282138880306</v>
       </c>
       <c r="Q4">
-        <v>0.001084759139709452</v>
+        <v>0.0007315207844106513</v>
       </c>
       <c r="R4">
-        <v>0.0011256916908441</v>
+        <v>0.0007484798277668517</v>
       </c>
       <c r="S4">
-        <v>0.001215618607336868</v>
+        <v>0.0008146584429112431</v>
       </c>
       <c r="T4">
-        <v>0.001448005783778625</v>
+        <v>0.001023952147725051</v>
       </c>
       <c r="U4">
-        <v>0.001573820047266188</v>
+        <v>0.001126183068859875</v>
       </c>
       <c r="V4">
-        <v>0.001689859336482789</v>
+        <v>0.001218594084290429</v>
       </c>
       <c r="W4">
-        <v>0.001827090810286837</v>
+        <v>0.001332294695841397</v>
       </c>
       <c r="X4">
-        <v>0.001865118916340974</v>
+        <v>0.001346335943608244</v>
       </c>
       <c r="Y4">
-        <v>0.001869071036450526</v>
+        <v>0.001346335943608244</v>
       </c>
       <c r="Z4">
-        <v>0.001931909658192409</v>
+        <v>0.001385301750537539</v>
       </c>
       <c r="AA4">
-        <v>0.001936873851830016</v>
+        <v>0.001385301750537539</v>
       </c>
       <c r="AB4">
-        <v>0.001945819225077981</v>
+        <v>0.001385301750537539</v>
       </c>
       <c r="AC4">
-        <v>0.001946587718899283</v>
+        <v>0.001385301750537539</v>
       </c>
       <c r="AD4">
-        <v>0.001989105288077868</v>
+        <v>0.00140385309759701</v>
       </c>
       <c r="AE4">
-        <v>0.002271290595900026</v>
+        <v>0.001663173834794638</v>
       </c>
       <c r="AF4">
-        <v>0.002337963647748199</v>
+        <v>0.00170599169708793</v>
       </c>
       <c r="AG4">
-        <v>0.00249453837208844</v>
+        <v>0.001839124471938168</v>
       </c>
       <c r="AH4">
-        <v>0.002888831783018227</v>
+        <v>0.002211068625902421</v>
       </c>
       <c r="AI4">
-        <v>0.003119541399413483</v>
+        <v>0.002418677059633845</v>
       </c>
       <c r="AJ4">
-        <v>0.003295835954300356</v>
+        <v>0.002571620308773247</v>
       </c>
       <c r="AK4">
-        <v>0.003440840108319862</v>
+        <v>0.002693129328271844</v>
       </c>
       <c r="AL4">
-        <v>0.003524766450646295</v>
+        <v>0.002753279787141702</v>
       </c>
       <c r="AM4">
-        <v>0.003595267978600592</v>
+        <v>0.002799943723430798</v>
       </c>
       <c r="AN4">
-        <v>0.003615699354166948</v>
+        <v>0.002799943723430798</v>
       </c>
       <c r="AO4">
-        <v>0.003616467847988251</v>
+        <v>0.002799943723430798</v>
       </c>
       <c r="AP4">
-        <v>0.003666881151385705</v>
+        <v>0.002826427098068654</v>
       </c>
       <c r="AQ4">
-        <v>0.003670387082082889</v>
+        <v>0.002826427098068654</v>
       </c>
       <c r="AR4">
-        <v>0.003687744739564042</v>
+        <v>0.002826427098068654</v>
       </c>
       <c r="AS4">
-        <v>0.003697796664842681</v>
+        <v>0.002826427098068654</v>
       </c>
       <c r="AT4">
-        <v>0.003719302764438828</v>
+        <v>0.002826427098068654</v>
       </c>
       <c r="AU4">
-        <v>0.003725795667618811</v>
+        <v>0.002826427098068654</v>
       </c>
       <c r="AV4">
-        <v>0.003760605288583732</v>
+        <v>0.002837235066727996</v>
       </c>
       <c r="AW4">
-        <v>0.003866165821509863</v>
+        <v>0.002919119159445706</v>
       </c>
       <c r="AX4">
-        <v>0.003948503317792252</v>
+        <v>0.002977673469016486</v>
       </c>
       <c r="AY4">
-        <v>0.004160745873675602</v>
+        <v>0.003166729956948863</v>
       </c>
       <c r="AZ4">
-        <v>0.05560313229965517</v>
+        <v>0.05482141367574027</v>
       </c>
       <c r="BA4">
-        <v>0.06445741454509529</v>
+        <v>0.06369223366417757</v>
       </c>
       <c r="BB4">
-        <v>0.1082994257603929</v>
+        <v>0.107711606453539</v>
       </c>
       <c r="BC4">
-        <v>0.1175051550155752</v>
+        <v>0.1169354889053699</v>
       </c>
       <c r="BD4">
-        <v>0.1465589758209452</v>
+        <v>0.1460986962116483</v>
       </c>
       <c r="BE4">
-        <v>0.1469780815325627</v>
+        <v>0.1464955667179799</v>
       </c>
       <c r="BF4">
-        <v>0.1541563170315429</v>
+        <v>0.1536826358800771</v>
       </c>
       <c r="BG4">
-        <v>0.166184306364958</v>
+        <v>0.1657417511491958</v>
       </c>
       <c r="BH4">
-        <v>0.2132705476701855</v>
+        <v>0.2130202663856844</v>
       </c>
       <c r="BI4">
-        <v>0.2295876451224944</v>
+        <v>0.2293882049944285</v>
       </c>
       <c r="BJ4">
-        <v>0.2304575709466087</v>
+        <v>0.2302379678431428</v>
       </c>
       <c r="BK4">
-        <v>0.230700871903353</v>
+        <v>0.2304582254943034</v>
       </c>
       <c r="BL4">
-        <v>0.2353664237326818</v>
+        <v>0.2351210612398547</v>
       </c>
       <c r="BM4">
-        <v>0.2403908504719585</v>
+        <v>0.2401444214919295</v>
       </c>
       <c r="BN4">
-        <v>0.2433858661549802</v>
+        <v>0.2431290423411978</v>
       </c>
       <c r="BO4">
-        <v>0.2457871415215434</v>
+        <v>0.2455171937002326</v>
       </c>
       <c r="BP4">
-        <v>0.2566571708228599</v>
+        <v>0.2564130262834518</v>
       </c>
       <c r="BQ4">
-        <v>0.2566791745394698</v>
+        <v>0.2564130262834518</v>
       </c>
       <c r="BR4">
-        <v>0.2647293727626208</v>
+        <v>0.2644760662145393</v>
       </c>
       <c r="BS4">
-        <v>0.2808363642091055</v>
+        <v>0.2806329330487803</v>
       </c>
       <c r="BT4">
-        <v>0.281139846097518</v>
+        <v>0.2809136482579657</v>
       </c>
       <c r="BU4">
-        <v>0.2813264390126904</v>
+        <v>0.2810769372046086</v>
       </c>
       <c r="BV4">
-        <v>0.2827204333513318</v>
+        <v>0.2824531774897415</v>
       </c>
       <c r="BW4">
-        <v>0.3059060559940358</v>
+        <v>0.3057212130018045</v>
       </c>
       <c r="BX4">
-        <v>0.3216067244292573</v>
+        <v>0.3214698891293003</v>
       </c>
       <c r="BY4">
-        <v>0.3227622671612888</v>
+        <v>0.3226065817463747</v>
       </c>
       <c r="BZ4">
-        <v>0.3297772283557431</v>
+        <v>0.3296296261008427</v>
       </c>
       <c r="CA4">
-        <v>0.329786713464006</v>
+        <v>0.3296296261008427</v>
       </c>
       <c r="CB4">
-        <v>0.3297867531267331</v>
+        <v>0.3296296261008427</v>
       </c>
       <c r="CC4">
-        <v>0.3312903741684134</v>
+        <v>0.3311159969967241</v>
       </c>
       <c r="CD4">
-        <v>0.3314255305021599</v>
+        <v>0.331227612929674</v>
       </c>
       <c r="CE4">
-        <v>0.3348091949959549</v>
+        <v>0.3346026690443535</v>
       </c>
       <c r="CF4">
-        <v>0.3465660973218554</v>
+        <v>0.3463894512333378</v>
       </c>
       <c r="CG4">
-        <v>0.3725131400411057</v>
+        <v>0.3724315999051787</v>
       </c>
       <c r="CH4">
-        <v>0.3984687767605942</v>
+        <v>0.3984823820802517</v>
       </c>
       <c r="CI4">
-        <v>0.4056518329597081</v>
+        <v>0.4056742941012074</v>
       </c>
       <c r="CJ4">
-        <v>0.410066991082096</v>
+        <v>0.4100855851855716</v>
       </c>
       <c r="CK4">
-        <v>0.411366381718115</v>
+        <v>0.4113667869147682</v>
       </c>
       <c r="CL4">
-        <v>0.4186945401212511</v>
+        <v>0.418704468113369</v>
       </c>
       <c r="CM4">
-        <v>0.4199144224550661</v>
+        <v>0.4199057960742357</v>
       </c>
       <c r="CN4">
-        <v>0.4272944266596393</v>
+        <v>0.4272955613875526</v>
       </c>
       <c r="CO4">
-        <v>0.4496988352806881</v>
+        <v>0.4497787919666455</v>
       </c>
       <c r="CP4">
-        <v>0.4680181777884991</v>
+        <v>0.4681581791067971</v>
       </c>
       <c r="CQ4">
-        <v>0.4887848483641498</v>
+        <v>0.4889961436495505</v>
       </c>
       <c r="CR4">
-        <v>0.5058160008362522</v>
+        <v>0.5060814194878016</v>
       </c>
       <c r="CS4">
-        <v>0.5100508459536418</v>
+        <v>0.5103115687443457</v>
       </c>
       <c r="CT4">
-        <v>0.5153538015006394</v>
+        <v>0.5156147380835775</v>
       </c>
       <c r="CU4">
-        <v>0.5396356581737308</v>
+        <v>0.5399840465514372</v>
       </c>
       <c r="CV4">
-        <v>0.5828765823723664</v>
+        <v>0.5833995693806797</v>
       </c>
       <c r="CW4">
-        <v>0.6199058873988162</v>
+        <v>0.6205749208446733</v>
       </c>
       <c r="CX4">
-        <v>0.6364628118577731</v>
+        <v>0.6371837888436477</v>
       </c>
       <c r="CY4">
-        <v>0.6431717060437432</v>
+        <v>0.6438993593287029</v>
       </c>
       <c r="CZ4">
-        <v>0.6432008693085516</v>
+        <v>0.6439044949872883</v>
       </c>
       <c r="DA4">
-        <v>0.6457685724797282</v>
+        <v>0.6464598391493495</v>
       </c>
       <c r="DB4">
-        <v>0.6523337646617149</v>
+        <v>0.6530310470929273</v>
       </c>
       <c r="DC4">
-        <v>0.668166165100588</v>
+        <v>0.6689120607405263</v>
       </c>
       <c r="DD4">
-        <v>0.6886188496675351</v>
+        <v>0.689434596013344</v>
       </c>
       <c r="DE4">
-        <v>0.712371070325945</v>
+        <v>0.7132718339531812</v>
       </c>
       <c r="DF4">
-        <v>0.7274955917451957</v>
+        <v>0.728441714759912</v>
       </c>
       <c r="DG4">
-        <v>0.7348344096486272</v>
+        <v>0.7357901044560347</v>
       </c>
       <c r="DH4">
-        <v>0.7349809165426884</v>
+        <v>0.735913123123037</v>
       </c>
       <c r="DI4">
-        <v>0.7415795767256028</v>
+        <v>0.7425179529058249</v>
       </c>
       <c r="DJ4">
-        <v>0.7609637752629316</v>
+        <v>0.7619670907694697</v>
       </c>
       <c r="DK4">
-        <v>0.7711766425460316</v>
+        <v>0.7722027406378879</v>
       </c>
       <c r="DL4">
-        <v>0.7775845897236594</v>
+        <v>0.7786159807881531</v>
       </c>
       <c r="DM4">
-        <v>0.7821186918493445</v>
+        <v>0.783146762611223</v>
       </c>
       <c r="DN4">
-        <v>0.7845514382167801</v>
+        <v>0.7855665296300456</v>
       </c>
       <c r="DO4">
-        <v>0.7889053703374708</v>
+        <v>0.7899163132826099</v>
       </c>
       <c r="DP4">
-        <v>0.7909257452934755</v>
+        <v>0.7919218133925755</v>
       </c>
       <c r="DQ4">
-        <v>0.7909521902682085</v>
+        <v>0.7919242182662527</v>
       </c>
       <c r="DR4">
-        <v>0.7917228516295712</v>
+        <v>0.7926742603753533</v>
       </c>
       <c r="DS4">
-        <v>0.7924885845507973</v>
+        <v>0.7934193513903569</v>
       </c>
       <c r="DT4">
-        <v>0.7953660545305605</v>
+        <v>0.7962858862283537</v>
       </c>
       <c r="DU4">
-        <v>0.7971206883791989</v>
+        <v>0.7980244237311811</v>
       </c>
       <c r="DV4">
-        <v>0.7996381809489836</v>
+        <v>0.8005293264948963</v>
       </c>
       <c r="DW4">
-        <v>0.8055081946117001</v>
+        <v>0.8064021604768006</v>
       </c>
       <c r="DX4">
-        <v>0.8100300917370468</v>
+        <v>0.810920681198294</v>
       </c>
       <c r="DY4">
-        <v>0.810985405463528</v>
+        <v>0.8118562244415429</v>
       </c>
       <c r="DZ4">
-        <v>0.8110797700311438</v>
+        <v>0.8119268611058206</v>
       </c>
       <c r="EA4">
-        <v>0.8142778014197931</v>
+        <v>0.8151154308382763</v>
       </c>
       <c r="EB4">
-        <v>0.820714248298211</v>
+        <v>0.8215573016904339</v>
       </c>
       <c r="EC4">
-        <v>0.8222638615411663</v>
+        <v>0.8230898761943384</v>
       </c>
       <c r="ED4">
-        <v>0.8237353864819569</v>
+        <v>0.8245440034570934</v>
       </c>
       <c r="EE4">
-        <v>0.8244499451417644</v>
+        <v>0.8252376849841858</v>
       </c>
       <c r="EF4">
-        <v>0.8245127555835055</v>
+        <v>0.8252766224815827</v>
       </c>
       <c r="EG4">
-        <v>0.8245732207831815</v>
+        <v>0.8253132039568262</v>
       </c>
       <c r="EH4">
-        <v>0.8246037439140276</v>
+        <v>0.8253197057321798</v>
       </c>
       <c r="EI4">
-        <v>0.8249969787549281</v>
+        <v>0.8256905864503149</v>
       </c>
       <c r="EJ4">
-        <v>0.8257066971746014</v>
+        <v>0.826379405488731</v>
       </c>
       <c r="EK4">
-        <v>0.8263230675416872</v>
+        <v>0.8269744473929391</v>
       </c>
       <c r="EL4">
-        <v>0.8265858827389724</v>
+        <v>0.8272143089833727</v>
       </c>
       <c r="EM4">
-        <v>0.8266334340082905</v>
+        <v>0.8272379171683678</v>
       </c>
       <c r="EN4">
-        <v>0.8276529970365527</v>
+        <v>0.8282380050403355</v>
       </c>
       <c r="EO4">
-        <v>0.8305209363160518</v>
+        <v>0.8310949653694594</v>
       </c>
       <c r="EP4">
-        <v>0.8363325144771484</v>
+        <v>0.8369090952463929</v>
       </c>
       <c r="EQ4">
-        <v>0.8405824155949554</v>
+        <v>0.841154369709437</v>
       </c>
       <c r="ER4">
-        <v>0.8408284980617767</v>
+        <v>0.8413774216561032</v>
       </c>
       <c r="ES4">
-        <v>0.8426600808125481</v>
+        <v>0.843193261762707</v>
       </c>
       <c r="ET4">
-        <v>0.8500495575173839</v>
+        <v>0.8505925431173744</v>
       </c>
       <c r="EU4">
-        <v>0.8580726567397836</v>
+        <v>0.8586283594850356</v>
       </c>
       <c r="EV4">
-        <v>0.8692638975500041</v>
+        <v>0.8698468800509673</v>
       </c>
       <c r="EW4">
-        <v>0.8729476926521187</v>
+        <v>0.8735234463477676</v>
       </c>
       <c r="EX4">
-        <v>0.8734777855268129</v>
+        <v>0.8740318141783463</v>
       </c>
       <c r="EY4">
-        <v>0.8735105285377205</v>
+        <v>0.8740405460376137</v>
       </c>
       <c r="EZ4">
-        <v>0.8736738494722477</v>
+        <v>0.8741804560321335</v>
       </c>
       <c r="FA4">
-        <v>0.8738597144273998</v>
+        <v>0.874343013672631</v>
       </c>
       <c r="FB4">
-        <v>0.8767975905088375</v>
+        <v>0.8772702322736703</v>
       </c>
       <c r="FC4">
-        <v>0.8826363116706865</v>
+        <v>0.8831116299162809</v>
       </c>
       <c r="FD4">
-        <v>0.8885063253334029</v>
+        <v>0.8889844638981852</v>
       </c>
       <c r="FE4">
-        <v>0.8948401861089771</v>
+        <v>0.8953232771024586</v>
       </c>
       <c r="FF4">
-        <v>0.8963576290510405</v>
+        <v>0.8968235334321687</v>
       </c>
       <c r="FG4">
-        <v>0.8966945735903806</v>
+        <v>0.8971378651059723</v>
       </c>
       <c r="FH4">
-        <v>0.8992986266625648</v>
+        <v>0.8997297262542023</v>
       </c>
       <c r="FI4">
-        <v>0.9020732539394772</v>
+        <v>0.9024929456648259</v>
       </c>
       <c r="FJ4">
-        <v>0.9032544455722198</v>
+        <v>0.9036554050797883</v>
       </c>
       <c r="FK4">
-        <v>0.9046525593109754</v>
+        <v>0.90503578370018</v>
       </c>
       <c r="FL4">
-        <v>0.9076128383930342</v>
+        <v>0.9079855082789838</v>
       </c>
       <c r="FM4">
-        <v>0.9101897407644658</v>
+        <v>0.9105500939261429</v>
       </c>
       <c r="FN4">
-        <v>0.9119744453139377</v>
+        <v>0.9123188403521307</v>
       </c>
       <c r="FO4">
-        <v>0.9120257462653597</v>
+        <v>0.9123462154549368</v>
       </c>
       <c r="FP4">
-        <v>0.9140539615215817</v>
+        <v>0.9143595919036726</v>
       </c>
       <c r="FQ4">
-        <v>0.9204488206988468</v>
+        <v>0.9207596838935582</v>
       </c>
       <c r="FR4">
-        <v>0.928866560432186</v>
+        <v>0.9291919547681149</v>
       </c>
       <c r="FS4">
-        <v>0.9339425437728919</v>
+        <v>0.9342671086055673</v>
       </c>
       <c r="FT4">
-        <v>0.9368458250533707</v>
+        <v>0.9371595733879409</v>
       </c>
       <c r="FU4">
-        <v>0.937250782264596</v>
+        <v>0.9375422303591924</v>
       </c>
       <c r="FV4">
-        <v>0.9373258648766774</v>
+        <v>0.9375934964369197</v>
       </c>
       <c r="FW4">
-        <v>0.9375681129733925</v>
+        <v>0.9378126963884976</v>
       </c>
       <c r="FX4">
-        <v>0.9415389763834645</v>
+        <v>0.9417776505251719</v>
       </c>
       <c r="FY4">
-        <v>0.9499407346163607</v>
+        <v>0.9501938664390696</v>
       </c>
       <c r="FZ4">
-        <v>0.9618329869460132</v>
+        <v>0.9621166207786778</v>
       </c>
       <c r="GA4">
-        <v>0.9650370547348297</v>
+        <v>0.965311254658086</v>
       </c>
       <c r="GB4">
-        <v>0.9669400945875818</v>
+        <v>0.9671988803248254</v>
       </c>
       <c r="GC4">
-        <v>0.9670306634260923</v>
+        <v>0.9672657038126323</v>
       </c>
       <c r="GD4">
-        <v>0.9688957296777918</v>
+        <v>0.9691151813296935</v>
       </c>
       <c r="GE4">
-        <v>0.9717579580571326</v>
+        <v>0.9719664045080602</v>
       </c>
       <c r="GF4">
-        <v>0.9793301439670331</v>
+        <v>0.979549234904935</v>
       </c>
       <c r="GG4">
-        <v>0.9856923397433928</v>
+        <v>0.9859165133540398</v>
       </c>
       <c r="GH4">
-        <v>0.9873097362882269</v>
+        <v>0.9875171827310687</v>
       </c>
       <c r="GI4">
-        <v>0.9873628098796982</v>
+        <v>0.9875463386220024</v>
       </c>
       <c r="GJ4">
-        <v>0.9876228075869052</v>
+        <v>0.9877833697715444</v>
       </c>
       <c r="GK4">
-        <v>0.9886533012154705</v>
+        <v>0.9887944384871737</v>
       </c>
       <c r="GL4">
-        <v>0.9928906923329307</v>
+        <v>0.9930271454466767</v>
       </c>
       <c r="GM4">
-        <v>0.996304419427559</v>
+        <v>0.9964324023472841</v>
       </c>
       <c r="GN4">
-        <v>0.9972341851533321</v>
+        <v>0.9973422801564427</v>
       </c>
       <c r="GO4">
-        <v>0.9976939090960756</v>
+        <v>0.9977799555987745</v>
       </c>
       <c r="GP4">
-        <v>0.997758136697856</v>
+        <v>0.9978203167702976</v>
       </c>
       <c r="GQ4">
-        <v>0.9985703143203695</v>
+        <v>0.9986120659732886</v>
       </c>
       <c r="GR4">
-        <v>0.9990303432731215</v>
+        <v>0.9990500478276313</v>
       </c>
       <c r="GS4">
         <v>1</v>
@@ -8964,772 +8964,772 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>4.324379921500198E-05</v>
+        <v>1.773752742027988E-05</v>
       </c>
       <c r="C5">
-        <v>9.415600975881127E-05</v>
+        <v>4.317987367471575E-05</v>
       </c>
       <c r="D5">
-        <v>0.0002085244347484914</v>
+        <v>0.0001323797070073558</v>
       </c>
       <c r="E5">
-        <v>0.0002241197633834798</v>
+        <v>0.0001323797070073558</v>
       </c>
       <c r="F5">
-        <v>0.000224299065527786</v>
+        <v>0.0001323797070073558</v>
       </c>
       <c r="G5">
-        <v>0.0002485358024064183</v>
+        <v>0.0001323797070073558</v>
       </c>
       <c r="H5">
-        <v>0.0002741258891665959</v>
+        <v>0.0001323797070073558</v>
       </c>
       <c r="I5">
-        <v>0.0003127038427899852</v>
+        <v>0.0001454292366859818</v>
       </c>
       <c r="J5">
-        <v>0.0003184942842831654</v>
+        <v>0.0001454292366859818</v>
       </c>
       <c r="K5">
-        <v>0.0003504375514872686</v>
+        <v>0.000151812580281188</v>
       </c>
       <c r="L5">
-        <v>0.0004032955818607662</v>
+        <v>0.0001792099845820456</v>
       </c>
       <c r="M5">
-        <v>0.0004682338061769212</v>
+        <v>0.0002187449362598931</v>
       </c>
       <c r="N5">
-        <v>0.0005737090469449947</v>
+        <v>0.0002990093629811469</v>
       </c>
       <c r="O5">
-        <v>0.0007609909005527845</v>
+        <v>0.000461468797812899</v>
       </c>
       <c r="P5">
-        <v>0.001055435754780923</v>
+        <v>0.0007316000136826087</v>
       </c>
       <c r="Q5">
-        <v>0.001387663195702067</v>
+        <v>0.0010396931975628</v>
       </c>
       <c r="R5">
-        <v>0.001593959187645608</v>
+        <v>0.001221257044623222</v>
       </c>
       <c r="S5">
-        <v>0.001644502026221747</v>
+        <v>0.001246328265233599</v>
       </c>
       <c r="T5">
-        <v>0.001715874529974729</v>
+        <v>0.00129232804453524</v>
       </c>
       <c r="U5">
-        <v>0.001759782864131566</v>
+        <v>0.001310733261926267</v>
       </c>
       <c r="V5">
-        <v>0.001762597132685242</v>
+        <v>0.001310733261926267</v>
       </c>
       <c r="W5">
-        <v>0.001762645786294984</v>
+        <v>0.001310733261926267</v>
       </c>
       <c r="X5">
-        <v>0.001765266200365627</v>
+        <v>0.001310733261926267</v>
       </c>
       <c r="Y5">
-        <v>0.001792075895019056</v>
+        <v>0.001311958660181954</v>
       </c>
       <c r="Z5">
-        <v>0.001807671223654044</v>
+        <v>0.001311958660181954</v>
       </c>
       <c r="AA5">
-        <v>0.001848714766061628</v>
+        <v>0.001327485484581376</v>
       </c>
       <c r="AB5">
-        <v>0.001904578961172005</v>
+        <v>0.00135790332606148</v>
       </c>
       <c r="AC5">
-        <v>0.002080682035758239</v>
+        <v>0.001509130908107168</v>
       </c>
       <c r="AD5">
-        <v>0.002429502385227056</v>
+        <v>0.001833895779095649</v>
       </c>
       <c r="AE5">
-        <v>0.002765776425794014</v>
+        <v>0.002146054774762466</v>
       </c>
       <c r="AF5">
-        <v>0.003074066028810364</v>
+        <v>0.002430096470475223</v>
       </c>
       <c r="AG5">
-        <v>0.003273138361386169</v>
+        <v>0.002604402362222401</v>
       </c>
       <c r="AH5">
-        <v>0.003348879714756759</v>
+        <v>0.00265479173323659</v>
       </c>
       <c r="AI5">
-        <v>0.003438959241872373</v>
+        <v>0.00271958735169646</v>
       </c>
       <c r="AJ5">
-        <v>0.003482649985048255</v>
+        <v>0.002737773945044472</v>
       </c>
       <c r="AK5">
-        <v>0.003497128282781014</v>
+        <v>0.002737773945044472</v>
       </c>
       <c r="AL5">
-        <v>0.003497166169657698</v>
+        <v>0.002737773945044472</v>
       </c>
       <c r="AM5">
-        <v>0.003513161588257667</v>
+        <v>0.002737773945044472</v>
       </c>
       <c r="AN5">
-        <v>0.003547049303291579</v>
+        <v>0.002746110968172343</v>
       </c>
       <c r="AO5">
-        <v>0.003563453993855726</v>
+        <v>0.002746110968172343</v>
       </c>
       <c r="AP5">
-        <v>0.003568457517417783</v>
+        <v>0.002746110968172343</v>
       </c>
       <c r="AQ5">
-        <v>0.003684634607249156</v>
+        <v>0.002837128053389294</v>
       </c>
       <c r="AR5">
-        <v>0.003777296349138756</v>
+        <v>0.002904518146267836</v>
       </c>
       <c r="AS5">
-        <v>0.003804985394715219</v>
+        <v>0.002906627070362593</v>
       </c>
       <c r="AT5">
-        <v>0.003872266103826343</v>
+        <v>0.002948515628308169</v>
       </c>
       <c r="AU5">
-        <v>0.003938577233022332</v>
+        <v>0.002989430003040165</v>
       </c>
       <c r="AV5">
-        <v>0.003993550693210672</v>
+        <v>0.003018952880634103</v>
       </c>
       <c r="AW5">
-        <v>0.004097292544130464</v>
+        <v>0.003097475687849397</v>
       </c>
       <c r="AX5">
-        <v>0.004159929778648018</v>
+        <v>0.0031346987252627</v>
       </c>
       <c r="AY5">
-        <v>0.004229029802599904</v>
+        <v>0.003178415235654919</v>
       </c>
       <c r="AZ5">
-        <v>0.004351876171847536</v>
+        <v>0.003276133264190287</v>
       </c>
       <c r="BA5">
-        <v>0.00454618061484066</v>
+        <v>0.003445648629727973</v>
       </c>
       <c r="BB5">
-        <v>0.004678403683267577</v>
+        <v>0.003552787875428281</v>
       </c>
       <c r="BC5">
-        <v>0.004760150556112523</v>
+        <v>0.003609211278469557</v>
       </c>
       <c r="BD5">
-        <v>0.004873242960213889</v>
+        <v>0.003697129032718082</v>
       </c>
       <c r="BE5">
-        <v>0.004887717388946986</v>
+        <v>0.003697129032718082</v>
       </c>
       <c r="BF5">
-        <v>0.00489636509319008</v>
+        <v>0.003697129032718082</v>
       </c>
       <c r="BG5">
-        <v>0.004900197781854616</v>
+        <v>0.003697129032718082</v>
       </c>
       <c r="BH5">
-        <v>0.04537665023907403</v>
+        <v>0.04434004095881064</v>
       </c>
       <c r="BI5">
-        <v>0.046543456836947</v>
+        <v>0.04548667565166289</v>
       </c>
       <c r="BJ5">
-        <v>0.09740078038556038</v>
+        <v>0.09655974418652433</v>
       </c>
       <c r="BK5">
-        <v>0.09747994307863152</v>
+        <v>0.09661357114081782</v>
       </c>
       <c r="BL5">
-        <v>0.1181686652678107</v>
+        <v>0.1173748061044792</v>
       </c>
       <c r="BM5">
-        <v>0.1275481924468492</v>
+        <v>0.1267731531142901</v>
       </c>
       <c r="BN5">
-        <v>0.1333271756410324</v>
+        <v>0.1325538617478828</v>
       </c>
       <c r="BO5">
-        <v>0.1525299189602748</v>
+        <v>0.1518220628231249</v>
       </c>
       <c r="BP5">
-        <v>0.2055073873233184</v>
+        <v>0.205025342036174</v>
       </c>
       <c r="BQ5">
-        <v>0.2230788757853395</v>
+        <v>0.2226545435053293</v>
       </c>
       <c r="BR5">
-        <v>0.2230798751176521</v>
+        <v>0.2226545435053293</v>
       </c>
       <c r="BS5">
-        <v>0.2230855035801594</v>
+        <v>0.2226545435053293</v>
       </c>
       <c r="BT5">
-        <v>0.2358811514601953</v>
+        <v>0.2354852300165332</v>
       </c>
       <c r="BU5">
-        <v>0.2366201223955155</v>
+        <v>0.2362019978009194</v>
       </c>
       <c r="BV5">
-        <v>0.2388407575011501</v>
+        <v>0.2384074642890967</v>
       </c>
       <c r="BW5">
-        <v>0.2404506662602396</v>
+        <v>0.2399993048702105</v>
       </c>
       <c r="BX5">
-        <v>0.2476773526277098</v>
+        <v>0.2472345899731048</v>
       </c>
       <c r="BY5">
-        <v>0.2490367268087279</v>
+        <v>0.2485747065069598</v>
       </c>
       <c r="BZ5">
-        <v>0.2586457899676759</v>
+        <v>0.2582036792703058</v>
       </c>
       <c r="CA5">
-        <v>0.2701946789568368</v>
+        <v>0.2697816876227392</v>
       </c>
       <c r="CB5">
-        <v>0.2710919801782988</v>
+        <v>0.2706575374018666</v>
       </c>
       <c r="CC5">
-        <v>0.271100775027529</v>
+        <v>0.2706575374018666</v>
       </c>
       <c r="CD5">
-        <v>0.2712580674637617</v>
+        <v>0.2707898650378277</v>
       </c>
       <c r="CE5">
-        <v>0.273747536945866</v>
+        <v>0.2732654422540657</v>
       </c>
       <c r="CF5">
-        <v>0.2822852361985872</v>
+        <v>0.2818179645703782</v>
       </c>
       <c r="CG5">
-        <v>0.282854263178782</v>
+        <v>0.2823639815525373</v>
       </c>
       <c r="CH5">
-        <v>0.2858788091140527</v>
+        <v>0.285377175617598</v>
       </c>
       <c r="CI5">
-        <v>0.2863556854323132</v>
+        <v>0.2858306044318554</v>
       </c>
       <c r="CJ5">
-        <v>0.2867441911483085</v>
+        <v>0.2861952430845625</v>
       </c>
       <c r="CK5">
-        <v>0.29265663763081</v>
+        <v>0.2921100486534148</v>
       </c>
       <c r="CL5">
-        <v>0.2949093332336384</v>
+        <v>0.2943477278531981</v>
       </c>
       <c r="CM5">
-        <v>0.2949125292438587</v>
+        <v>0.2943477278531981</v>
       </c>
       <c r="CN5">
-        <v>0.3018511179365452</v>
+        <v>0.3012935474728819</v>
       </c>
       <c r="CO5">
-        <v>0.318354139492086</v>
+        <v>0.3178492092489073</v>
       </c>
       <c r="CP5">
-        <v>0.3370551278552454</v>
+        <v>0.3366132731737027</v>
       </c>
       <c r="CQ5">
-        <v>0.3475579129359687</v>
+        <v>0.3471402110044054</v>
       </c>
       <c r="CR5">
-        <v>0.3576224680550488</v>
+        <v>0.357226838278282</v>
       </c>
       <c r="CS5">
-        <v>0.3580298852393888</v>
+        <v>0.3576104781857779</v>
       </c>
       <c r="CT5">
-        <v>0.3632767382801478</v>
+        <v>0.3628565302585098</v>
       </c>
       <c r="CU5">
-        <v>0.3667672189746367</v>
+        <v>0.3663378712127215</v>
       </c>
       <c r="CV5">
-        <v>0.3825107715966515</v>
+        <v>0.3821304583058586</v>
       </c>
       <c r="CW5">
-        <v>0.4177823605094367</v>
+        <v>0.4175437954286645</v>
       </c>
       <c r="CX5">
-        <v>0.4421859923734612</v>
+        <v>0.4420375774353374</v>
       </c>
       <c r="CY5">
-        <v>0.4613113126994802</v>
+        <v>0.4612279879343043</v>
       </c>
       <c r="CZ5">
-        <v>0.476011621412807</v>
+        <v>0.4759723780839515</v>
       </c>
       <c r="DA5">
-        <v>0.4839600877171019</v>
+        <v>0.4839328699360549</v>
       </c>
       <c r="DB5">
-        <v>0.486333356309377</v>
+        <v>0.4862916945726368</v>
       </c>
       <c r="DC5">
-        <v>0.5105096781932972</v>
+        <v>0.510557087394014</v>
       </c>
       <c r="DD5">
-        <v>0.5587379559720229</v>
+        <v>0.5589886281736293</v>
       </c>
       <c r="DE5">
-        <v>0.611368588365424</v>
+        <v>0.6118434247353597</v>
       </c>
       <c r="DF5">
-        <v>0.6424291056467915</v>
+        <v>0.6430256972182393</v>
       </c>
       <c r="DG5">
-        <v>0.6538943666432721</v>
+        <v>0.6545196805353117</v>
       </c>
       <c r="DH5">
-        <v>0.6541736000188316</v>
+        <v>0.6547745280526009</v>
       </c>
       <c r="DI5">
-        <v>0.6551307887750518</v>
+        <v>0.6557105496960104</v>
       </c>
       <c r="DJ5">
-        <v>0.6580299028213012</v>
+        <v>0.6585977163559806</v>
       </c>
       <c r="DK5">
-        <v>0.6654437267723918</v>
+        <v>0.6660210275202104</v>
       </c>
       <c r="DL5">
-        <v>0.6758150308646231</v>
+        <v>0.6764158601268937</v>
       </c>
       <c r="DM5">
-        <v>0.6952438911640741</v>
+        <v>0.695911251723501</v>
       </c>
       <c r="DN5">
-        <v>0.7133541275789403</v>
+        <v>0.7140817589724272</v>
       </c>
       <c r="DO5">
-        <v>0.7231133927247416</v>
+        <v>0.7238616468402991</v>
       </c>
       <c r="DP5">
-        <v>0.7258143452883354</v>
+        <v>0.7265497112014616</v>
       </c>
       <c r="DQ5">
-        <v>0.7278919602064882</v>
+        <v>0.7286114784816902</v>
       </c>
       <c r="DR5">
-        <v>0.7451591086951472</v>
+        <v>0.7459348950550957</v>
       </c>
       <c r="DS5">
-        <v>0.7591348734718911</v>
+        <v>0.7599513013330659</v>
       </c>
       <c r="DT5">
-        <v>0.7690925986003218</v>
+        <v>0.769930591416915</v>
       </c>
       <c r="DU5">
-        <v>0.7736801734987853</v>
+        <v>0.7745142352762765</v>
       </c>
       <c r="DV5">
-        <v>0.7748371246975209</v>
+        <v>0.7756509677792701</v>
       </c>
       <c r="DW5">
-        <v>0.7752401069222491</v>
+        <v>0.7760301516711873</v>
       </c>
       <c r="DX5">
-        <v>0.7755325195666551</v>
+        <v>0.7762982410288622</v>
       </c>
       <c r="DY5">
-        <v>0.7755926421273928</v>
+        <v>0.7763329374535171</v>
       </c>
       <c r="DZ5">
-        <v>0.7771206981936467</v>
+        <v>0.7778425367277493</v>
       </c>
       <c r="EA5">
-        <v>0.7777375875896523</v>
+        <v>0.7784366433632897</v>
       </c>
       <c r="EB5">
-        <v>0.7828478481423667</v>
+        <v>0.7835454544444571</v>
       </c>
       <c r="EC5">
-        <v>0.7883079753644584</v>
+        <v>0.7890057932656057</v>
       </c>
       <c r="ED5">
-        <v>0.7926789869818771</v>
+        <v>0.7933718456610986</v>
       </c>
       <c r="EE5">
-        <v>0.800757927274752</v>
+        <v>0.8014634309563514</v>
       </c>
       <c r="EF5">
-        <v>0.8055486543554343</v>
+        <v>0.8062511915085511</v>
       </c>
       <c r="EG5">
-        <v>0.806061721780527</v>
+        <v>0.8067409832550501</v>
       </c>
       <c r="EH5">
-        <v>0.8067513285201678</v>
+        <v>0.8074081524761492</v>
       </c>
       <c r="EI5">
-        <v>0.8114335141103504</v>
+        <v>0.8120868562127411</v>
       </c>
       <c r="EJ5">
-        <v>0.8182792420111646</v>
+        <v>0.8189393741630838</v>
       </c>
       <c r="EK5">
-        <v>0.8206989712993731</v>
+        <v>0.8213448800781896</v>
       </c>
       <c r="EL5">
-        <v>0.8227711822179987</v>
+        <v>0.8234012177021895</v>
       </c>
       <c r="EM5">
-        <v>0.8249734393252418</v>
+        <v>0.8255882189382998</v>
       </c>
       <c r="EN5">
-        <v>0.8254012894577933</v>
+        <v>0.8259923888040188</v>
       </c>
       <c r="EO5">
-        <v>0.8256003474303704</v>
+        <v>0.8261666802675899</v>
       </c>
       <c r="EP5">
-        <v>0.8256058559163882</v>
+        <v>0.8261666802675899</v>
       </c>
       <c r="EQ5">
-        <v>0.825776160031482</v>
+        <v>0.8263120813582803</v>
       </c>
       <c r="ER5">
-        <v>0.8268438559380299</v>
+        <v>0.8273591348095369</v>
       </c>
       <c r="ES5">
-        <v>0.8270749698978012</v>
+        <v>0.8275656344533022</v>
       </c>
       <c r="ET5">
-        <v>0.8271946436973264</v>
+        <v>0.8276601648496279</v>
       </c>
       <c r="EU5">
-        <v>0.8294545367995249</v>
+        <v>0.8299050757205263</v>
       </c>
       <c r="EV5">
-        <v>0.829613949085572</v>
+        <v>0.830039533270765</v>
       </c>
       <c r="EW5">
-        <v>0.8302758285276397</v>
+        <v>0.8306788435527174</v>
       </c>
       <c r="EX5">
-        <v>0.8347539344356847</v>
+        <v>0.8351524986930382</v>
       </c>
       <c r="EY5">
-        <v>0.8444463445873376</v>
+        <v>0.8448652141576593</v>
       </c>
       <c r="EZ5">
-        <v>0.8466066977982485</v>
+        <v>0.8470101125492765</v>
       </c>
       <c r="FA5">
-        <v>0.8468463765772701</v>
+        <v>0.8472252176756955</v>
       </c>
       <c r="FB5">
-        <v>0.8517895491446092</v>
+        <v>0.852166147483744</v>
       </c>
       <c r="FC5">
-        <v>0.8584376065627251</v>
+        <v>0.8588200564663686</v>
       </c>
       <c r="FD5">
-        <v>0.8664359218626568</v>
+        <v>0.8668306339834134</v>
       </c>
       <c r="FE5">
-        <v>0.8677341386490278</v>
+        <v>0.8681093027641524</v>
       </c>
       <c r="FF5">
-        <v>0.867784200684646</v>
+        <v>0.8681338908990849</v>
       </c>
       <c r="FG5">
-        <v>0.8677845732424134</v>
+        <v>0.8681338908990849</v>
       </c>
       <c r="FH5">
-        <v>0.8679539938275845</v>
+        <v>0.8682784042650958</v>
       </c>
       <c r="FI5">
-        <v>0.8681659413190335</v>
+        <v>0.8684656464434251</v>
       </c>
       <c r="FJ5">
-        <v>0.8705285379122426</v>
+        <v>0.8708137484132281</v>
       </c>
       <c r="FK5">
-        <v>0.878427220220895</v>
+        <v>0.8787242199089866</v>
       </c>
       <c r="FL5">
-        <v>0.889027601293076</v>
+        <v>0.8893492170900397</v>
       </c>
       <c r="FM5">
-        <v>0.8983646004758369</v>
+        <v>0.8987048341923576</v>
       </c>
       <c r="FN5">
-        <v>0.9008710104564585</v>
+        <v>0.9011974323359349</v>
       </c>
       <c r="FO5">
-        <v>0.901308377978177</v>
+        <v>0.9016111647767638</v>
       </c>
       <c r="FP5">
-        <v>0.904658066284989</v>
+        <v>0.9049510448998118</v>
       </c>
       <c r="FQ5">
-        <v>0.909998557817552</v>
+        <v>0.9102911800341218</v>
       </c>
       <c r="FR5">
-        <v>0.9120939780341463</v>
+        <v>0.9123708371474458</v>
       </c>
       <c r="FS5">
-        <v>0.9136923474942459</v>
+        <v>0.9139510836441557</v>
       </c>
       <c r="FT5">
-        <v>0.917275493480624</v>
+        <v>0.9175255298395455</v>
       </c>
       <c r="FU5">
-        <v>0.9203055784154098</v>
+        <v>0.9205442892017658</v>
       </c>
       <c r="FV5">
-        <v>0.9225261660210485</v>
+        <v>0.9227497079644303</v>
       </c>
       <c r="FW5">
-        <v>0.9234885737868119</v>
+        <v>0.9236909733958032</v>
       </c>
       <c r="FX5">
-        <v>0.9238257808372973</v>
+        <v>0.9240040698310625</v>
       </c>
       <c r="FY5">
-        <v>0.9273796274262399</v>
+        <v>0.9275490775235459</v>
       </c>
       <c r="FZ5">
-        <v>0.9349430437642371</v>
+        <v>0.9351226912981423</v>
       </c>
       <c r="GA5">
-        <v>0.940562103272418</v>
+        <v>0.9407427169721094</v>
       </c>
       <c r="GB5">
-        <v>0.9430128267579136</v>
+        <v>0.9431793642364162</v>
       </c>
       <c r="GC5">
-        <v>0.9437778507909534</v>
+        <v>0.9439223088114558</v>
       </c>
       <c r="GD5">
-        <v>0.9439479205360678</v>
+        <v>0.9440674744194426</v>
       </c>
       <c r="GE5">
-        <v>0.9440604728862164</v>
+        <v>0.9441548495557109</v>
       </c>
       <c r="GF5">
-        <v>0.946336507987002</v>
+        <v>0.9464159790629608</v>
       </c>
       <c r="GG5">
-        <v>0.954007812715556</v>
+        <v>0.9540979934524834</v>
       </c>
       <c r="GH5">
-        <v>0.965191727736662</v>
+        <v>0.965309295040964</v>
       </c>
       <c r="GI5">
-        <v>0.9693534683723974</v>
+        <v>0.9694650828937794</v>
       </c>
       <c r="GJ5">
-        <v>0.9712535125060924</v>
+        <v>0.971348436332363</v>
       </c>
       <c r="GK5">
-        <v>0.9713653468063038</v>
+        <v>0.9714350900095908</v>
       </c>
       <c r="GL5">
-        <v>0.9725362093038218</v>
+        <v>0.9725857998583827</v>
       </c>
       <c r="GM5">
-        <v>0.9753483822576808</v>
+        <v>0.9753856126535968</v>
       </c>
       <c r="GN5">
-        <v>0.9853417563829913</v>
+        <v>0.9854007209859462</v>
       </c>
       <c r="GO5">
-        <v>0.994990833538437</v>
+        <v>0.9950698977212267</v>
       </c>
       <c r="GP5">
-        <v>0.9989667097904407</v>
+        <v>0.9990389387573976</v>
       </c>
       <c r="GQ5">
-        <v>0.9994398922790244</v>
+        <v>0.9994886562046921</v>
       </c>
       <c r="GR5">
-        <v>0.9995145958824858</v>
+        <v>0.9995380028988463</v>
       </c>
       <c r="GS5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GT5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GU5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GV5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GW5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GX5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GY5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GZ5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HA5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HB5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HC5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HD5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HE5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HF5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HG5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HH5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HI5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HJ5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HK5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HL5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HM5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HN5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HO5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HP5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HQ5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HR5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HS5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HT5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HU5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HV5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HW5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HX5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HY5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HZ5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IA5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IB5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IC5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="ID5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IE5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IF5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IG5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IH5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="II5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IJ5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IK5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IL5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IM5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IN5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IO5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IP5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IQ5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IR5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IS5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IT5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IU5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IV5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IW5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:257">
@@ -9737,601 +9737,601 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>4.514890104431981E-05</v>
+        <v>3.651354912275438E-05</v>
       </c>
       <c r="C6">
-        <v>0.0001484934565678233</v>
+        <v>0.0001313193169901516</v>
       </c>
       <c r="D6">
-        <v>0.000210019823902733</v>
+        <v>0.0001842375075940936</v>
       </c>
       <c r="E6">
-        <v>0.0003517562977632433</v>
+        <v>0.0003174988976510785</v>
       </c>
       <c r="F6">
-        <v>0.0004595898990922982</v>
+        <v>0.0004168011600143925</v>
       </c>
       <c r="G6">
-        <v>0.0005142139117261918</v>
+        <v>0.0004628055428145464</v>
       </c>
       <c r="H6">
-        <v>0.0005618981166606919</v>
+        <v>0.0005018586026666352</v>
       </c>
       <c r="I6">
-        <v>0.000622539241033947</v>
+        <v>0.000553890081421991</v>
       </c>
       <c r="J6">
-        <v>0.0006339495235396966</v>
+        <v>0.0005566090293912198</v>
       </c>
       <c r="K6">
-        <v>0.0006348381431412049</v>
+        <v>0.0005566090293912198</v>
       </c>
       <c r="L6">
-        <v>0.0006421627358239311</v>
+        <v>0.0005566090293912198</v>
       </c>
       <c r="M6">
-        <v>0.0006508585744472602</v>
+        <v>0.0005566090293912198</v>
       </c>
       <c r="N6">
-        <v>0.0006649198118381804</v>
+        <v>0.0005619833309848987</v>
       </c>
       <c r="O6">
-        <v>0.000665967510092798</v>
+        <v>0.0005619833309848987</v>
       </c>
       <c r="P6">
-        <v>0.000682363374382591</v>
+        <v>0.0005696961333325281</v>
       </c>
       <c r="Q6">
-        <v>0.0006873309911674126</v>
+        <v>0.0005696961333325281</v>
       </c>
       <c r="R6">
-        <v>0.0007303315713047896</v>
+        <v>0.0006040577968314857</v>
       </c>
       <c r="S6">
-        <v>0.0007304388566801424</v>
+        <v>0.0006040577968314857</v>
       </c>
       <c r="T6">
-        <v>0.0007386640833238566</v>
+        <v>0.0006040577968314857</v>
       </c>
       <c r="U6">
-        <v>0.00075334048968813</v>
+        <v>0.0006100482881506783</v>
       </c>
       <c r="V6">
-        <v>0.0007596912608130385</v>
+        <v>0.0006100482881506783</v>
       </c>
       <c r="W6">
-        <v>0.0007725651582553898</v>
+        <v>0.000614233279638205</v>
       </c>
       <c r="X6">
-        <v>0.0007891581715366431</v>
+        <v>0.0006221435581073479</v>
       </c>
       <c r="Y6">
-        <v>0.0008009525990257529</v>
+        <v>0.0006252472884731335</v>
       </c>
       <c r="Z6">
-        <v>0.0008789334156479179</v>
+        <v>0.0006946472312931007</v>
       </c>
       <c r="AA6">
-        <v>0.001013063369837914</v>
+        <v>0.0008202894801532519</v>
       </c>
       <c r="AB6">
-        <v>0.001210212081298175</v>
+        <v>0.001009055053541489</v>
       </c>
       <c r="AC6">
-        <v>0.001544089226835876</v>
+        <v>0.001334775935005271</v>
       </c>
       <c r="AD6">
-        <v>0.001687752820612911</v>
+        <v>0.001469967642656009</v>
       </c>
       <c r="AE6">
-        <v>0.001766737062191611</v>
+        <v>0.001540372675419266</v>
       </c>
       <c r="AF6">
-        <v>0.00176778426364625</v>
+        <v>0.001540372675419266</v>
       </c>
       <c r="AG6">
-        <v>0.001782460670010523</v>
+        <v>0.001546363166738459</v>
       </c>
       <c r="AH6">
-        <v>0.001849168647120985</v>
+        <v>0.001604471564982284</v>
       </c>
       <c r="AI6">
-        <v>0.00200938678018094</v>
+        <v>0.001756245280924414</v>
       </c>
       <c r="AJ6">
-        <v>0.002046947570553948</v>
+        <v>0.001785158128395658</v>
       </c>
       <c r="AK6">
-        <v>0.002161433845594835</v>
+        <v>0.001891124103276983</v>
       </c>
       <c r="AL6">
-        <v>0.00228420202027698</v>
+        <v>0.00200538571998638</v>
       </c>
       <c r="AM6">
-        <v>0.002331551608225975</v>
+        <v>0.002044103607621757</v>
       </c>
       <c r="AN6">
-        <v>0.002431794399883835</v>
+        <v>0.002135802464855217</v>
       </c>
       <c r="AO6">
-        <v>0.00253962800121289</v>
+        <v>0.002235104727218531</v>
       </c>
       <c r="AP6">
-        <v>0.002578187019542659</v>
+        <v>0.002265017459009889</v>
       </c>
       <c r="AQ6">
-        <v>0.002616145527898439</v>
+        <v>0.00229432868439883</v>
       </c>
       <c r="AR6">
-        <v>0.002719490083421943</v>
+        <v>0.002389134452266227</v>
       </c>
       <c r="AS6">
-        <v>0.002750519888077849</v>
+        <v>0.00241150547713153</v>
       </c>
       <c r="AT6">
-        <v>0.002784595444601824</v>
+        <v>0.002436927307692281</v>
       </c>
       <c r="AU6">
-        <v>0.002873818510737017</v>
+        <v>0.002517588154331616</v>
       </c>
       <c r="AV6">
-        <v>0.002899758179613408</v>
+        <v>0.002534860597336215</v>
       </c>
       <c r="AW6">
-        <v>0.002899974482004039</v>
+        <v>0.002534860597336215</v>
       </c>
       <c r="AX6">
-        <v>0.002900635805475393</v>
+        <v>0.002534860597336215</v>
       </c>
       <c r="AY6">
-        <v>0.01062980397067697</v>
+        <v>0.01026814353229899</v>
       </c>
       <c r="AZ6">
-        <v>0.04234676259681788</v>
+        <v>0.04202901995793898</v>
       </c>
       <c r="BA6">
-        <v>0.112533499556593</v>
+        <v>0.1123235077631753</v>
       </c>
       <c r="BB6">
-        <v>0.1245452270362903</v>
+        <v>0.1243464560791982</v>
       </c>
       <c r="BC6">
-        <v>0.1391250059047492</v>
+        <v>0.138941716961183</v>
       </c>
       <c r="BD6">
-        <v>0.1620744379106663</v>
+        <v>0.1619205187771392</v>
       </c>
       <c r="BE6">
-        <v>0.1633339185561104</v>
+        <v>0.163173379015832</v>
       </c>
       <c r="BF6">
-        <v>0.1708385537310379</v>
+        <v>0.1706817563920966</v>
       </c>
       <c r="BG6">
-        <v>0.2071270221591582</v>
+        <v>0.2070217281428967</v>
       </c>
       <c r="BH6">
-        <v>0.2323922550647636</v>
+        <v>0.2323201734755687</v>
       </c>
       <c r="BI6">
-        <v>0.2351752731442137</v>
+        <v>0.2350990991595861</v>
       </c>
       <c r="BJ6">
-        <v>0.2352649507303292</v>
+        <v>0.2351802152803924</v>
       </c>
       <c r="BK6">
-        <v>0.2393113790550532</v>
+        <v>0.2392246475909925</v>
       </c>
       <c r="BL6">
-        <v>0.2444305442333103</v>
+        <v>0.244343596751368</v>
       </c>
       <c r="BM6">
-        <v>0.2445239417752647</v>
+        <v>0.2444284390005497</v>
       </c>
       <c r="BN6">
-        <v>0.2447556639452273</v>
+        <v>0.2446518354003084</v>
       </c>
       <c r="BO6">
-        <v>0.253497521566563</v>
+        <v>0.2533994881507782</v>
       </c>
       <c r="BP6">
-        <v>0.255305435688251</v>
+        <v>0.2552016918834174</v>
       </c>
       <c r="BQ6">
-        <v>0.25932104421431</v>
+        <v>0.2592152532559462</v>
       </c>
       <c r="BR6">
-        <v>0.2745926745528005</v>
+        <v>0.2745035135996745</v>
       </c>
       <c r="BS6">
-        <v>0.2776153612218691</v>
+        <v>0.2775225055562905</v>
       </c>
       <c r="BT6">
-        <v>0.2778930012498428</v>
+        <v>0.2777918960057324</v>
       </c>
       <c r="BU6">
-        <v>0.2785263119224102</v>
+        <v>0.2784175472653885</v>
       </c>
       <c r="BV6">
-        <v>0.2831059767240364</v>
+        <v>0.2829961008541559</v>
       </c>
       <c r="BW6">
-        <v>0.3022875588931626</v>
+        <v>0.3022008008261035</v>
       </c>
       <c r="BX6">
-        <v>0.3060668443294582</v>
+        <v>0.305977646977089</v>
       </c>
       <c r="BY6">
-        <v>0.3086045562195341</v>
+        <v>0.3085108594342617</v>
       </c>
       <c r="BZ6">
-        <v>0.3129454190315043</v>
+        <v>0.3128502147883454</v>
       </c>
       <c r="CA6">
-        <v>0.3133257589150294</v>
+        <v>0.3132224755035902</v>
       </c>
       <c r="CB6">
-        <v>0.3186000940865651</v>
+        <v>0.31849685213139</v>
       </c>
       <c r="CC6">
-        <v>0.3222423749287952</v>
+        <v>0.3221364663560786</v>
       </c>
       <c r="CD6">
-        <v>0.3224052667217394</v>
+        <v>0.3222909181683187</v>
       </c>
       <c r="CE6">
-        <v>0.325891035870749</v>
+        <v>0.3257737609993535</v>
       </c>
       <c r="CF6">
-        <v>0.3385605993219513</v>
+        <v>0.3384556368365503</v>
       </c>
       <c r="CG6">
-        <v>0.3608988863543409</v>
+        <v>0.3608222796038564</v>
       </c>
       <c r="CH6">
-        <v>0.3751252417381088</v>
+        <v>0.3750635305642503</v>
       </c>
       <c r="CI6">
-        <v>0.3869849412243913</v>
+        <v>0.3869341986262447</v>
       </c>
       <c r="CJ6">
-        <v>0.3921006340027988</v>
+        <v>0.3920496696250047</v>
       </c>
       <c r="CK6">
-        <v>0.3941765163128794</v>
+        <v>0.394120286186646</v>
       </c>
       <c r="CL6">
-        <v>0.3954683602569216</v>
+        <v>0.3954055634244784</v>
       </c>
       <c r="CM6">
-        <v>0.4014688369970035</v>
+        <v>0.4014072865102241</v>
       </c>
       <c r="CN6">
-        <v>0.4199311941972838</v>
+        <v>0.4198915681006656</v>
       </c>
       <c r="CO6">
-        <v>0.4431067731934051</v>
+        <v>0.4430968921533662</v>
       </c>
       <c r="CP6">
-        <v>0.4577629075585566</v>
+        <v>0.4577686352290026</v>
       </c>
       <c r="CQ6">
-        <v>0.4750890308080543</v>
+        <v>0.4751147975114501</v>
       </c>
       <c r="CR6">
-        <v>0.4837373854334401</v>
+        <v>0.4837687921161019</v>
       </c>
       <c r="CS6">
-        <v>0.4838889115668766</v>
+        <v>0.4839118594097533</v>
       </c>
       <c r="CT6">
-        <v>0.5017536947930415</v>
+        <v>0.5017975754693664</v>
       </c>
       <c r="CU6">
-        <v>0.541289603080495</v>
+        <v>0.5413903755685106</v>
       </c>
       <c r="CV6">
-        <v>0.5944658477771005</v>
+        <v>0.5946461455376338</v>
       </c>
       <c r="CW6">
-        <v>0.6197309996827094</v>
+        <v>0.6199445097359058</v>
       </c>
       <c r="CX6">
-        <v>0.6340153130639667</v>
+        <v>0.6342438148637095</v>
       </c>
       <c r="CY6">
-        <v>0.6346445461367107</v>
+        <v>0.6348653817575658</v>
       </c>
       <c r="CZ6">
-        <v>0.6360184945771965</v>
+        <v>0.6362328997281373</v>
       </c>
       <c r="DA6">
-        <v>0.6404623043847074</v>
+        <v>0.6406753728980936</v>
       </c>
       <c r="DB6">
-        <v>0.6509923779285843</v>
+        <v>0.6512142087644216</v>
       </c>
       <c r="DC6">
-        <v>0.6645626208407726</v>
+        <v>0.6647982585633767</v>
       </c>
       <c r="DD6">
-        <v>0.6880570608230819</v>
+        <v>0.6883229726894832</v>
       </c>
       <c r="DE6">
-        <v>0.7113806778127908</v>
+        <v>0.7116765803757635</v>
       </c>
       <c r="DF6">
-        <v>0.7260622891768388</v>
+        <v>0.7263738427243752</v>
       </c>
       <c r="DG6">
-        <v>0.7322204669100898</v>
+        <v>0.7325335284771333</v>
       </c>
       <c r="DH6">
-        <v>0.7322564548465309</v>
+        <v>0.7325608658608302</v>
       </c>
       <c r="DI6">
-        <v>0.7453335782800792</v>
+        <v>0.7456509779461644</v>
       </c>
       <c r="DJ6">
-        <v>0.7589037656922698</v>
+        <v>0.7592349721530306</v>
       </c>
       <c r="DK6">
-        <v>0.7678878283031141</v>
+        <v>0.7682252317846471</v>
       </c>
       <c r="DL6">
-        <v>0.7720995701206773</v>
+        <v>0.7724352518933786</v>
       </c>
       <c r="DM6">
-        <v>0.7746348126108602</v>
+        <v>0.7749659908531739</v>
       </c>
       <c r="DN6">
-        <v>0.7757311050633729</v>
+        <v>0.7760553921201611</v>
       </c>
       <c r="DO6">
-        <v>0.7780146545644582</v>
+        <v>0.7783340204557477</v>
       </c>
       <c r="DP6">
-        <v>0.7783601621894921</v>
+        <v>0.7786713911152056</v>
       </c>
       <c r="DQ6">
-        <v>0.7784014818237023</v>
+        <v>0.7787040690435775</v>
       </c>
       <c r="DR6">
-        <v>0.7784367934781727</v>
+        <v>0.7787307290231466</v>
       </c>
       <c r="DS6">
-        <v>0.7801018112060505</v>
+        <v>0.7803897992534589</v>
       </c>
       <c r="DT6">
-        <v>0.7818802825290139</v>
+        <v>0.7821625113328282</v>
       </c>
       <c r="DU6">
-        <v>0.7842253496274344</v>
+        <v>0.7845027593421278</v>
       </c>
       <c r="DV6">
-        <v>0.7882687217522908</v>
+        <v>0.7885441303816965</v>
       </c>
       <c r="DW6">
-        <v>0.793507861725351</v>
+        <v>0.7937832534114974</v>
       </c>
       <c r="DX6">
-        <v>0.794313149840469</v>
+        <v>0.7945811674765128</v>
       </c>
       <c r="DY6">
-        <v>0.7943494295748975</v>
+        <v>0.7946087971423786</v>
       </c>
       <c r="DZ6">
-        <v>0.7972037228512603</v>
+        <v>0.7974591162905074</v>
       </c>
       <c r="EA6">
-        <v>0.8039027467610839</v>
+        <v>0.804160545647906</v>
       </c>
       <c r="EB6">
-        <v>0.807935805586387</v>
+        <v>0.8081915862750252</v>
       </c>
       <c r="EC6">
-        <v>0.8095836809150072</v>
+        <v>0.8098334856616334</v>
       </c>
       <c r="ED6">
-        <v>0.8111691016463327</v>
+        <v>0.8114128268198018</v>
       </c>
       <c r="EE6">
-        <v>0.8117106989228727</v>
+        <v>0.8119466125030522</v>
       </c>
       <c r="EF6">
-        <v>0.811714871682692</v>
+        <v>0.8119466125030522</v>
       </c>
       <c r="EG6">
-        <v>0.8117158223628508</v>
+        <v>0.8119466125030522</v>
       </c>
       <c r="EH6">
-        <v>0.8122547980395044</v>
+        <v>0.8124777722363857</v>
       </c>
       <c r="EI6">
-        <v>0.8136722700781048</v>
+        <v>0.8138888860239398</v>
       </c>
       <c r="EJ6">
-        <v>0.8150378345189537</v>
+        <v>0.8152480060832729</v>
       </c>
       <c r="EK6">
-        <v>0.8156900151307037</v>
+        <v>0.8158925585930717</v>
       </c>
       <c r="EL6">
-        <v>0.8157762030169704</v>
+        <v>0.8159701792235573</v>
       </c>
       <c r="EM6">
-        <v>0.8157792424060387</v>
+        <v>0.8159701792235573</v>
       </c>
       <c r="EN6">
-        <v>0.8168023445617217</v>
+        <v>0.8169862687487837</v>
       </c>
       <c r="EO6">
-        <v>0.8214656093597267</v>
+        <v>0.8216485610517141</v>
       </c>
       <c r="EP6">
-        <v>0.8320672039005056</v>
+        <v>0.8322590365899997</v>
       </c>
       <c r="EQ6">
-        <v>0.8378294356509074</v>
+        <v>0.8380221193652697</v>
       </c>
       <c r="ER6">
-        <v>0.837870030403149</v>
+        <v>0.8380540712088738</v>
       </c>
       <c r="ES6">
-        <v>0.8414384422485789</v>
+        <v>0.8416196938656616</v>
       </c>
       <c r="ET6">
-        <v>0.8473154349940097</v>
+        <v>0.8474977280593056</v>
       </c>
       <c r="EU6">
-        <v>0.8568285245819386</v>
+        <v>0.8570178924844329</v>
       </c>
       <c r="EV6">
-        <v>0.8618382963649341</v>
+        <v>0.8620272667326802</v>
       </c>
       <c r="EW6">
-        <v>0.8632218400050042</v>
+        <v>0.8634043958241864</v>
       </c>
       <c r="EX6">
-        <v>0.8635147755923154</v>
+        <v>0.8636891072129441</v>
       </c>
       <c r="EY6">
-        <v>0.8635149051250197</v>
+        <v>0.8636891072129441</v>
       </c>
       <c r="EZ6">
-        <v>0.8635272635124844</v>
+        <v>0.8636927758390663</v>
       </c>
       <c r="FA6">
-        <v>0.8640428326901519</v>
+        <v>0.8642004902349232</v>
       </c>
       <c r="FB6">
-        <v>0.8690905039715058</v>
+        <v>0.869247826868307</v>
       </c>
       <c r="FC6">
-        <v>0.8756067423892469</v>
+        <v>0.8757661674369779</v>
       </c>
       <c r="FD6">
-        <v>0.8818068945206796</v>
+        <v>0.8819678972361924</v>
       </c>
       <c r="FE6">
-        <v>0.8856350794548571</v>
+        <v>0.8857937240241781</v>
       </c>
       <c r="FF6">
-        <v>0.8860050676188306</v>
+        <v>0.8861556158432246</v>
       </c>
       <c r="FG6">
-        <v>0.8892367481788463</v>
+        <v>0.8893839484751267</v>
       </c>
       <c r="FH6">
-        <v>0.8953872719124288</v>
+        <v>0.8955359675279062</v>
       </c>
       <c r="FI6">
-        <v>0.8981822276913619</v>
+        <v>0.8983268507196756</v>
       </c>
       <c r="FJ6">
-        <v>0.8997464583236053</v>
+        <v>0.8998849666179518</v>
       </c>
       <c r="FK6">
-        <v>0.9019064614300422</v>
+        <v>0.9020398435578989</v>
       </c>
       <c r="FL6">
-        <v>0.9051473473896592</v>
+        <v>0.905277396863956</v>
       </c>
       <c r="FM6">
-        <v>0.9066319814253504</v>
+        <v>0.906755784090752</v>
       </c>
       <c r="FN6">
-        <v>0.9074400132903495</v>
+        <v>0.9075564464583629</v>
       </c>
       <c r="FO6">
-        <v>0.9076486925213103</v>
+        <v>0.9077567616838854</v>
       </c>
       <c r="FP6">
-        <v>0.912639047305147</v>
+        <v>0.9127466867142749</v>
       </c>
       <c r="FQ6">
-        <v>0.9216584649144598</v>
+        <v>0.9217723600090401</v>
       </c>
       <c r="FR6">
-        <v>0.9315992654838617</v>
+        <v>0.9317209451180596</v>
       </c>
       <c r="FS6">
-        <v>0.9363513466780194</v>
+        <v>0.9364722011905187</v>
       </c>
       <c r="FT6">
-        <v>0.9394124348454247</v>
+        <v>0.9395296583652201</v>
       </c>
       <c r="FU6">
-        <v>0.9394752369827043</v>
+        <v>0.9395838544426586</v>
       </c>
       <c r="FV6">
-        <v>0.9395233691806194</v>
+        <v>0.9396233562388476</v>
       </c>
       <c r="FW6">
-        <v>0.9401103129551952</v>
+        <v>0.9402025636637463</v>
       </c>
       <c r="FX6">
-        <v>0.943938467389374</v>
+        <v>0.9440283599011245</v>
       </c>
       <c r="FY6">
-        <v>0.9544137709356234</v>
+        <v>0.9545123348897646</v>
       </c>
       <c r="FZ6">
-        <v>0.9607406639615662</v>
+        <v>0.9608410158851258</v>
       </c>
       <c r="GA6">
-        <v>0.9628342553708797</v>
+        <v>0.9629293709307741</v>
       </c>
       <c r="GB6">
-        <v>0.9633646145079066</v>
+        <v>0.9634518998270247</v>
       </c>
       <c r="GC6">
-        <v>0.9638526386667672</v>
+        <v>0.9639320234985227</v>
       </c>
       <c r="GD6">
-        <v>0.9656283815898487</v>
+        <v>0.9657020026507662</v>
       </c>
       <c r="GE6">
-        <v>0.9711499777506739</v>
+        <v>0.9712240505489329</v>
       </c>
       <c r="GF6">
-        <v>0.9790536734083156</v>
+        <v>0.9791321505704518</v>
       </c>
       <c r="GG6">
-        <v>0.9828718532429265</v>
+        <v>0.982947955657372</v>
       </c>
       <c r="GH6">
-        <v>0.983306043784119</v>
+        <v>0.9833741563848803</v>
       </c>
       <c r="GI6">
-        <v>0.9835459580837268</v>
+        <v>0.9836057585075153</v>
       </c>
       <c r="GJ6">
-        <v>0.984480476043247</v>
+        <v>0.9845331168484934</v>
       </c>
       <c r="GK6">
-        <v>0.9882597311795439</v>
+        <v>0.9883099326492033</v>
       </c>
       <c r="GL6">
-        <v>0.9943558089154848</v>
+        <v>0.9944074153618953</v>
       </c>
       <c r="GM6">
-        <v>0.9967631633112073</v>
+        <v>0.9968100540220404</v>
       </c>
       <c r="GN6">
-        <v>0.9979980548577164</v>
+        <v>0.998038284361015</v>
       </c>
       <c r="GO6">
-        <v>0.9986518771293953</v>
+        <v>0.9986844812547553</v>
       </c>
       <c r="GP6">
-        <v>0.9986859526859193</v>
+        <v>0.998709903085316</v>
       </c>
       <c r="GQ6">
-        <v>0.9987530577270126</v>
+        <v>0.9987684092063924</v>
       </c>
       <c r="GR6">
-        <v>0.9987673645533929</v>
+        <v>0.9987740295044822</v>
       </c>
       <c r="GS6">
         <v>0.9999999999999998</v>
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D2">
         <v>103</v>
       </c>
       <c r="E2">
-        <v>0.009152825843813151</v>
+        <v>0.08139349569100787</v>
       </c>
       <c r="F2">
-        <v>0.520529332919452</v>
+        <v>0.5205607482809913</v>
       </c>
       <c r="G2">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H2">
         <v>7</v>
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D3">
         <v>95</v>
       </c>
       <c r="E3">
-        <v>0.005216890707316558</v>
+        <v>0.004274282857112253</v>
       </c>
       <c r="F3">
-        <v>0.5066668575499959</v>
+        <v>0.5070347589266777</v>
       </c>
       <c r="G3">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H3">
         <v>7</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D4">
         <v>95</v>
       </c>
       <c r="E4">
-        <v>0.003948503317792252</v>
+        <v>0.05482141367574027</v>
       </c>
       <c r="F4">
-        <v>0.5058160008362522</v>
+        <v>0.5060814194878016</v>
       </c>
       <c r="G4">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H4">
         <v>7</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D5">
         <v>106</v>
       </c>
       <c r="E5">
-        <v>0.00489636509319008</v>
+        <v>0.04434004095881064</v>
       </c>
       <c r="F5">
-        <v>0.5105096781932972</v>
+        <v>0.510557087394014</v>
       </c>
       <c r="G5">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H5">
         <v>7</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D6">
         <v>97</v>
       </c>
       <c r="E6">
-        <v>0.002899974482004039</v>
+        <v>0.01026814353229899</v>
       </c>
       <c r="F6">
-        <v>0.5017536947930415</v>
+        <v>0.5017975754693664</v>
       </c>
       <c r="G6">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H6">
         <v>7</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D2">
         <v>117</v>
       </c>
       <c r="E2">
-        <v>0.009152825843813151</v>
+        <v>0.08139349569100787</v>
       </c>
       <c r="F2">
-        <v>0.7109657819362816</v>
+        <v>0.7114601469618056</v>
       </c>
       <c r="G2">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H2">
         <v>7</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D3">
         <v>108</v>
       </c>
       <c r="E3">
-        <v>0.005216890707316558</v>
+        <v>0.004274282857112253</v>
       </c>
       <c r="F3">
-        <v>0.7043374123318111</v>
+        <v>0.7055266532499228</v>
       </c>
       <c r="G3">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H3">
         <v>7</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D4">
         <v>108</v>
       </c>
       <c r="E4">
-        <v>0.003948503317792252</v>
+        <v>0.05482141367574027</v>
       </c>
       <c r="F4">
-        <v>0.712371070325945</v>
+        <v>0.7132718339531812</v>
       </c>
       <c r="G4">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H4">
         <v>7</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D5">
         <v>117</v>
       </c>
       <c r="E5">
-        <v>0.00489636509319008</v>
+        <v>0.04434004095881064</v>
       </c>
       <c r="F5">
-        <v>0.7133541275789403</v>
+        <v>0.7140817589724272</v>
       </c>
       <c r="G5">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H5">
         <v>7</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D6">
         <v>108</v>
       </c>
       <c r="E6">
-        <v>0.002899974482004039</v>
+        <v>0.01026814353229899</v>
       </c>
       <c r="F6">
-        <v>0.7113806778127908</v>
+        <v>0.7116765803757635</v>
       </c>
       <c r="G6">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H6">
         <v>7</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D2">
         <v>131</v>
       </c>
       <c r="E2">
-        <v>0.009152825843813151</v>
+        <v>0.08139349569100787</v>
       </c>
       <c r="F2">
-        <v>0.8027473577334363</v>
+        <v>0.8033182360821369</v>
       </c>
       <c r="G2">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H2">
         <v>7</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D3">
         <v>125</v>
       </c>
       <c r="E3">
-        <v>0.005216890707316558</v>
+        <v>0.004274282857112253</v>
       </c>
       <c r="F3">
-        <v>0.8015444210466276</v>
+        <v>0.8027952558872916</v>
       </c>
       <c r="G3">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H3">
         <v>7</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D4">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E4">
-        <v>0.003948503317792252</v>
+        <v>0.05482141367574027</v>
       </c>
       <c r="F4">
-        <v>0.8055081946117001</v>
+        <v>0.8005293264948963</v>
       </c>
       <c r="G4">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H4">
         <v>7</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D5">
         <v>134</v>
       </c>
       <c r="E5">
-        <v>0.00489636509319008</v>
+        <v>0.04434004095881064</v>
       </c>
       <c r="F5">
-        <v>0.800757927274752</v>
+        <v>0.8014634309563514</v>
       </c>
       <c r="G5">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H5">
         <v>7</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D6">
         <v>130</v>
       </c>
       <c r="E6">
-        <v>0.002899974482004039</v>
+        <v>0.01026814353229899</v>
       </c>
       <c r="F6">
-        <v>0.8039027467610839</v>
+        <v>0.804160545647906</v>
       </c>
       <c r="G6">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H6">
         <v>7</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D2">
         <v>168</v>
       </c>
       <c r="E2">
-        <v>0.009152825843813151</v>
+        <v>0.08139349569100787</v>
       </c>
       <c r="F2">
-        <v>0.900163319817095</v>
+        <v>0.9003989568434025</v>
       </c>
       <c r="G2">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H2">
         <v>7</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D3">
         <v>163</v>
       </c>
       <c r="E3">
-        <v>0.005216890707316558</v>
+        <v>0.004274282857112253</v>
       </c>
       <c r="F3">
-        <v>0.9007877001523994</v>
+        <v>0.9014425315340867</v>
       </c>
       <c r="G3">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H3">
         <v>7</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D4">
         <v>164</v>
       </c>
       <c r="E4">
-        <v>0.003948503317792252</v>
+        <v>0.05482141367574027</v>
       </c>
       <c r="F4">
-        <v>0.9020732539394772</v>
+        <v>0.9024929456648259</v>
       </c>
       <c r="G4">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H4">
         <v>7</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D5">
         <v>169</v>
       </c>
       <c r="E5">
-        <v>0.00489636509319008</v>
+        <v>0.04434004095881064</v>
       </c>
       <c r="F5">
-        <v>0.9008710104564585</v>
+        <v>0.9011974323359349</v>
       </c>
       <c r="G5">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H5">
         <v>7</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D6">
         <v>166</v>
       </c>
       <c r="E6">
-        <v>0.002899974482004039</v>
+        <v>0.01026814353229899</v>
       </c>
       <c r="F6">
-        <v>0.9019064614300422</v>
+        <v>0.9020398435578989</v>
       </c>
       <c r="G6">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H6">
         <v>7</v>

--- a/on_trucks/Processed_Stand_Alone/7_225-80R17.xlsx
+++ b/on_trucks/Processed_Stand_Alone/7_225-80R17.xlsx
@@ -1994,43 +1994,43 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>7.743130178520624E-05</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.000176264017487832</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.0002046715150485917</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.0002967938187301325</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.0003567324814686198</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0004278371606643381</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0004662601255837962</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.0004100196621129751</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0004186133320432694</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.0003821602028337094</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.0002628865928741541</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>5.099675609266259E-05</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>9.409493028065386E-07</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -2042,46 +2042,46 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>7.947109043054029E-05</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0001444314362748677</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.0001861254538636955</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.0002746997141408473</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.0002260087465453986</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.0002219822563848375</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0.0003234681841274506</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.0003413693290419096</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.0002101018425627156</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.0001887244343082143</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.0001555226107209513</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>8.468262427719979E-05</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>7.615479122270761E-05</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>1.866413989270491E-05</v>
+        <v>0</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -2093,43 +2093,43 @@
         <v>0</v>
       </c>
       <c r="AI2">
-        <v>2.518753021103109E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>4.400221147113507E-05</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>4.317894934851349E-05</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>0.0001932289796973239</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.0001846587010327537</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0.0001701721387988482</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0.0001992944754479716</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.0001071559484679716</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>9.858148346957869E-05</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>0.0001311645829805135</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>6.751237610326157E-05</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>2.926848989538598E-05</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>8.649166461162557E-06</v>
+        <v>0</v>
       </c>
       <c r="AV2">
         <v>0</v>
@@ -2138,460 +2138,460 @@
         <v>0</v>
       </c>
       <c r="AX2">
-        <v>1.551733801276068E-05</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>7.957065088566452E-06</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>5.186258027973226E-05</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>7.69151077504406E-05</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>0.0001065663078666661</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>0.0001624204540429247</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>0.0001544993884134827</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>8.814132910919428E-05</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>8.20602626061267E-05</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>7.870081002674241E-05</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>0.006523553944747543</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>0.01938589455155673</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>0.04729433694829938</v>
+        <v>0.3314699044538453</v>
       </c>
       <c r="BK2">
-        <v>0.002312557495822317</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>0.01660388598604089</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>0.02879865834115558</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>0.01081579056854178</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>0.001427114963837278</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>0.0323625736730595</v>
+        <v>0.04366280233804184</v>
       </c>
       <c r="BQ2">
-        <v>0.05454765522725685</v>
+        <v>0.4712763342846717</v>
       </c>
       <c r="BR2">
-        <v>3.409320448899099E-05</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>0.01768064819017615</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>0.0003592227979388046</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>0.01066070246112278</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>0.003568621281110502</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>0.006382524289203851</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>0.007474954625706347</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>0.001298770000168164</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>0.0103199494447486</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>0.01197431980317918</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>0.002715644922425286</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>0.005520906915863381</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>0.001048922168641795</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>0.005048164014426757</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>0.007179086235722451</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>0.006759080900499024</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>0.004505853782067665</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>0.001675147613065114</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>0.001205047422696827</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>0.004424748332857891</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>0.0002458107881904734</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>7.767841996645348E-05</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.006133461520758866</v>
+        <v>0</v>
       </c>
       <c r="CO2">
-        <v>0.02052183264230613</v>
+        <v>0</v>
       </c>
       <c r="CP2">
-        <v>0.02320000908593138</v>
+        <v>0</v>
       </c>
       <c r="CQ2">
-        <v>0.0197246562985934</v>
+        <v>0</v>
       </c>
       <c r="CR2">
-        <v>0.01143863070450379</v>
+        <v>0</v>
       </c>
       <c r="CS2">
-        <v>0.002199470062474041</v>
+        <v>0</v>
       </c>
       <c r="CT2">
-        <v>0.001738319792016944</v>
+        <v>0</v>
       </c>
       <c r="CU2">
-        <v>0.001160366591454272</v>
+        <v>0</v>
       </c>
       <c r="CV2">
-        <v>0.009576682439152644</v>
+        <v>0</v>
       </c>
       <c r="CW2">
-        <v>0.02114329640808327</v>
+        <v>0</v>
       </c>
       <c r="CX2">
-        <v>0.02045552292160462</v>
+        <v>0</v>
       </c>
       <c r="CY2">
-        <v>0.02244852501982245</v>
+        <v>0</v>
       </c>
       <c r="CZ2">
-        <v>0.02239834523330076</v>
+        <v>0</v>
       </c>
       <c r="DA2">
-        <v>0.009710928728028034</v>
+        <v>0</v>
       </c>
       <c r="DB2">
-        <v>0.001040513861943402</v>
+        <v>0</v>
       </c>
       <c r="DC2">
-        <v>0.00832303959967106</v>
+        <v>0</v>
       </c>
       <c r="DD2">
-        <v>0.02514740323557206</v>
+        <v>0</v>
       </c>
       <c r="DE2">
-        <v>0.0335319813521341</v>
+        <v>0.06620292898634772</v>
       </c>
       <c r="DF2">
-        <v>0.03463108874049631</v>
+        <v>0.08738802993709341</v>
       </c>
       <c r="DG2">
-        <v>0.01363071556412471</v>
+        <v>0</v>
       </c>
       <c r="DH2">
-        <v>0.005357185724733303</v>
+        <v>0</v>
       </c>
       <c r="DI2">
-        <v>1.899096506680338E-05</v>
+        <v>0</v>
       </c>
       <c r="DJ2">
-        <v>0.001605849733461113</v>
+        <v>0</v>
       </c>
       <c r="DK2">
-        <v>0.007302035647561761</v>
+        <v>0</v>
       </c>
       <c r="DL2">
-        <v>0.01327193772026366</v>
+        <v>0</v>
       </c>
       <c r="DM2">
-        <v>0.0170083962641851</v>
+        <v>0</v>
       </c>
       <c r="DN2">
-        <v>0.02031933154357298</v>
+        <v>0</v>
       </c>
       <c r="DO2">
-        <v>0.01383628362924358</v>
+        <v>0</v>
       </c>
       <c r="DP2">
-        <v>0.005632767964224163</v>
+        <v>0</v>
       </c>
       <c r="DQ2">
-        <v>5.288274264823397E-06</v>
+        <v>0</v>
       </c>
       <c r="DR2">
-        <v>0.0114745147131752</v>
+        <v>0</v>
       </c>
       <c r="DS2">
-        <v>0.01526014209921558</v>
+        <v>0</v>
       </c>
       <c r="DT2">
-        <v>0.01751638327760761</v>
+        <v>0</v>
       </c>
       <c r="DU2">
-        <v>0.01302054686833308</v>
+        <v>0</v>
       </c>
       <c r="DV2">
-        <v>0.005381776269686374</v>
+        <v>0</v>
       </c>
       <c r="DW2">
-        <v>0.002904790411563539</v>
+        <v>0</v>
       </c>
       <c r="DX2">
-        <v>0.002723737095665459</v>
+        <v>0</v>
       </c>
       <c r="DY2">
-        <v>0.0001444314362748677</v>
+        <v>0</v>
       </c>
       <c r="DZ2">
-        <v>0.0001820852100404553</v>
+        <v>0</v>
       </c>
       <c r="EA2">
-        <v>0.0002773739582416467</v>
+        <v>0</v>
       </c>
       <c r="EB2">
-        <v>0.003497967912794882</v>
+        <v>0</v>
       </c>
       <c r="EC2">
-        <v>0.002731881572980491</v>
+        <v>0</v>
       </c>
       <c r="ED2">
-        <v>0.003807080377196768</v>
+        <v>0</v>
       </c>
       <c r="EE2">
-        <v>0.006312679274843642</v>
+        <v>0</v>
       </c>
       <c r="EF2">
-        <v>0.006475701840144644</v>
+        <v>0</v>
       </c>
       <c r="EG2">
-        <v>0.003352779631537211</v>
+        <v>0</v>
       </c>
       <c r="EH2">
-        <v>0.001409553343646763</v>
+        <v>0</v>
       </c>
       <c r="EI2">
-        <v>0.0004213000247146688</v>
+        <v>0</v>
       </c>
       <c r="EJ2">
-        <v>0.002878373139266619</v>
+        <v>0</v>
       </c>
       <c r="EK2">
-        <v>0.003423433802986419</v>
+        <v>0</v>
       </c>
       <c r="EL2">
-        <v>0.002657999708036447</v>
+        <v>0</v>
       </c>
       <c r="EM2">
-        <v>0.001078587614340021</v>
+        <v>0</v>
       </c>
       <c r="EN2">
-        <v>0.0001791530797448397</v>
+        <v>0</v>
       </c>
       <c r="EO2">
-        <v>3.127677763360021E-05</v>
+        <v>0</v>
       </c>
       <c r="EP2">
-        <v>2.818157407487588E-05</v>
+        <v>0</v>
       </c>
       <c r="EQ2">
         <v>0</v>
       </c>
       <c r="ER2">
-        <v>0.000105417154212741</v>
+        <v>0</v>
       </c>
       <c r="ES2">
-        <v>2.800786832699104E-05</v>
+        <v>0</v>
       </c>
       <c r="ET2">
         <v>0</v>
       </c>
       <c r="EU2">
-        <v>0.0005739139787269213</v>
+        <v>0</v>
       </c>
       <c r="EV2">
-        <v>8.128001832626389E-05</v>
+        <v>0</v>
       </c>
       <c r="EW2">
-        <v>0.0005751896058424741</v>
+        <v>0</v>
       </c>
       <c r="EX2">
-        <v>0.002157221420908305</v>
+        <v>0</v>
       </c>
       <c r="EY2">
-        <v>0.005755475733245459</v>
+        <v>0</v>
       </c>
       <c r="EZ2">
-        <v>0.003482701548004587</v>
+        <v>0</v>
       </c>
       <c r="FA2">
-        <v>7.999400568951294E-05</v>
+        <v>0</v>
       </c>
       <c r="FB2">
-        <v>0.001442841524172979</v>
+        <v>0</v>
       </c>
       <c r="FC2">
-        <v>0.005265000344947666</v>
+        <v>0</v>
       </c>
       <c r="FD2">
-        <v>0.009899850343678886</v>
+        <v>0</v>
       </c>
       <c r="FE2">
-        <v>0.007877280380493656</v>
+        <v>0</v>
       </c>
       <c r="FF2">
-        <v>0.004099334666038738</v>
+        <v>0</v>
       </c>
       <c r="FG2">
-        <v>0.001512643872061373</v>
+        <v>0</v>
       </c>
       <c r="FH2">
-        <v>8.368835694337999E-06</v>
+        <v>0</v>
       </c>
       <c r="FI2">
-        <v>0.0003060354467993252</v>
+        <v>0</v>
       </c>
       <c r="FJ2">
-        <v>0.001302515614434978</v>
+        <v>0</v>
       </c>
       <c r="FK2">
-        <v>0.005652157616850604</v>
+        <v>0</v>
       </c>
       <c r="FL2">
-        <v>0.005194114469458581</v>
+        <v>0</v>
       </c>
       <c r="FM2">
-        <v>0.006893394552204031</v>
+        <v>0</v>
       </c>
       <c r="FN2">
-        <v>0.006030870742218826</v>
+        <v>0</v>
       </c>
       <c r="FO2">
-        <v>0.0003088338453135197</v>
+        <v>0</v>
       </c>
       <c r="FP2">
-        <v>7.767841996645348E-05</v>
+        <v>0</v>
       </c>
       <c r="FQ2">
-        <v>0.001900707480217349</v>
+        <v>0</v>
       </c>
       <c r="FR2">
-        <v>0.001855801169220217</v>
+        <v>0</v>
       </c>
       <c r="FS2">
-        <v>0.0009817445617077249</v>
+        <v>0</v>
       </c>
       <c r="FT2">
-        <v>0.001620397394082657</v>
+        <v>0</v>
       </c>
       <c r="FU2">
-        <v>0.002203113477991897</v>
+        <v>0</v>
       </c>
       <c r="FV2">
-        <v>0.001087145203493916</v>
+        <v>0</v>
       </c>
       <c r="FW2">
-        <v>0.0008267626285489422</v>
+        <v>0</v>
       </c>
       <c r="FX2">
-        <v>2.854614652756782E-05</v>
+        <v>0</v>
       </c>
       <c r="FY2">
-        <v>0.002318821435843167</v>
+        <v>0</v>
       </c>
       <c r="FZ2">
-        <v>0.004819668292446897</v>
+        <v>0</v>
       </c>
       <c r="GA2">
-        <v>0.007702018561283813</v>
+        <v>0</v>
       </c>
       <c r="GB2">
-        <v>0.004229390003073268</v>
+        <v>0</v>
       </c>
       <c r="GC2">
-        <v>0.002664710993465308</v>
+        <v>0</v>
       </c>
       <c r="GD2">
-        <v>1.192082951205848E-05</v>
+        <v>0</v>
       </c>
       <c r="GE2">
-        <v>0.0003220366587434728</v>
+        <v>0</v>
       </c>
       <c r="GF2">
-        <v>0.001665581288125828</v>
+        <v>0</v>
       </c>
       <c r="GG2">
-        <v>0.007189955142948306</v>
+        <v>0</v>
       </c>
       <c r="GH2">
-        <v>0.01289432940553618</v>
+        <v>0</v>
       </c>
       <c r="GI2">
-        <v>0.01001050759518431</v>
+        <v>0</v>
       </c>
       <c r="GJ2">
-        <v>0.005171755230393856</v>
+        <v>0</v>
       </c>
       <c r="GK2">
-        <v>0.001841320971819989</v>
+        <v>0</v>
       </c>
       <c r="GL2">
-        <v>2.449572097827729E-05</v>
+        <v>0</v>
       </c>
       <c r="GM2">
-        <v>0.001308144275788435</v>
+        <v>0</v>
       </c>
       <c r="GN2">
-        <v>0.005499886902055137</v>
+        <v>0</v>
       </c>
       <c r="GO2">
-        <v>0.008856204851048998</v>
+        <v>0</v>
       </c>
       <c r="GP2">
-        <v>0.004157470193482497</v>
+        <v>0</v>
       </c>
       <c r="GQ2">
-        <v>0.001717850025107558</v>
+        <v>0</v>
       </c>
       <c r="GR2">
         <v>0</v>
       </c>
       <c r="GS2">
-        <v>0.000273373710471044</v>
+        <v>0</v>
       </c>
       <c r="GT2">
         <v>0</v>
@@ -2767,28 +2767,28 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>4.029745274342412E-05</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>6.65515492528575E-05</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.0001388505799195916</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>8.000066620856284E-05</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>5.194214315600303E-05</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0001051755513599345</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>3.725261744242365E-05</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>2.487290171081416E-05</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -2800,37 +2800,37 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>6.243789950401051E-05</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.0001776139147142337</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.0002443617260285672</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.0002847720099065191</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.0002443617260285672</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.0003082907266427735</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.0002083310978034708</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.0001659063496665007</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>1.688531893079561E-05</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>1.817106948975321E-05</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>1.486065704406194E-05</v>
+        <v>0</v>
       </c>
       <c r="X3">
         <v>0</v>
@@ -2848,34 +2848,34 @@
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>1.839628085699098E-06</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>7.197767354517644E-05</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.0001365240372529821</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.0002086846430746501</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.0002406116722329333</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.0002215600337653417</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.0001602459919446818</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.0001459240719897653</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.0001644737097886232</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>4.231015063483083E-05</v>
+        <v>0</v>
       </c>
       <c r="AM3">
         <v>0</v>
@@ -2899,274 +2899,274 @@
         <v>0</v>
       </c>
       <c r="AT3">
-        <v>7.119493617108772E-05</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>7.119493617108772E-05</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>0.0001084906660674385</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>5.008833682497952E-05</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>2.887846083308245E-05</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>0.0002593479511770284</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>0.07668674839879781</v>
+        <v>0.4458261371778076</v>
       </c>
       <c r="BA3">
-        <v>0.02324021460670538</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>0.0437191324542262</v>
+        <v>0.129932335543865</v>
       </c>
       <c r="BC3">
-        <v>0.0007872834859851005</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>0.04272217343822783</v>
+        <v>0.1203795315386723</v>
       </c>
       <c r="BE3">
-        <v>0.002170957580326415</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>0.008928921038822013</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>0.02303900973534873</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>0.04324784947182034</v>
+        <v>0.1254165290867688</v>
       </c>
       <c r="BI3">
-        <v>0.009726341909825426</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
         <v>0</v>
       </c>
       <c r="BK3">
-        <v>0.0002083310978034708</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>0.005810495139157223</v>
+        <v>0</v>
       </c>
       <c r="BM3">
         <v>0</v>
       </c>
       <c r="BN3">
-        <v>0.003231178926523858</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>0.003703811594950863</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>0.00269300626983225</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>0.0004780711633314684</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>0.007469243658760096</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>0.006327247242021498</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>0.00014663915396166</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>0.0005090982407726174</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>0.0009197031542161567</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>0.01018780871940179</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>0.006010002083356763</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>0.000173575756799617</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>0.005182261487138651</v>
+        <v>0</v>
       </c>
       <c r="CA3">
         <v>0</v>
       </c>
       <c r="CB3">
-        <v>0.000769261483831083</v>
+        <v>0</v>
       </c>
       <c r="CC3">
-        <v>0.004748318610212056</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>0.0003934201544402515</v>
+        <v>0</v>
       </c>
       <c r="CE3">
-        <v>0.001629855269592763</v>
+        <v>0</v>
       </c>
       <c r="CF3">
-        <v>0.01226101099198804</v>
+        <v>0</v>
       </c>
       <c r="CG3">
-        <v>0.02315932503486774</v>
+        <v>0</v>
       </c>
       <c r="CH3">
-        <v>0.02008186678606434</v>
+        <v>0</v>
       </c>
       <c r="CI3">
-        <v>0.01090779978418854</v>
+        <v>0</v>
       </c>
       <c r="CJ3">
-        <v>0.009369165268650363</v>
+        <v>0</v>
       </c>
       <c r="CK3">
-        <v>4.029745274342412E-05</v>
+        <v>0</v>
       </c>
       <c r="CL3">
-        <v>0.003338192219831085</v>
+        <v>0</v>
       </c>
       <c r="CM3">
-        <v>0.002560933000883745</v>
+        <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.01602778338157981</v>
+        <v>0</v>
       </c>
       <c r="CO3">
-        <v>0.02842658695464436</v>
+        <v>0</v>
       </c>
       <c r="CP3">
-        <v>0.01520682000071744</v>
+        <v>0</v>
       </c>
       <c r="CQ3">
-        <v>0.01560686552831987</v>
+        <v>0</v>
       </c>
       <c r="CR3">
-        <v>0.01091386833889738</v>
+        <v>0</v>
       </c>
       <c r="CS3">
-        <v>0.003314603915256275</v>
+        <v>0</v>
       </c>
       <c r="CT3">
-        <v>0.007065684015764037</v>
+        <v>0</v>
       </c>
       <c r="CU3">
-        <v>0.0280006135660494</v>
+        <v>0</v>
       </c>
       <c r="CV3">
-        <v>0.0438672597401901</v>
+        <v>0.1313516826864527</v>
       </c>
       <c r="CW3">
-        <v>0.03507385502338247</v>
+        <v>0.0470937839664335</v>
       </c>
       <c r="CX3">
-        <v>0.01666099849220622</v>
+        <v>0</v>
       </c>
       <c r="CY3">
-        <v>0.002068323469627726</v>
+        <v>0</v>
       </c>
       <c r="CZ3">
-        <v>0.0005215503071228925</v>
+        <v>0</v>
       </c>
       <c r="DA3">
-        <v>0.003704114544609601</v>
+        <v>0</v>
       </c>
       <c r="DB3">
-        <v>0.007597398409747255</v>
+        <v>0</v>
       </c>
       <c r="DC3">
-        <v>0.01046690386032685</v>
+        <v>0</v>
       </c>
       <c r="DD3">
-        <v>0.01636129270971425</v>
+        <v>0</v>
       </c>
       <c r="DE3">
-        <v>0.02378929626924792</v>
+        <v>0</v>
       </c>
       <c r="DF3">
-        <v>0.01713348622790612</v>
+        <v>0</v>
       </c>
       <c r="DG3">
-        <v>0.009178498214326895</v>
+        <v>0</v>
       </c>
       <c r="DH3">
-        <v>0.000940035736307257</v>
+        <v>0</v>
       </c>
       <c r="DI3">
-        <v>0.006835057800805273</v>
+        <v>0</v>
       </c>
       <c r="DJ3">
-        <v>0.01976201334155037</v>
+        <v>0</v>
       </c>
       <c r="DK3">
-        <v>0.01334710766106445</v>
+        <v>0</v>
       </c>
       <c r="DL3">
-        <v>0.00933488867869027</v>
+        <v>0</v>
       </c>
       <c r="DM3">
-        <v>0.00555900233546139</v>
+        <v>0</v>
       </c>
       <c r="DN3">
-        <v>0.001295594807470566</v>
+        <v>0</v>
       </c>
       <c r="DO3">
-        <v>0.002457187940572713</v>
+        <v>0</v>
       </c>
       <c r="DP3">
-        <v>0.001104260358068329</v>
+        <v>0</v>
       </c>
       <c r="DQ3">
         <v>0</v>
       </c>
       <c r="DR3">
-        <v>1.088781950436914E-06</v>
+        <v>0</v>
       </c>
       <c r="DS3">
-        <v>0.0001889314496896935</v>
+        <v>0</v>
       </c>
       <c r="DT3">
-        <v>0.002681266920232281</v>
+        <v>0</v>
       </c>
       <c r="DU3">
-        <v>0.003458422170077469</v>
+        <v>0</v>
       </c>
       <c r="DV3">
-        <v>0.003991760213195161</v>
+        <v>0</v>
       </c>
       <c r="DW3">
-        <v>0.007809016798194057</v>
+        <v>0</v>
       </c>
       <c r="DX3">
-        <v>0.003335110889664217</v>
+        <v>0</v>
       </c>
       <c r="DY3">
-        <v>0.0001379180887922682</v>
+        <v>0</v>
       </c>
       <c r="DZ3">
-        <v>0.0006662777430578011</v>
+        <v>0</v>
       </c>
       <c r="EA3">
-        <v>0.003617781541096478</v>
+        <v>0</v>
       </c>
       <c r="EB3">
-        <v>0.003884410051945144</v>
+        <v>0</v>
       </c>
       <c r="EC3">
-        <v>0.0007071496477363519</v>
+        <v>0</v>
       </c>
       <c r="ED3">
-        <v>0.0009800581439742967</v>
+        <v>0</v>
       </c>
       <c r="EE3">
-        <v>0.001040103269574843</v>
+        <v>0</v>
       </c>
       <c r="EF3">
         <v>0</v>
@@ -3175,58 +3175,58 @@
         <v>0</v>
       </c>
       <c r="EH3">
-        <v>0.0004890628009663984</v>
+        <v>0</v>
       </c>
       <c r="EI3">
-        <v>0.00102581149361421</v>
+        <v>0</v>
       </c>
       <c r="EJ3">
-        <v>0.001497113800383672</v>
+        <v>0</v>
       </c>
       <c r="EK3">
-        <v>0.0002686137621048769</v>
+        <v>0</v>
       </c>
       <c r="EL3">
-        <v>4.894793366176181E-05</v>
+        <v>0</v>
       </c>
       <c r="EM3">
-        <v>0.0009266691041898648</v>
+        <v>0</v>
       </c>
       <c r="EN3">
-        <v>7.381767503394328E-05</v>
+        <v>0</v>
       </c>
       <c r="EO3">
-        <v>0.001724478425096233</v>
+        <v>0</v>
       </c>
       <c r="EP3">
-        <v>0.007091463421359022</v>
+        <v>0</v>
       </c>
       <c r="EQ3">
-        <v>0.008464492166635459</v>
+        <v>0</v>
       </c>
       <c r="ER3">
-        <v>0.0004931211488150824</v>
+        <v>0</v>
       </c>
       <c r="ES3">
-        <v>0.001424404573866052</v>
+        <v>0</v>
       </c>
       <c r="ET3">
-        <v>0.006178566292910509</v>
+        <v>0</v>
       </c>
       <c r="EU3">
-        <v>0.008816599181793696</v>
+        <v>0</v>
       </c>
       <c r="EV3">
-        <v>0.007854075779164324</v>
+        <v>0</v>
       </c>
       <c r="EW3">
-        <v>0.002566090794309558</v>
+        <v>0</v>
       </c>
       <c r="EX3">
-        <v>0.000624743888342521</v>
+        <v>0</v>
       </c>
       <c r="EY3">
-        <v>0.0001634050523512311</v>
+        <v>0</v>
       </c>
       <c r="EZ3">
         <v>0</v>
@@ -3235,136 +3235,136 @@
         <v>0</v>
       </c>
       <c r="FB3">
-        <v>0.003027219125579502</v>
+        <v>0</v>
       </c>
       <c r="FC3">
-        <v>0.006096958297596432</v>
+        <v>0</v>
       </c>
       <c r="FD3">
-        <v>0.005964701547841323</v>
+        <v>0</v>
       </c>
       <c r="FE3">
-        <v>0.005464516564105486</v>
+        <v>0</v>
       </c>
       <c r="FF3">
-        <v>6.31878257190465E-05</v>
+        <v>0</v>
       </c>
       <c r="FG3">
-        <v>0.001808354718237216</v>
+        <v>0</v>
       </c>
       <c r="FH3">
-        <v>0.004313034099082477</v>
+        <v>0</v>
       </c>
       <c r="FI3">
-        <v>0.002891439504078494</v>
+        <v>0</v>
       </c>
       <c r="FJ3">
-        <v>0.0007100443166284362</v>
+        <v>0</v>
       </c>
       <c r="FK3">
-        <v>0.0004403165200583791</v>
+        <v>0</v>
       </c>
       <c r="FL3">
-        <v>0.001431170416028629</v>
+        <v>0</v>
       </c>
       <c r="FM3">
-        <v>0.0006630018708991151</v>
+        <v>0</v>
       </c>
       <c r="FN3">
-        <v>0.0004276713610435559</v>
+        <v>0</v>
       </c>
       <c r="FO3">
         <v>0</v>
       </c>
       <c r="FP3">
-        <v>0.004115042507062992</v>
+        <v>0</v>
       </c>
       <c r="FQ3">
-        <v>0.0073947728957218</v>
+        <v>0</v>
       </c>
       <c r="FR3">
-        <v>0.01073139501604164</v>
+        <v>0</v>
       </c>
       <c r="FS3">
-        <v>0.005442238189699607</v>
+        <v>0</v>
       </c>
       <c r="FT3">
-        <v>0.003231178926523858</v>
+        <v>0</v>
       </c>
       <c r="FU3">
-        <v>0.000413051493621941</v>
+        <v>0</v>
       </c>
       <c r="FV3">
-        <v>6.829419822105588E-05</v>
+        <v>0</v>
       </c>
       <c r="FW3">
-        <v>0.0001097661847784534</v>
+        <v>0</v>
       </c>
       <c r="FX3">
-        <v>0.003140546755345286</v>
+        <v>0</v>
       </c>
       <c r="FY3">
-        <v>0.009522454776540078</v>
+        <v>0</v>
       </c>
       <c r="FZ3">
-        <v>0.01128853554209753</v>
+        <v>0</v>
       </c>
       <c r="GA3">
-        <v>0.003107735998883487</v>
+        <v>0</v>
       </c>
       <c r="GB3">
-        <v>0.002625976292614835</v>
+        <v>0</v>
       </c>
       <c r="GC3">
-        <v>1.312193736313172E-05</v>
+        <v>0</v>
       </c>
       <c r="GD3">
-        <v>0.000648253526653786</v>
+        <v>0</v>
       </c>
       <c r="GE3">
-        <v>0.00259076106195129</v>
+        <v>0</v>
       </c>
       <c r="GF3">
-        <v>0.007730879639750939</v>
+        <v>0</v>
       </c>
       <c r="GG3">
-        <v>0.005189930441356995</v>
+        <v>0</v>
       </c>
       <c r="GH3">
-        <v>0.0006570687175776137</v>
+        <v>0</v>
       </c>
       <c r="GI3">
-        <v>8.300592279733668E-05</v>
+        <v>0</v>
       </c>
       <c r="GJ3">
-        <v>0.0007837360662585489</v>
+        <v>0</v>
       </c>
       <c r="GK3">
-        <v>0.002033582491054537</v>
+        <v>0</v>
       </c>
       <c r="GL3">
-        <v>0.005291070335898332</v>
+        <v>0</v>
       </c>
       <c r="GM3">
-        <v>0.002575120606446772</v>
+        <v>0</v>
       </c>
       <c r="GN3">
-        <v>0.0003680660458811339</v>
+        <v>0</v>
       </c>
       <c r="GO3">
-        <v>0.0005761384840582013</v>
+        <v>0</v>
       </c>
       <c r="GP3">
-        <v>8.133410768655583E-05</v>
+        <v>0</v>
       </c>
       <c r="GQ3">
-        <v>0.0007394389181294406</v>
+        <v>0</v>
       </c>
       <c r="GR3">
-        <v>0.0002187328894334059</v>
+        <v>0</v>
       </c>
       <c r="GS3">
-        <v>0.001222594507726012</v>
+        <v>0</v>
       </c>
       <c r="GT3">
         <v>0</v>
@@ -3540,25 +3540,25 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>2.444950049641277E-05</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>7.605665886344494E-05</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0001383158604414066</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0001536555081330658</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>2.954702359004996E-05</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>5.803643097901081E-05</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>5.852189726588381E-05</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -3567,52 +3567,52 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.152294408222837E-06</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>3.262001127229307E-05</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>4.564766024294059E-05</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>2.331430633161749E-06</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>4.669393756213764E-05</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>6.449257052262067E-05</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>1.695904335620047E-05</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>6.617861514439135E-05</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.0002092937048138082</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.0001022309211348241</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>9.241101543055376E-05</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.0001137006115509677</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>1.404124776684755E-05</v>
+        <v>0</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>3.896580692929501E-05</v>
+        <v>0</v>
       </c>
       <c r="AA4">
         <v>0</v>
@@ -3624,34 +3624,34 @@
         <v>0</v>
       </c>
       <c r="AD4">
-        <v>1.85513470594708E-05</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.0002593207371976281</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>4.281786229329142E-05</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.0001331327748502387</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.0003719441539642522</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.0002076084337314242</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.0001529432491394022</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.0001215090194985969</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>6.01504588698584E-05</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>4.666393628909563E-05</v>
+        <v>0</v>
       </c>
       <c r="AN4">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.648337463785634E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
         <v>0</v>
@@ -3678,97 +3678,97 @@
         <v>0</v>
       </c>
       <c r="AV4">
-        <v>1.080796865934212E-05</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>8.188409271770997E-05</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>5.855430957078024E-05</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>0.0001890564879323761</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>0.05165468371879141</v>
+        <v>0.295183509857412</v>
       </c>
       <c r="BA4">
-        <v>0.008870819988437305</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>0.04401937278936142</v>
+        <v>0.1905540443514587</v>
       </c>
       <c r="BC4">
-        <v>0.009223882451830936</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>0.02916320730627838</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>0.0003968705063316413</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>0.007187069162097146</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>0.01205911526911865</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>0.04727851523648866</v>
+        <v>0.2352152684197947</v>
       </c>
       <c r="BI4">
-        <v>0.01636793860874407</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>0.0008497628487143159</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>0.0002202576511605864</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>0.004662835745551319</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>0.00502336025207476</v>
+        <v>0</v>
       </c>
       <c r="BN4">
-        <v>0.002984620849268261</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>0.002388151359034813</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>0.01089583258321923</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
         <v>0</v>
       </c>
       <c r="BR4">
-        <v>0.008063039931087531</v>
+        <v>0</v>
       </c>
       <c r="BS4">
-        <v>0.01615686683424099</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>0.0002807152091853235</v>
+        <v>0</v>
       </c>
       <c r="BU4">
-        <v>0.0001632889466429076</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>0.001376240285132911</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>0.02326803551206306</v>
+        <v>0</v>
       </c>
       <c r="BX4">
-        <v>0.01574867612749576</v>
+        <v>0</v>
       </c>
       <c r="BY4">
-        <v>0.001136692617074418</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
-        <v>0.007023044354467914</v>
+        <v>0</v>
       </c>
       <c r="CA4">
         <v>0</v>
@@ -3777,367 +3777,367 @@
         <v>0</v>
       </c>
       <c r="CC4">
-        <v>0.001486370895881373</v>
+        <v>0</v>
       </c>
       <c r="CD4">
-        <v>0.0001116159329499648</v>
+        <v>0</v>
       </c>
       <c r="CE4">
-        <v>0.003375056114679487</v>
+        <v>0</v>
       </c>
       <c r="CF4">
-        <v>0.01178678218898426</v>
+        <v>0</v>
       </c>
       <c r="CG4">
-        <v>0.02604214867184092</v>
+        <v>0</v>
       </c>
       <c r="CH4">
-        <v>0.026050782175073</v>
+        <v>0</v>
       </c>
       <c r="CI4">
-        <v>0.007191912020955755</v>
+        <v>0</v>
       </c>
       <c r="CJ4">
-        <v>0.004411291084364152</v>
+        <v>0</v>
       </c>
       <c r="CK4">
-        <v>0.00128120172919659</v>
+        <v>0</v>
       </c>
       <c r="CL4">
-        <v>0.00733768119860085</v>
+        <v>0</v>
       </c>
       <c r="CM4">
-        <v>0.001201327960866686</v>
+        <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.007389765313316906</v>
+        <v>0</v>
       </c>
       <c r="CO4">
-        <v>0.02248323057909282</v>
+        <v>0</v>
       </c>
       <c r="CP4">
-        <v>0.01837938714015161</v>
+        <v>0</v>
       </c>
       <c r="CQ4">
-        <v>0.02083796454275346</v>
+        <v>0</v>
       </c>
       <c r="CR4">
-        <v>0.01708527583825105</v>
+        <v>0</v>
       </c>
       <c r="CS4">
-        <v>0.004230149256544037</v>
+        <v>0</v>
       </c>
       <c r="CT4">
-        <v>0.005303169339231777</v>
+        <v>0</v>
       </c>
       <c r="CU4">
-        <v>0.02436930846785969</v>
+        <v>0</v>
       </c>
       <c r="CV4">
-        <v>0.04341552282924258</v>
+        <v>0.1822792669184272</v>
       </c>
       <c r="CW4">
-        <v>0.03717535146399349</v>
+        <v>0.09676791045290746</v>
       </c>
       <c r="CX4">
-        <v>0.01660886799897448</v>
+        <v>0</v>
       </c>
       <c r="CY4">
-        <v>0.006715570485055174</v>
+        <v>0</v>
       </c>
       <c r="CZ4">
-        <v>5.135658585398065E-06</v>
+        <v>0</v>
       </c>
       <c r="DA4">
-        <v>0.00255534416206111</v>
+        <v>0</v>
       </c>
       <c r="DB4">
-        <v>0.00657120794357782</v>
+        <v>0</v>
       </c>
       <c r="DC4">
-        <v>0.01588101364759914</v>
+        <v>0</v>
       </c>
       <c r="DD4">
-        <v>0.0205225352728177</v>
+        <v>0</v>
       </c>
       <c r="DE4">
-        <v>0.02383723793983712</v>
+        <v>0</v>
       </c>
       <c r="DF4">
-        <v>0.0151698808067309</v>
+        <v>0</v>
       </c>
       <c r="DG4">
-        <v>0.007348389696122651</v>
+        <v>0</v>
       </c>
       <c r="DH4">
-        <v>0.0001230186670023176</v>
+        <v>0</v>
       </c>
       <c r="DI4">
-        <v>0.00660482978278788</v>
+        <v>0</v>
       </c>
       <c r="DJ4">
-        <v>0.01944913786364473</v>
+        <v>0</v>
       </c>
       <c r="DK4">
-        <v>0.01023564986841818</v>
+        <v>0</v>
       </c>
       <c r="DL4">
-        <v>0.006413240150265224</v>
+        <v>0</v>
       </c>
       <c r="DM4">
-        <v>0.004530781823069823</v>
+        <v>0</v>
       </c>
       <c r="DN4">
-        <v>0.002419767018822665</v>
+        <v>0</v>
       </c>
       <c r="DO4">
-        <v>0.004349783652564368</v>
+        <v>0</v>
       </c>
       <c r="DP4">
-        <v>0.002005500109965622</v>
+        <v>0</v>
       </c>
       <c r="DQ4">
-        <v>2.404873677237581E-06</v>
+        <v>0</v>
       </c>
       <c r="DR4">
-        <v>0.0007500421091005514</v>
+        <v>0</v>
       </c>
       <c r="DS4">
-        <v>0.0007450910150036101</v>
+        <v>0</v>
       </c>
       <c r="DT4">
-        <v>0.002866534837996778</v>
+        <v>0</v>
       </c>
       <c r="DU4">
-        <v>0.001738537502827323</v>
+        <v>0</v>
       </c>
       <c r="DV4">
-        <v>0.002504902763715207</v>
+        <v>0</v>
       </c>
       <c r="DW4">
-        <v>0.005872833981904252</v>
+        <v>0</v>
       </c>
       <c r="DX4">
-        <v>0.00451852072149343</v>
+        <v>0</v>
       </c>
       <c r="DY4">
-        <v>0.0009355432432489376</v>
+        <v>0</v>
       </c>
       <c r="DZ4">
-        <v>7.063666427766383E-05</v>
+        <v>0</v>
       </c>
       <c r="EA4">
-        <v>0.003188569732455719</v>
+        <v>0</v>
       </c>
       <c r="EB4">
-        <v>0.006441870852157628</v>
+        <v>0</v>
       </c>
       <c r="EC4">
-        <v>0.001532574503904468</v>
+        <v>0</v>
       </c>
       <c r="ED4">
-        <v>0.001454127262755103</v>
+        <v>0</v>
       </c>
       <c r="EE4">
-        <v>0.0006936815270923569</v>
+        <v>0</v>
       </c>
       <c r="EF4">
-        <v>3.893749739693755E-05</v>
+        <v>0</v>
       </c>
       <c r="EG4">
-        <v>3.65814752434572E-05</v>
+        <v>0</v>
       </c>
       <c r="EH4">
-        <v>6.501775353631245E-06</v>
+        <v>0</v>
       </c>
       <c r="EI4">
-        <v>0.0003708807181350245</v>
+        <v>0</v>
       </c>
       <c r="EJ4">
-        <v>0.000688819038416066</v>
+        <v>0</v>
       </c>
       <c r="EK4">
-        <v>0.0005950419042080859</v>
+        <v>0</v>
       </c>
       <c r="EL4">
-        <v>0.0002398615904335196</v>
+        <v>0</v>
       </c>
       <c r="EM4">
-        <v>2.360818499516105E-05</v>
+        <v>0</v>
       </c>
       <c r="EN4">
-        <v>0.001000087871967682</v>
+        <v>0</v>
       </c>
       <c r="EO4">
-        <v>0.002856960329123844</v>
+        <v>0</v>
       </c>
       <c r="EP4">
-        <v>0.00581412987693355</v>
+        <v>0</v>
       </c>
       <c r="EQ4">
-        <v>0.004245274463044177</v>
+        <v>0</v>
       </c>
       <c r="ER4">
-        <v>0.0002230519466661791</v>
+        <v>0</v>
       </c>
       <c r="ES4">
-        <v>0.001815840106603797</v>
+        <v>0</v>
       </c>
       <c r="ET4">
-        <v>0.007399281354667368</v>
+        <v>0</v>
       </c>
       <c r="EU4">
-        <v>0.008035816367661172</v>
+        <v>0</v>
       </c>
       <c r="EV4">
-        <v>0.01121852056593175</v>
+        <v>0</v>
       </c>
       <c r="EW4">
-        <v>0.003676566296800288</v>
+        <v>0</v>
       </c>
       <c r="EX4">
-        <v>0.0005083678305787207</v>
+        <v>0</v>
       </c>
       <c r="EY4">
-        <v>8.73185926738853E-06</v>
+        <v>0</v>
       </c>
       <c r="EZ4">
-        <v>0.0001399099945196932</v>
+        <v>0</v>
       </c>
       <c r="FA4">
-        <v>0.000162557640497594</v>
+        <v>0</v>
       </c>
       <c r="FB4">
-        <v>0.002927218601039291</v>
+        <v>0</v>
       </c>
       <c r="FC4">
-        <v>0.005841397642610573</v>
+        <v>0</v>
       </c>
       <c r="FD4">
-        <v>0.005872833981904252</v>
+        <v>0</v>
       </c>
       <c r="FE4">
-        <v>0.006338813204273465</v>
+        <v>0</v>
       </c>
       <c r="FF4">
-        <v>0.001500256329710032</v>
+        <v>0</v>
       </c>
       <c r="FG4">
-        <v>0.0003143316738035417</v>
+        <v>0</v>
       </c>
       <c r="FH4">
-        <v>0.00259186114823004</v>
+        <v>0</v>
       </c>
       <c r="FI4">
-        <v>0.002763219410623512</v>
+        <v>0</v>
       </c>
       <c r="FJ4">
-        <v>0.001162459414962399</v>
+        <v>0</v>
       </c>
       <c r="FK4">
-        <v>0.001380378620391723</v>
+        <v>0</v>
       </c>
       <c r="FL4">
-        <v>0.002949724578803812</v>
+        <v>0</v>
       </c>
       <c r="FM4">
-        <v>0.002564585647159149</v>
+        <v>0</v>
       </c>
       <c r="FN4">
-        <v>0.001768746425987774</v>
+        <v>0</v>
       </c>
       <c r="FO4">
-        <v>2.737510280599103E-05</v>
+        <v>0</v>
       </c>
       <c r="FP4">
-        <v>0.002013376448735749</v>
+        <v>0</v>
       </c>
       <c r="FQ4">
-        <v>0.00640009198988572</v>
+        <v>0</v>
       </c>
       <c r="FR4">
-        <v>0.008432270874556648</v>
+        <v>0</v>
       </c>
       <c r="FS4">
-        <v>0.005075153837452356</v>
+        <v>0</v>
       </c>
       <c r="FT4">
-        <v>0.002892464782373574</v>
+        <v>0</v>
       </c>
       <c r="FU4">
-        <v>0.0003826569712514591</v>
+        <v>0</v>
       </c>
       <c r="FV4">
-        <v>5.126607772735846E-05</v>
+        <v>0</v>
       </c>
       <c r="FW4">
-        <v>0.000219199951577979</v>
+        <v>0</v>
       </c>
       <c r="FX4">
-        <v>0.003964954136674358</v>
+        <v>0</v>
       </c>
       <c r="FY4">
-        <v>0.008416215913897643</v>
+        <v>0</v>
       </c>
       <c r="FZ4">
-        <v>0.01192275433960819</v>
+        <v>0</v>
       </c>
       <c r="GA4">
-        <v>0.003194633879408259</v>
+        <v>0</v>
       </c>
       <c r="GB4">
-        <v>0.001887625666739366</v>
+        <v>0</v>
       </c>
       <c r="GC4">
-        <v>6.682348780691675E-05</v>
+        <v>0</v>
       </c>
       <c r="GD4">
-        <v>0.00184947751706125</v>
+        <v>0</v>
       </c>
       <c r="GE4">
-        <v>0.002851223178366562</v>
+        <v>0</v>
       </c>
       <c r="GF4">
-        <v>0.007582830396874814</v>
+        <v>0</v>
       </c>
       <c r="GG4">
-        <v>0.006367278449104858</v>
+        <v>0</v>
       </c>
       <c r="GH4">
-        <v>0.001600669377028864</v>
+        <v>0</v>
       </c>
       <c r="GI4">
-        <v>2.915589093367484E-05</v>
+        <v>0</v>
       </c>
       <c r="GJ4">
-        <v>0.0002370311495420426</v>
+        <v>0</v>
       </c>
       <c r="GK4">
-        <v>0.001011068715629373</v>
+        <v>0</v>
       </c>
       <c r="GL4">
-        <v>0.004232706959502948</v>
+        <v>0</v>
       </c>
       <c r="GM4">
-        <v>0.003405256900607429</v>
+        <v>0</v>
       </c>
       <c r="GN4">
-        <v>0.0009098778091585043</v>
+        <v>0</v>
       </c>
       <c r="GO4">
-        <v>0.0004376754423319178</v>
+        <v>0</v>
       </c>
       <c r="GP4">
-        <v>4.036117152311567E-05</v>
+        <v>0</v>
       </c>
       <c r="GQ4">
-        <v>0.0007917492029909262</v>
+        <v>0</v>
       </c>
       <c r="GR4">
-        <v>0.000437981854342718</v>
+        <v>0</v>
       </c>
       <c r="GS4">
-        <v>0.0009499521723689895</v>
+        <v>0</v>
       </c>
       <c r="GT4">
         <v>0</v>
@@ -4313,13 +4313,13 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>1.773752742027988E-05</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>2.544234625443587E-05</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>8.919983333264006E-05</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4334,43 +4334,43 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.304952967862602E-05</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>6.383343595206151E-06</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>2.739740430085766E-05</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>3.953495167784744E-05</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>8.026442672125383E-05</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.0001624594348317521</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.0002701312158697097</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.0003080931838801914</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.0001815638470604219</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>2.507122061037685E-05</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>4.599977930164142E-05</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>1.840521739102687E-05</v>
+        <v>0</v>
       </c>
       <c r="V5">
         <v>0</v>
@@ -4382,40 +4382,40 @@
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>1.225398255686746E-06</v>
+        <v>0</v>
       </c>
       <c r="Z5">
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>1.55268243994219E-05</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>3.041784148010422E-05</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.0001512275820456881</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.0003247648709884812</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.0003121589956668163</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.0002840416957127569</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.0001743058917471786</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>5.038937101418927E-05</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>6.479561845986963E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>1.818659334801212E-05</v>
+        <v>0</v>
       </c>
       <c r="AK5">
         <v>0</v>
@@ -4427,7 +4427,7 @@
         <v>0</v>
       </c>
       <c r="AN5">
-        <v>8.337023127870399E-06</v>
+        <v>0</v>
       </c>
       <c r="AO5">
         <v>0</v>
@@ -4436,46 +4436,46 @@
         <v>0</v>
       </c>
       <c r="AQ5">
-        <v>9.101708521695179E-05</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>6.739009287854196E-05</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>2.108924094756676E-06</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>4.188855794557639E-05</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>4.091437473199567E-05</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>2.952287759393824E-05</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>7.852280721529385E-05</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>3.722303741330289E-05</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>4.371651039221887E-05</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>9.771802853536763E-05</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>0.0001695153655376864</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>0.0001071392457003075</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>5.642340304127653E-05</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>8.791775424852479E-05</v>
+        <v>0</v>
       </c>
       <c r="BE5">
         <v>0</v>
@@ -4487,34 +4487,34 @@
         <v>0</v>
       </c>
       <c r="BH5">
-        <v>0.04064291192609256</v>
+        <v>0.1032139814555955</v>
       </c>
       <c r="BI5">
-        <v>0.001146634692852245</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>0.05107306853486144</v>
+        <v>0.2054862955519306</v>
       </c>
       <c r="BK5">
-        <v>5.382695429349809E-05</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>0.02076123496366133</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>0.009398347009810966</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>0.005780708633592658</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>0.01926820107524215</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>0.053203279213049</v>
+        <v>0.2263739565663208</v>
       </c>
       <c r="BQ5">
-        <v>0.01762920146915537</v>
+        <v>0</v>
       </c>
       <c r="BR5">
         <v>0</v>
@@ -4523,394 +4523,394 @@
         <v>0</v>
       </c>
       <c r="BT5">
-        <v>0.01283068651120393</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>0.0007167677843861491</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>0.002205466488177306</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>0.00159184058111385</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>0.007235285102894226</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>0.001340116533855078</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>0.009628972763345966</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>0.01157800835243344</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>0.0008758497791273769</v>
+        <v>0</v>
       </c>
       <c r="CC5">
         <v>0</v>
       </c>
       <c r="CD5">
-        <v>0.0001323276359610844</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>0.002475577216237956</v>
+        <v>0</v>
       </c>
       <c r="CF5">
-        <v>0.008552522316312513</v>
+        <v>0</v>
       </c>
       <c r="CG5">
-        <v>0.0005460169821591377</v>
+        <v>0</v>
       </c>
       <c r="CH5">
-        <v>0.003013194065060667</v>
+        <v>0</v>
       </c>
       <c r="CI5">
-        <v>0.0004534288142573487</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
-        <v>0.0003646386527071017</v>
+        <v>0</v>
       </c>
       <c r="CK5">
-        <v>0.005914805568852346</v>
+        <v>0</v>
       </c>
       <c r="CL5">
-        <v>0.002237679199783367</v>
+        <v>0</v>
       </c>
       <c r="CM5">
         <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.006945819619683749</v>
+        <v>0</v>
       </c>
       <c r="CO5">
-        <v>0.01655566177602541</v>
+        <v>0</v>
       </c>
       <c r="CP5">
-        <v>0.01876406392479537</v>
+        <v>0</v>
       </c>
       <c r="CQ5">
-        <v>0.01052693783070275</v>
+        <v>0</v>
       </c>
       <c r="CR5">
-        <v>0.01008662727387662</v>
+        <v>0</v>
       </c>
       <c r="CS5">
-        <v>0.0003836399074959127</v>
+        <v>0</v>
       </c>
       <c r="CT5">
-        <v>0.005246052072731922</v>
+        <v>0</v>
       </c>
       <c r="CU5">
-        <v>0.003481340954211733</v>
+        <v>0</v>
       </c>
       <c r="CV5">
-        <v>0.01579258709313701</v>
+        <v>0</v>
       </c>
       <c r="CW5">
-        <v>0.03541333712280598</v>
+        <v>0.05193567980264123</v>
       </c>
       <c r="CX5">
-        <v>0.0244937820066729</v>
+        <v>0</v>
       </c>
       <c r="CY5">
-        <v>0.0191904104989668</v>
+        <v>0</v>
       </c>
       <c r="CZ5">
-        <v>0.01474439014964724</v>
+        <v>0</v>
       </c>
       <c r="DA5">
-        <v>0.007960491852103464</v>
+        <v>0</v>
       </c>
       <c r="DB5">
-        <v>0.002358824636581844</v>
+        <v>0</v>
       </c>
       <c r="DC5">
-        <v>0.02426539282137717</v>
+        <v>0</v>
       </c>
       <c r="DD5">
-        <v>0.0484315407796153</v>
+        <v>0.1795849436919218</v>
       </c>
       <c r="DE5">
-        <v>0.05285479656173041</v>
+        <v>0.2229569295254406</v>
       </c>
       <c r="DF5">
-        <v>0.03118227248287962</v>
+        <v>0.01044821340614949</v>
       </c>
       <c r="DG5">
-        <v>0.01149398331707243</v>
+        <v>0</v>
       </c>
       <c r="DH5">
-        <v>0.0002548475172891709</v>
+        <v>0</v>
       </c>
       <c r="DI5">
-        <v>0.0009360216434094825</v>
+        <v>0</v>
       </c>
       <c r="DJ5">
-        <v>0.002887166659970282</v>
+        <v>0</v>
       </c>
       <c r="DK5">
-        <v>0.007423311164229839</v>
+        <v>0</v>
       </c>
       <c r="DL5">
-        <v>0.01039483260668327</v>
+        <v>0</v>
       </c>
       <c r="DM5">
-        <v>0.01949539159660732</v>
+        <v>0</v>
       </c>
       <c r="DN5">
-        <v>0.01817050724892619</v>
+        <v>0</v>
       </c>
       <c r="DO5">
-        <v>0.009779887867871897</v>
+        <v>0</v>
       </c>
       <c r="DP5">
-        <v>0.002688064361162575</v>
+        <v>0</v>
       </c>
       <c r="DQ5">
-        <v>0.002061767280228547</v>
+        <v>0</v>
       </c>
       <c r="DR5">
-        <v>0.0173234165734055</v>
+        <v>0</v>
       </c>
       <c r="DS5">
-        <v>0.0140164062779702</v>
+        <v>0</v>
       </c>
       <c r="DT5">
-        <v>0.009979290083849155</v>
+        <v>0</v>
       </c>
       <c r="DU5">
-        <v>0.00458364385936148</v>
+        <v>0</v>
       </c>
       <c r="DV5">
-        <v>0.001136732502993622</v>
+        <v>0</v>
       </c>
       <c r="DW5">
-        <v>0.0003791838919171033</v>
+        <v>0</v>
       </c>
       <c r="DX5">
-        <v>0.0002680893576749544</v>
+        <v>0</v>
       </c>
       <c r="DY5">
-        <v>3.469642465476014E-05</v>
+        <v>0</v>
       </c>
       <c r="DZ5">
-        <v>0.001509599274232253</v>
+        <v>0</v>
       </c>
       <c r="EA5">
-        <v>0.0005941066355403442</v>
+        <v>0</v>
       </c>
       <c r="EB5">
-        <v>0.005108811081167507</v>
+        <v>0</v>
       </c>
       <c r="EC5">
-        <v>0.005460338821148616</v>
+        <v>0</v>
       </c>
       <c r="ED5">
-        <v>0.004366052395492954</v>
+        <v>0</v>
       </c>
       <c r="EE5">
-        <v>0.008091585295252798</v>
+        <v>0</v>
       </c>
       <c r="EF5">
-        <v>0.004787760552199609</v>
+        <v>0</v>
       </c>
       <c r="EG5">
-        <v>0.000489791746498993</v>
+        <v>0</v>
       </c>
       <c r="EH5">
-        <v>0.0006671692210991161</v>
+        <v>0</v>
       </c>
       <c r="EI5">
-        <v>0.004678703736591953</v>
+        <v>0</v>
       </c>
       <c r="EJ5">
-        <v>0.006852517950342718</v>
+        <v>0</v>
       </c>
       <c r="EK5">
-        <v>0.002405505915105752</v>
+        <v>0</v>
       </c>
       <c r="EL5">
-        <v>0.002056337623999881</v>
+        <v>0</v>
       </c>
       <c r="EM5">
-        <v>0.002187001236110239</v>
+        <v>0</v>
       </c>
       <c r="EN5">
-        <v>0.0004041698657189929</v>
+        <v>0</v>
       </c>
       <c r="EO5">
-        <v>0.0001742914635711157</v>
+        <v>0</v>
       </c>
       <c r="EP5">
         <v>0</v>
       </c>
       <c r="EQ5">
-        <v>0.0001454010906904352</v>
+        <v>0</v>
       </c>
       <c r="ER5">
-        <v>0.001047053451256673</v>
+        <v>0</v>
       </c>
       <c r="ES5">
-        <v>0.0002064996437653354</v>
+        <v>0</v>
       </c>
       <c r="ET5">
-        <v>9.453039632563788E-05</v>
+        <v>0</v>
       </c>
       <c r="EU5">
-        <v>0.002244910870898434</v>
+        <v>0</v>
       </c>
       <c r="EV5">
-        <v>0.0001344575502387191</v>
+        <v>0</v>
       </c>
       <c r="EW5">
-        <v>0.0006393102819523549</v>
+        <v>0</v>
       </c>
       <c r="EX5">
-        <v>0.004473655140320794</v>
+        <v>0</v>
       </c>
       <c r="EY5">
-        <v>0.009712715464621066</v>
+        <v>0</v>
       </c>
       <c r="EZ5">
-        <v>0.002144898391617195</v>
+        <v>0</v>
       </c>
       <c r="FA5">
-        <v>0.0002151051264190003</v>
+        <v>0</v>
       </c>
       <c r="FB5">
-        <v>0.004940929808048451</v>
+        <v>0</v>
       </c>
       <c r="FC5">
-        <v>0.006653908982624626</v>
+        <v>0</v>
       </c>
       <c r="FD5">
-        <v>0.008010577517044763</v>
+        <v>0</v>
       </c>
       <c r="FE5">
-        <v>0.001278668780739047</v>
+        <v>0</v>
       </c>
       <c r="FF5">
-        <v>2.458813493241397E-05</v>
+        <v>0</v>
       </c>
       <c r="FG5">
         <v>0</v>
       </c>
       <c r="FH5">
-        <v>0.0001445133660109916</v>
+        <v>0</v>
       </c>
       <c r="FI5">
-        <v>0.0001872421783291687</v>
+        <v>0</v>
       </c>
       <c r="FJ5">
-        <v>0.002348101969803102</v>
+        <v>0</v>
       </c>
       <c r="FK5">
-        <v>0.007910471495758549</v>
+        <v>0</v>
       </c>
       <c r="FL5">
-        <v>0.01062499718105303</v>
+        <v>0</v>
       </c>
       <c r="FM5">
-        <v>0.009355617102317864</v>
+        <v>0</v>
       </c>
       <c r="FN5">
-        <v>0.002492598143577282</v>
+        <v>0</v>
       </c>
       <c r="FO5">
-        <v>0.0004137324408289386</v>
+        <v>0</v>
       </c>
       <c r="FP5">
-        <v>0.00333988012304799</v>
+        <v>0</v>
       </c>
       <c r="FQ5">
-        <v>0.005340135134310005</v>
+        <v>0</v>
       </c>
       <c r="FR5">
-        <v>0.002079657113324081</v>
+        <v>0</v>
       </c>
       <c r="FS5">
-        <v>0.001580246496709808</v>
+        <v>0</v>
       </c>
       <c r="FT5">
-        <v>0.003574446195389791</v>
+        <v>0</v>
       </c>
       <c r="FU5">
-        <v>0.003018759362220286</v>
+        <v>0</v>
       </c>
       <c r="FV5">
-        <v>0.002205418762664563</v>
+        <v>0</v>
       </c>
       <c r="FW5">
-        <v>0.0009412654313728377</v>
+        <v>0</v>
       </c>
       <c r="FX5">
-        <v>0.0003130964352593233</v>
+        <v>0</v>
       </c>
       <c r="FY5">
-        <v>0.003545007692483392</v>
+        <v>0</v>
       </c>
       <c r="FZ5">
-        <v>0.007573613774596444</v>
+        <v>0</v>
       </c>
       <c r="GA5">
-        <v>0.00562002567396713</v>
+        <v>0</v>
       </c>
       <c r="GB5">
-        <v>0.002436647264306811</v>
+        <v>0</v>
       </c>
       <c r="GC5">
-        <v>0.0007429445750395659</v>
+        <v>0</v>
       </c>
       <c r="GD5">
-        <v>0.0001451656079868245</v>
+        <v>0</v>
       </c>
       <c r="GE5">
-        <v>8.737513626834045E-05</v>
+        <v>0</v>
       </c>
       <c r="GF5">
-        <v>0.002261129507249865</v>
+        <v>0</v>
       </c>
       <c r="GG5">
-        <v>0.007682014389522579</v>
+        <v>0</v>
       </c>
       <c r="GH5">
-        <v>0.01121130158848059</v>
+        <v>0</v>
       </c>
       <c r="GI5">
-        <v>0.004155787852815453</v>
+        <v>0</v>
       </c>
       <c r="GJ5">
-        <v>0.001883353438583608</v>
+        <v>0</v>
       </c>
       <c r="GK5">
-        <v>8.665367722781607E-05</v>
+        <v>0</v>
       </c>
       <c r="GL5">
-        <v>0.001150709848791891</v>
+        <v>0</v>
       </c>
       <c r="GM5">
-        <v>0.002799812795214158</v>
+        <v>0</v>
       </c>
       <c r="GN5">
-        <v>0.01001510833234947</v>
+        <v>0</v>
       </c>
       <c r="GO5">
-        <v>0.009669176735280432</v>
+        <v>0</v>
       </c>
       <c r="GP5">
-        <v>0.003969041036170872</v>
+        <v>0</v>
       </c>
       <c r="GQ5">
-        <v>0.0004497174472945186</v>
+        <v>0</v>
       </c>
       <c r="GR5">
-        <v>4.934669415421546E-05</v>
+        <v>0</v>
       </c>
       <c r="GS5">
-        <v>0.0004619971011535034</v>
+        <v>0</v>
       </c>
       <c r="GT5">
         <v>0</v>
@@ -5086,31 +5086,31 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>3.651354912275438E-05</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>9.480576786739723E-05</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>5.291819060394205E-05</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.0001332613900569848</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>9.930226236331405E-05</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>4.600438280015389E-05</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>3.905305985208884E-05</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>5.203147875535576E-05</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>2.718947969228756E-06</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -5122,19 +5122,19 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>5.374301593678853E-06</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>7.71280234762943E-06</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6">
-        <v>3.436166349895758E-05</v>
+        <v>0</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -5143,88 +5143,88 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>5.990491319192617E-06</v>
+        <v>0</v>
       </c>
       <c r="V6">
         <v>0</v>
       </c>
       <c r="W6">
-        <v>4.184991487526701E-06</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>7.91027846914289E-06</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>3.103730365785612E-06</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>6.939994281996718E-05</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.0001256422488601512</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.0001887655733882366</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.0003257208814637821</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.0001351917076507388</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>7.040503276325698E-05</v>
+        <v>0</v>
       </c>
       <c r="AF6">
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>5.990491319192617E-06</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>5.810839824382535E-05</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.0001517737159421298</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>2.891284747124402E-05</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>0.0001059659748813255</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>0.0001142616167093962</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>3.871788763537727E-05</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>9.169885723346008E-05</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>9.930226236331405E-05</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.991273179135793E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>2.931122538894124E-05</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>9.480576786739723E-05</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>2.237102486530283E-05</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>2.542183056075074E-05</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>8.066084663933571E-05</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>1.727244300459832E-05</v>
+        <v>0</v>
       </c>
       <c r="AW6">
         <v>0</v>
@@ -5233,259 +5233,259 @@
         <v>0</v>
       </c>
       <c r="AY6">
-        <v>0.007733282934962771</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>0.03176087642563999</v>
+        <v>0.02122208912759673</v>
       </c>
       <c r="BA6">
-        <v>0.07029448780523634</v>
+        <v>0.4967193154936487</v>
       </c>
       <c r="BB6">
-        <v>0.01202294831602288</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>0.01459526088198477</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>0.02297880181595628</v>
+        <v>0</v>
       </c>
       <c r="BE6">
-        <v>0.00125286023869272</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>0.007508377376264621</v>
+        <v>0</v>
       </c>
       <c r="BG6">
-        <v>0.03633997175080012</v>
+        <v>0.0777272296640041</v>
       </c>
       <c r="BH6">
-        <v>0.02529844533267201</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>0.002778925684017382</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>8.111612080633781E-05</v>
+        <v>0</v>
       </c>
       <c r="BK6">
-        <v>0.004044432310600099</v>
+        <v>0</v>
       </c>
       <c r="BL6">
-        <v>0.005118949160375504</v>
+        <v>0</v>
       </c>
       <c r="BM6">
-        <v>8.484224918173269E-05</v>
+        <v>0</v>
       </c>
       <c r="BN6">
-        <v>0.0002233963997586504</v>
+        <v>0</v>
       </c>
       <c r="BO6">
-        <v>0.008747652750469846</v>
+        <v>0</v>
       </c>
       <c r="BP6">
-        <v>0.001802203732639186</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
-        <v>0.00401356137252879</v>
+        <v>0</v>
       </c>
       <c r="BR6">
-        <v>0.01528826034372827</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>0.00301899195661608</v>
+        <v>0</v>
       </c>
       <c r="BT6">
-        <v>0.0002693904494418749</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>0.0006256512596561403</v>
+        <v>0</v>
       </c>
       <c r="BV6">
-        <v>0.004578553588767431</v>
+        <v>0</v>
       </c>
       <c r="BW6">
-        <v>0.01920469997194749</v>
+        <v>0</v>
       </c>
       <c r="BX6">
-        <v>0.003776846150985503</v>
+        <v>0</v>
       </c>
       <c r="BY6">
-        <v>0.002533212457172686</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
-        <v>0.004339355354083731</v>
+        <v>0</v>
       </c>
       <c r="CA6">
-        <v>0.0003722607152447714</v>
+        <v>0</v>
       </c>
       <c r="CB6">
-        <v>0.005274376627799855</v>
+        <v>0</v>
       </c>
       <c r="CC6">
-        <v>0.003639614224688626</v>
+        <v>0</v>
       </c>
       <c r="CD6">
-        <v>0.0001544518122400855</v>
+        <v>0</v>
       </c>
       <c r="CE6">
-        <v>0.0034828428310347</v>
+        <v>0</v>
       </c>
       <c r="CF6">
-        <v>0.01268187583719685</v>
+        <v>0</v>
       </c>
       <c r="CG6">
-        <v>0.02236664276730605</v>
+        <v>0</v>
       </c>
       <c r="CH6">
-        <v>0.01424125096039393</v>
+        <v>0</v>
       </c>
       <c r="CI6">
-        <v>0.01187066806199446</v>
+        <v>0</v>
       </c>
       <c r="CJ6">
-        <v>0.005115470998759958</v>
+        <v>0</v>
       </c>
       <c r="CK6">
-        <v>0.002070616561641326</v>
+        <v>0</v>
       </c>
       <c r="CL6">
-        <v>0.001285277237832338</v>
+        <v>0</v>
       </c>
       <c r="CM6">
-        <v>0.006001723085745763</v>
+        <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.01848428159044154</v>
+        <v>0</v>
       </c>
       <c r="CO6">
-        <v>0.02320532405270059</v>
+        <v>0</v>
       </c>
       <c r="CP6">
-        <v>0.01467174307563638</v>
+        <v>0</v>
       </c>
       <c r="CQ6">
-        <v>0.01734616228244747</v>
+        <v>0</v>
       </c>
       <c r="CR6">
-        <v>0.008653994604651846</v>
+        <v>0</v>
       </c>
       <c r="CS6">
-        <v>0.0001430672936514005</v>
+        <v>0</v>
       </c>
       <c r="CT6">
-        <v>0.01788571605961316</v>
+        <v>0</v>
       </c>
       <c r="CU6">
-        <v>0.0395928000991441</v>
+        <v>0.1178664951547392</v>
       </c>
       <c r="CV6">
-        <v>0.05325576996912332</v>
+        <v>0.2864648705600114</v>
       </c>
       <c r="CW6">
-        <v>0.02529836419827192</v>
+        <v>0</v>
       </c>
       <c r="CX6">
-        <v>0.01429930512780375</v>
+        <v>0</v>
       </c>
       <c r="CY6">
-        <v>0.0006215668938562463</v>
+        <v>0</v>
       </c>
       <c r="CZ6">
-        <v>0.001367517970571545</v>
+        <v>0</v>
       </c>
       <c r="DA6">
-        <v>0.004442473169956224</v>
+        <v>0</v>
       </c>
       <c r="DB6">
-        <v>0.01053883586632796</v>
+        <v>0</v>
       </c>
       <c r="DC6">
-        <v>0.01358404979895513</v>
+        <v>0</v>
       </c>
       <c r="DD6">
-        <v>0.02352471412610651</v>
+        <v>0</v>
       </c>
       <c r="DE6">
-        <v>0.02335360768628031</v>
+        <v>0</v>
       </c>
       <c r="DF6">
-        <v>0.01469726234861163</v>
+        <v>0</v>
       </c>
       <c r="DG6">
-        <v>0.006159685752757993</v>
+        <v>0</v>
       </c>
       <c r="DH6">
-        <v>2.733738369700763E-05</v>
+        <v>0</v>
       </c>
       <c r="DI6">
-        <v>0.01309011208533418</v>
+        <v>0</v>
       </c>
       <c r="DJ6">
-        <v>0.01358399420686618</v>
+        <v>0</v>
       </c>
       <c r="DK6">
-        <v>0.008990259631616428</v>
+        <v>0</v>
       </c>
       <c r="DL6">
-        <v>0.004210020108731538</v>
+        <v>0</v>
       </c>
       <c r="DM6">
-        <v>0.002530738959795244</v>
+        <v>0</v>
       </c>
       <c r="DN6">
-        <v>0.001089401266987246</v>
+        <v>0</v>
       </c>
       <c r="DO6">
-        <v>0.002278628335586716</v>
+        <v>0</v>
       </c>
       <c r="DP6">
-        <v>0.0003373706594577858</v>
+        <v>0</v>
       </c>
       <c r="DQ6">
-        <v>3.267792837195433E-05</v>
+        <v>0</v>
       </c>
       <c r="DR6">
-        <v>2.665997956911773E-05</v>
+        <v>0</v>
       </c>
       <c r="DS6">
-        <v>0.001659070230312337</v>
+        <v>0</v>
       </c>
       <c r="DT6">
-        <v>0.001772712079369342</v>
+        <v>0</v>
       </c>
       <c r="DU6">
-        <v>0.002340248009299575</v>
+        <v>0</v>
       </c>
       <c r="DV6">
-        <v>0.004041371039568698</v>
+        <v>0</v>
       </c>
       <c r="DW6">
-        <v>0.005239123029800928</v>
+        <v>0</v>
       </c>
       <c r="DX6">
-        <v>0.0007979140650154109</v>
+        <v>0</v>
       </c>
       <c r="DY6">
-        <v>2.762966586585142E-05</v>
+        <v>0</v>
       </c>
       <c r="DZ6">
-        <v>0.002850319148128771</v>
+        <v>0</v>
       </c>
       <c r="EA6">
-        <v>0.006701429357398606</v>
+        <v>0</v>
       </c>
       <c r="EB6">
-        <v>0.004031040627119208</v>
+        <v>0</v>
       </c>
       <c r="EC6">
-        <v>0.001641899386608173</v>
+        <v>0</v>
       </c>
       <c r="ED6">
-        <v>0.001579341158168391</v>
+        <v>0</v>
       </c>
       <c r="EE6">
-        <v>0.0005337856832504142</v>
+        <v>0</v>
       </c>
       <c r="EF6">
         <v>0</v>
@@ -5494,196 +5494,196 @@
         <v>0</v>
       </c>
       <c r="EH6">
-        <v>0.0005311597333335509</v>
+        <v>0</v>
       </c>
       <c r="EI6">
-        <v>0.001411113787554148</v>
+        <v>0</v>
       </c>
       <c r="EJ6">
-        <v>0.001359120059332995</v>
+        <v>0</v>
       </c>
       <c r="EK6">
-        <v>0.0006445525097988834</v>
+        <v>0</v>
       </c>
       <c r="EL6">
-        <v>7.762063048558794E-05</v>
+        <v>0</v>
       </c>
       <c r="EM6">
         <v>0</v>
       </c>
       <c r="EN6">
-        <v>0.001016089525226412</v>
+        <v>0</v>
       </c>
       <c r="EO6">
-        <v>0.004662292302930452</v>
+        <v>0</v>
       </c>
       <c r="EP6">
-        <v>0.01061047553828554</v>
+        <v>0</v>
       </c>
       <c r="EQ6">
-        <v>0.005763082775270062</v>
+        <v>0</v>
       </c>
       <c r="ER6">
-        <v>3.195184360401272E-05</v>
+        <v>0</v>
       </c>
       <c r="ES6">
-        <v>0.003565622656787812</v>
+        <v>0</v>
       </c>
       <c r="ET6">
-        <v>0.005878034193644012</v>
+        <v>0</v>
       </c>
       <c r="EU6">
-        <v>0.009520164425127431</v>
+        <v>0</v>
       </c>
       <c r="EV6">
-        <v>0.005009374248247264</v>
+        <v>0</v>
       </c>
       <c r="EW6">
-        <v>0.001377129091506198</v>
+        <v>0</v>
       </c>
       <c r="EX6">
-        <v>0.000284711388757704</v>
+        <v>0</v>
       </c>
       <c r="EY6">
         <v>0</v>
       </c>
       <c r="EZ6">
-        <v>3.668626122237486E-06</v>
+        <v>0</v>
       </c>
       <c r="FA6">
-        <v>0.0005077143958567958</v>
+        <v>0</v>
       </c>
       <c r="FB6">
-        <v>0.005047336633383883</v>
+        <v>0</v>
       </c>
       <c r="FC6">
-        <v>0.006518340568670801</v>
+        <v>0</v>
       </c>
       <c r="FD6">
-        <v>0.006201729799214501</v>
+        <v>0</v>
       </c>
       <c r="FE6">
-        <v>0.003825826787985677</v>
+        <v>0</v>
       </c>
       <c r="FF6">
-        <v>0.0003618918190464985</v>
+        <v>0</v>
       </c>
       <c r="FG6">
-        <v>0.003228332631902141</v>
+        <v>0</v>
       </c>
       <c r="FH6">
-        <v>0.006152019052779479</v>
+        <v>0</v>
       </c>
       <c r="FI6">
-        <v>0.002790883191769343</v>
+        <v>0</v>
       </c>
       <c r="FJ6">
-        <v>0.001558115898276217</v>
+        <v>0</v>
       </c>
       <c r="FK6">
-        <v>0.002154876939947121</v>
+        <v>0</v>
       </c>
       <c r="FL6">
-        <v>0.00323755330605712</v>
+        <v>0</v>
       </c>
       <c r="FM6">
-        <v>0.001478387226795975</v>
+        <v>0</v>
       </c>
       <c r="FN6">
-        <v>0.0008006623676109228</v>
+        <v>0</v>
       </c>
       <c r="FO6">
-        <v>0.0002003152255225785</v>
+        <v>0</v>
       </c>
       <c r="FP6">
-        <v>0.004989925030389569</v>
+        <v>0</v>
       </c>
       <c r="FQ6">
-        <v>0.009025673294765155</v>
+        <v>0</v>
       </c>
       <c r="FR6">
-        <v>0.009948585109019529</v>
+        <v>0</v>
       </c>
       <c r="FS6">
-        <v>0.004751256072459022</v>
+        <v>0</v>
       </c>
       <c r="FT6">
-        <v>0.003057457174701381</v>
+        <v>0</v>
       </c>
       <c r="FU6">
-        <v>5.419607743848458E-05</v>
+        <v>0</v>
       </c>
       <c r="FV6">
-        <v>3.950179618909881E-05</v>
+        <v>0</v>
       </c>
       <c r="FW6">
-        <v>0.0005792074248986604</v>
+        <v>0</v>
       </c>
       <c r="FX6">
-        <v>0.003825796237378238</v>
+        <v>0</v>
       </c>
       <c r="FY6">
-        <v>0.01048397498864006</v>
+        <v>0</v>
       </c>
       <c r="FZ6">
-        <v>0.006328680995361199</v>
+        <v>0</v>
       </c>
       <c r="GA6">
-        <v>0.002088355045648315</v>
+        <v>0</v>
       </c>
       <c r="GB6">
-        <v>0.0005225288962506057</v>
+        <v>0</v>
       </c>
       <c r="GC6">
-        <v>0.000480123671498008</v>
+        <v>0</v>
       </c>
       <c r="GD6">
-        <v>0.001769979152243476</v>
+        <v>0</v>
       </c>
       <c r="GE6">
-        <v>0.005522047898166631</v>
+        <v>0</v>
       </c>
       <c r="GF6">
-        <v>0.00790810002151883</v>
+        <v>0</v>
       </c>
       <c r="GG6">
-        <v>0.003815805086920218</v>
+        <v>0</v>
       </c>
       <c r="GH6">
-        <v>0.0004262007275082877</v>
+        <v>0</v>
       </c>
       <c r="GI6">
-        <v>0.000231602122634922</v>
+        <v>0</v>
       </c>
       <c r="GJ6">
-        <v>0.0009273583409780894</v>
+        <v>0</v>
       </c>
       <c r="GK6">
-        <v>0.003776815800709915</v>
+        <v>0</v>
       </c>
       <c r="GL6">
-        <v>0.006097482712691921</v>
+        <v>0</v>
       </c>
       <c r="GM6">
-        <v>0.002402638660145105</v>
+        <v>0</v>
       </c>
       <c r="GN6">
-        <v>0.001228230338974707</v>
+        <v>0</v>
       </c>
       <c r="GO6">
-        <v>0.0006461968937401857</v>
+        <v>0</v>
       </c>
       <c r="GP6">
-        <v>2.542183056075074E-05</v>
+        <v>0</v>
       </c>
       <c r="GQ6">
-        <v>5.850612107636633E-05</v>
+        <v>0</v>
       </c>
       <c r="GR6">
-        <v>5.620298089762367E-06</v>
+        <v>0</v>
       </c>
       <c r="GS6">
-        <v>0.001225970495517492</v>
+        <v>0</v>
       </c>
       <c r="GT6">
         <v>0</v>
@@ -6645,772 +6645,772 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>7.743130178520624E-05</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.0002536953192730383</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.00045836683432163</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.0007551606530517626</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.001111893134520382</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.00153973029518472</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.002005990420768516</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.002416010082881492</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.002834623414924761</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.003216783617758471</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.003479670210632625</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.003530666966725288</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.003531607916028094</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.003531607916028094</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.003531607916028094</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.003531607916028094</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.003611079006458635</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.003755510442733502</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.003941635896597198</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.004216335610738045</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.004442344357283443</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.004664326613668281</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0.004987794797795732</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.005329164126837641</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.005539265969400357</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.005727990403708571</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.005883513014429522</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.005968195638706721</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.006044350429929428</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.006063014569822133</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.006063014569822133</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.006063014569822133</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.006063014569822133</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.006088202100033164</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.006132204311504299</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.006175383260852813</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>0.006368612240550137</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.006553270941582891</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0.006723443080381739</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0.00692273755582971</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.007029893504297682</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.007128474987767261</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>0.007259639570747775</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.007327151946851036</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>0.007356420436746423</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>0.007365069603207586</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>0.007365069603207586</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>0.007365069603207586</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>0.007380586941220346</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>0.007388544006308913</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>0.007440406586588645</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>0.007517321694339086</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>0.007623888002205752</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>0.007786308456248676</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>0.007940807844662159</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>0.008028949173771354</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>0.00811100943637748</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>0.008189710246404223</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>0.01471326419115176</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>0.0340991587427085</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>0.08139349569100787</v>
+        <v>0.3314699044538453</v>
       </c>
       <c r="BK2">
-        <v>0.08370605318683019</v>
+        <v>0.3314699044538453</v>
       </c>
       <c r="BL2">
-        <v>0.1003099391728711</v>
+        <v>0.3314699044538453</v>
       </c>
       <c r="BM2">
-        <v>0.1291085975140267</v>
+        <v>0.3314699044538453</v>
       </c>
       <c r="BN2">
-        <v>0.1399243880825685</v>
+        <v>0.3314699044538453</v>
       </c>
       <c r="BO2">
-        <v>0.1413515030464057</v>
+        <v>0.3314699044538453</v>
       </c>
       <c r="BP2">
-        <v>0.1737140767194652</v>
+        <v>0.3751327067918871</v>
       </c>
       <c r="BQ2">
-        <v>0.2282617319467221</v>
+        <v>0.8464090410765588</v>
       </c>
       <c r="BR2">
-        <v>0.2282958251512111</v>
+        <v>0.8464090410765588</v>
       </c>
       <c r="BS2">
-        <v>0.2459764733413872</v>
+        <v>0.8464090410765588</v>
       </c>
       <c r="BT2">
-        <v>0.246335696139326</v>
+        <v>0.8464090410765588</v>
       </c>
       <c r="BU2">
-        <v>0.2569963986004488</v>
+        <v>0.8464090410765588</v>
       </c>
       <c r="BV2">
-        <v>0.2605650198815593</v>
+        <v>0.8464090410765588</v>
       </c>
       <c r="BW2">
-        <v>0.2669475441707632</v>
+        <v>0.8464090410765588</v>
       </c>
       <c r="BX2">
-        <v>0.2744224987964695</v>
+        <v>0.8464090410765588</v>
       </c>
       <c r="BY2">
-        <v>0.2757212687966377</v>
+        <v>0.8464090410765588</v>
       </c>
       <c r="BZ2">
-        <v>0.2860412182413863</v>
+        <v>0.8464090410765588</v>
       </c>
       <c r="CA2">
-        <v>0.2980155380445655</v>
+        <v>0.8464090410765588</v>
       </c>
       <c r="CB2">
-        <v>0.3007311829669908</v>
+        <v>0.8464090410765588</v>
       </c>
       <c r="CC2">
-        <v>0.3062520898828541</v>
+        <v>0.8464090410765588</v>
       </c>
       <c r="CD2">
-        <v>0.3073010120514959</v>
+        <v>0.8464090410765588</v>
       </c>
       <c r="CE2">
-        <v>0.3123491760659227</v>
+        <v>0.8464090410765588</v>
       </c>
       <c r="CF2">
-        <v>0.3195282623016451</v>
+        <v>0.8464090410765588</v>
       </c>
       <c r="CG2">
-        <v>0.3262873432021441</v>
+        <v>0.8464090410765588</v>
       </c>
       <c r="CH2">
-        <v>0.3307931969842118</v>
+        <v>0.8464090410765588</v>
       </c>
       <c r="CI2">
-        <v>0.3324683445972769</v>
+        <v>0.8464090410765588</v>
       </c>
       <c r="CJ2">
-        <v>0.3336733920199738</v>
+        <v>0.8464090410765588</v>
       </c>
       <c r="CK2">
-        <v>0.3380981403528316</v>
+        <v>0.8464090410765588</v>
       </c>
       <c r="CL2">
-        <v>0.3383439511410221</v>
+        <v>0.8464090410765588</v>
       </c>
       <c r="CM2">
-        <v>0.3384216295609886</v>
+        <v>0.8464090410765588</v>
       </c>
       <c r="CN2">
-        <v>0.3445550910817475</v>
+        <v>0.8464090410765588</v>
       </c>
       <c r="CO2">
-        <v>0.3650769237240536</v>
+        <v>0.8464090410765588</v>
       </c>
       <c r="CP2">
-        <v>0.388276932809985</v>
+        <v>0.8464090410765588</v>
       </c>
       <c r="CQ2">
-        <v>0.4080015891085784</v>
+        <v>0.8464090410765588</v>
       </c>
       <c r="CR2">
-        <v>0.4194402198130822</v>
+        <v>0.8464090410765588</v>
       </c>
       <c r="CS2">
-        <v>0.4216396898755562</v>
+        <v>0.8464090410765588</v>
       </c>
       <c r="CT2">
-        <v>0.4233780096675732</v>
+        <v>0.8464090410765588</v>
       </c>
       <c r="CU2">
-        <v>0.4245383762590275</v>
+        <v>0.8464090410765588</v>
       </c>
       <c r="CV2">
-        <v>0.4341150586981801</v>
+        <v>0.8464090410765588</v>
       </c>
       <c r="CW2">
-        <v>0.4552583551062634</v>
+        <v>0.8464090410765588</v>
       </c>
       <c r="CX2">
-        <v>0.475713878027868</v>
+        <v>0.8464090410765588</v>
       </c>
       <c r="CY2">
-        <v>0.4981624030476905</v>
+        <v>0.8464090410765588</v>
       </c>
       <c r="CZ2">
-        <v>0.5205607482809913</v>
+        <v>0.8464090410765588</v>
       </c>
       <c r="DA2">
-        <v>0.5302716770090193</v>
+        <v>0.8464090410765588</v>
       </c>
       <c r="DB2">
-        <v>0.5313121908709627</v>
+        <v>0.8464090410765588</v>
       </c>
       <c r="DC2">
-        <v>0.5396352304706338</v>
+        <v>0.8464090410765588</v>
       </c>
       <c r="DD2">
-        <v>0.5647826337062058</v>
+        <v>0.8464090410765588</v>
       </c>
       <c r="DE2">
-        <v>0.5983146150583399</v>
+        <v>0.9126119700629065</v>
       </c>
       <c r="DF2">
-        <v>0.6329457037988362</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DG2">
-        <v>0.6465764193629608</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DH2">
-        <v>0.6519336050876942</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DI2">
-        <v>0.651952596052761</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DJ2">
-        <v>0.6535584457862221</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DK2">
-        <v>0.6608604814337838</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DL2">
-        <v>0.6741324191540475</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DM2">
-        <v>0.6911408154182326</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DN2">
-        <v>0.7114601469618056</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DO2">
-        <v>0.7252964305910492</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DP2">
-        <v>0.7309291985552734</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DQ2">
-        <v>0.7309344868295382</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DR2">
-        <v>0.7424090015427134</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DS2">
-        <v>0.7576691436419289</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DT2">
-        <v>0.7751855269195366</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DU2">
-        <v>0.7882060737878697</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DV2">
-        <v>0.7935878500575561</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DW2">
-        <v>0.7964926404691196</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DX2">
-        <v>0.799216377564785</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DY2">
-        <v>0.7993608090010599</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DZ2">
-        <v>0.7995428942111004</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EA2">
-        <v>0.799820268169342</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EB2">
-        <v>0.8033182360821369</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EC2">
-        <v>0.8060501176551175</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ED2">
-        <v>0.8098571980323143</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EE2">
-        <v>0.816169877307158</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EF2">
-        <v>0.8226455791473026</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EG2">
-        <v>0.8259983587788399</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EH2">
-        <v>0.8274079121224867</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EI2">
-        <v>0.8278292121472013</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EJ2">
-        <v>0.8307075852864679</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EK2">
-        <v>0.8341310190894543</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EL2">
-        <v>0.8367890187974908</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EM2">
-        <v>0.8378676064118308</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EN2">
-        <v>0.8380467594915756</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EO2">
-        <v>0.8380780362692092</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EP2">
-        <v>0.8381062178432841</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EQ2">
-        <v>0.8381062178432841</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ER2">
-        <v>0.8382116349974968</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ES2">
-        <v>0.8382396428658239</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ET2">
-        <v>0.8382396428658239</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EU2">
-        <v>0.8388135568445508</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EV2">
-        <v>0.8388948368628771</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EW2">
-        <v>0.8394700264687196</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EX2">
-        <v>0.8416272478896279</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EY2">
-        <v>0.8473827236228734</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EZ2">
-        <v>0.8508654251708779</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FA2">
-        <v>0.8509454191765674</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FB2">
-        <v>0.8523882607007404</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FC2">
-        <v>0.8576532610456881</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FD2">
-        <v>0.867553111389367</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FE2">
-        <v>0.8754303917698606</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FF2">
-        <v>0.8795297264358993</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FG2">
-        <v>0.8810423703079607</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FH2">
-        <v>0.8810507391436551</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FI2">
-        <v>0.8813567745904544</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FJ2">
-        <v>0.8826592902048893</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FK2">
-        <v>0.8883114478217399</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FL2">
-        <v>0.8935055622911985</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FM2">
-        <v>0.9003989568434025</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FN2">
-        <v>0.9064298275856214</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FO2">
-        <v>0.906738661430935</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FP2">
-        <v>0.9068163398509014</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FQ2">
-        <v>0.9087170473311187</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FR2">
-        <v>0.9105728485003389</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FS2">
-        <v>0.9115545930620467</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FT2">
-        <v>0.9131749904561294</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FU2">
-        <v>0.9153781039341212</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FV2">
-        <v>0.9164652491376152</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FW2">
-        <v>0.9172920117661642</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FX2">
-        <v>0.9173205579126917</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FY2">
-        <v>0.9196393793485349</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FZ2">
-        <v>0.9244590476409817</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GA2">
-        <v>0.9321610662022656</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GB2">
-        <v>0.9363904562053389</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GC2">
-        <v>0.9390551671988042</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GD2">
-        <v>0.9390670880283163</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GE2">
-        <v>0.9393891246870597</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GF2">
-        <v>0.9410547059751855</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GG2">
-        <v>0.9482446611181338</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GH2">
-        <v>0.9611389905236699</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GI2">
-        <v>0.9711494981188542</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GJ2">
-        <v>0.976321253349248</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GK2">
-        <v>0.978162574321068</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GL2">
-        <v>0.9781870700420463</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GM2">
-        <v>0.9794952143178347</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GN2">
-        <v>0.9849951012198899</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GO2">
-        <v>0.9938513060709389</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GP2">
-        <v>0.9980087762644213</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GQ2">
-        <v>0.9997266262895289</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GR2">
-        <v>0.9997266262895289</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GS2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GT2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GU2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GV2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GW2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GX2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GY2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GZ2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HA2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HB2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HC2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HD2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HE2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HF2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HG2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HH2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HI2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HJ2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HK2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HL2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HM2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HN2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HO2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HP2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HQ2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HR2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HS2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HT2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HU2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HV2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HW2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HX2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HY2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HZ2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IA2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IB2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IC2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ID2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IE2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IF2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IG2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IH2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="II2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IJ2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IK2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IL2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IM2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IN2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IO2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IP2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IQ2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IR2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IS2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IT2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IU2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IV2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IW2">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:257">
@@ -7418,772 +7418,772 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>4.029745274342412E-05</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0001068490019962816</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.0002456995819158732</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.0003257002481244361</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.0003776423912804391</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0004828179426403737</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0005200705600827973</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.0005449434617936115</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0005449434617936115</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.0005449434617936115</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.0005449434617936115</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.000607381361297622</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.0007849952760118557</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.001029357002040423</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.001314129011946942</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.001558490737975509</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.001866781464618283</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.002075112562421754</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.002241018912088254</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.00225790423101905</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.002276075300508803</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.002290935957552865</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.002290935957552865</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.002290935957552865</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.002290935957552865</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.002290935957552865</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.002290935957552865</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.002292775585638564</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.002364753259183741</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.002501277296436723</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.002709961939511373</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.002950573611744306</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.003172133645509648</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.00333237963745433</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.003478303709444095</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.003642777419232718</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.003685087569867549</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.003685087569867549</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.003685087569867549</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.003685087569867549</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.003685087569867549</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.003685087569867549</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.003685087569867549</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.003685087569867549</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>0.003756282506038637</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>0.003827477442209725</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>0.003935968108277163</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>0.003986056445102143</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>0.004014934905935225</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>0.004274282857112253</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>0.08096103125591006</v>
+        <v>0.4458261371778076</v>
       </c>
       <c r="BA3">
-        <v>0.1042012458626154</v>
+        <v>0.4458261371778076</v>
       </c>
       <c r="BB3">
-        <v>0.1479203783168416</v>
+        <v>0.5757584727216726</v>
       </c>
       <c r="BC3">
-        <v>0.1487076618028267</v>
+        <v>0.5757584727216726</v>
       </c>
       <c r="BD3">
-        <v>0.1914298352410546</v>
+        <v>0.6961380042603449</v>
       </c>
       <c r="BE3">
-        <v>0.193600792821381</v>
+        <v>0.6961380042603449</v>
       </c>
       <c r="BF3">
-        <v>0.202529713860203</v>
+        <v>0.6961380042603449</v>
       </c>
       <c r="BG3">
-        <v>0.2255687235955517</v>
+        <v>0.6961380042603449</v>
       </c>
       <c r="BH3">
-        <v>0.2688165730673721</v>
+        <v>0.8215545333471137</v>
       </c>
       <c r="BI3">
-        <v>0.2785429149771975</v>
+        <v>0.8215545333471137</v>
       </c>
       <c r="BJ3">
-        <v>0.2785429149771975</v>
+        <v>0.8215545333471137</v>
       </c>
       <c r="BK3">
-        <v>0.278751246075001</v>
+        <v>0.8215545333471137</v>
       </c>
       <c r="BL3">
-        <v>0.2845617412141582</v>
+        <v>0.8215545333471137</v>
       </c>
       <c r="BM3">
-        <v>0.2845617412141582</v>
+        <v>0.8215545333471137</v>
       </c>
       <c r="BN3">
-        <v>0.287792920140682</v>
+        <v>0.8215545333471137</v>
       </c>
       <c r="BO3">
-        <v>0.2914967317356329</v>
+        <v>0.8215545333471137</v>
       </c>
       <c r="BP3">
-        <v>0.2941897380054652</v>
+        <v>0.8215545333471137</v>
       </c>
       <c r="BQ3">
-        <v>0.2946678091687966</v>
+        <v>0.8215545333471137</v>
       </c>
       <c r="BR3">
-        <v>0.3021370528275568</v>
+        <v>0.8215545333471137</v>
       </c>
       <c r="BS3">
-        <v>0.3084643000695783</v>
+        <v>0.8215545333471137</v>
       </c>
       <c r="BT3">
-        <v>0.3086109392235399</v>
+        <v>0.8215545333471137</v>
       </c>
       <c r="BU3">
-        <v>0.3091200374643125</v>
+        <v>0.8215545333471137</v>
       </c>
       <c r="BV3">
-        <v>0.3100397406185287</v>
+        <v>0.8215545333471137</v>
       </c>
       <c r="BW3">
-        <v>0.3202275493379305</v>
+        <v>0.8215545333471137</v>
       </c>
       <c r="BX3">
-        <v>0.3262375514212872</v>
+        <v>0.8215545333471137</v>
       </c>
       <c r="BY3">
-        <v>0.3264111271780868</v>
+        <v>0.8215545333471137</v>
       </c>
       <c r="BZ3">
-        <v>0.3315933886652255</v>
+        <v>0.8215545333471137</v>
       </c>
       <c r="CA3">
-        <v>0.3315933886652255</v>
+        <v>0.8215545333471137</v>
       </c>
       <c r="CB3">
-        <v>0.3323626501490566</v>
+        <v>0.8215545333471137</v>
       </c>
       <c r="CC3">
-        <v>0.3371109687592687</v>
+        <v>0.8215545333471137</v>
       </c>
       <c r="CD3">
-        <v>0.3375043889137089</v>
+        <v>0.8215545333471137</v>
       </c>
       <c r="CE3">
-        <v>0.3391342441833017</v>
+        <v>0.8215545333471137</v>
       </c>
       <c r="CF3">
-        <v>0.3513952551752897</v>
+        <v>0.8215545333471137</v>
       </c>
       <c r="CG3">
-        <v>0.3745545802101575</v>
+        <v>0.8215545333471137</v>
       </c>
       <c r="CH3">
-        <v>0.3946364469962218</v>
+        <v>0.8215545333471137</v>
       </c>
       <c r="CI3">
-        <v>0.4055442467804103</v>
+        <v>0.8215545333471137</v>
       </c>
       <c r="CJ3">
-        <v>0.4149134120490607</v>
+        <v>0.8215545333471137</v>
       </c>
       <c r="CK3">
-        <v>0.4149537095018041</v>
+        <v>0.8215545333471137</v>
       </c>
       <c r="CL3">
-        <v>0.4182919017216352</v>
+        <v>0.8215545333471137</v>
       </c>
       <c r="CM3">
-        <v>0.4208528347225189</v>
+        <v>0.8215545333471137</v>
       </c>
       <c r="CN3">
-        <v>0.4368806181040987</v>
+        <v>0.8215545333471137</v>
       </c>
       <c r="CO3">
-        <v>0.465307205058743</v>
+        <v>0.8215545333471137</v>
       </c>
       <c r="CP3">
-        <v>0.4805140250594604</v>
+        <v>0.8215545333471137</v>
       </c>
       <c r="CQ3">
-        <v>0.4961208905877803</v>
+        <v>0.8215545333471137</v>
       </c>
       <c r="CR3">
-        <v>0.5070347589266777</v>
+        <v>0.8215545333471137</v>
       </c>
       <c r="CS3">
-        <v>0.510349362841934</v>
+        <v>0.8215545333471137</v>
       </c>
       <c r="CT3">
-        <v>0.517415046857698</v>
+        <v>0.8215545333471137</v>
       </c>
       <c r="CU3">
-        <v>0.5454156604237475</v>
+        <v>0.8215545333471137</v>
       </c>
       <c r="CV3">
-        <v>0.5892829201639376</v>
+        <v>0.9529062160335664</v>
       </c>
       <c r="CW3">
-        <v>0.62435677518732</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CX3">
-        <v>0.6410177736795263</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CY3">
-        <v>0.643086097149154</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CZ3">
-        <v>0.6436076474562769</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DA3">
-        <v>0.6473117620008865</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DB3">
-        <v>0.6549091604106337</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DC3">
-        <v>0.6653760642709606</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DD3">
-        <v>0.6817373569806748</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DE3">
-        <v>0.7055266532499228</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DF3">
-        <v>0.7226601394778289</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DG3">
-        <v>0.7318386376921558</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DH3">
-        <v>0.7327786734284631</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DI3">
-        <v>0.7396137312292684</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DJ3">
-        <v>0.7593757445708188</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DK3">
-        <v>0.7727228522318833</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DL3">
-        <v>0.7820577409105736</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DM3">
-        <v>0.7876167432460349</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DN3">
-        <v>0.7889123380535055</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DO3">
-        <v>0.7913695259940782</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DP3">
-        <v>0.7924737863521465</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DQ3">
-        <v>0.7924737863521465</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DR3">
-        <v>0.792474875134097</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DS3">
-        <v>0.7926638065837867</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DT3">
-        <v>0.795345073504019</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DU3">
-        <v>0.7988034956740965</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DV3">
-        <v>0.8027952558872916</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DW3">
-        <v>0.8106042726854856</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DX3">
-        <v>0.8139393835751498</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DY3">
-        <v>0.8140773016639421</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="DZ3">
-        <v>0.8147435794069999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EA3">
-        <v>0.8183613609480964</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EB3">
-        <v>0.8222457710000416</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EC3">
-        <v>0.8229529206477779</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ED3">
-        <v>0.8239329787917522</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EE3">
-        <v>0.824973082061327</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EF3">
-        <v>0.824973082061327</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EG3">
-        <v>0.824973082061327</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EH3">
-        <v>0.8254621448622934</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EI3">
-        <v>0.8264879563559077</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EJ3">
-        <v>0.8279850701562913</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EK3">
-        <v>0.8282536839183962</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EL3">
-        <v>0.8283026318520579</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EM3">
-        <v>0.8292293009562477</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EN3">
-        <v>0.8293031186312816</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EO3">
-        <v>0.8310275970563779</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EP3">
-        <v>0.8381190604777369</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EQ3">
-        <v>0.8465835526443724</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ER3">
-        <v>0.8470766737931874</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ES3">
-        <v>0.8485010783670535</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ET3">
-        <v>0.8546796446599639</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EU3">
-        <v>0.8634962438417576</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EV3">
-        <v>0.8713503196209219</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EW3">
-        <v>0.8739164104152315</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EX3">
-        <v>0.874541154303574</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EY3">
-        <v>0.8747045593559253</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EZ3">
-        <v>0.8747045593559253</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FA3">
-        <v>0.8747045593559253</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FB3">
-        <v>0.8777317784815047</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FC3">
-        <v>0.8838287367791011</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FD3">
-        <v>0.8897934383269425</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FE3">
-        <v>0.895257954891048</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FF3">
-        <v>0.895321142716767</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FG3">
-        <v>0.8971294974350043</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FH3">
-        <v>0.9014425315340867</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FI3">
-        <v>0.9043339710381652</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FJ3">
-        <v>0.9050440153547936</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FK3">
-        <v>0.905484331874852</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FL3">
-        <v>0.9069155022908806</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FM3">
-        <v>0.9075785041617797</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FN3">
-        <v>0.9080061755228233</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FO3">
-        <v>0.9080061755228233</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FP3">
-        <v>0.9121212180298862</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FQ3">
-        <v>0.919515990925608</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FR3">
-        <v>0.9302473859416496</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FS3">
-        <v>0.9356896241313492</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FT3">
-        <v>0.938920803057873</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FU3">
-        <v>0.9393338545514949</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FV3">
-        <v>0.9394021487497159</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FW3">
-        <v>0.9395119149344944</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FX3">
-        <v>0.9426524616898396</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FY3">
-        <v>0.9521749164663798</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FZ3">
-        <v>0.9634634520084773</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GA3">
-        <v>0.9665711880073607</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GB3">
-        <v>0.9691971642999756</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GC3">
-        <v>0.9692102862373387</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GD3">
-        <v>0.9698585397639925</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GE3">
-        <v>0.9724493008259438</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GF3">
-        <v>0.9801801804656948</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GG3">
-        <v>0.9853701109070517</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GH3">
-        <v>0.9860271796246294</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GI3">
-        <v>0.9861101855474267</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GJ3">
-        <v>0.9868939216136853</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GK3">
-        <v>0.9889275041047398</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GL3">
-        <v>0.9942185744406382</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GM3">
-        <v>0.996793695047085</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GN3">
-        <v>0.9971617610929662</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GO3">
-        <v>0.9977378995770244</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GP3">
-        <v>0.9978192336847109</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GQ3">
-        <v>0.9985586726028404</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GR3">
-        <v>0.9987774054922738</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GS3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GT3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GU3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GV3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GW3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GX3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GY3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GZ3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HA3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HB3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HC3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HD3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HE3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HF3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HG3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HH3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HI3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HJ3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HK3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HL3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HM3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HN3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HO3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HP3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HQ3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HR3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HS3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HT3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HU3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HV3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HW3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HX3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HY3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HZ3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IA3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IB3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IC3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ID3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IE3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IF3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IG3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IH3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="II3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IJ3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IK3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IL3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IM3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IN3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IO3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IP3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IQ3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IR3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IS3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IT3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IU3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IV3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IW3">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:257">
@@ -8191,601 +8191,601 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>2.444950049641277E-05</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0.0001005061593598577</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0002388220198012644</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0003924775279343302</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.0004220245515243801</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0004800609825033909</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0005385828797692747</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.0005385828797692747</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0005385828797692747</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.0005397351741774976</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.0005397351741774976</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.0005723551854497906</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.0006180028456927312</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.000620334276325893</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.0006670282138880306</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.0007315207844106513</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.0007484798277668517</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.0008146584429112431</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.001023952147725051</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.001126183068859875</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.001218594084290429</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.001332294695841397</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.001346335943608244</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.001346335943608244</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.001385301750537539</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.001385301750537539</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.001385301750537539</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.001385301750537539</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.00140385309759701</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.001663173834794638</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.00170599169708793</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.001839124471938168</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.002211068625902421</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.002418677059633845</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.002571620308773247</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.002693129328271844</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>0.002753279787141702</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0.002799943723430798</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>0.002799943723430798</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.002799943723430798</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.002826427098068654</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>0.002826427098068654</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>0.002826427098068654</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.002826427098068654</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>0.002826427098068654</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>0.002826427098068654</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>0.002837235066727996</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>0.002919119159445706</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>0.002977673469016486</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>0.003166729956948863</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>0.05482141367574027</v>
+        <v>0.295183509857412</v>
       </c>
       <c r="BA4">
-        <v>0.06369223366417757</v>
+        <v>0.295183509857412</v>
       </c>
       <c r="BB4">
-        <v>0.107711606453539</v>
+        <v>0.4857375542088707</v>
       </c>
       <c r="BC4">
-        <v>0.1169354889053699</v>
+        <v>0.4857375542088707</v>
       </c>
       <c r="BD4">
-        <v>0.1460986962116483</v>
+        <v>0.4857375542088707</v>
       </c>
       <c r="BE4">
-        <v>0.1464955667179799</v>
+        <v>0.4857375542088707</v>
       </c>
       <c r="BF4">
-        <v>0.1536826358800771</v>
+        <v>0.4857375542088707</v>
       </c>
       <c r="BG4">
-        <v>0.1657417511491958</v>
+        <v>0.4857375542088707</v>
       </c>
       <c r="BH4">
-        <v>0.2130202663856844</v>
+        <v>0.7209528226286653</v>
       </c>
       <c r="BI4">
-        <v>0.2293882049944285</v>
+        <v>0.7209528226286653</v>
       </c>
       <c r="BJ4">
-        <v>0.2302379678431428</v>
+        <v>0.7209528226286653</v>
       </c>
       <c r="BK4">
-        <v>0.2304582254943034</v>
+        <v>0.7209528226286653</v>
       </c>
       <c r="BL4">
-        <v>0.2351210612398547</v>
+        <v>0.7209528226286653</v>
       </c>
       <c r="BM4">
-        <v>0.2401444214919295</v>
+        <v>0.7209528226286653</v>
       </c>
       <c r="BN4">
-        <v>0.2431290423411978</v>
+        <v>0.7209528226286653</v>
       </c>
       <c r="BO4">
-        <v>0.2455171937002326</v>
+        <v>0.7209528226286653</v>
       </c>
       <c r="BP4">
-        <v>0.2564130262834518</v>
+        <v>0.7209528226286653</v>
       </c>
       <c r="BQ4">
-        <v>0.2564130262834518</v>
+        <v>0.7209528226286653</v>
       </c>
       <c r="BR4">
-        <v>0.2644760662145393</v>
+        <v>0.7209528226286653</v>
       </c>
       <c r="BS4">
-        <v>0.2806329330487803</v>
+        <v>0.7209528226286653</v>
       </c>
       <c r="BT4">
-        <v>0.2809136482579657</v>
+        <v>0.7209528226286653</v>
       </c>
       <c r="BU4">
-        <v>0.2810769372046086</v>
+        <v>0.7209528226286653</v>
       </c>
       <c r="BV4">
-        <v>0.2824531774897415</v>
+        <v>0.7209528226286653</v>
       </c>
       <c r="BW4">
-        <v>0.3057212130018045</v>
+        <v>0.7209528226286653</v>
       </c>
       <c r="BX4">
-        <v>0.3214698891293003</v>
+        <v>0.7209528226286653</v>
       </c>
       <c r="BY4">
-        <v>0.3226065817463747</v>
+        <v>0.7209528226286653</v>
       </c>
       <c r="BZ4">
-        <v>0.3296296261008427</v>
+        <v>0.7209528226286653</v>
       </c>
       <c r="CA4">
-        <v>0.3296296261008427</v>
+        <v>0.7209528226286653</v>
       </c>
       <c r="CB4">
-        <v>0.3296296261008427</v>
+        <v>0.7209528226286653</v>
       </c>
       <c r="CC4">
-        <v>0.3311159969967241</v>
+        <v>0.7209528226286653</v>
       </c>
       <c r="CD4">
-        <v>0.331227612929674</v>
+        <v>0.7209528226286653</v>
       </c>
       <c r="CE4">
-        <v>0.3346026690443535</v>
+        <v>0.7209528226286653</v>
       </c>
       <c r="CF4">
-        <v>0.3463894512333378</v>
+        <v>0.7209528226286653</v>
       </c>
       <c r="CG4">
-        <v>0.3724315999051787</v>
+        <v>0.7209528226286653</v>
       </c>
       <c r="CH4">
-        <v>0.3984823820802517</v>
+        <v>0.7209528226286653</v>
       </c>
       <c r="CI4">
-        <v>0.4056742941012074</v>
+        <v>0.7209528226286653</v>
       </c>
       <c r="CJ4">
-        <v>0.4100855851855716</v>
+        <v>0.7209528226286653</v>
       </c>
       <c r="CK4">
-        <v>0.4113667869147682</v>
+        <v>0.7209528226286653</v>
       </c>
       <c r="CL4">
-        <v>0.418704468113369</v>
+        <v>0.7209528226286653</v>
       </c>
       <c r="CM4">
-        <v>0.4199057960742357</v>
+        <v>0.7209528226286653</v>
       </c>
       <c r="CN4">
-        <v>0.4272955613875526</v>
+        <v>0.7209528226286653</v>
       </c>
       <c r="CO4">
-        <v>0.4497787919666455</v>
+        <v>0.7209528226286653</v>
       </c>
       <c r="CP4">
-        <v>0.4681581791067971</v>
+        <v>0.7209528226286653</v>
       </c>
       <c r="CQ4">
-        <v>0.4889961436495505</v>
+        <v>0.7209528226286653</v>
       </c>
       <c r="CR4">
-        <v>0.5060814194878016</v>
+        <v>0.7209528226286653</v>
       </c>
       <c r="CS4">
-        <v>0.5103115687443457</v>
+        <v>0.7209528226286653</v>
       </c>
       <c r="CT4">
-        <v>0.5156147380835775</v>
+        <v>0.7209528226286653</v>
       </c>
       <c r="CU4">
-        <v>0.5399840465514372</v>
+        <v>0.7209528226286653</v>
       </c>
       <c r="CV4">
-        <v>0.5833995693806797</v>
+        <v>0.9032320895470926</v>
       </c>
       <c r="CW4">
-        <v>0.6205749208446733</v>
+        <v>1</v>
       </c>
       <c r="CX4">
-        <v>0.6371837888436477</v>
+        <v>1</v>
       </c>
       <c r="CY4">
-        <v>0.6438993593287029</v>
+        <v>1</v>
       </c>
       <c r="CZ4">
-        <v>0.6439044949872883</v>
+        <v>1</v>
       </c>
       <c r="DA4">
-        <v>0.6464598391493495</v>
+        <v>1</v>
       </c>
       <c r="DB4">
-        <v>0.6530310470929273</v>
+        <v>1</v>
       </c>
       <c r="DC4">
-        <v>0.6689120607405263</v>
+        <v>1</v>
       </c>
       <c r="DD4">
-        <v>0.689434596013344</v>
+        <v>1</v>
       </c>
       <c r="DE4">
-        <v>0.7132718339531812</v>
+        <v>1</v>
       </c>
       <c r="DF4">
-        <v>0.728441714759912</v>
+        <v>1</v>
       </c>
       <c r="DG4">
-        <v>0.7357901044560347</v>
+        <v>1</v>
       </c>
       <c r="DH4">
-        <v>0.735913123123037</v>
+        <v>1</v>
       </c>
       <c r="DI4">
-        <v>0.7425179529058249</v>
+        <v>1</v>
       </c>
       <c r="DJ4">
-        <v>0.7619670907694697</v>
+        <v>1</v>
       </c>
       <c r="DK4">
-        <v>0.7722027406378879</v>
+        <v>1</v>
       </c>
       <c r="DL4">
-        <v>0.7786159807881531</v>
+        <v>1</v>
       </c>
       <c r="DM4">
-        <v>0.783146762611223</v>
+        <v>1</v>
       </c>
       <c r="DN4">
-        <v>0.7855665296300456</v>
+        <v>1</v>
       </c>
       <c r="DO4">
-        <v>0.7899163132826099</v>
+        <v>1</v>
       </c>
       <c r="DP4">
-        <v>0.7919218133925755</v>
+        <v>1</v>
       </c>
       <c r="DQ4">
-        <v>0.7919242182662527</v>
+        <v>1</v>
       </c>
       <c r="DR4">
-        <v>0.7926742603753533</v>
+        <v>1</v>
       </c>
       <c r="DS4">
-        <v>0.7934193513903569</v>
+        <v>1</v>
       </c>
       <c r="DT4">
-        <v>0.7962858862283537</v>
+        <v>1</v>
       </c>
       <c r="DU4">
-        <v>0.7980244237311811</v>
+        <v>1</v>
       </c>
       <c r="DV4">
-        <v>0.8005293264948963</v>
+        <v>1</v>
       </c>
       <c r="DW4">
-        <v>0.8064021604768006</v>
+        <v>1</v>
       </c>
       <c r="DX4">
-        <v>0.810920681198294</v>
+        <v>1</v>
       </c>
       <c r="DY4">
-        <v>0.8118562244415429</v>
+        <v>1</v>
       </c>
       <c r="DZ4">
-        <v>0.8119268611058206</v>
+        <v>1</v>
       </c>
       <c r="EA4">
-        <v>0.8151154308382763</v>
+        <v>1</v>
       </c>
       <c r="EB4">
-        <v>0.8215573016904339</v>
+        <v>1</v>
       </c>
       <c r="EC4">
-        <v>0.8230898761943384</v>
+        <v>1</v>
       </c>
       <c r="ED4">
-        <v>0.8245440034570934</v>
+        <v>1</v>
       </c>
       <c r="EE4">
-        <v>0.8252376849841858</v>
+        <v>1</v>
       </c>
       <c r="EF4">
-        <v>0.8252766224815827</v>
+        <v>1</v>
       </c>
       <c r="EG4">
-        <v>0.8253132039568262</v>
+        <v>1</v>
       </c>
       <c r="EH4">
-        <v>0.8253197057321798</v>
+        <v>1</v>
       </c>
       <c r="EI4">
-        <v>0.8256905864503149</v>
+        <v>1</v>
       </c>
       <c r="EJ4">
-        <v>0.826379405488731</v>
+        <v>1</v>
       </c>
       <c r="EK4">
-        <v>0.8269744473929391</v>
+        <v>1</v>
       </c>
       <c r="EL4">
-        <v>0.8272143089833727</v>
+        <v>1</v>
       </c>
       <c r="EM4">
-        <v>0.8272379171683678</v>
+        <v>1</v>
       </c>
       <c r="EN4">
-        <v>0.8282380050403355</v>
+        <v>1</v>
       </c>
       <c r="EO4">
-        <v>0.8310949653694594</v>
+        <v>1</v>
       </c>
       <c r="EP4">
-        <v>0.8369090952463929</v>
+        <v>1</v>
       </c>
       <c r="EQ4">
-        <v>0.841154369709437</v>
+        <v>1</v>
       </c>
       <c r="ER4">
-        <v>0.8413774216561032</v>
+        <v>1</v>
       </c>
       <c r="ES4">
-        <v>0.843193261762707</v>
+        <v>1</v>
       </c>
       <c r="ET4">
-        <v>0.8505925431173744</v>
+        <v>1</v>
       </c>
       <c r="EU4">
-        <v>0.8586283594850356</v>
+        <v>1</v>
       </c>
       <c r="EV4">
-        <v>0.8698468800509673</v>
+        <v>1</v>
       </c>
       <c r="EW4">
-        <v>0.8735234463477676</v>
+        <v>1</v>
       </c>
       <c r="EX4">
-        <v>0.8740318141783463</v>
+        <v>1</v>
       </c>
       <c r="EY4">
-        <v>0.8740405460376137</v>
+        <v>1</v>
       </c>
       <c r="EZ4">
-        <v>0.8741804560321335</v>
+        <v>1</v>
       </c>
       <c r="FA4">
-        <v>0.874343013672631</v>
+        <v>1</v>
       </c>
       <c r="FB4">
-        <v>0.8772702322736703</v>
+        <v>1</v>
       </c>
       <c r="FC4">
-        <v>0.8831116299162809</v>
+        <v>1</v>
       </c>
       <c r="FD4">
-        <v>0.8889844638981852</v>
+        <v>1</v>
       </c>
       <c r="FE4">
-        <v>0.8953232771024586</v>
+        <v>1</v>
       </c>
       <c r="FF4">
-        <v>0.8968235334321687</v>
+        <v>1</v>
       </c>
       <c r="FG4">
-        <v>0.8971378651059723</v>
+        <v>1</v>
       </c>
       <c r="FH4">
-        <v>0.8997297262542023</v>
+        <v>1</v>
       </c>
       <c r="FI4">
-        <v>0.9024929456648259</v>
+        <v>1</v>
       </c>
       <c r="FJ4">
-        <v>0.9036554050797883</v>
+        <v>1</v>
       </c>
       <c r="FK4">
-        <v>0.90503578370018</v>
+        <v>1</v>
       </c>
       <c r="FL4">
-        <v>0.9079855082789838</v>
+        <v>1</v>
       </c>
       <c r="FM4">
-        <v>0.9105500939261429</v>
+        <v>1</v>
       </c>
       <c r="FN4">
-        <v>0.9123188403521307</v>
+        <v>1</v>
       </c>
       <c r="FO4">
-        <v>0.9123462154549368</v>
+        <v>1</v>
       </c>
       <c r="FP4">
-        <v>0.9143595919036726</v>
+        <v>1</v>
       </c>
       <c r="FQ4">
-        <v>0.9207596838935582</v>
+        <v>1</v>
       </c>
       <c r="FR4">
-        <v>0.9291919547681149</v>
+        <v>1</v>
       </c>
       <c r="FS4">
-        <v>0.9342671086055673</v>
+        <v>1</v>
       </c>
       <c r="FT4">
-        <v>0.9371595733879409</v>
+        <v>1</v>
       </c>
       <c r="FU4">
-        <v>0.9375422303591924</v>
+        <v>1</v>
       </c>
       <c r="FV4">
-        <v>0.9375934964369197</v>
+        <v>1</v>
       </c>
       <c r="FW4">
-        <v>0.9378126963884976</v>
+        <v>1</v>
       </c>
       <c r="FX4">
-        <v>0.9417776505251719</v>
+        <v>1</v>
       </c>
       <c r="FY4">
-        <v>0.9501938664390696</v>
+        <v>1</v>
       </c>
       <c r="FZ4">
-        <v>0.9621166207786778</v>
+        <v>1</v>
       </c>
       <c r="GA4">
-        <v>0.965311254658086</v>
+        <v>1</v>
       </c>
       <c r="GB4">
-        <v>0.9671988803248254</v>
+        <v>1</v>
       </c>
       <c r="GC4">
-        <v>0.9672657038126323</v>
+        <v>1</v>
       </c>
       <c r="GD4">
-        <v>0.9691151813296935</v>
+        <v>1</v>
       </c>
       <c r="GE4">
-        <v>0.9719664045080602</v>
+        <v>1</v>
       </c>
       <c r="GF4">
-        <v>0.979549234904935</v>
+        <v>1</v>
       </c>
       <c r="GG4">
-        <v>0.9859165133540398</v>
+        <v>1</v>
       </c>
       <c r="GH4">
-        <v>0.9875171827310687</v>
+        <v>1</v>
       </c>
       <c r="GI4">
-        <v>0.9875463386220024</v>
+        <v>1</v>
       </c>
       <c r="GJ4">
-        <v>0.9877833697715444</v>
+        <v>1</v>
       </c>
       <c r="GK4">
-        <v>0.9887944384871737</v>
+        <v>1</v>
       </c>
       <c r="GL4">
-        <v>0.9930271454466767</v>
+        <v>1</v>
       </c>
       <c r="GM4">
-        <v>0.9964324023472841</v>
+        <v>1</v>
       </c>
       <c r="GN4">
-        <v>0.9973422801564427</v>
+        <v>1</v>
       </c>
       <c r="GO4">
-        <v>0.9977799555987745</v>
+        <v>1</v>
       </c>
       <c r="GP4">
-        <v>0.9978203167702976</v>
+        <v>1</v>
       </c>
       <c r="GQ4">
-        <v>0.9986120659732886</v>
+        <v>1</v>
       </c>
       <c r="GR4">
-        <v>0.9990500478276313</v>
+        <v>1</v>
       </c>
       <c r="GS4">
         <v>1</v>
@@ -8964,772 +8964,772 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>1.773752742027988E-05</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>4.317987367471575E-05</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0001323797070073558</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.0001323797070073558</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.0001323797070073558</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0001323797070073558</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0001323797070073558</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.0001454292366859818</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0001454292366859818</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.000151812580281188</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.0001792099845820456</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.0002187449362598931</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.0002990093629811469</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.000461468797812899</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.0007316000136826087</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.0010396931975628</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.001221257044623222</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.001246328265233599</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.00129232804453524</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.001310733261926267</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.001310733261926267</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.001310733261926267</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.001310733261926267</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.001311958660181954</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.001311958660181954</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.001327485484581376</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.00135790332606148</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.001509130908107168</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.001833895779095649</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.002146054774762466</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.002430096470475223</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.002604402362222401</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.00265479173323659</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.00271958735169646</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.002737773945044472</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.002737773945044472</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.002737773945044472</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.002737773945044472</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.002746110968172343</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>0.002746110968172343</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.002746110968172343</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0.002837128053389294</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>0.002904518146267836</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.002906627070362593</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>0.002948515628308169</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>0.002989430003040165</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>0.003018952880634103</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>0.003097475687849397</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>0.0031346987252627</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.003178415235654919</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>0.003276133264190287</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>0.003445648629727973</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>0.003552787875428281</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>0.003609211278469557</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>0.003697129032718082</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>0.003697129032718082</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>0.003697129032718082</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>0.003697129032718082</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>0.04434004095881064</v>
+        <v>0.1032139814555955</v>
       </c>
       <c r="BI5">
-        <v>0.04548667565166289</v>
+        <v>0.1032139814555955</v>
       </c>
       <c r="BJ5">
-        <v>0.09655974418652433</v>
+        <v>0.3087002770075262</v>
       </c>
       <c r="BK5">
-        <v>0.09661357114081782</v>
+        <v>0.3087002770075262</v>
       </c>
       <c r="BL5">
-        <v>0.1173748061044792</v>
+        <v>0.3087002770075262</v>
       </c>
       <c r="BM5">
-        <v>0.1267731531142901</v>
+        <v>0.3087002770075262</v>
       </c>
       <c r="BN5">
-        <v>0.1325538617478828</v>
+        <v>0.3087002770075262</v>
       </c>
       <c r="BO5">
-        <v>0.1518220628231249</v>
+        <v>0.3087002770075262</v>
       </c>
       <c r="BP5">
-        <v>0.205025342036174</v>
+        <v>0.535074233573847</v>
       </c>
       <c r="BQ5">
-        <v>0.2226545435053293</v>
+        <v>0.535074233573847</v>
       </c>
       <c r="BR5">
-        <v>0.2226545435053293</v>
+        <v>0.535074233573847</v>
       </c>
       <c r="BS5">
-        <v>0.2226545435053293</v>
+        <v>0.535074233573847</v>
       </c>
       <c r="BT5">
-        <v>0.2354852300165332</v>
+        <v>0.535074233573847</v>
       </c>
       <c r="BU5">
-        <v>0.2362019978009194</v>
+        <v>0.535074233573847</v>
       </c>
       <c r="BV5">
-        <v>0.2384074642890967</v>
+        <v>0.535074233573847</v>
       </c>
       <c r="BW5">
-        <v>0.2399993048702105</v>
+        <v>0.535074233573847</v>
       </c>
       <c r="BX5">
-        <v>0.2472345899731048</v>
+        <v>0.535074233573847</v>
       </c>
       <c r="BY5">
-        <v>0.2485747065069598</v>
+        <v>0.535074233573847</v>
       </c>
       <c r="BZ5">
-        <v>0.2582036792703058</v>
+        <v>0.535074233573847</v>
       </c>
       <c r="CA5">
-        <v>0.2697816876227392</v>
+        <v>0.535074233573847</v>
       </c>
       <c r="CB5">
-        <v>0.2706575374018666</v>
+        <v>0.535074233573847</v>
       </c>
       <c r="CC5">
-        <v>0.2706575374018666</v>
+        <v>0.535074233573847</v>
       </c>
       <c r="CD5">
-        <v>0.2707898650378277</v>
+        <v>0.535074233573847</v>
       </c>
       <c r="CE5">
-        <v>0.2732654422540657</v>
+        <v>0.535074233573847</v>
       </c>
       <c r="CF5">
-        <v>0.2818179645703782</v>
+        <v>0.535074233573847</v>
       </c>
       <c r="CG5">
-        <v>0.2823639815525373</v>
+        <v>0.535074233573847</v>
       </c>
       <c r="CH5">
-        <v>0.285377175617598</v>
+        <v>0.535074233573847</v>
       </c>
       <c r="CI5">
-        <v>0.2858306044318554</v>
+        <v>0.535074233573847</v>
       </c>
       <c r="CJ5">
-        <v>0.2861952430845625</v>
+        <v>0.535074233573847</v>
       </c>
       <c r="CK5">
-        <v>0.2921100486534148</v>
+        <v>0.535074233573847</v>
       </c>
       <c r="CL5">
-        <v>0.2943477278531981</v>
+        <v>0.535074233573847</v>
       </c>
       <c r="CM5">
-        <v>0.2943477278531981</v>
+        <v>0.535074233573847</v>
       </c>
       <c r="CN5">
-        <v>0.3012935474728819</v>
+        <v>0.535074233573847</v>
       </c>
       <c r="CO5">
-        <v>0.3178492092489073</v>
+        <v>0.535074233573847</v>
       </c>
       <c r="CP5">
-        <v>0.3366132731737027</v>
+        <v>0.535074233573847</v>
       </c>
       <c r="CQ5">
-        <v>0.3471402110044054</v>
+        <v>0.535074233573847</v>
       </c>
       <c r="CR5">
-        <v>0.357226838278282</v>
+        <v>0.535074233573847</v>
       </c>
       <c r="CS5">
-        <v>0.3576104781857779</v>
+        <v>0.535074233573847</v>
       </c>
       <c r="CT5">
-        <v>0.3628565302585098</v>
+        <v>0.535074233573847</v>
       </c>
       <c r="CU5">
-        <v>0.3663378712127215</v>
+        <v>0.535074233573847</v>
       </c>
       <c r="CV5">
-        <v>0.3821304583058586</v>
+        <v>0.535074233573847</v>
       </c>
       <c r="CW5">
-        <v>0.4175437954286645</v>
+        <v>0.5870099133764882</v>
       </c>
       <c r="CX5">
-        <v>0.4420375774353374</v>
+        <v>0.5870099133764882</v>
       </c>
       <c r="CY5">
-        <v>0.4612279879343043</v>
+        <v>0.5870099133764882</v>
       </c>
       <c r="CZ5">
-        <v>0.4759723780839515</v>
+        <v>0.5870099133764882</v>
       </c>
       <c r="DA5">
-        <v>0.4839328699360549</v>
+        <v>0.5870099133764882</v>
       </c>
       <c r="DB5">
-        <v>0.4862916945726368</v>
+        <v>0.5870099133764882</v>
       </c>
       <c r="DC5">
-        <v>0.510557087394014</v>
+        <v>0.5870099133764882</v>
       </c>
       <c r="DD5">
-        <v>0.5589886281736293</v>
+        <v>0.76659485706841</v>
       </c>
       <c r="DE5">
-        <v>0.6118434247353597</v>
+        <v>0.9895517865938506</v>
       </c>
       <c r="DF5">
-        <v>0.6430256972182393</v>
+        <v>1</v>
       </c>
       <c r="DG5">
-        <v>0.6545196805353117</v>
+        <v>1</v>
       </c>
       <c r="DH5">
-        <v>0.6547745280526009</v>
+        <v>1</v>
       </c>
       <c r="DI5">
-        <v>0.6557105496960104</v>
+        <v>1</v>
       </c>
       <c r="DJ5">
-        <v>0.6585977163559806</v>
+        <v>1</v>
       </c>
       <c r="DK5">
-        <v>0.6660210275202104</v>
+        <v>1</v>
       </c>
       <c r="DL5">
-        <v>0.6764158601268937</v>
+        <v>1</v>
       </c>
       <c r="DM5">
-        <v>0.695911251723501</v>
+        <v>1</v>
       </c>
       <c r="DN5">
-        <v>0.7140817589724272</v>
+        <v>1</v>
       </c>
       <c r="DO5">
-        <v>0.7238616468402991</v>
+        <v>1</v>
       </c>
       <c r="DP5">
-        <v>0.7265497112014616</v>
+        <v>1</v>
       </c>
       <c r="DQ5">
-        <v>0.7286114784816902</v>
+        <v>1</v>
       </c>
       <c r="DR5">
-        <v>0.7459348950550957</v>
+        <v>1</v>
       </c>
       <c r="DS5">
-        <v>0.7599513013330659</v>
+        <v>1</v>
       </c>
       <c r="DT5">
-        <v>0.769930591416915</v>
+        <v>1</v>
       </c>
       <c r="DU5">
-        <v>0.7745142352762765</v>
+        <v>1</v>
       </c>
       <c r="DV5">
-        <v>0.7756509677792701</v>
+        <v>1</v>
       </c>
       <c r="DW5">
-        <v>0.7760301516711873</v>
+        <v>1</v>
       </c>
       <c r="DX5">
-        <v>0.7762982410288622</v>
+        <v>1</v>
       </c>
       <c r="DY5">
-        <v>0.7763329374535171</v>
+        <v>1</v>
       </c>
       <c r="DZ5">
-        <v>0.7778425367277493</v>
+        <v>1</v>
       </c>
       <c r="EA5">
-        <v>0.7784366433632897</v>
+        <v>1</v>
       </c>
       <c r="EB5">
-        <v>0.7835454544444571</v>
+        <v>1</v>
       </c>
       <c r="EC5">
-        <v>0.7890057932656057</v>
+        <v>1</v>
       </c>
       <c r="ED5">
-        <v>0.7933718456610986</v>
+        <v>1</v>
       </c>
       <c r="EE5">
-        <v>0.8014634309563514</v>
+        <v>1</v>
       </c>
       <c r="EF5">
-        <v>0.8062511915085511</v>
+        <v>1</v>
       </c>
       <c r="EG5">
-        <v>0.8067409832550501</v>
+        <v>1</v>
       </c>
       <c r="EH5">
-        <v>0.8074081524761492</v>
+        <v>1</v>
       </c>
       <c r="EI5">
-        <v>0.8120868562127411</v>
+        <v>1</v>
       </c>
       <c r="EJ5">
-        <v>0.8189393741630838</v>
+        <v>1</v>
       </c>
       <c r="EK5">
-        <v>0.8213448800781896</v>
+        <v>1</v>
       </c>
       <c r="EL5">
-        <v>0.8234012177021895</v>
+        <v>1</v>
       </c>
       <c r="EM5">
-        <v>0.8255882189382998</v>
+        <v>1</v>
       </c>
       <c r="EN5">
-        <v>0.8259923888040188</v>
+        <v>1</v>
       </c>
       <c r="EO5">
-        <v>0.8261666802675899</v>
+        <v>1</v>
       </c>
       <c r="EP5">
-        <v>0.8261666802675899</v>
+        <v>1</v>
       </c>
       <c r="EQ5">
-        <v>0.8263120813582803</v>
+        <v>1</v>
       </c>
       <c r="ER5">
-        <v>0.8273591348095369</v>
+        <v>1</v>
       </c>
       <c r="ES5">
-        <v>0.8275656344533022</v>
+        <v>1</v>
       </c>
       <c r="ET5">
-        <v>0.8276601648496279</v>
+        <v>1</v>
       </c>
       <c r="EU5">
-        <v>0.8299050757205263</v>
+        <v>1</v>
       </c>
       <c r="EV5">
-        <v>0.830039533270765</v>
+        <v>1</v>
       </c>
       <c r="EW5">
-        <v>0.8306788435527174</v>
+        <v>1</v>
       </c>
       <c r="EX5">
-        <v>0.8351524986930382</v>
+        <v>1</v>
       </c>
       <c r="EY5">
-        <v>0.8448652141576593</v>
+        <v>1</v>
       </c>
       <c r="EZ5">
-        <v>0.8470101125492765</v>
+        <v>1</v>
       </c>
       <c r="FA5">
-        <v>0.8472252176756955</v>
+        <v>1</v>
       </c>
       <c r="FB5">
-        <v>0.852166147483744</v>
+        <v>1</v>
       </c>
       <c r="FC5">
-        <v>0.8588200564663686</v>
+        <v>1</v>
       </c>
       <c r="FD5">
-        <v>0.8668306339834134</v>
+        <v>1</v>
       </c>
       <c r="FE5">
-        <v>0.8681093027641524</v>
+        <v>1</v>
       </c>
       <c r="FF5">
-        <v>0.8681338908990849</v>
+        <v>1</v>
       </c>
       <c r="FG5">
-        <v>0.8681338908990849</v>
+        <v>1</v>
       </c>
       <c r="FH5">
-        <v>0.8682784042650958</v>
+        <v>1</v>
       </c>
       <c r="FI5">
-        <v>0.8684656464434251</v>
+        <v>1</v>
       </c>
       <c r="FJ5">
-        <v>0.8708137484132281</v>
+        <v>1</v>
       </c>
       <c r="FK5">
-        <v>0.8787242199089866</v>
+        <v>1</v>
       </c>
       <c r="FL5">
-        <v>0.8893492170900397</v>
+        <v>1</v>
       </c>
       <c r="FM5">
-        <v>0.8987048341923576</v>
+        <v>1</v>
       </c>
       <c r="FN5">
-        <v>0.9011974323359349</v>
+        <v>1</v>
       </c>
       <c r="FO5">
-        <v>0.9016111647767638</v>
+        <v>1</v>
       </c>
       <c r="FP5">
-        <v>0.9049510448998118</v>
+        <v>1</v>
       </c>
       <c r="FQ5">
-        <v>0.9102911800341218</v>
+        <v>1</v>
       </c>
       <c r="FR5">
-        <v>0.9123708371474458</v>
+        <v>1</v>
       </c>
       <c r="FS5">
-        <v>0.9139510836441557</v>
+        <v>1</v>
       </c>
       <c r="FT5">
-        <v>0.9175255298395455</v>
+        <v>1</v>
       </c>
       <c r="FU5">
-        <v>0.9205442892017658</v>
+        <v>1</v>
       </c>
       <c r="FV5">
-        <v>0.9227497079644303</v>
+        <v>1</v>
       </c>
       <c r="FW5">
-        <v>0.9236909733958032</v>
+        <v>1</v>
       </c>
       <c r="FX5">
-        <v>0.9240040698310625</v>
+        <v>1</v>
       </c>
       <c r="FY5">
-        <v>0.9275490775235459</v>
+        <v>1</v>
       </c>
       <c r="FZ5">
-        <v>0.9351226912981423</v>
+        <v>1</v>
       </c>
       <c r="GA5">
-        <v>0.9407427169721094</v>
+        <v>1</v>
       </c>
       <c r="GB5">
-        <v>0.9431793642364162</v>
+        <v>1</v>
       </c>
       <c r="GC5">
-        <v>0.9439223088114558</v>
+        <v>1</v>
       </c>
       <c r="GD5">
-        <v>0.9440674744194426</v>
+        <v>1</v>
       </c>
       <c r="GE5">
-        <v>0.9441548495557109</v>
+        <v>1</v>
       </c>
       <c r="GF5">
-        <v>0.9464159790629608</v>
+        <v>1</v>
       </c>
       <c r="GG5">
-        <v>0.9540979934524834</v>
+        <v>1</v>
       </c>
       <c r="GH5">
-        <v>0.965309295040964</v>
+        <v>1</v>
       </c>
       <c r="GI5">
-        <v>0.9694650828937794</v>
+        <v>1</v>
       </c>
       <c r="GJ5">
-        <v>0.971348436332363</v>
+        <v>1</v>
       </c>
       <c r="GK5">
-        <v>0.9714350900095908</v>
+        <v>1</v>
       </c>
       <c r="GL5">
-        <v>0.9725857998583827</v>
+        <v>1</v>
       </c>
       <c r="GM5">
-        <v>0.9753856126535968</v>
+        <v>1</v>
       </c>
       <c r="GN5">
-        <v>0.9854007209859462</v>
+        <v>1</v>
       </c>
       <c r="GO5">
-        <v>0.9950698977212267</v>
+        <v>1</v>
       </c>
       <c r="GP5">
-        <v>0.9990389387573976</v>
+        <v>1</v>
       </c>
       <c r="GQ5">
-        <v>0.9994886562046921</v>
+        <v>1</v>
       </c>
       <c r="GR5">
-        <v>0.9995380028988463</v>
+        <v>1</v>
       </c>
       <c r="GS5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GT5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GU5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GV5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GW5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GX5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GY5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GZ5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HA5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HB5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HC5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HD5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HE5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HF5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HG5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HH5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HI5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HJ5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HK5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HL5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HM5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HN5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HO5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HP5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HQ5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HR5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HS5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HT5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HU5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HV5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HW5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HX5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HY5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HZ5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IA5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IB5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IC5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="ID5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IE5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IF5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IG5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IH5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="II5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IJ5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IK5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IL5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IM5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IN5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IO5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IP5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IQ5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IR5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IS5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IT5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IU5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IV5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IW5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:257">
@@ -9737,772 +9737,772 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>3.651354912275438E-05</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0001313193169901516</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0001842375075940936</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.0003174988976510785</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0004168011600143925</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0004628055428145464</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0005018586026666352</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.000553890081421991</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0005566090293912198</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.0005566090293912198</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.0005566090293912198</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.0005566090293912198</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.0005619833309848987</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0005619833309848987</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.0005696961333325281</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.0005696961333325281</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.0006040577968314857</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.0006040577968314857</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.0006040577968314857</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.0006100482881506783</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.0006100482881506783</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.000614233279638205</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.0006221435581073479</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.0006252472884731335</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.0006946472312931007</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.0008202894801532519</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.001009055053541489</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.001334775935005271</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.001469967642656009</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.001540372675419266</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.001540372675419266</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.001546363166738459</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.001604471564982284</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.001756245280924414</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.001785158128395658</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>0.001891124103276983</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>0.00200538571998638</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.002044103607621757</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>0.002135802464855217</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>0.002235104727218531</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.002265017459009889</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>0.00229432868439883</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>0.002389134452266227</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.00241150547713153</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>0.002436927307692281</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>0.002517588154331616</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>0.002534860597336215</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>0.002534860597336215</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>0.002534860597336215</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>0.01026814353229899</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>0.04202901995793898</v>
+        <v>0.02122208912759673</v>
       </c>
       <c r="BA6">
-        <v>0.1123235077631753</v>
+        <v>0.5179414046212454</v>
       </c>
       <c r="BB6">
-        <v>0.1243464560791982</v>
+        <v>0.5179414046212454</v>
       </c>
       <c r="BC6">
-        <v>0.138941716961183</v>
+        <v>0.5179414046212454</v>
       </c>
       <c r="BD6">
-        <v>0.1619205187771392</v>
+        <v>0.5179414046212454</v>
       </c>
       <c r="BE6">
-        <v>0.163173379015832</v>
+        <v>0.5179414046212454</v>
       </c>
       <c r="BF6">
-        <v>0.1706817563920966</v>
+        <v>0.5179414046212454</v>
       </c>
       <c r="BG6">
-        <v>0.2070217281428967</v>
+        <v>0.5956686342852495</v>
       </c>
       <c r="BH6">
-        <v>0.2323201734755687</v>
+        <v>0.5956686342852495</v>
       </c>
       <c r="BI6">
-        <v>0.2350990991595861</v>
+        <v>0.5956686342852495</v>
       </c>
       <c r="BJ6">
-        <v>0.2351802152803924</v>
+        <v>0.5956686342852495</v>
       </c>
       <c r="BK6">
-        <v>0.2392246475909925</v>
+        <v>0.5956686342852495</v>
       </c>
       <c r="BL6">
-        <v>0.244343596751368</v>
+        <v>0.5956686342852495</v>
       </c>
       <c r="BM6">
-        <v>0.2444284390005497</v>
+        <v>0.5956686342852495</v>
       </c>
       <c r="BN6">
-        <v>0.2446518354003084</v>
+        <v>0.5956686342852495</v>
       </c>
       <c r="BO6">
-        <v>0.2533994881507782</v>
+        <v>0.5956686342852495</v>
       </c>
       <c r="BP6">
-        <v>0.2552016918834174</v>
+        <v>0.5956686342852495</v>
       </c>
       <c r="BQ6">
-        <v>0.2592152532559462</v>
+        <v>0.5956686342852495</v>
       </c>
       <c r="BR6">
-        <v>0.2745035135996745</v>
+        <v>0.5956686342852495</v>
       </c>
       <c r="BS6">
-        <v>0.2775225055562905</v>
+        <v>0.5956686342852495</v>
       </c>
       <c r="BT6">
-        <v>0.2777918960057324</v>
+        <v>0.5956686342852495</v>
       </c>
       <c r="BU6">
-        <v>0.2784175472653885</v>
+        <v>0.5956686342852495</v>
       </c>
       <c r="BV6">
-        <v>0.2829961008541559</v>
+        <v>0.5956686342852495</v>
       </c>
       <c r="BW6">
-        <v>0.3022008008261035</v>
+        <v>0.5956686342852495</v>
       </c>
       <c r="BX6">
-        <v>0.305977646977089</v>
+        <v>0.5956686342852495</v>
       </c>
       <c r="BY6">
-        <v>0.3085108594342617</v>
+        <v>0.5956686342852495</v>
       </c>
       <c r="BZ6">
-        <v>0.3128502147883454</v>
+        <v>0.5956686342852495</v>
       </c>
       <c r="CA6">
-        <v>0.3132224755035902</v>
+        <v>0.5956686342852495</v>
       </c>
       <c r="CB6">
-        <v>0.31849685213139</v>
+        <v>0.5956686342852495</v>
       </c>
       <c r="CC6">
-        <v>0.3221364663560786</v>
+        <v>0.5956686342852495</v>
       </c>
       <c r="CD6">
-        <v>0.3222909181683187</v>
+        <v>0.5956686342852495</v>
       </c>
       <c r="CE6">
-        <v>0.3257737609993535</v>
+        <v>0.5956686342852495</v>
       </c>
       <c r="CF6">
-        <v>0.3384556368365503</v>
+        <v>0.5956686342852495</v>
       </c>
       <c r="CG6">
-        <v>0.3608222796038564</v>
+        <v>0.5956686342852495</v>
       </c>
       <c r="CH6">
-        <v>0.3750635305642503</v>
+        <v>0.5956686342852495</v>
       </c>
       <c r="CI6">
-        <v>0.3869341986262447</v>
+        <v>0.5956686342852495</v>
       </c>
       <c r="CJ6">
-        <v>0.3920496696250047</v>
+        <v>0.5956686342852495</v>
       </c>
       <c r="CK6">
-        <v>0.394120286186646</v>
+        <v>0.5956686342852495</v>
       </c>
       <c r="CL6">
-        <v>0.3954055634244784</v>
+        <v>0.5956686342852495</v>
       </c>
       <c r="CM6">
-        <v>0.4014072865102241</v>
+        <v>0.5956686342852495</v>
       </c>
       <c r="CN6">
-        <v>0.4198915681006656</v>
+        <v>0.5956686342852495</v>
       </c>
       <c r="CO6">
-        <v>0.4430968921533662</v>
+        <v>0.5956686342852495</v>
       </c>
       <c r="CP6">
-        <v>0.4577686352290026</v>
+        <v>0.5956686342852495</v>
       </c>
       <c r="CQ6">
-        <v>0.4751147975114501</v>
+        <v>0.5956686342852495</v>
       </c>
       <c r="CR6">
-        <v>0.4837687921161019</v>
+        <v>0.5956686342852495</v>
       </c>
       <c r="CS6">
-        <v>0.4839118594097533</v>
+        <v>0.5956686342852495</v>
       </c>
       <c r="CT6">
-        <v>0.5017975754693664</v>
+        <v>0.5956686342852495</v>
       </c>
       <c r="CU6">
-        <v>0.5413903755685106</v>
+        <v>0.7135351294399886</v>
       </c>
       <c r="CV6">
-        <v>0.5946461455376338</v>
+        <v>1</v>
       </c>
       <c r="CW6">
-        <v>0.6199445097359058</v>
+        <v>1</v>
       </c>
       <c r="CX6">
-        <v>0.6342438148637095</v>
+        <v>1</v>
       </c>
       <c r="CY6">
-        <v>0.6348653817575658</v>
+        <v>1</v>
       </c>
       <c r="CZ6">
-        <v>0.6362328997281373</v>
+        <v>1</v>
       </c>
       <c r="DA6">
-        <v>0.6406753728980936</v>
+        <v>1</v>
       </c>
       <c r="DB6">
-        <v>0.6512142087644216</v>
+        <v>1</v>
       </c>
       <c r="DC6">
-        <v>0.6647982585633767</v>
+        <v>1</v>
       </c>
       <c r="DD6">
-        <v>0.6883229726894832</v>
+        <v>1</v>
       </c>
       <c r="DE6">
-        <v>0.7116765803757635</v>
+        <v>1</v>
       </c>
       <c r="DF6">
-        <v>0.7263738427243752</v>
+        <v>1</v>
       </c>
       <c r="DG6">
-        <v>0.7325335284771333</v>
+        <v>1</v>
       </c>
       <c r="DH6">
-        <v>0.7325608658608302</v>
+        <v>1</v>
       </c>
       <c r="DI6">
-        <v>0.7456509779461644</v>
+        <v>1</v>
       </c>
       <c r="DJ6">
-        <v>0.7592349721530306</v>
+        <v>1</v>
       </c>
       <c r="DK6">
-        <v>0.7682252317846471</v>
+        <v>1</v>
       </c>
       <c r="DL6">
-        <v>0.7724352518933786</v>
+        <v>1</v>
       </c>
       <c r="DM6">
-        <v>0.7749659908531739</v>
+        <v>1</v>
       </c>
       <c r="DN6">
-        <v>0.7760553921201611</v>
+        <v>1</v>
       </c>
       <c r="DO6">
-        <v>0.7783340204557477</v>
+        <v>1</v>
       </c>
       <c r="DP6">
-        <v>0.7786713911152056</v>
+        <v>1</v>
       </c>
       <c r="DQ6">
-        <v>0.7787040690435775</v>
+        <v>1</v>
       </c>
       <c r="DR6">
-        <v>0.7787307290231466</v>
+        <v>1</v>
       </c>
       <c r="DS6">
-        <v>0.7803897992534589</v>
+        <v>1</v>
       </c>
       <c r="DT6">
-        <v>0.7821625113328282</v>
+        <v>1</v>
       </c>
       <c r="DU6">
-        <v>0.7845027593421278</v>
+        <v>1</v>
       </c>
       <c r="DV6">
-        <v>0.7885441303816965</v>
+        <v>1</v>
       </c>
       <c r="DW6">
-        <v>0.7937832534114974</v>
+        <v>1</v>
       </c>
       <c r="DX6">
-        <v>0.7945811674765128</v>
+        <v>1</v>
       </c>
       <c r="DY6">
-        <v>0.7946087971423786</v>
+        <v>1</v>
       </c>
       <c r="DZ6">
-        <v>0.7974591162905074</v>
+        <v>1</v>
       </c>
       <c r="EA6">
-        <v>0.804160545647906</v>
+        <v>1</v>
       </c>
       <c r="EB6">
-        <v>0.8081915862750252</v>
+        <v>1</v>
       </c>
       <c r="EC6">
-        <v>0.8098334856616334</v>
+        <v>1</v>
       </c>
       <c r="ED6">
-        <v>0.8114128268198018</v>
+        <v>1</v>
       </c>
       <c r="EE6">
-        <v>0.8119466125030522</v>
+        <v>1</v>
       </c>
       <c r="EF6">
-        <v>0.8119466125030522</v>
+        <v>1</v>
       </c>
       <c r="EG6">
-        <v>0.8119466125030522</v>
+        <v>1</v>
       </c>
       <c r="EH6">
-        <v>0.8124777722363857</v>
+        <v>1</v>
       </c>
       <c r="EI6">
-        <v>0.8138888860239398</v>
+        <v>1</v>
       </c>
       <c r="EJ6">
-        <v>0.8152480060832729</v>
+        <v>1</v>
       </c>
       <c r="EK6">
-        <v>0.8158925585930717</v>
+        <v>1</v>
       </c>
       <c r="EL6">
-        <v>0.8159701792235573</v>
+        <v>1</v>
       </c>
       <c r="EM6">
-        <v>0.8159701792235573</v>
+        <v>1</v>
       </c>
       <c r="EN6">
-        <v>0.8169862687487837</v>
+        <v>1</v>
       </c>
       <c r="EO6">
-        <v>0.8216485610517141</v>
+        <v>1</v>
       </c>
       <c r="EP6">
-        <v>0.8322590365899997</v>
+        <v>1</v>
       </c>
       <c r="EQ6">
-        <v>0.8380221193652697</v>
+        <v>1</v>
       </c>
       <c r="ER6">
-        <v>0.8380540712088738</v>
+        <v>1</v>
       </c>
       <c r="ES6">
-        <v>0.8416196938656616</v>
+        <v>1</v>
       </c>
       <c r="ET6">
-        <v>0.8474977280593056</v>
+        <v>1</v>
       </c>
       <c r="EU6">
-        <v>0.8570178924844329</v>
+        <v>1</v>
       </c>
       <c r="EV6">
-        <v>0.8620272667326802</v>
+        <v>1</v>
       </c>
       <c r="EW6">
-        <v>0.8634043958241864</v>
+        <v>1</v>
       </c>
       <c r="EX6">
-        <v>0.8636891072129441</v>
+        <v>1</v>
       </c>
       <c r="EY6">
-        <v>0.8636891072129441</v>
+        <v>1</v>
       </c>
       <c r="EZ6">
-        <v>0.8636927758390663</v>
+        <v>1</v>
       </c>
       <c r="FA6">
-        <v>0.8642004902349232</v>
+        <v>1</v>
       </c>
       <c r="FB6">
-        <v>0.869247826868307</v>
+        <v>1</v>
       </c>
       <c r="FC6">
-        <v>0.8757661674369779</v>
+        <v>1</v>
       </c>
       <c r="FD6">
-        <v>0.8819678972361924</v>
+        <v>1</v>
       </c>
       <c r="FE6">
-        <v>0.8857937240241781</v>
+        <v>1</v>
       </c>
       <c r="FF6">
-        <v>0.8861556158432246</v>
+        <v>1</v>
       </c>
       <c r="FG6">
-        <v>0.8893839484751267</v>
+        <v>1</v>
       </c>
       <c r="FH6">
-        <v>0.8955359675279062</v>
+        <v>1</v>
       </c>
       <c r="FI6">
-        <v>0.8983268507196756</v>
+        <v>1</v>
       </c>
       <c r="FJ6">
-        <v>0.8998849666179518</v>
+        <v>1</v>
       </c>
       <c r="FK6">
-        <v>0.9020398435578989</v>
+        <v>1</v>
       </c>
       <c r="FL6">
-        <v>0.905277396863956</v>
+        <v>1</v>
       </c>
       <c r="FM6">
-        <v>0.906755784090752</v>
+        <v>1</v>
       </c>
       <c r="FN6">
-        <v>0.9075564464583629</v>
+        <v>1</v>
       </c>
       <c r="FO6">
-        <v>0.9077567616838854</v>
+        <v>1</v>
       </c>
       <c r="FP6">
-        <v>0.9127466867142749</v>
+        <v>1</v>
       </c>
       <c r="FQ6">
-        <v>0.9217723600090401</v>
+        <v>1</v>
       </c>
       <c r="FR6">
-        <v>0.9317209451180596</v>
+        <v>1</v>
       </c>
       <c r="FS6">
-        <v>0.9364722011905187</v>
+        <v>1</v>
       </c>
       <c r="FT6">
-        <v>0.9395296583652201</v>
+        <v>1</v>
       </c>
       <c r="FU6">
-        <v>0.9395838544426586</v>
+        <v>1</v>
       </c>
       <c r="FV6">
-        <v>0.9396233562388476</v>
+        <v>1</v>
       </c>
       <c r="FW6">
-        <v>0.9402025636637463</v>
+        <v>1</v>
       </c>
       <c r="FX6">
-        <v>0.9440283599011245</v>
+        <v>1</v>
       </c>
       <c r="FY6">
-        <v>0.9545123348897646</v>
+        <v>1</v>
       </c>
       <c r="FZ6">
-        <v>0.9608410158851258</v>
+        <v>1</v>
       </c>
       <c r="GA6">
-        <v>0.9629293709307741</v>
+        <v>1</v>
       </c>
       <c r="GB6">
-        <v>0.9634518998270247</v>
+        <v>1</v>
       </c>
       <c r="GC6">
-        <v>0.9639320234985227</v>
+        <v>1</v>
       </c>
       <c r="GD6">
-        <v>0.9657020026507662</v>
+        <v>1</v>
       </c>
       <c r="GE6">
-        <v>0.9712240505489329</v>
+        <v>1</v>
       </c>
       <c r="GF6">
-        <v>0.9791321505704518</v>
+        <v>1</v>
       </c>
       <c r="GG6">
-        <v>0.982947955657372</v>
+        <v>1</v>
       </c>
       <c r="GH6">
-        <v>0.9833741563848803</v>
+        <v>1</v>
       </c>
       <c r="GI6">
-        <v>0.9836057585075153</v>
+        <v>1</v>
       </c>
       <c r="GJ6">
-        <v>0.9845331168484934</v>
+        <v>1</v>
       </c>
       <c r="GK6">
-        <v>0.9883099326492033</v>
+        <v>1</v>
       </c>
       <c r="GL6">
-        <v>0.9944074153618953</v>
+        <v>1</v>
       </c>
       <c r="GM6">
-        <v>0.9968100540220404</v>
+        <v>1</v>
       </c>
       <c r="GN6">
-        <v>0.998038284361015</v>
+        <v>1</v>
       </c>
       <c r="GO6">
-        <v>0.9986844812547553</v>
+        <v>1</v>
       </c>
       <c r="GP6">
-        <v>0.998709903085316</v>
+        <v>1</v>
       </c>
       <c r="GQ6">
-        <v>0.9987684092063924</v>
+        <v>1</v>
       </c>
       <c r="GR6">
-        <v>0.9987740295044822</v>
+        <v>1</v>
       </c>
       <c r="GS6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GT6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GU6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GV6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GW6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GX6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GY6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="GZ6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HA6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HB6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HC6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HD6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HE6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HF6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HG6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HH6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HI6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HJ6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HK6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HL6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HM6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HN6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HO6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HP6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HQ6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HR6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HS6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HT6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HU6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HV6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HW6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HX6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HY6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="HZ6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IA6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IB6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IC6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="ID6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IE6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IF6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IG6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IH6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="II6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IJ6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IK6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IL6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IM6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IN6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IO6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IP6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IQ6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IR6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IS6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IT6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IU6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IV6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="IW6">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D2">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="E2">
-        <v>0.08139349569100787</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5205607482809913</v>
+        <v>0.8464090410765588</v>
       </c>
       <c r="G2">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="H2">
         <v>7</v>
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="E3">
-        <v>0.004274282857112253</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5070347589266777</v>
+        <v>0.5757584727216726</v>
       </c>
       <c r="G3">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="H3">
         <v>7</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D4">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="E4">
-        <v>0.05482141367574027</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5060814194878016</v>
+        <v>0.7209528226286653</v>
       </c>
       <c r="G4">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="H4">
         <v>7</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D5">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="E5">
-        <v>0.04434004095881064</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.510557087394014</v>
+        <v>0.535074233573847</v>
       </c>
       <c r="G5">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="H5">
         <v>7</v>
@@ -10734,16 +10734,16 @@
         <v>50</v>
       </c>
       <c r="D6">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="E6">
-        <v>0.01026814353229899</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5017975754693664</v>
+        <v>0.5179414046212454</v>
       </c>
       <c r="G6">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="H6">
         <v>7</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D2">
-        <v>117</v>
+        <v>68</v>
       </c>
       <c r="E2">
-        <v>0.08139349569100787</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7114601469618056</v>
+        <v>0.8464090410765588</v>
       </c>
       <c r="G2">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="H2">
         <v>7</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3">
-        <v>108</v>
+        <v>59</v>
       </c>
       <c r="E3">
-        <v>0.004274282857112253</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7055266532499228</v>
+        <v>0.8215545333471137</v>
       </c>
       <c r="G3">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="H3">
         <v>7</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D4">
-        <v>108</v>
+        <v>59</v>
       </c>
       <c r="E4">
-        <v>0.05482141367574027</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7132718339531812</v>
+        <v>0.7209528226286653</v>
       </c>
       <c r="G4">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="H4">
         <v>7</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D5">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E5">
-        <v>0.04434004095881064</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7140817589724272</v>
+        <v>0.76659485706841</v>
       </c>
       <c r="G5">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="H5">
         <v>7</v>
@@ -10993,16 +10993,16 @@
         <v>50</v>
       </c>
       <c r="D6">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="E6">
-        <v>0.01026814353229899</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7116765803757635</v>
+        <v>0.7135351294399886</v>
       </c>
       <c r="G6">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="H6">
         <v>7</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D2">
-        <v>131</v>
+        <v>68</v>
       </c>
       <c r="E2">
-        <v>0.08139349569100787</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8033182360821369</v>
+        <v>0.8464090410765588</v>
       </c>
       <c r="G2">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="H2">
         <v>7</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3">
-        <v>125</v>
+        <v>59</v>
       </c>
       <c r="E3">
-        <v>0.004274282857112253</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8027952558872916</v>
+        <v>0.8215545333471137</v>
       </c>
       <c r="G3">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="H3">
         <v>7</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D4">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="E4">
-        <v>0.05482141367574027</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8005293264948963</v>
+        <v>0.9032320895470926</v>
       </c>
       <c r="G4">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="H4">
         <v>7</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D5">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="E5">
-        <v>0.04434004095881064</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8014634309563514</v>
+        <v>0.9895517865938506</v>
       </c>
       <c r="G5">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="H5">
         <v>7</v>
@@ -11252,16 +11252,16 @@
         <v>50</v>
       </c>
       <c r="D6">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="E6">
-        <v>0.01026814353229899</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.804160545647906</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="H6">
         <v>7</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D2">
-        <v>168</v>
+        <v>108</v>
       </c>
       <c r="E2">
-        <v>0.08139349569100787</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9003989568434025</v>
+        <v>0.9126119700629065</v>
       </c>
       <c r="G2">
-        <v>107</v>
+        <v>49</v>
       </c>
       <c r="H2">
         <v>7</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
+        <v>49</v>
+      </c>
+      <c r="D3">
+        <v>99</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0.9529062160335664</v>
+      </c>
+      <c r="G3">
         <v>50</v>
-      </c>
-      <c r="D3">
-        <v>163</v>
-      </c>
-      <c r="E3">
-        <v>0.004274282857112253</v>
-      </c>
-      <c r="F3">
-        <v>0.9014425315340867</v>
-      </c>
-      <c r="G3">
-        <v>113</v>
       </c>
       <c r="H3">
         <v>7</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D4">
-        <v>164</v>
+        <v>99</v>
       </c>
       <c r="E4">
-        <v>0.05482141367574027</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9024929456648259</v>
+        <v>0.9032320895470926</v>
       </c>
       <c r="G4">
-        <v>113</v>
+        <v>50</v>
       </c>
       <c r="H4">
         <v>7</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D5">
-        <v>169</v>
+        <v>108</v>
       </c>
       <c r="E5">
-        <v>0.04434004095881064</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9011974323359349</v>
+        <v>0.9895517865938506</v>
       </c>
       <c r="G5">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="H5">
         <v>7</v>
@@ -11511,16 +11511,16 @@
         <v>50</v>
       </c>
       <c r="D6">
-        <v>166</v>
+        <v>99</v>
       </c>
       <c r="E6">
-        <v>0.01026814353229899</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9020398435578989</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>116</v>
+        <v>49</v>
       </c>
       <c r="H6">
         <v>7</v>

--- a/on_trucks/Processed_Stand_Alone/7_225-80R17.xlsx
+++ b/on_trucks/Processed_Stand_Alone/7_225-80R17.xlsx
@@ -749,85 +749,85 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.01300380348513583</v>
       </c>
       <c r="N2">
-        <v>0.06258217125510912</v>
+        <v>0.06470716043000752</v>
       </c>
       <c r="O2">
-        <v>0.246824555561703</v>
+        <v>0.1768920421031213</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.04421626304764036</v>
+        <v>0.05352418943867731</v>
       </c>
       <c r="R2">
-        <v>0.1247221509378475</v>
+        <v>0.1025440908090517</v>
       </c>
       <c r="S2">
-        <v>0.006005155270497802</v>
+        <v>0.0302575094035128</v>
       </c>
       <c r="T2">
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0.1482499511956448</v>
+        <v>0.1168701292929945</v>
       </c>
       <c r="V2">
-        <v>0.294708584159648</v>
+        <v>0.2060485475538608</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>0.05132469400200483</v>
+        <v>0.05785250123565147</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.004981314445478903</v>
+        <v>0.02963409442633952</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>0.001125721343911373</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>0.01243689992976523</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>0.01682819365710547</v>
       </c>
       <c r="AD2">
         <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.002731774779167406</v>
+        <v>0.02826435346128461</v>
       </c>
       <c r="AF2">
-        <v>0.01365338534525829</v>
+        <v>0.03491450398798339</v>
       </c>
       <c r="AG2">
         <v>0</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>0.008973415952351228</v>
       </c>
       <c r="AI2">
         <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0</v>
+        <v>0.007073109023518038</v>
       </c>
       <c r="AK2">
-        <v>0</v>
+        <v>0.01563887754088136</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>0.01395056229331972</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>0.004893159014755649</v>
       </c>
       <c r="AN2">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>0.004567135616771063</v>
       </c>
       <c r="AQ2">
         <v>0</v>
@@ -859,34 +859,34 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.3461149261124868</v>
+        <v>0.2741814000016149</v>
       </c>
       <c r="F3">
-        <v>0.0685460336588202</v>
+        <v>0.07443462849669671</v>
       </c>
       <c r="G3">
-        <v>0.1749011168097314</v>
+        <v>0.1509708869539654</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.1697235161262367</v>
+        <v>0.1472449326097034</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.02094875236179295</v>
       </c>
       <c r="L3">
-        <v>0.06750109754535774</v>
+        <v>0.07368266161291535</v>
       </c>
       <c r="M3">
-        <v>0.172453558732953</v>
+        <v>0.149209551886532</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.02392896891116136</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>0.009294198521904442</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -904,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>0.001420849088717846</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -913,10 +913,10 @@
         <v>0</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>0.0154934716650069</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>0.01122546621864679</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -928,16 +928,16 @@
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.0007597510144142041</v>
+        <v>0.02565361780472893</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>0.01003981970945778</v>
       </c>
       <c r="AD3">
         <v>0</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>0.006946288660628832</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>0.00532450549652647</v>
       </c>
       <c r="AI3">
         <v>0</v>
@@ -993,34 +993,34 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2494793990202426</v>
+        <v>0.1854996753135776</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.02137935804147948</v>
       </c>
       <c r="G4">
-        <v>0.2038145843004594</v>
+        <v>0.1562103698850893</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.02273371733624137</v>
       </c>
       <c r="I4">
-        <v>0.1149637109697421</v>
+        <v>0.09922162740270939</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.01492043414513093</v>
       </c>
       <c r="L4">
-        <v>0.01266857183972012</v>
+        <v>0.03360976426005838</v>
       </c>
       <c r="M4">
-        <v>0.2233066701328509</v>
+        <v>0.1687125481789583</v>
       </c>
       <c r="N4">
-        <v>0.03843852689235104</v>
+        <v>0.05013855319846904</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -1029,10 +1029,10 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>0.005237391215597353</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>0.006620375154773804</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -1041,16 +1041,16 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0.005711279751774442</v>
+        <v>0.02914737337619114</v>
       </c>
       <c r="V4">
         <v>0</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>0.01828068700667387</v>
       </c>
       <c r="X4">
-        <v>0.03717616134308345</v>
+        <v>0.04932887488570712</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.07970621717384357</v>
+        <v>0.07660755328967615</v>
       </c>
       <c r="AC4">
-        <v>0.03473487857593231</v>
+        <v>0.04776304182488846</v>
       </c>
       <c r="AD4">
         <v>0</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>0.01429122955439394</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1086,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0</v>
+        <v>0.0002974259303844077</v>
       </c>
       <c r="AK4">
         <v>0</v>
@@ -1151,34 +1151,34 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2009826295297808</v>
+        <v>0.1619070324096959</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.2666412823193717</v>
+        <v>0.206635617414818</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.07582591582774539</v>
+        <v>0.07664663686483485</v>
       </c>
       <c r="R5">
-        <v>0.004295646165097653</v>
+        <v>0.02791813557654366</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.01240428936138394</v>
       </c>
       <c r="T5">
-        <v>0.06642715055892952</v>
+        <v>0.07024392445133758</v>
       </c>
       <c r="U5">
-        <v>0.280051125386369</v>
+        <v>0.215770792750347</v>
       </c>
       <c r="V5">
-        <v>0.05610951966469596</v>
+        <v>0.06321525403400363</v>
       </c>
       <c r="W5">
         <v>0</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.02590249216283559</v>
+        <v>0.04263734784852644</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -1199,16 +1199,16 @@
         <v>0</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>0.01864208134227395</v>
       </c>
       <c r="AD5">
         <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.005747453347260349</v>
+        <v>0.0289071488779056</v>
       </c>
       <c r="AF5">
-        <v>0.01801678503791416</v>
+        <v>0.03726537467397994</v>
       </c>
       <c r="AG5">
         <v>0</v>
@@ -1223,13 +1223,13 @@
         <v>0</v>
       </c>
       <c r="AK5">
-        <v>0</v>
+        <v>0.02429090895649751</v>
       </c>
       <c r="AL5">
         <v>0</v>
       </c>
       <c r="AM5">
-        <v>0</v>
+        <v>0.0005361060469142327</v>
       </c>
       <c r="AN5">
         <v>0</v>
@@ -1238,7 +1238,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0</v>
+        <v>0.01297934939093773</v>
       </c>
       <c r="AQ5">
         <v>0</v>
@@ -1258,34 +1258,34 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.0187109963177049</v>
       </c>
       <c r="E6">
-        <v>0.137306690194392</v>
+        <v>0.1177015998425562</v>
       </c>
       <c r="F6">
-        <v>0.3759747259648413</v>
+        <v>0.276455136601797</v>
       </c>
       <c r="G6">
-        <v>0.01505465194928109</v>
+        <v>0.03638386751704333</v>
       </c>
       <c r="H6">
-        <v>0.03098694496635466</v>
+        <v>0.04698146537710059</v>
       </c>
       <c r="I6">
-        <v>0.08291260611971366</v>
+        <v>0.08152057879481077</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.01778441426110976</v>
       </c>
       <c r="L6">
-        <v>0.1656685189390578</v>
+        <v>0.1365668852907765</v>
       </c>
       <c r="M6">
-        <v>0.09727992706371809</v>
+        <v>0.09107721257801897</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.003513404858519884</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.007940276467537252</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -1306,16 +1306,16 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>0.02289006985968895</v>
       </c>
       <c r="U6">
         <v>0</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>0.003386220553015345</v>
       </c>
       <c r="W6">
-        <v>0.03527921902016622</v>
+        <v>0.04983653427890315</v>
       </c>
       <c r="X6">
         <v>0</v>
@@ -1327,28 +1327,28 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>0.005713916020895102</v>
       </c>
       <c r="AB6">
-        <v>0.05953671578247523</v>
+        <v>0.06597176324457092</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>0.002410984200145435</v>
       </c>
       <c r="AD6">
         <v>0</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>0.004728449972345301</v>
       </c>
       <c r="AF6">
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>0.00858061769899039</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>0.00184560626447008</v>
       </c>
       <c r="AI6">
         <v>0</v>
@@ -1566,100 +1566,100 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.01300380348513583</v>
       </c>
       <c r="N2">
-        <v>0.06258217125510912</v>
+        <v>0.07771096391514334</v>
       </c>
       <c r="O2">
-        <v>0.3094067268168121</v>
+        <v>0.2546030060182646</v>
       </c>
       <c r="P2">
-        <v>0.3094067268168121</v>
+        <v>0.2546030060182646</v>
       </c>
       <c r="Q2">
-        <v>0.3536229898644525</v>
+        <v>0.3081271954569419</v>
       </c>
       <c r="R2">
-        <v>0.4783451408023</v>
+        <v>0.4106712862659936</v>
       </c>
       <c r="S2">
-        <v>0.4843502960727977</v>
+        <v>0.4409287956695064</v>
       </c>
       <c r="T2">
-        <v>0.4843502960727977</v>
+        <v>0.4409287956695064</v>
       </c>
       <c r="U2">
-        <v>0.6326002472684426</v>
+        <v>0.5577989249625009</v>
       </c>
       <c r="V2">
-        <v>0.9273088314280906</v>
+        <v>0.7638474725163618</v>
       </c>
       <c r="W2">
-        <v>0.9273088314280906</v>
+        <v>0.7638474725163618</v>
       </c>
       <c r="X2">
-        <v>0.9786335254300954</v>
+        <v>0.8216999737520132</v>
       </c>
       <c r="Y2">
-        <v>0.9786335254300954</v>
+        <v>0.8216999737520132</v>
       </c>
       <c r="Z2">
-        <v>0.9836148398755743</v>
+        <v>0.8513340681783527</v>
       </c>
       <c r="AA2">
-        <v>0.9836148398755743</v>
+        <v>0.8524597895222641</v>
       </c>
       <c r="AB2">
-        <v>0.9836148398755743</v>
+        <v>0.8648966894520294</v>
       </c>
       <c r="AC2">
-        <v>0.9836148398755743</v>
+        <v>0.8817248831091348</v>
       </c>
       <c r="AD2">
-        <v>0.9836148398755743</v>
+        <v>0.8817248831091348</v>
       </c>
       <c r="AE2">
-        <v>0.9863466146547417</v>
+        <v>0.9099892365704194</v>
       </c>
       <c r="AF2">
-        <v>1</v>
+        <v>0.9449037405584028</v>
       </c>
       <c r="AG2">
-        <v>1</v>
+        <v>0.9449037405584028</v>
       </c>
       <c r="AH2">
-        <v>1</v>
+        <v>0.953877156510754</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>0.953877156510754</v>
       </c>
       <c r="AJ2">
-        <v>1</v>
+        <v>0.960950265534272</v>
       </c>
       <c r="AK2">
-        <v>1</v>
+        <v>0.9765891430751533</v>
       </c>
       <c r="AL2">
-        <v>1</v>
+        <v>0.990539705368473</v>
       </c>
       <c r="AM2">
-        <v>1</v>
+        <v>0.9954328643832286</v>
       </c>
       <c r="AN2">
-        <v>1</v>
+        <v>0.9954328643832286</v>
       </c>
       <c r="AO2">
-        <v>1</v>
+        <v>0.9954328643832286</v>
       </c>
       <c r="AP2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AQ2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AR2">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -1676,91 +1676,91 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.3461149261124868</v>
+        <v>0.2741814000016149</v>
       </c>
       <c r="F3">
-        <v>0.414660959771307</v>
+        <v>0.3486160284983116</v>
       </c>
       <c r="G3">
-        <v>0.5895620765810384</v>
+        <v>0.4995869154522771</v>
       </c>
       <c r="H3">
-        <v>0.5895620765810384</v>
+        <v>0.4995869154522771</v>
       </c>
       <c r="I3">
-        <v>0.7592855927072751</v>
+        <v>0.6468318480619805</v>
       </c>
       <c r="J3">
-        <v>0.7592855927072751</v>
+        <v>0.6468318480619805</v>
       </c>
       <c r="K3">
-        <v>0.7592855927072751</v>
+        <v>0.6677806004237734</v>
       </c>
       <c r="L3">
-        <v>0.8267866902526328</v>
+        <v>0.7414632620366888</v>
       </c>
       <c r="M3">
-        <v>0.9992402489855858</v>
+        <v>0.8906728139232208</v>
       </c>
       <c r="N3">
-        <v>0.9992402489855858</v>
+        <v>0.9146017828343822</v>
       </c>
       <c r="O3">
-        <v>0.9992402489855858</v>
+        <v>0.9146017828343822</v>
       </c>
       <c r="P3">
-        <v>0.9992402489855858</v>
+        <v>0.9146017828343822</v>
       </c>
       <c r="Q3">
-        <v>0.9992402489855858</v>
+        <v>0.9238959813562867</v>
       </c>
       <c r="R3">
-        <v>0.9992402489855858</v>
+        <v>0.9238959813562867</v>
       </c>
       <c r="S3">
-        <v>0.9992402489855858</v>
+        <v>0.9238959813562867</v>
       </c>
       <c r="T3">
-        <v>0.9992402489855858</v>
+        <v>0.9253168304450046</v>
       </c>
       <c r="U3">
-        <v>0.9992402489855858</v>
+        <v>0.9253168304450046</v>
       </c>
       <c r="V3">
-        <v>0.9992402489855858</v>
+        <v>0.9253168304450046</v>
       </c>
       <c r="W3">
-        <v>0.9992402489855858</v>
+        <v>0.9408103021100115</v>
       </c>
       <c r="X3">
-        <v>0.9992402489855858</v>
+        <v>0.9520357683286583</v>
       </c>
       <c r="Y3">
-        <v>0.9992402489855858</v>
+        <v>0.9520357683286583</v>
       </c>
       <c r="Z3">
-        <v>0.9992402489855858</v>
+        <v>0.9520357683286583</v>
       </c>
       <c r="AA3">
-        <v>0.9992402489855858</v>
+        <v>0.9520357683286583</v>
       </c>
       <c r="AB3">
-        <v>1</v>
+        <v>0.9776893861333873</v>
       </c>
       <c r="AC3">
-        <v>1</v>
+        <v>0.9877292058428451</v>
       </c>
       <c r="AD3">
-        <v>1</v>
+        <v>0.9877292058428451</v>
       </c>
       <c r="AE3">
-        <v>1</v>
+        <v>0.9946754945034739</v>
       </c>
       <c r="AF3">
-        <v>1</v>
+        <v>0.9946754945034739</v>
       </c>
       <c r="AG3">
-        <v>1</v>
+        <v>0.9946754945034739</v>
       </c>
       <c r="AH3">
         <v>1</v>
@@ -1810,124 +1810,124 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2494793990202426</v>
+        <v>0.1854996753135776</v>
       </c>
       <c r="F4">
-        <v>0.2494793990202426</v>
+        <v>0.2068790333550571</v>
       </c>
       <c r="G4">
-        <v>0.453293983320702</v>
+        <v>0.3630894032401464</v>
       </c>
       <c r="H4">
-        <v>0.453293983320702</v>
+        <v>0.3858231205763877</v>
       </c>
       <c r="I4">
-        <v>0.5682576942904441</v>
+        <v>0.4850447479790971</v>
       </c>
       <c r="J4">
-        <v>0.5682576942904441</v>
+        <v>0.4850447479790971</v>
       </c>
       <c r="K4">
-        <v>0.5682576942904441</v>
+        <v>0.4999651821242281</v>
       </c>
       <c r="L4">
-        <v>0.5809262661301643</v>
+        <v>0.5335749463842865</v>
       </c>
       <c r="M4">
-        <v>0.8042329362630152</v>
+        <v>0.7022874945632447</v>
       </c>
       <c r="N4">
-        <v>0.8426714631553662</v>
+        <v>0.7524260477617137</v>
       </c>
       <c r="O4">
-        <v>0.8426714631553662</v>
+        <v>0.7524260477617137</v>
       </c>
       <c r="P4">
-        <v>0.8426714631553662</v>
+        <v>0.7524260477617137</v>
       </c>
       <c r="Q4">
-        <v>0.8426714631553662</v>
+        <v>0.757663438977311</v>
       </c>
       <c r="R4">
-        <v>0.8426714631553662</v>
+        <v>0.7642838141320848</v>
       </c>
       <c r="S4">
-        <v>0.8426714631553662</v>
+        <v>0.7642838141320848</v>
       </c>
       <c r="T4">
-        <v>0.8426714631553662</v>
+        <v>0.7642838141320848</v>
       </c>
       <c r="U4">
-        <v>0.8483827429071407</v>
+        <v>0.7934311875082759</v>
       </c>
       <c r="V4">
-        <v>0.8483827429071407</v>
+        <v>0.7934311875082759</v>
       </c>
       <c r="W4">
-        <v>0.8483827429071407</v>
+        <v>0.8117118745149497</v>
       </c>
       <c r="X4">
-        <v>0.8855589042502241</v>
+        <v>0.8610407494006569</v>
       </c>
       <c r="Y4">
-        <v>0.8855589042502241</v>
+        <v>0.8610407494006569</v>
       </c>
       <c r="Z4">
-        <v>0.8855589042502241</v>
+        <v>0.8610407494006569</v>
       </c>
       <c r="AA4">
-        <v>0.8855589042502241</v>
+        <v>0.8610407494006569</v>
       </c>
       <c r="AB4">
-        <v>0.9652651214240677</v>
+        <v>0.9376483026903331</v>
       </c>
       <c r="AC4">
-        <v>1</v>
+        <v>0.9854113445152215</v>
       </c>
       <c r="AD4">
-        <v>1</v>
+        <v>0.9854113445152215</v>
       </c>
       <c r="AE4">
-        <v>1</v>
+        <v>0.9997025740696155</v>
       </c>
       <c r="AF4">
-        <v>1</v>
+        <v>0.9997025740696155</v>
       </c>
       <c r="AG4">
-        <v>1</v>
+        <v>0.9997025740696155</v>
       </c>
       <c r="AH4">
-        <v>1</v>
+        <v>0.9997025740696155</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>0.9997025740696155</v>
       </c>
       <c r="AJ4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AK4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AL4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AM4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AN4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AO4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AP4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AQ4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AR4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:44">
@@ -1968,91 +1968,91 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2009826295297808</v>
+        <v>0.1619070324096959</v>
       </c>
       <c r="N5">
-        <v>0.2009826295297808</v>
+        <v>0.1619070324096959</v>
       </c>
       <c r="O5">
-        <v>0.4676239118491525</v>
+        <v>0.3685426498245139</v>
       </c>
       <c r="P5">
-        <v>0.4676239118491525</v>
+        <v>0.3685426498245139</v>
       </c>
       <c r="Q5">
-        <v>0.543449827676898</v>
+        <v>0.4451892866893488</v>
       </c>
       <c r="R5">
-        <v>0.5477454738419957</v>
+        <v>0.4731074222658924</v>
       </c>
       <c r="S5">
-        <v>0.5477454738419957</v>
+        <v>0.4855117116272764</v>
       </c>
       <c r="T5">
-        <v>0.6141726244009252</v>
+        <v>0.5557556360786139</v>
       </c>
       <c r="U5">
-        <v>0.8942237497872942</v>
+        <v>0.7715264288289609</v>
       </c>
       <c r="V5">
-        <v>0.9503332694519901</v>
+        <v>0.8347416828629646</v>
       </c>
       <c r="W5">
-        <v>0.9503332694519901</v>
+        <v>0.8347416828629646</v>
       </c>
       <c r="X5">
-        <v>0.9503332694519901</v>
+        <v>0.8347416828629646</v>
       </c>
       <c r="Y5">
-        <v>0.9762357616148257</v>
+        <v>0.877379030711491</v>
       </c>
       <c r="Z5">
-        <v>0.9762357616148257</v>
+        <v>0.877379030711491</v>
       </c>
       <c r="AA5">
-        <v>0.9762357616148257</v>
+        <v>0.877379030711491</v>
       </c>
       <c r="AB5">
-        <v>0.9762357616148257</v>
+        <v>0.877379030711491</v>
       </c>
       <c r="AC5">
-        <v>0.9762357616148257</v>
+        <v>0.896021112053765</v>
       </c>
       <c r="AD5">
-        <v>0.9762357616148257</v>
+        <v>0.896021112053765</v>
       </c>
       <c r="AE5">
-        <v>0.9819832149620861</v>
+        <v>0.9249282609316706</v>
       </c>
       <c r="AF5">
-        <v>1</v>
+        <v>0.9621936356056505</v>
       </c>
       <c r="AG5">
-        <v>1</v>
+        <v>0.9621936356056505</v>
       </c>
       <c r="AH5">
-        <v>1</v>
+        <v>0.9621936356056505</v>
       </c>
       <c r="AI5">
-        <v>1</v>
+        <v>0.9621936356056505</v>
       </c>
       <c r="AJ5">
-        <v>1</v>
+        <v>0.9621936356056505</v>
       </c>
       <c r="AK5">
-        <v>1</v>
+        <v>0.9864845445621481</v>
       </c>
       <c r="AL5">
-        <v>1</v>
+        <v>0.9864845445621481</v>
       </c>
       <c r="AM5">
-        <v>1</v>
+        <v>0.9870206506090623</v>
       </c>
       <c r="AN5">
-        <v>1</v>
+        <v>0.9870206506090623</v>
       </c>
       <c r="AO5">
-        <v>1</v>
+        <v>0.9870206506090623</v>
       </c>
       <c r="AP5">
         <v>1</v>
@@ -2075,127 +2075,127 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.0187109963177049</v>
       </c>
       <c r="E6">
-        <v>0.137306690194392</v>
+        <v>0.1364125961602611</v>
       </c>
       <c r="F6">
-        <v>0.5132814161592334</v>
+        <v>0.4128677327620581</v>
       </c>
       <c r="G6">
-        <v>0.5283360681085145</v>
+        <v>0.4492516002791014</v>
       </c>
       <c r="H6">
-        <v>0.5593230130748692</v>
+        <v>0.496233065656202</v>
       </c>
       <c r="I6">
-        <v>0.6422356191945828</v>
+        <v>0.5777536444510127</v>
       </c>
       <c r="J6">
-        <v>0.6422356191945828</v>
+        <v>0.5777536444510127</v>
       </c>
       <c r="K6">
-        <v>0.6422356191945828</v>
+        <v>0.5955380587121225</v>
       </c>
       <c r="L6">
-        <v>0.8079041381336406</v>
+        <v>0.732104944002899</v>
       </c>
       <c r="M6">
-        <v>0.9051840651973587</v>
+        <v>0.823182156580918</v>
       </c>
       <c r="N6">
-        <v>0.9051840651973587</v>
+        <v>0.823182156580918</v>
       </c>
       <c r="O6">
-        <v>0.9051840651973587</v>
+        <v>0.823182156580918</v>
       </c>
       <c r="P6">
-        <v>0.9051840651973587</v>
+        <v>0.8266955614394379</v>
       </c>
       <c r="Q6">
-        <v>0.9051840651973587</v>
+        <v>0.8346358379069752</v>
       </c>
       <c r="R6">
-        <v>0.9051840651973587</v>
+        <v>0.8346358379069752</v>
       </c>
       <c r="S6">
-        <v>0.9051840651973587</v>
+        <v>0.8346358379069752</v>
       </c>
       <c r="T6">
-        <v>0.9051840651973587</v>
+        <v>0.8575259077666642</v>
       </c>
       <c r="U6">
-        <v>0.9051840651973587</v>
+        <v>0.8575259077666642</v>
       </c>
       <c r="V6">
-        <v>0.9051840651973587</v>
+        <v>0.8609121283196794</v>
       </c>
       <c r="W6">
-        <v>0.9404632842175249</v>
+        <v>0.9107486625985826</v>
       </c>
       <c r="X6">
-        <v>0.9404632842175249</v>
+        <v>0.9107486625985826</v>
       </c>
       <c r="Y6">
-        <v>0.9404632842175249</v>
+        <v>0.9107486625985826</v>
       </c>
       <c r="Z6">
-        <v>0.9404632842175249</v>
+        <v>0.9107486625985826</v>
       </c>
       <c r="AA6">
-        <v>0.9404632842175249</v>
+        <v>0.9164625786194777</v>
       </c>
       <c r="AB6">
-        <v>1</v>
+        <v>0.9824343418640485</v>
       </c>
       <c r="AC6">
-        <v>1</v>
+        <v>0.9848453260641939</v>
       </c>
       <c r="AD6">
-        <v>1</v>
+        <v>0.9848453260641939</v>
       </c>
       <c r="AE6">
-        <v>1</v>
+        <v>0.9895737760365393</v>
       </c>
       <c r="AF6">
-        <v>1</v>
+        <v>0.9895737760365393</v>
       </c>
       <c r="AG6">
-        <v>1</v>
+        <v>0.9981543937355297</v>
       </c>
       <c r="AH6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AJ6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AK6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AL6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AM6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AN6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AO6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AP6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AQ6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AR6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -2269,7 +2269,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.6326002472684426</v>
+        <v>0.5577989249625009</v>
       </c>
       <c r="G2">
         <v>9</v>
@@ -2304,16 +2304,16 @@
         <v>2</v>
       </c>
       <c r="D3">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0.6468318480619805</v>
+      </c>
+      <c r="G3">
         <v>6</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.5895620765810384</v>
-      </c>
-      <c r="G3">
-        <v>4</v>
       </c>
       <c r="H3">
         <v>7</v>
@@ -2345,16 +2345,16 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5682576942904441</v>
+        <v>0.5335749463842865</v>
       </c>
       <c r="G4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H4">
         <v>7</v>
@@ -2386,16 +2386,16 @@
         <v>10</v>
       </c>
       <c r="D5">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.543449827676898</v>
+        <v>0.5557556360786139</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H5">
         <v>7</v>
@@ -2427,16 +2427,16 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5132814161592334</v>
+        <v>0.5777536444510127</v>
       </c>
       <c r="G6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H6">
         <v>7</v>
@@ -2528,7 +2528,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9273088314280906</v>
+        <v>0.7638474725163618</v>
       </c>
       <c r="G2">
         <v>10</v>
@@ -2563,16 +2563,16 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7592855927072751</v>
+        <v>0.7414632620366888</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H3">
         <v>7</v>
@@ -2610,7 +2610,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8042329362630152</v>
+        <v>0.7022874945632447</v>
       </c>
       <c r="G4">
         <v>10</v>
@@ -2651,7 +2651,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8942237497872942</v>
+        <v>0.7715264288289609</v>
       </c>
       <c r="G5">
         <v>10</v>
@@ -2692,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8079041381336406</v>
+        <v>0.732104944002899</v>
       </c>
       <c r="G6">
         <v>9</v>
@@ -2781,16 +2781,16 @@
         <v>11</v>
       </c>
       <c r="D2">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9273088314280906</v>
+        <v>0.8216999737520132</v>
       </c>
       <c r="G2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H2">
         <v>7</v>
@@ -2822,16 +2822,16 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8267866902526328</v>
+        <v>0.8906728139232208</v>
       </c>
       <c r="G3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H3">
         <v>7</v>
@@ -2863,16 +2863,16 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8042329362630152</v>
+        <v>0.8117118745149497</v>
       </c>
       <c r="G4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H4">
         <v>7</v>
@@ -2904,16 +2904,16 @@
         <v>10</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8942237497872942</v>
+        <v>0.8347416828629646</v>
       </c>
       <c r="G5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H5">
         <v>7</v>
@@ -2945,16 +2945,16 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8079041381336406</v>
+        <v>0.823182156580918</v>
       </c>
       <c r="G6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H6">
         <v>7</v>
@@ -3040,16 +3040,16 @@
         <v>11</v>
       </c>
       <c r="D2">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9273088314280906</v>
+        <v>0.9099892365704194</v>
       </c>
       <c r="G2">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="H2">
         <v>7</v>
@@ -3081,16 +3081,16 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9992402489855858</v>
+        <v>0.9146017828343822</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H3">
         <v>7</v>
@@ -3128,7 +3128,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9652651214240677</v>
+        <v>0.9376483026903331</v>
       </c>
       <c r="G4">
         <v>25</v>
@@ -3163,16 +3163,16 @@
         <v>10</v>
       </c>
       <c r="D5">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9503332694519901</v>
+        <v>0.9249282609316706</v>
       </c>
       <c r="G5">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H5">
         <v>7</v>
@@ -3204,16 +3204,16 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9051840651973587</v>
+        <v>0.9107486625985826</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H6">
         <v>7</v>
